--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayra\OneDrive\Masaüstü\Computer Science Courses\CS383 General Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D882C50A-A854-46FC-B030-85083B1171DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{D882C50A-A854-46FC-B030-85083B1171DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA05435-58E4-4E5E-956B-0E531A57CF06}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -105,6 +105,39 @@
   </si>
   <si>
     <t>Deliverables should be on GitHub by midnight on Due Date and marked with a check (✓) mark under.</t>
+  </si>
+  <si>
+    <t>Begin the level design process</t>
+  </si>
+  <si>
+    <t>Create and set up backgrounds</t>
+  </si>
+  <si>
+    <t>Arrange tiles to form the map</t>
+  </si>
+  <si>
+    <t>Add physics component</t>
+  </si>
+  <si>
+    <t>Add interactive elements</t>
+  </si>
+  <si>
+    <t>Add objectives</t>
+  </si>
+  <si>
+    <t>Create cutscenes</t>
+  </si>
+  <si>
+    <t>Implement checkpoints</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Debugging and testing</t>
+  </si>
+  <si>
+    <t>Installation and finalize</t>
   </si>
 </sst>
 </file>
@@ -243,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -267,8 +300,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -279,12 +318,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,10 +338,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,9 +657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -979,71 +1015,226 @@
       <c r="B32" s="2"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="21">
+        <v>7</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="21">
+        <v>7</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="21">
+        <v>8</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="21">
+        <v>4</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="21">
+        <v>6</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="21">
+        <v>6</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="21">
         <v>5</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="21">
+        <v>6</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="21">
+        <v>4</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="21">
+        <v>6</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP42" s="22"/>
+      <c r="AQ42" s="22"/>
+      <c r="AR42" s="22"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="22"/>
+      <c r="AU42" s="22"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="21">
+        <v>4</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV43" s="22"/>
+      <c r="AW43" s="22"/>
+      <c r="AX43" s="22"/>
+    </row>
+    <row r="44" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="D47" s="10"/>
+      <c r="B51" s="2"/>
+      <c r="D51" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1057,296 +1248,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB45AB-5FDF-4145-A8A6-9382A724B0A8}">
   <dimension ref="A2:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
@@ -1363,12 +1554,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -1381,12 +1572,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{D882C50A-A854-46FC-B030-85083B1171DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA05435-58E4-4E5E-956B-0E531A57CF06}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCEC455-6436-4D31-942A-A6152C68A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -138,15 +138,90 @@
   </si>
   <si>
     <t>Installation and finalize</t>
+  </si>
+  <si>
+    <t>Research References and Plan</t>
+  </si>
+  <si>
+    <t>Setup Player Controller Script</t>
+  </si>
+  <si>
+    <t>Inputs and Movement Logic</t>
+  </si>
+  <si>
+    <t>Integrate Physics &amp; Collision</t>
+  </si>
+  <si>
+    <t>Playtest + Adjustments</t>
+  </si>
+  <si>
+    <t>Combat Logic</t>
+  </si>
+  <si>
+    <t>Player Hitbox</t>
+  </si>
+  <si>
+    <t>Work with Weapon Specialist</t>
+  </si>
+  <si>
+    <t>Finalize Combat</t>
+  </si>
+  <si>
+    <t>Define Player Stats + Inventory</t>
+  </si>
+  <si>
+    <t>Work with UI/HUD Specialist</t>
+  </si>
+  <si>
+    <t>Implement Player Sprite Animation</t>
+  </si>
+  <si>
+    <t>Help Program Bosses + Collaborate</t>
+  </si>
+  <si>
+    <t>Final Playtest for Player Object</t>
+  </si>
+  <si>
+    <t>Setup Base Object Hiearchy and Components</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>2,4,10</t>
+  </si>
+  <si>
+    <t>temp(prereq)</t>
+  </si>
+  <si>
+    <t>3,7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -276,38 +351,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -318,11 +370,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,584 +744,899 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
-  <dimension ref="A1:BL51"/>
+  <dimension ref="A1:BL84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="42" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.41015625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.64453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.76171875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.76171875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.9375" style="18"/>
+    <col min="6" max="6" width="8.87890625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.64453125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.9375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:64" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="1">
+      <c r="B2" s="24"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="15">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="15">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="15">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="15">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="15">
         <v>6</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="15">
         <v>7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="15">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="15">
         <v>9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="15">
         <v>10</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="15">
         <v>11</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="15">
         <v>12</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="15">
         <v>13</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="15">
         <v>14</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="15">
         <v>15</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="15">
         <v>16</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="15">
         <v>17</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="15">
         <v>18</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="15">
         <v>19</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="15">
         <v>20</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="15">
         <v>21</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="15">
         <v>22</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="15">
         <v>23</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="15">
         <v>24</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="15">
         <v>25</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="15">
         <v>26</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="15">
         <v>27</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="15">
         <v>28</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="15">
         <v>29</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="15">
         <v>30</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="15">
         <v>31</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="15">
         <v>32</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="15">
         <v>33</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="15">
         <v>34</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="15">
         <v>35</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="15">
         <v>36</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="15">
         <v>37</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="15">
         <v>38</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="15">
         <v>39</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="15">
         <v>40</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="15">
         <v>41</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="15">
         <v>42</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="15">
         <v>43</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="15">
         <v>44</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="15">
         <v>45</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="15">
         <v>46</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="15">
         <v>47</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="AZ2" s="15">
         <v>48</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BA2" s="15">
         <v>49</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BB2" s="15">
         <v>50</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BC2" s="15">
         <v>51</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BD2" s="15">
         <v>52</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BE2" s="15">
         <v>53</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BF2" s="15">
         <v>54</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BG2" s="15">
         <v>55</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BH2" s="15">
         <v>56</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2" s="15">
         <v>57</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BJ2" s="15">
         <v>58</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BK2" s="15">
         <v>59</v>
       </c>
-      <c r="BL2" s="1">
+      <c r="BL2" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.65">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:64" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="21">
         <v>2</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="21">
         <v>3</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="21">
         <v>4</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="C19" s="21">
+        <v>2</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="21">
+        <v>6</v>
+      </c>
+      <c r="C20" s="21">
+        <v>3</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
+        <v>5</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="W22" s="23"/>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="21">
+        <v>5</v>
+      </c>
+      <c r="C23" s="21">
+        <v>5</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="21">
+        <v>3</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="21">
+        <v>6</v>
+      </c>
+      <c r="C25" s="21">
+        <v>8</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="21">
+        <v>2</v>
+      </c>
+      <c r="C26" s="21">
+        <v>9</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="21">
+        <v>3</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="21">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21">
+        <v>11</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="21">
+        <v>7</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="23"/>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="21">
+        <v>2</v>
+      </c>
+      <c r="C30" s="21">
+        <v>14</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="AT30" s="23"/>
+      <c r="AU30" s="23"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.65">
+      <c r="A31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="21">
+        <v>7</v>
+      </c>
+      <c r="C31" s="21">
+        <v>11</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+    </row>
+    <row r="32" spans="1:47" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A32" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A45" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+    </row>
+    <row r="58" spans="1:28" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A58" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A59" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B59" s="21">
         <v>7</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A60" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B60" s="21">
         <v>7</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D60" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A61" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B61" s="21">
         <v>8</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D61" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A62" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B62" s="21">
         <v>4</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D62" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A63" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B63" s="21">
         <v>6</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D63" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="23"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.65">
+      <c r="A64" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B64" s="21">
         <v>6</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="23"/>
+    </row>
+    <row r="65" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A65" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B65" s="21">
         <v>5</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="22"/>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="23"/>
+      <c r="AE65" s="23"/>
+      <c r="AF65" s="23"/>
+      <c r="AG65" s="23"/>
+    </row>
+    <row r="66" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A66" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B66" s="21">
         <v>6</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D66" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="22"/>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="AH66" s="23"/>
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="23"/>
+      <c r="AM66" s="23"/>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A67" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B67" s="21">
         <v>4</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D67" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AL41" s="22"/>
-      <c r="AM41" s="22"/>
-      <c r="AN41" s="22"/>
-      <c r="AO41" s="22"/>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="AL67" s="23"/>
+      <c r="AM67" s="23"/>
+      <c r="AN67" s="23"/>
+      <c r="AO67" s="23"/>
+    </row>
+    <row r="68" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A68" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B68" s="21">
         <v>6</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D68" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AP42" s="22"/>
-      <c r="AQ42" s="22"/>
-      <c r="AR42" s="22"/>
-      <c r="AS42" s="22"/>
-      <c r="AT42" s="22"/>
-      <c r="AU42" s="22"/>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="AP68" s="23"/>
+      <c r="AQ68" s="23"/>
+      <c r="AR68" s="23"/>
+      <c r="AS68" s="23"/>
+      <c r="AT68" s="23"/>
+      <c r="AU68" s="23"/>
+    </row>
+    <row r="69" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A69" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B69" s="21">
         <v>4</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D69" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AV43" s="22"/>
-      <c r="AW43" s="22"/>
-      <c r="AX43" s="22"/>
-    </row>
-    <row r="44" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="AV69" s="23"/>
+      <c r="AW69" s="23"/>
+      <c r="AX69" s="23"/>
+    </row>
+    <row r="70" spans="1:50" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A70" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="B70" s="20"/>
+      <c r="D70" s="16"/>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+    </row>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+    </row>
+    <row r="75" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+    </row>
+    <row r="76" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+    </row>
+    <row r="77" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.65">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+    </row>
+    <row r="84" spans="1:4" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A84" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="D51" s="10"/>
+      <c r="B84" s="20"/>
+      <c r="D84" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1252,314 +1654,314 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -1572,12 +1974,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1589,7 +1991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1601,7 +2003,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clcla\Documents\bc\BcGitReop\CS383BrainstewGame\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCEC455-6436-4D31-942A-A6152C68A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28C2B37-AB96-47FC-AC90-A450AC593643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -198,6 +198,84 @@
   </si>
   <si>
     <t>3,7</t>
+  </si>
+  <si>
+    <t>1. Coordinate other tl's needs</t>
+  </si>
+  <si>
+    <t>2. Create sound need checklist</t>
+  </si>
+  <si>
+    <t>3. Plan Enemy Design</t>
+  </si>
+  <si>
+    <t>4. Coordinate Level Themes</t>
+  </si>
+  <si>
+    <t>5. Coordinate Player Sounds</t>
+  </si>
+  <si>
+    <t>6. Coordinate Enemy Sounds</t>
+  </si>
+  <si>
+    <t>7. Source Sound effects</t>
+  </si>
+  <si>
+    <t>8. Source music</t>
+  </si>
+  <si>
+    <t>9. Design Enemy Movement</t>
+  </si>
+  <si>
+    <t>10. Help Progarm Enemys</t>
+  </si>
+  <si>
+    <t>11. Apply Sound To Enemies</t>
+  </si>
+  <si>
+    <t>12. Apply Themes to Levels</t>
+  </si>
+  <si>
+    <t>13. Apply Sounds to Player</t>
+  </si>
+  <si>
+    <t>14. Align music with scenes</t>
+  </si>
+  <si>
+    <t>15. Mixing Audio Levels</t>
+  </si>
+  <si>
+    <t>16. Validate Audio Triggers</t>
+  </si>
+  <si>
+    <t>17. Debugging/Testing</t>
+  </si>
+  <si>
+    <t>18. Installation/Finalizing</t>
+  </si>
+  <si>
+    <t>19. Stress Test</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>10,7</t>
+  </si>
+  <si>
+    <t>11,12,13</t>
+  </si>
+  <si>
+    <t>16, 15</t>
   </si>
 </sst>
 </file>
@@ -228,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,24 +442,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -399,9 +465,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,7 +472,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,905 +828,1134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
-  <dimension ref="A1:BL84"/>
+  <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="42" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.41015625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.64453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="17.76171875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.76171875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="8.9375" style="18"/>
-    <col min="6" max="6" width="8.87890625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.64453125" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.9375" style="18"/>
+    <col min="1" max="1" width="37.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="12"/>
+    <col min="6" max="6" width="8.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15">
+      <c r="B2" s="22"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="9">
         <v>2</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="9">
         <v>3</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="9">
         <v>4</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="9">
         <v>5</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="9">
         <v>6</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="9">
         <v>7</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="9">
         <v>8</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="9">
         <v>9</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="9">
         <v>10</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="9">
         <v>11</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="9">
         <v>12</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="9">
         <v>13</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="9">
         <v>14</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="9">
         <v>15</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="9">
         <v>16</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="9">
         <v>17</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="9">
         <v>18</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="9">
         <v>19</v>
       </c>
-      <c r="X2" s="15">
+      <c r="X2" s="9">
         <v>20</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y2" s="9">
         <v>21</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="Z2" s="9">
         <v>22</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA2" s="9">
         <v>23</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="9">
         <v>24</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AC2" s="9">
         <v>25</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AD2" s="9">
         <v>26</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AE2" s="9">
         <v>27</v>
       </c>
-      <c r="AF2" s="15">
+      <c r="AF2" s="9">
         <v>28</v>
       </c>
-      <c r="AG2" s="15">
+      <c r="AG2" s="9">
         <v>29</v>
       </c>
-      <c r="AH2" s="15">
+      <c r="AH2" s="9">
         <v>30</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AI2" s="9">
         <v>31</v>
       </c>
-      <c r="AJ2" s="15">
+      <c r="AJ2" s="9">
         <v>32</v>
       </c>
-      <c r="AK2" s="15">
+      <c r="AK2" s="9">
         <v>33</v>
       </c>
-      <c r="AL2" s="15">
+      <c r="AL2" s="9">
         <v>34</v>
       </c>
-      <c r="AM2" s="15">
+      <c r="AM2" s="9">
         <v>35</v>
       </c>
-      <c r="AN2" s="15">
+      <c r="AN2" s="9">
         <v>36</v>
       </c>
-      <c r="AO2" s="15">
+      <c r="AO2" s="9">
         <v>37</v>
       </c>
-      <c r="AP2" s="15">
+      <c r="AP2" s="9">
         <v>38</v>
       </c>
-      <c r="AQ2" s="15">
+      <c r="AQ2" s="9">
         <v>39</v>
       </c>
-      <c r="AR2" s="15">
+      <c r="AR2" s="9">
         <v>40</v>
       </c>
-      <c r="AS2" s="15">
+      <c r="AS2" s="9">
         <v>41</v>
       </c>
-      <c r="AT2" s="15">
+      <c r="AT2" s="9">
         <v>42</v>
       </c>
-      <c r="AU2" s="15">
+      <c r="AU2" s="9">
         <v>43</v>
       </c>
-      <c r="AV2" s="15">
+      <c r="AV2" s="9">
         <v>44</v>
       </c>
-      <c r="AW2" s="15">
+      <c r="AW2" s="9">
         <v>45</v>
       </c>
-      <c r="AX2" s="15">
+      <c r="AX2" s="9">
         <v>46</v>
       </c>
-      <c r="AY2" s="15">
+      <c r="AY2" s="9">
         <v>47</v>
       </c>
-      <c r="AZ2" s="15">
+      <c r="AZ2" s="9">
         <v>48</v>
       </c>
-      <c r="BA2" s="15">
+      <c r="BA2" s="9">
         <v>49</v>
       </c>
-      <c r="BB2" s="15">
+      <c r="BB2" s="9">
         <v>50</v>
       </c>
-      <c r="BC2" s="15">
+      <c r="BC2" s="9">
         <v>51</v>
       </c>
-      <c r="BD2" s="15">
+      <c r="BD2" s="9">
         <v>52</v>
       </c>
-      <c r="BE2" s="15">
+      <c r="BE2" s="9">
         <v>53</v>
       </c>
-      <c r="BF2" s="15">
+      <c r="BF2" s="9">
         <v>54</v>
       </c>
-      <c r="BG2" s="15">
+      <c r="BG2" s="9">
         <v>55</v>
       </c>
-      <c r="BH2" s="15">
+      <c r="BH2" s="9">
         <v>56</v>
       </c>
-      <c r="BI2" s="15">
+      <c r="BI2" s="9">
         <v>57</v>
       </c>
-      <c r="BJ2" s="15">
+      <c r="BJ2" s="9">
         <v>58</v>
       </c>
-      <c r="BK2" s="15">
+      <c r="BK2" s="9">
         <v>59</v>
       </c>
-      <c r="BL2" s="15">
+      <c r="BL2" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.65">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-    </row>
-    <row r="16" spans="1:64" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A16" s="25" t="s">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="15" t="s">
+      <c r="D4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="15">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="15">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="15">
+        <v>4</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="15">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15">
+        <v>9</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="15">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15">
+        <v>8</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15">
+        <v>12</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="15">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15">
+        <v>12</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="15">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="15">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15">
+        <v>17</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>18</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+    </row>
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A17" s="17" t="s">
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B23" s="15">
         <v>2</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A18" s="17" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B24" s="15">
         <v>3</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C24" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A19" s="17" t="s">
+      <c r="D24" s="21"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B25" s="15">
         <v>4</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C25" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A20" s="17" t="s">
+      <c r="D25" s="21"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B26" s="15">
         <v>6</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A21" s="17" t="s">
+      <c r="D26" s="21"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B27" s="15">
         <v>3</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-    </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A22" s="17" t="s">
+      <c r="D27" s="21"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B28" s="15">
         <v>1</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C28" s="15">
         <v>5</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="W22" s="23"/>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A23" s="17" t="s">
+      <c r="D28" s="21"/>
+      <c r="W28" s="17"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B29" s="15">
         <v>5</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C29" s="15">
         <v>5</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A24" s="17" t="s">
+      <c r="D29" s="21"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B30" s="15">
         <v>3</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A25" s="17" t="s">
+      <c r="D30" s="21"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B31" s="15">
         <v>6</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C31" s="15">
         <v>8</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A26" s="17" t="s">
+      <c r="D31" s="21"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B32" s="15">
         <v>2</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C32" s="15">
         <v>9</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="AK26" s="23"/>
-      <c r="AL26" s="23"/>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A27" s="17" t="s">
+      <c r="D32" s="21"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B33" s="15">
         <v>3</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="23"/>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A28" s="17" t="s">
+      <c r="D33" s="21"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B34" s="15">
         <v>4</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C34" s="15">
         <v>11</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="23"/>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A29" s="17" t="s">
+      <c r="D34" s="21"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B35" s="15">
         <v>7</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="23"/>
-      <c r="AQ29" s="23"/>
-      <c r="AR29" s="23"/>
-      <c r="AS29" s="23"/>
-    </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A30" s="17" t="s">
+      <c r="D35" s="21"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B36" s="15">
         <v>2</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C36" s="15">
         <v>14</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="AT30" s="23"/>
-      <c r="AU30" s="23"/>
-    </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.65">
-      <c r="A31" s="17" t="s">
+      <c r="D36" s="21"/>
+      <c r="AT36" s="17"/>
+      <c r="AU36" s="17"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B37" s="15">
         <v>7</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C37" s="15">
         <v>11</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="23"/>
-      <c r="AJ31" s="23"/>
-      <c r="AK31" s="23"/>
-    </row>
-    <row r="32" spans="1:47" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A32" s="25" t="s">
+      <c r="D37" s="21"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+    </row>
+    <row r="38" spans="1:47" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A38" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A45" s="25" t="s">
+      <c r="B38" s="14"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A51" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-    </row>
-    <row r="58" spans="1:28" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A58" s="25" t="s">
+      <c r="B51" s="14"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A64" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A59" s="17" t="s">
+      <c r="B64" s="14"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B65" s="15">
         <v>7</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D65" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A60" s="17" t="s">
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B66" s="15">
         <v>7</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D66" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A61" s="17" t="s">
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B67" s="15">
         <v>8</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A62" s="17" t="s">
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+    </row>
+    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B68" s="15">
         <v>4</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D68" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A63" s="17" t="s">
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+    </row>
+    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B69" s="15">
         <v>6</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D69" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23"/>
-      <c r="Z63" s="23"/>
-      <c r="AA63" s="23"/>
-      <c r="AB63" s="23"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.65">
-      <c r="A64" s="17" t="s">
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+      <c r="AB69" s="17"/>
+    </row>
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B70" s="15">
         <v>6</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D70" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="23"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="23"/>
-    </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A65" s="17" t="s">
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="17"/>
+      <c r="AB70" s="17"/>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B71" s="15">
         <v>5</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D71" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AC65" s="23"/>
-      <c r="AD65" s="23"/>
-      <c r="AE65" s="23"/>
-      <c r="AF65" s="23"/>
-      <c r="AG65" s="23"/>
-    </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A66" s="17" t="s">
+      <c r="AC71" s="17"/>
+      <c r="AD71" s="17"/>
+      <c r="AE71" s="17"/>
+      <c r="AF71" s="17"/>
+      <c r="AG71" s="17"/>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B72" s="15">
         <v>6</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D72" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AH66" s="23"/>
-      <c r="AI66" s="23"/>
-      <c r="AJ66" s="23"/>
-      <c r="AK66" s="23"/>
-      <c r="AL66" s="23"/>
-      <c r="AM66" s="23"/>
-    </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A67" s="17" t="s">
+      <c r="AH72" s="17"/>
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="17"/>
+      <c r="AM72" s="17"/>
+    </row>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B73" s="15">
         <v>4</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D73" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AL67" s="23"/>
-      <c r="AM67" s="23"/>
-      <c r="AN67" s="23"/>
-      <c r="AO67" s="23"/>
-    </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A68" s="17" t="s">
+      <c r="AL73" s="17"/>
+      <c r="AM73" s="17"/>
+      <c r="AN73" s="17"/>
+      <c r="AO73" s="17"/>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B74" s="15">
         <v>6</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D74" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AP68" s="23"/>
-      <c r="AQ68" s="23"/>
-      <c r="AR68" s="23"/>
-      <c r="AS68" s="23"/>
-      <c r="AT68" s="23"/>
-      <c r="AU68" s="23"/>
-    </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A69" s="17" t="s">
+      <c r="AP74" s="17"/>
+      <c r="AQ74" s="17"/>
+      <c r="AR74" s="17"/>
+      <c r="AS74" s="17"/>
+      <c r="AT74" s="17"/>
+      <c r="AU74" s="17"/>
+    </row>
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B75" s="15">
         <v>4</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D75" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AV69" s="23"/>
-      <c r="AW69" s="23"/>
-      <c r="AX69" s="23"/>
-    </row>
-    <row r="70" spans="1:50" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A70" s="25" t="s">
+      <c r="AV75" s="17"/>
+      <c r="AW75" s="17"/>
+      <c r="AX75" s="17"/>
+    </row>
+    <row r="76" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A76" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="D70" s="16"/>
-    </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-    </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-    </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-    </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-    </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-    </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-    </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-    </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-    </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-    </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.65">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-    </row>
-    <row r="84" spans="1:4" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A84" s="25" t="s">
+      <c r="B76" s="14"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A90" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="D84" s="16"/>
+      <c r="B90" s="14"/>
+      <c r="D90" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1654,294 +1967,294 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B3" s="4" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1956,12 +2269,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -1974,12 +2287,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1991,7 +2304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2003,7 +2316,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clcla\Documents\bc\BcGitReop\CS383BrainstewGame\383Game\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amad6847\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28C2B37-AB96-47FC-AC90-A450AC593643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{729542BF-27FC-4BD6-B339-4A0A048180C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -276,13 +276,52 @@
   </si>
   <si>
     <t>16, 15</t>
+  </si>
+  <si>
+    <t>1. Conceptualize HUD graphic ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.  Main Menu UI Development </t>
+  </si>
+  <si>
+    <t>3. Pause Menu UI Development</t>
+  </si>
+  <si>
+    <t>4. Game Over Screen UI Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.  HUD Design and Implementation </t>
+  </si>
+  <si>
+    <t>6. UI Animations, Effects and Transitions</t>
+  </si>
+  <si>
+    <t>7. User Input and Navigation Integration</t>
+  </si>
+  <si>
+    <t>8. UI Sound Effect Integration</t>
+  </si>
+  <si>
+    <t>9. UI Testing, Bug fixing and optimization</t>
+  </si>
+  <si>
+    <t>10. Final Integration and Polishing</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>7,8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +343,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -362,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -431,11 +476,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -472,17 +601,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -493,7 +617,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,25 +976,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
-  <dimension ref="A1:BL90"/>
+  <dimension ref="A1:BL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="48" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="12"/>
-    <col min="6" max="6" width="8.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="37.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="12"/>
+    <col min="6" max="6" width="8.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -869,11 +1016,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -1056,7 +1203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -1069,10 +1216,10 @@
       <c r="D3" s="20"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>54</v>
       </c>
@@ -1086,7 +1233,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>55</v>
       </c>
@@ -1102,7 +1249,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>56</v>
       </c>
@@ -1115,7 +1262,7 @@
       <c r="D6" s="21"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
@@ -1129,7 +1276,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
@@ -1143,7 +1290,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
@@ -1157,7 +1304,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
@@ -1171,7 +1318,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>61</v>
       </c>
@@ -1187,7 +1334,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>62</v>
       </c>
@@ -1205,7 +1352,7 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>63</v>
       </c>
@@ -1220,7 +1367,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>64</v>
       </c>
@@ -1234,7 +1381,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
@@ -1248,7 +1395,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
@@ -1262,7 +1409,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>67</v>
       </c>
@@ -1277,7 +1424,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>68</v>
       </c>
@@ -1294,7 +1441,7 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>69</v>
       </c>
@@ -1310,7 +1457,7 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>70</v>
       </c>
@@ -1325,7 +1472,7 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>71</v>
       </c>
@@ -1339,7 +1486,7 @@
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1496,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1360,7 +1507,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>47</v>
       </c>
@@ -1375,7 +1522,7 @@
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>34</v>
       </c>
@@ -1391,7 +1538,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1556,7 @@
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>36</v>
       </c>
@@ -1424,7 +1571,7 @@
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>37</v>
       </c>
@@ -1437,7 +1584,7 @@
       <c r="D28" s="21"/>
       <c r="W28" s="17"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
@@ -1454,7 +1601,7 @@
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -1469,7 +1616,7 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
@@ -1487,7 +1634,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
@@ -1501,7 +1648,7 @@
       <c r="AK32" s="17"/>
       <c r="AL32" s="17"/>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>42</v>
       </c>
@@ -1516,7 +1663,7 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>43</v>
       </c>
@@ -1532,7 +1679,7 @@
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>44</v>
       </c>
@@ -1551,7 +1698,7 @@
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>46</v>
       </c>
@@ -1565,7 +1712,7 @@
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>45</v>
       </c>
@@ -1584,124 +1731,124 @@
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
     </row>
-    <row r="38" spans="1:47" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:47" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="14"/>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="14"/>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="14"/>
       <c r="D64" s="10"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +1866,7 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>23</v>
       </c>
@@ -1737,7 +1884,7 @@
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1903,7 @@
       <c r="R67" s="17"/>
       <c r="S67" s="17"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>25</v>
       </c>
@@ -1771,7 +1918,7 @@
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1935,7 @@
       <c r="AA69" s="17"/>
       <c r="AB69" s="17"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>27</v>
       </c>
@@ -1805,7 +1952,7 @@
       <c r="AA70" s="17"/>
       <c r="AB70" s="17"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>28</v>
       </c>
@@ -1821,7 +1968,7 @@
       <c r="AF71" s="17"/>
       <c r="AG71" s="17"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>29</v>
       </c>
@@ -1838,7 +1985,7 @@
       <c r="AL72" s="17"/>
       <c r="AM72" s="17"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>30</v>
       </c>
@@ -1853,7 +2000,7 @@
       <c r="AN73" s="17"/>
       <c r="AO73" s="17"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>31</v>
       </c>
@@ -1870,7 +2017,7 @@
       <c r="AT74" s="17"/>
       <c r="AU74" s="17"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>32</v>
       </c>
@@ -1884,71 +2031,238 @@
       <c r="AW75" s="17"/>
       <c r="AX75" s="17"/>
     </row>
-    <row r="76" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="14"/>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:17" s="9" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="14"/>
       <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="32">
+        <v>2</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="36"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="33">
+        <v>5</v>
+      </c>
+      <c r="C92" s="35">
+        <v>1</v>
+      </c>
+      <c r="D92" s="16"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+    </row>
+    <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="33">
+        <v>5</v>
+      </c>
+      <c r="C93" s="35">
+        <v>1</v>
+      </c>
+      <c r="D93" s="16"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+    </row>
+    <row r="94" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="33">
+        <v>5</v>
+      </c>
+      <c r="C94" s="35">
+        <v>1</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" s="33">
+        <v>6</v>
+      </c>
+      <c r="C95" s="35">
+        <v>1</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="33">
+        <v>5</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+    </row>
+    <row r="97" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" s="33">
+        <v>5</v>
+      </c>
+      <c r="C97" s="35">
+        <v>6</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+    </row>
+    <row r="98" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="33">
+        <v>4</v>
+      </c>
+      <c r="C98" s="35">
+        <v>6</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
+    </row>
+    <row r="99" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="33">
+        <v>6</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="16"/>
+      <c r="AA99" s="17"/>
+      <c r="AB99" s="17"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="17"/>
+      <c r="AE99" s="17"/>
+      <c r="AF99" s="17"/>
+    </row>
+    <row r="100" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" s="33">
+        <v>4</v>
+      </c>
+      <c r="C100" s="35">
+        <v>9</v>
+      </c>
+      <c r="D100" s="16"/>
+      <c r="AG100" s="17"/>
+      <c r="AH100" s="17"/>
+      <c r="AI100" s="17"/>
+      <c r="AJ100" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1967,41 +2281,41 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>20</v>
       </c>
@@ -2033,217 +2347,217 @@
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
@@ -2254,7 +2568,7 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2269,12 +2583,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -2287,12 +2601,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2304,7 +2618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2316,7 +2630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amad6847\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{729542BF-27FC-4BD6-B339-4A0A048180C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD301E1-D407-4923-9617-9B0FECA2612C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="2200" yWindow="3727" windowWidth="19200" windowHeight="10073" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Estimated Time (hrs)</t>
   </si>
   <si>
-    <t>Time Spent (hrs)</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>Implement Player Sprite Animation</t>
   </si>
   <si>
-    <t>Help Program Bosses + Collaborate</t>
-  </si>
-  <si>
     <t>Final Playtest for Player Object</t>
   </si>
   <si>
@@ -194,9 +185,6 @@
     <t>2,4,10</t>
   </si>
   <si>
-    <t>temp(prereq)</t>
-  </si>
-  <si>
     <t>3,7</t>
   </si>
   <si>
@@ -315,13 +303,28 @@
   </si>
   <si>
     <t>7,8</t>
+  </si>
+  <si>
+    <t>Prereq</t>
+  </si>
+  <si>
+    <t>Status/Time Spent</t>
+  </si>
+  <si>
+    <t>Help Program Bosses + Collab</t>
+  </si>
+  <si>
+    <t>Help Implement Game Graphics</t>
+  </si>
+  <si>
+    <t>Playtesting + Debugging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,7 +354,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,27 +611,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -642,6 +630,32 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,51 +990,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
-  <dimension ref="A1:BL100"/>
+  <dimension ref="A1:BL103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="48" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="S99" sqref="S99"/>
+    <sheetView tabSelected="1" zoomScale="18" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.350000000000001"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="12"/>
-    <col min="6" max="6" width="8.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="12"/>
+    <col min="1" max="1" width="37.41015625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.87890625" style="12"/>
+    <col min="6" max="6" width="8.87890625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.703125" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.87890625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="4" customFormat="1">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+    </row>
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="20.7">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="30"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -1203,15 +1217,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64">
       <c r="A3" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="19"/>
@@ -1219,9 +1233,9 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64">
       <c r="A4" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -1229,13 +1243,13 @@
       <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="20"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64">
       <c r="A5" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" s="15">
         <v>4</v>
@@ -1249,64 +1263,64 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64">
       <c r="A6" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="15">
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="20"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64">
       <c r="A7" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="15">
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="21"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="20"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64">
       <c r="A8" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" s="15">
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="21"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64">
       <c r="A9" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="15">
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" s="21"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64">
       <c r="A10" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="15">
         <v>2</v>
@@ -1318,9 +1332,9 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64">
       <c r="A11" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11" s="15">
         <v>4</v>
@@ -1334,9 +1348,9 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64">
       <c r="A12" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="15">
         <v>6</v>
@@ -1352,24 +1366,24 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64">
       <c r="A13" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13" s="21"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64">
       <c r="A14" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" s="15">
         <v>2</v>
@@ -1381,23 +1395,23 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64">
       <c r="A15" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B15" s="15">
         <v>3</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="21"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64">
       <c r="A16" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="15">
         <v>2</v>
@@ -1409,24 +1423,24 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38">
       <c r="A17" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" s="15">
         <v>3</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D17" s="21"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38">
       <c r="A18" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B18" s="15">
         <v>3</v>
@@ -1441,15 +1455,15 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38">
       <c r="A19" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B19" s="15">
         <v>4</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" s="21"/>
       <c r="AA19" s="17"/>
@@ -1457,9 +1471,9 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38">
       <c r="A20" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B20" s="15">
         <v>3</v>
@@ -1472,9 +1486,9 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38">
       <c r="A21" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" s="15">
         <v>2</v>
@@ -1486,30 +1500,27 @@
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="20.7">
       <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38">
       <c r="A23" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="D23" s="38"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
@@ -1517,14 +1528,14 @@
       <c r="C24" s="15">
         <v>1</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="D24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:38">
       <c r="A25" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="15">
         <v>4</v>
@@ -1532,15 +1543,15 @@
       <c r="C25" s="15">
         <v>2</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="D25" s="38"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:38">
       <c r="A26" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="15">
         <v>6</v>
@@ -1548,32 +1559,32 @@
       <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="D26" s="38"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+    </row>
+    <row r="27" spans="1:38">
       <c r="A27" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="15">
         <v>3</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+    </row>
+    <row r="28" spans="1:38">
       <c r="A28" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="15">
         <v>1</v>
@@ -1581,12 +1592,12 @@
       <c r="C28" s="15">
         <v>5</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="W28" s="17"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="D28" s="38"/>
+      <c r="W28" s="37"/>
+    </row>
+    <row r="29" spans="1:38">
       <c r="A29" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="15">
         <v>5</v>
@@ -1594,31 +1605,31 @@
       <c r="C29" s="15">
         <v>5</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="D29" s="20"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+    </row>
+    <row r="30" spans="1:38">
       <c r="A30" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="15">
         <v>3</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" s="21"/>
       <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38">
       <c r="A31" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="15">
         <v>6</v>
@@ -1634,9 +1645,9 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38">
       <c r="A32" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="15">
         <v>2</v>
@@ -1648,24 +1659,24 @@
       <c r="AK32" s="17"/>
       <c r="AL32" s="17"/>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:61">
       <c r="A33" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="15">
         <v>3</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D33" s="21"/>
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:61">
       <c r="A34" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="15">
         <v>4</v>
@@ -1679,15 +1690,15 @@
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:61">
       <c r="A35" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="15">
         <v>7</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D35" s="21"/>
       <c r="AM35" s="17"/>
@@ -1698,9 +1709,9 @@
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:61">
       <c r="A36" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B36" s="15">
         <v>2</v>
@@ -1712,9 +1723,9 @@
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:61">
       <c r="A37" s="11" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B37" s="15">
         <v>7</v>
@@ -1730,446 +1741,459 @@
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
-    </row>
-    <row r="38" spans="1:47" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="AT37" s="39"/>
+      <c r="AU37" s="39"/>
+    </row>
+    <row r="38" spans="1:61">
+      <c r="A38" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="15">
+        <v>8</v>
+      </c>
+      <c r="C38" s="15">
+        <v>15</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AT38" s="39"/>
+      <c r="AU38" s="39"/>
+      <c r="AV38" s="17"/>
+      <c r="AW38" s="17"/>
+      <c r="AX38" s="17"/>
+      <c r="AY38" s="17"/>
+      <c r="AZ38" s="17"/>
+      <c r="BA38" s="17"/>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="17"/>
+    </row>
+    <row r="39" spans="1:61">
+      <c r="A39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="15">
+        <v>6</v>
+      </c>
+      <c r="C39" s="15">
+        <v>16</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="AT39" s="39"/>
+      <c r="AU39" s="39"/>
+      <c r="BD39" s="17"/>
+      <c r="BE39" s="17"/>
+      <c r="BF39" s="17"/>
+      <c r="BG39" s="17"/>
+      <c r="BH39" s="17"/>
+      <c r="BI39" s="17"/>
+    </row>
+    <row r="40" spans="1:61">
+      <c r="A40" s="11"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="21"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+    </row>
+    <row r="41" spans="1:61" s="9" customFormat="1" ht="20.7">
+      <c r="A41" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:61">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:61">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:61">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:61">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:61">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:61">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:61">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" s="9" customFormat="1" ht="20.7">
+      <c r="A54" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A64" s="18" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:50">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:50">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:50" s="9" customFormat="1" ht="20.7">
+      <c r="A67" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+      <c r="B67" s="14"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="1:50">
+      <c r="A68" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="15">
+        <v>7</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+    </row>
+    <row r="69" spans="1:50">
+      <c r="A69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="15">
+        <v>7</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+    </row>
+    <row r="70" spans="1:50">
+      <c r="A70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="15">
-        <v>7</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="B70" s="15">
+        <v>8</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+    </row>
+    <row r="71" spans="1:50">
+      <c r="A71" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="15">
-        <v>7</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-    </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+      <c r="B71" s="15">
+        <v>4</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+    </row>
+    <row r="72" spans="1:50">
+      <c r="A72" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="B67" s="15">
-        <v>8</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-    </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="15">
-        <v>4</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-    </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="15">
-        <v>6</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="W69" s="17"/>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="17"/>
-      <c r="Z69" s="17"/>
-      <c r="AA69" s="17"/>
-      <c r="AB69" s="17"/>
-    </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="15">
-        <v>6</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="W70" s="17"/>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="17"/>
-      <c r="Z70" s="17"/>
-      <c r="AA70" s="17"/>
-      <c r="AB70" s="17"/>
-    </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="15">
-        <v>5</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC71" s="17"/>
-      <c r="AD71" s="17"/>
-      <c r="AE71" s="17"/>
-      <c r="AF71" s="17"/>
-      <c r="AG71" s="17"/>
-    </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="B72" s="15">
         <v>6</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH72" s="17"/>
-      <c r="AI72" s="17"/>
-      <c r="AJ72" s="17"/>
-      <c r="AK72" s="17"/>
-      <c r="AL72" s="17"/>
-      <c r="AM72" s="17"/>
-    </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="17"/>
+    </row>
+    <row r="73" spans="1:50">
       <c r="A73" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="15">
+        <v>6</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="17"/>
+      <c r="AB73" s="17"/>
+    </row>
+    <row r="74" spans="1:50">
+      <c r="A74" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="15">
+        <v>5</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
+      <c r="AG74" s="17"/>
+    </row>
+    <row r="75" spans="1:50">
+      <c r="A75" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="15">
+        <v>6</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH75" s="17"/>
+      <c r="AI75" s="17"/>
+      <c r="AJ75" s="17"/>
+      <c r="AK75" s="17"/>
+      <c r="AL75" s="17"/>
+      <c r="AM75" s="17"/>
+    </row>
+    <row r="76" spans="1:50">
+      <c r="A76" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="15">
+        <v>4</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL76" s="17"/>
+      <c r="AM76" s="17"/>
+      <c r="AN76" s="17"/>
+      <c r="AO76" s="17"/>
+    </row>
+    <row r="77" spans="1:50">
+      <c r="A77" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="15">
+        <v>6</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP77" s="17"/>
+      <c r="AQ77" s="17"/>
+      <c r="AR77" s="17"/>
+      <c r="AS77" s="17"/>
+      <c r="AT77" s="17"/>
+      <c r="AU77" s="17"/>
+    </row>
+    <row r="78" spans="1:50">
+      <c r="A78" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B78" s="15">
         <v>4</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL73" s="17"/>
-      <c r="AM73" s="17"/>
-      <c r="AN73" s="17"/>
-      <c r="AO73" s="17"/>
-    </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="15">
-        <v>6</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP74" s="17"/>
-      <c r="AQ74" s="17"/>
-      <c r="AR74" s="17"/>
-      <c r="AS74" s="17"/>
-      <c r="AT74" s="17"/>
-      <c r="AU74" s="17"/>
-    </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="15">
-        <v>4</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV75" s="17"/>
-      <c r="AW75" s="17"/>
-      <c r="AX75" s="17"/>
-    </row>
-    <row r="76" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
+      <c r="D78" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV78" s="17"/>
+      <c r="AW78" s="17"/>
+      <c r="AX78" s="17"/>
+    </row>
+    <row r="79" spans="1:50" s="9" customFormat="1" ht="20.7">
+      <c r="A79" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="B79" s="14"/>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:50">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:17" s="9" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="18" t="s">
+    <row r="90" spans="1:11">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+    </row>
+    <row r="93" spans="1:11" s="9" customFormat="1" ht="21" thickBot="1">
+      <c r="A93" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B91" s="32">
+      <c r="B93" s="14"/>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:11" ht="18.7" thickBot="1">
+      <c r="A94" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="25">
         <v>2</v>
       </c>
-      <c r="C91" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-    </row>
-    <row r="92" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B92" s="33">
+      <c r="C94" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:11" ht="18.7" thickBot="1">
+      <c r="A95" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="26">
         <v>5</v>
       </c>
-      <c r="C92" s="35">
-        <v>1</v>
-      </c>
-      <c r="D92" s="16"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-    </row>
-    <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" s="33">
-        <v>5</v>
-      </c>
-      <c r="C93" s="35">
-        <v>1</v>
-      </c>
-      <c r="D93" s="16"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-    </row>
-    <row r="94" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" s="33">
-        <v>5</v>
-      </c>
-      <c r="C94" s="35">
-        <v>1</v>
-      </c>
-      <c r="D94" s="16"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-    </row>
-    <row r="95" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" s="33">
-        <v>6</v>
-      </c>
-      <c r="C95" s="35">
+      <c r="C95" s="28">
         <v>1</v>
       </c>
       <c r="D95" s="16"/>
@@ -2178,91 +2202,142 @@
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-    </row>
-    <row r="96" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="31" t="s">
+    </row>
+    <row r="96" spans="1:11" ht="18.7" thickBot="1">
+      <c r="A96" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="26">
+        <v>5</v>
+      </c>
+      <c r="C96" s="28">
+        <v>1</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="1:36" ht="18.7" thickBot="1">
+      <c r="A97" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="26">
+        <v>5</v>
+      </c>
+      <c r="C97" s="28">
+        <v>1</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="1:36" ht="18.7" thickBot="1">
+      <c r="A98" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="26">
+        <v>6</v>
+      </c>
+      <c r="C98" s="28">
+        <v>1</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="1:36" ht="18.7" thickBot="1">
+      <c r="A99" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="26">
+        <v>5</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" s="16"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+    </row>
+    <row r="100" spans="1:36" ht="18.7" thickBot="1">
+      <c r="A100" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="26">
+        <v>5</v>
+      </c>
+      <c r="C100" s="28">
+        <v>6</v>
+      </c>
+      <c r="D100" s="16"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="17"/>
+    </row>
+    <row r="101" spans="1:36" ht="18.7" thickBot="1">
+      <c r="A101" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101" s="26">
+        <v>4</v>
+      </c>
+      <c r="C101" s="28">
+        <v>6</v>
+      </c>
+      <c r="D101" s="16"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+    </row>
+    <row r="102" spans="1:36" ht="18.7" thickBot="1">
+      <c r="A102" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="26">
+        <v>6</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D102" s="16"/>
+      <c r="AA102" s="17"/>
+      <c r="AB102" s="17"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="17"/>
+      <c r="AE102" s="17"/>
+      <c r="AF102" s="17"/>
+    </row>
+    <row r="103" spans="1:36" ht="18.7" thickBot="1">
+      <c r="A103" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="33">
-        <v>5</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D96" s="16"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-    </row>
-    <row r="97" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="33">
-        <v>5</v>
-      </c>
-      <c r="C97" s="35">
-        <v>6</v>
-      </c>
-      <c r="D97" s="16"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-    </row>
-    <row r="98" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B98" s="33">
+      <c r="B103" s="26">
         <v>4</v>
       </c>
-      <c r="C98" s="35">
-        <v>6</v>
-      </c>
-      <c r="D98" s="16"/>
-      <c r="W98" s="17"/>
-      <c r="X98" s="17"/>
-      <c r="Y98" s="17"/>
-      <c r="Z98" s="17"/>
-    </row>
-    <row r="99" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B99" s="33">
-        <v>6</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="16"/>
-      <c r="AA99" s="17"/>
-      <c r="AB99" s="17"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="17"/>
-      <c r="AE99" s="17"/>
-      <c r="AF99" s="17"/>
-    </row>
-    <row r="100" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B100" s="33">
-        <v>4</v>
-      </c>
-      <c r="C100" s="35">
+      <c r="C103" s="28">
         <v>9</v>
       </c>
-      <c r="D100" s="16"/>
-      <c r="AG100" s="17"/>
-      <c r="AH100" s="17"/>
-      <c r="AI100" s="17"/>
-      <c r="AJ100" s="17"/>
+      <c r="D103" s="16"/>
+      <c r="AG103" s="17"/>
+      <c r="AH103" s="17"/>
+      <c r="AI103" s="17"/>
+      <c r="AJ103" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2281,296 +2356,296 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="1:19">
+      <c r="B2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2583,12 +2658,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -2601,12 +2676,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2618,7 +2693,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2630,7 +2705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD301E1-D407-4923-9617-9B0FECA2612C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="6_{36D80464-3885-43F8-9D80-42F952B28C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE8394B8-A057-478D-AD5D-FDC7CA1A607F}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="3727" windowWidth="19200" windowHeight="10073" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="11460" windowHeight="9144" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -266,36 +266,6 @@
     <t>16, 15</t>
   </si>
   <si>
-    <t>1. Conceptualize HUD graphic ideas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.  Main Menu UI Development </t>
-  </si>
-  <si>
-    <t>3. Pause Menu UI Development</t>
-  </si>
-  <si>
-    <t>4. Game Over Screen UI Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.  HUD Design and Implementation </t>
-  </si>
-  <si>
-    <t>6. UI Animations, Effects and Transitions</t>
-  </si>
-  <si>
-    <t>7. User Input and Navigation Integration</t>
-  </si>
-  <si>
-    <t>8. UI Sound Effect Integration</t>
-  </si>
-  <si>
-    <t>9. UI Testing, Bug fixing and optimization</t>
-  </si>
-  <si>
-    <t>10. Final Integration and Polishing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -318,13 +288,49 @@
   </si>
   <si>
     <t>Playtesting + Debugging</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>5, 6</t>
+  </si>
+  <si>
+    <t>8, 9</t>
+  </si>
+  <si>
+    <t>Conceptualize HUD graphic ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Menu UI Development </t>
+  </si>
+  <si>
+    <t>Pause Menu UI Development</t>
+  </si>
+  <si>
+    <t>Game Over Screen UI Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUD Design and Implementation </t>
+  </si>
+  <si>
+    <t>UI Animations, Effects and Transitions</t>
+  </si>
+  <si>
+    <t>User Input and Navigation Integration</t>
+  </si>
+  <si>
+    <t>UI Sound Effect Integration</t>
+  </si>
+  <si>
+    <t>Final Integration and Polishing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -485,95 +491,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -611,36 +533,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -651,11 +553,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,32 +899,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
-  <dimension ref="A1:BL103"/>
+  <dimension ref="A1:BL102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="18" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="AS10" sqref="AS10"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.350000000000001"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.41015625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.87890625" style="12"/>
-    <col min="6" max="6" width="8.87890625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.703125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.87890625" style="12"/>
+    <col min="1" max="1" width="42.88671875" style="12" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="12"/>
+    <col min="6" max="6" width="8.88671875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
@@ -1030,11 +939,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" ht="20.7">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="26"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -1217,7 +1126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -1233,7 +1142,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -1247,7 +1156,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1263,7 +1172,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
@@ -1276,7 +1185,7 @@
       <c r="D6" s="20"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
@@ -1290,7 +1199,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>54</v>
       </c>
@@ -1304,7 +1213,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:64">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
@@ -1318,7 +1227,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:64">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
@@ -1332,7 +1241,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:64">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1348,7 +1257,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:64">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -1366,7 +1275,7 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:64">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>59</v>
       </c>
@@ -1381,7 +1290,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:64">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>60</v>
       </c>
@@ -1395,7 +1304,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>61</v>
       </c>
@@ -1409,7 +1318,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:64">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>62</v>
       </c>
@@ -1423,7 +1332,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>63</v>
       </c>
@@ -1438,7 +1347,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
@@ -1455,7 +1364,7 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
@@ -1471,7 +1380,7 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>66</v>
       </c>
@@ -1486,7 +1395,7 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>67</v>
       </c>
@@ -1500,25 +1409,25 @@
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:38" s="9" customFormat="1" ht="20.7">
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="14"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15">
         <v>2</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="1:38">
+      <c r="D23" s="25"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
@@ -1528,12 +1437,12 @@
       <c r="C24" s="15">
         <v>1</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:38">
+      <c r="D24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1543,13 +1452,13 @@
       <c r="C25" s="15">
         <v>2</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:38">
+      <c r="D25" s="25"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
@@ -1559,15 +1468,15 @@
       <c r="C26" s="15">
         <v>3</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-    </row>
-    <row r="27" spans="1:38">
+      <c r="D26" s="25"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>34</v>
       </c>
@@ -1577,12 +1486,12 @@
       <c r="C27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-    </row>
-    <row r="28" spans="1:38">
+      <c r="D27" s="25"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -1592,10 +1501,10 @@
       <c r="C28" s="15">
         <v>5</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="W28" s="37"/>
-    </row>
-    <row r="29" spans="1:38">
+      <c r="D28" s="25"/>
+      <c r="W28" s="24"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
@@ -1612,7 +1521,7 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
@@ -1627,7 +1536,7 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>38</v>
       </c>
@@ -1645,7 +1554,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -1659,7 +1568,7 @@
       <c r="AK32" s="17"/>
       <c r="AL32" s="17"/>
     </row>
-    <row r="33" spans="1:61">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
@@ -1674,7 +1583,7 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
     </row>
-    <row r="34" spans="1:61">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
@@ -1690,7 +1599,7 @@
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
     </row>
-    <row r="35" spans="1:61">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +1618,7 @@
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
     </row>
-    <row r="36" spans="1:61">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -1723,9 +1632,9 @@
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
     </row>
-    <row r="37" spans="1:61">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B37" s="15">
         <v>7</v>
@@ -1741,12 +1650,10 @@
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-    </row>
-    <row r="38" spans="1:61">
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B38" s="15">
         <v>8</v>
@@ -1755,15 +1662,6 @@
         <v>15</v>
       </c>
       <c r="D38" s="21"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-      <c r="AK38" s="39"/>
-      <c r="AT38" s="39"/>
-      <c r="AU38" s="39"/>
       <c r="AV38" s="17"/>
       <c r="AW38" s="17"/>
       <c r="AX38" s="17"/>
@@ -1773,9 +1671,9 @@
       <c r="BB38" s="17"/>
       <c r="BC38" s="17"/>
     </row>
-    <row r="39" spans="1:61">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B39" s="15">
         <v>6</v>
@@ -1784,8 +1682,6 @@
         <v>16</v>
       </c>
       <c r="D39" s="21"/>
-      <c r="AT39" s="39"/>
-      <c r="AU39" s="39"/>
       <c r="BD39" s="17"/>
       <c r="BE39" s="17"/>
       <c r="BF39" s="17"/>
@@ -1793,164 +1689,172 @@
       <c r="BH39" s="17"/>
       <c r="BI39" s="17"/>
     </row>
-    <row r="40" spans="1:61">
-      <c r="A40" s="11"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="21"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="39"/>
-      <c r="AH40" s="39"/>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="39"/>
-      <c r="AK40" s="39"/>
-    </row>
-    <row r="41" spans="1:61" s="9" customFormat="1" ht="20.7">
-      <c r="A41" s="18" t="s">
+    <row r="40" spans="1:61" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:61">
+      <c r="B40" s="14"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:61">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:61">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:61">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:61">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:61">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:61">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:4" s="9" customFormat="1" ht="20.7">
-      <c r="A54" s="18" t="s">
+    <row r="53" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A53" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B53" s="14"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="1:50">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:50" s="9" customFormat="1" ht="20.7">
-      <c r="A67" s="18" t="s">
+    <row r="66" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A66" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="1:50">
+      <c r="B66" s="14"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="15">
+        <v>7</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+    </row>
+    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B68" s="15">
         <v>7</v>
       </c>
-      <c r="D68" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-    </row>
-    <row r="69" spans="1:50">
+      <c r="C68" s="15">
+        <v>1</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+    </row>
+    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B69" s="15">
-        <v>7</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C69" s="15">
+        <v>1</v>
+      </c>
+      <c r="D69" s="16"/>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
@@ -1958,51 +1862,53 @@
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
       <c r="R69" s="17"/>
-    </row>
-    <row r="70" spans="1:50">
+      <c r="S69" s="17"/>
+    </row>
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B70" s="15">
-        <v>8</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="16"/>
       <c r="S70" s="17"/>
-    </row>
-    <row r="71" spans="1:50">
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B71" s="15">
+        <v>6</v>
+      </c>
+      <c r="C71" s="15">
         <v>4</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-    </row>
-    <row r="72" spans="1:50">
+      <c r="D71" s="16"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="17"/>
+      <c r="AB71" s="17"/>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B72" s="15">
         <v>6</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="C72" s="15">
+        <v>4</v>
+      </c>
+      <c r="D72" s="16"/>
       <c r="W72" s="17"/>
       <c r="X72" s="17"/>
       <c r="Y72" s="17"/>
@@ -2010,190 +1916,195 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
     </row>
-    <row r="73" spans="1:50">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B73" s="15">
+        <v>5</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="AC73" s="17"/>
+      <c r="AD73" s="17"/>
+      <c r="AE73" s="17"/>
+      <c r="AF73" s="17"/>
+      <c r="AG73" s="17"/>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="15">
         <v>6</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="W73" s="17"/>
-      <c r="X73" s="17"/>
-      <c r="Y73" s="17"/>
-      <c r="Z73" s="17"/>
-      <c r="AA73" s="17"/>
-      <c r="AB73" s="17"/>
-    </row>
-    <row r="74" spans="1:50">
-      <c r="A74" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" s="15">
-        <v>5</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC74" s="17"/>
-      <c r="AD74" s="17"/>
-      <c r="AE74" s="17"/>
-      <c r="AF74" s="17"/>
-      <c r="AG74" s="17"/>
-    </row>
-    <row r="75" spans="1:50">
+      <c r="C74" s="15">
+        <v>7</v>
+      </c>
+      <c r="D74" s="16"/>
+      <c r="AH74" s="17"/>
+      <c r="AI74" s="17"/>
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="17"/>
+      <c r="AL74" s="17"/>
+      <c r="AM74" s="17"/>
+    </row>
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B75" s="15">
-        <v>6</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH75" s="17"/>
-      <c r="AI75" s="17"/>
-      <c r="AJ75" s="17"/>
-      <c r="AK75" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="16"/>
       <c r="AL75" s="17"/>
       <c r="AM75" s="17"/>
-    </row>
-    <row r="76" spans="1:50">
+      <c r="AN75" s="17"/>
+      <c r="AO75" s="17"/>
+    </row>
+    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B76" s="15">
+        <v>6</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="AP76" s="17"/>
+      <c r="AQ76" s="17"/>
+      <c r="AR76" s="17"/>
+      <c r="AS76" s="17"/>
+      <c r="AT76" s="17"/>
+      <c r="AU76" s="17"/>
+    </row>
+    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="15">
         <v>4</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL76" s="17"/>
-      <c r="AM76" s="17"/>
-      <c r="AN76" s="17"/>
-      <c r="AO76" s="17"/>
-    </row>
-    <row r="77" spans="1:50">
-      <c r="A77" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" s="15">
-        <v>6</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP77" s="17"/>
-      <c r="AQ77" s="17"/>
-      <c r="AR77" s="17"/>
-      <c r="AS77" s="17"/>
-      <c r="AT77" s="17"/>
-      <c r="AU77" s="17"/>
-    </row>
-    <row r="78" spans="1:50">
-      <c r="A78" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="15">
-        <v>4</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV78" s="17"/>
-      <c r="AW78" s="17"/>
-      <c r="AX78" s="17"/>
-    </row>
-    <row r="79" spans="1:50" s="9" customFormat="1" ht="20.7">
-      <c r="A79" s="18" t="s">
+      <c r="C77" s="15">
+        <v>10</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="AV77" s="17"/>
+      <c r="AW77" s="17"/>
+      <c r="AX77" s="17"/>
+    </row>
+    <row r="78" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A78" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="1:50">
+      <c r="B78" s="14"/>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-    </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" ht="21" thickBot="1">
-      <c r="A93" s="18" t="s">
+    <row r="92" spans="1:11" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A92" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="D93" s="10"/>
-    </row>
-    <row r="94" spans="1:11" ht="18.7" thickBot="1">
-      <c r="A94" s="23" t="s">
+      <c r="B92" s="14"/>
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="33">
+        <v>2</v>
+      </c>
+      <c r="C93" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B94" s="25">
-        <v>2</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="29"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-    </row>
-    <row r="95" spans="1:11" ht="18.7" thickBot="1">
-      <c r="A95" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="26">
+      <c r="D93" s="23"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="33">
         <v>5</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C94" s="33">
+        <v>1</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="33">
+        <v>5</v>
+      </c>
+      <c r="C95" s="33">
         <v>1</v>
       </c>
       <c r="D95" s="16"/>
@@ -2203,14 +2114,14 @@
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" ht="18.7" thickBot="1">
-      <c r="A96" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96" s="26">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="33">
         <v>5</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="33">
         <v>1</v>
       </c>
       <c r="D96" s="16"/>
@@ -2220,14 +2131,14 @@
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:36" ht="18.7" thickBot="1">
-      <c r="A97" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B97" s="26">
-        <v>5</v>
-      </c>
-      <c r="C97" s="28">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A97" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="33">
+        <v>6</v>
+      </c>
+      <c r="C97" s="33">
         <v>1</v>
       </c>
       <c r="D97" s="16"/>
@@ -2236,108 +2147,91 @@
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
-    </row>
-    <row r="98" spans="1:36" ht="18.7" thickBot="1">
-      <c r="A98" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B98" s="26">
+      <c r="L97" s="17"/>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A98" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="33">
+        <v>5</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A99" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="33">
+        <v>5</v>
+      </c>
+      <c r="C99" s="33">
         <v>6</v>
       </c>
-      <c r="C98" s="28">
-        <v>1</v>
-      </c>
-      <c r="D98" s="16"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-    </row>
-    <row r="99" spans="1:36" ht="18.7" thickBot="1">
-      <c r="A99" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B99" s="26">
-        <v>5</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>86</v>
-      </c>
       <c r="D99" s="16"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-    </row>
-    <row r="100" spans="1:36" ht="18.7" thickBot="1">
-      <c r="A100" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B100" s="26">
-        <v>5</v>
-      </c>
-      <c r="C100" s="28">
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
+      <c r="V99" s="17"/>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A100" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="33">
+        <v>4</v>
+      </c>
+      <c r="C100" s="33">
         <v>6</v>
       </c>
       <c r="D100" s="16"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
-      <c r="V100" s="17"/>
-    </row>
-    <row r="101" spans="1:36" ht="18.7" thickBot="1">
-      <c r="A101" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B101" s="26">
+      <c r="W100" s="17"/>
+      <c r="X100" s="17"/>
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="17"/>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A101" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" s="33">
+        <v>6</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="16"/>
+      <c r="AA101" s="17"/>
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="17"/>
+      <c r="AE101" s="17"/>
+      <c r="AF101" s="17"/>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A102" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="33">
         <v>4</v>
       </c>
-      <c r="C101" s="28">
-        <v>6</v>
-      </c>
-      <c r="D101" s="16"/>
-      <c r="W101" s="17"/>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="17"/>
-    </row>
-    <row r="102" spans="1:36" ht="18.7" thickBot="1">
-      <c r="A102" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="26">
-        <v>6</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>87</v>
+      <c r="C102" s="33">
+        <v>9</v>
       </c>
       <c r="D102" s="16"/>
-      <c r="AA102" s="17"/>
-      <c r="AB102" s="17"/>
-      <c r="AC102" s="17"/>
-      <c r="AD102" s="17"/>
-      <c r="AE102" s="17"/>
-      <c r="AF102" s="17"/>
-    </row>
-    <row r="103" spans="1:36" ht="18.7" thickBot="1">
-      <c r="A103" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B103" s="26">
-        <v>4</v>
-      </c>
-      <c r="C103" s="28">
-        <v>9</v>
-      </c>
-      <c r="D103" s="16"/>
-      <c r="AG103" s="17"/>
-      <c r="AH103" s="17"/>
-      <c r="AI103" s="17"/>
-      <c r="AJ103" s="17"/>
+      <c r="AG102" s="17"/>
+      <c r="AH102" s="17"/>
+      <c r="AI102" s="17"/>
+      <c r="AJ102" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2356,294 +2250,294 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="B3" s="32" t="s">
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2658,12 +2552,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -2676,12 +2570,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2693,7 +2587,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2705,7 +2599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="6_{36D80464-3885-43F8-9D80-42F952B28C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE8394B8-A057-478D-AD5D-FDC7CA1A607F}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="6_{36D80464-3885-43F8-9D80-42F952B28C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F8B7D4-C716-4563-A896-D056080206AB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="11460" windowHeight="9144" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gantt" sheetId="1" r:id="rId1"/>
-    <sheet name="TL Deliverables" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Budget" sheetId="3" r:id="rId1"/>
+    <sheet name="Gantt" sheetId="1" r:id="rId2"/>
+    <sheet name="TL Deliverables" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -538,11 +538,23 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -552,18 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,6 +580,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -898,10 +902,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562B3B-3013-4879-ABBB-AEB80198B717}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:BL102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -940,10 +956,10 @@
       </c>
     </row>
     <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="28"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -2067,13 +2083,13 @@
       <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="33">
+      <c r="B93" s="26">
         <v>2</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C93" s="26" t="s">
         <v>75</v>
       </c>
       <c r="D93" s="23"/>
@@ -2081,13 +2097,13 @@
       <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="34" t="s">
+      <c r="A94" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="33">
+      <c r="B94" s="26">
         <v>5</v>
       </c>
-      <c r="C94" s="33">
+      <c r="C94" s="26">
         <v>1</v>
       </c>
       <c r="D94" s="16"/>
@@ -2098,13 +2114,13 @@
       <c r="K94" s="17"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="34" t="s">
+      <c r="A95" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="33">
+      <c r="B95" s="26">
         <v>5</v>
       </c>
-      <c r="C95" s="33">
+      <c r="C95" s="26">
         <v>1</v>
       </c>
       <c r="D95" s="16"/>
@@ -2115,13 +2131,13 @@
       <c r="K95" s="17"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" s="34" t="s">
+      <c r="A96" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B96" s="33">
+      <c r="B96" s="26">
         <v>5</v>
       </c>
-      <c r="C96" s="33">
+      <c r="C96" s="26">
         <v>1</v>
       </c>
       <c r="D96" s="16"/>
@@ -2132,13 +2148,13 @@
       <c r="K96" s="17"/>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A97" s="34" t="s">
+      <c r="A97" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="33">
+      <c r="B97" s="26">
         <v>6</v>
       </c>
-      <c r="C97" s="33">
+      <c r="C97" s="26">
         <v>1</v>
       </c>
       <c r="D97" s="16"/>
@@ -2150,13 +2166,13 @@
       <c r="L97" s="17"/>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="33">
+      <c r="B98" s="26">
         <v>5</v>
       </c>
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="26" t="s">
         <v>76</v>
       </c>
       <c r="D98" s="16"/>
@@ -2167,13 +2183,13 @@
       <c r="Q98" s="17"/>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="33">
+      <c r="B99" s="26">
         <v>5</v>
       </c>
-      <c r="C99" s="33">
+      <c r="C99" s="26">
         <v>6</v>
       </c>
       <c r="D99" s="16"/>
@@ -2184,13 +2200,13 @@
       <c r="V99" s="17"/>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="33">
+      <c r="B100" s="26">
         <v>4</v>
       </c>
-      <c r="C100" s="33">
+      <c r="C100" s="26">
         <v>6</v>
       </c>
       <c r="D100" s="16"/>
@@ -2200,13 +2216,13 @@
       <c r="Z100" s="17"/>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B101" s="33">
+      <c r="B101" s="26">
         <v>6</v>
       </c>
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="26" t="s">
         <v>77</v>
       </c>
       <c r="D101" s="16"/>
@@ -2218,13 +2234,13 @@
       <c r="AF101" s="17"/>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B102" s="33">
+      <c r="B102" s="26">
         <v>4</v>
       </c>
-      <c r="C102" s="33">
+      <c r="C102" s="26">
         <v>9</v>
       </c>
       <c r="D102" s="16"/>
@@ -2242,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EB45AB-5FDF-4145-A8A6-9382A724B0A8}">
   <dimension ref="A2:S15"/>
   <sheetViews>
@@ -2253,68 +2269,68 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="31"/>
@@ -2518,24 +2534,24 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -2552,12 +2568,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -2570,25 +2586,13 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562B3B-3013-4879-ABBB-AEB80198B717}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="6_{36D80464-3885-43F8-9D80-42F952B28C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F8B7D4-C716-4563-A896-D056080206AB}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="6_{36D80464-3885-43F8-9D80-42F952B28C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C00B018A-0EC6-4B0E-9FDD-927BB0B8CC4F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -324,6 +324,39 @@
   </si>
   <si>
     <t>Final Integration and Polishing</t>
+  </si>
+  <si>
+    <t>Cory</t>
+  </si>
+  <si>
+    <t>Jillian</t>
+  </si>
+  <si>
+    <t>Andrew S.</t>
+  </si>
+  <si>
+    <t>Bidhi</t>
+  </si>
+  <si>
+    <t>Nihat K.</t>
+  </si>
+  <si>
+    <t>Aneesha</t>
+  </si>
+  <si>
+    <t>Chenny</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Estimated Cost</t>
+  </si>
+  <si>
+    <t>Actual Cost</t>
+  </si>
+  <si>
+    <t>Variance</t>
   </si>
 </sst>
 </file>
@@ -422,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -491,11 +524,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -547,23 +651,72 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,12 +1056,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562B3B-3013-4879-ABBB-AEB80198B717}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -917,7 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:BL102"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -2263,295 +2561,295 @@
   <dimension ref="A2:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -2568,12 +2866,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -2586,12 +2884,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bidhi\OneDrive\Desktop\school\CS383\Git\CS383BrainstewGame\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="6_{36D80464-3885-43F8-9D80-42F952B28C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C00B018A-0EC6-4B0E-9FDD-927BB0B8CC4F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A45A8A7-9DC1-4B88-B9F9-B52A0538915E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -357,6 +357,51 @@
   </si>
   <si>
     <t>Variance</t>
+  </si>
+  <si>
+    <t>Research and Planning</t>
+  </si>
+  <si>
+    <t>Coordinate with Enemy Specialist</t>
+  </si>
+  <si>
+    <t>Define Weapon Attributes</t>
+  </si>
+  <si>
+    <t>Create Weapon Art and Animations</t>
+  </si>
+  <si>
+    <t>Set Up Shooting Mechanics</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>Design Powerups &amp; Effects</t>
+  </si>
+  <si>
+    <t>Place Weapon and Powerups in Game Levels</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>Implement Collision and Hit Detection</t>
+  </si>
+  <si>
+    <t>Integrate with Player Controls</t>
+  </si>
+  <si>
+    <t>Test Weapon and Powerups</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>Adjust and Balance Gameplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Testing and Polishing </t>
   </si>
 </sst>
 </file>
@@ -599,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -648,25 +693,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,46 +739,38 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,10 +786,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,126 +1107,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562B3B-3013-4879-ABBB-AEB80198B717}">
   <dimension ref="B3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="35" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="46" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="48"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="45" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G5:H5"/>
@@ -1187,25 +1250,11 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1215,22 +1264,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:BL102"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="12" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="12"/>
-    <col min="6" max="6" width="8.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="42.90625" style="12" customWidth="1"/>
+    <col min="2" max="3" width="17.6328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="12"/>
+    <col min="6" max="6" width="8.90625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1253,11 +1302,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="47"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -1440,7 +1489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -1456,7 +1505,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -1470,7 +1519,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1486,7 +1535,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
@@ -1499,7 +1548,7 @@
       <c r="D6" s="20"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
@@ -1513,7 +1562,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>54</v>
       </c>
@@ -1527,7 +1576,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
@@ -1541,7 +1590,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
@@ -1555,7 +1604,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1571,7 +1620,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -1589,7 +1638,7 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>59</v>
       </c>
@@ -1604,7 +1653,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>60</v>
       </c>
@@ -1618,7 +1667,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>61</v>
       </c>
@@ -1632,7 +1681,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>62</v>
       </c>
@@ -1646,7 +1695,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>63</v>
       </c>
@@ -1661,7 +1710,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
@@ -1678,7 +1727,7 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
@@ -1694,7 +1743,7 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>66</v>
       </c>
@@ -1709,7 +1758,7 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>67</v>
       </c>
@@ -1723,14 +1772,14 @@
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="14"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>31</v>
       </c>
@@ -1741,7 +1790,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
@@ -1756,7 +1805,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1772,7 +1821,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1839,7 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>34</v>
       </c>
@@ -1805,7 +1854,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -1818,7 +1867,7 @@
       <c r="D28" s="25"/>
       <c r="W28" s="24"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
@@ -1835,7 +1884,7 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
@@ -1850,7 +1899,7 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>38</v>
       </c>
@@ -1868,7 +1917,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -1882,7 +1931,7 @@
       <c r="AK32" s="17"/>
       <c r="AL32" s="17"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
@@ -1897,7 +1946,7 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
@@ -1913,7 +1962,7 @@
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -1932,7 +1981,7 @@
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -1946,7 +1995,7 @@
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>80</v>
       </c>
@@ -1965,7 +2014,7 @@
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>81</v>
       </c>
@@ -1985,7 +2034,7 @@
       <c r="BB38" s="17"/>
       <c r="BC38" s="17"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>82</v>
       </c>
@@ -2003,124 +2052,674 @@
       <c r="BH39" s="17"/>
       <c r="BI39" s="17"/>
     </row>
-    <row r="40" spans="1:61" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:61" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="14"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:4" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:42" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A53" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="14"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A54" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="57">
+        <v>4</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="54"/>
+      <c r="X54" s="54"/>
+      <c r="Y54" s="54"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="54"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="54"/>
+      <c r="AD54" s="54"/>
+      <c r="AE54" s="54"/>
+      <c r="AF54" s="54"/>
+      <c r="AG54" s="54"/>
+      <c r="AH54" s="54"/>
+      <c r="AI54" s="54"/>
+      <c r="AJ54" s="54"/>
+      <c r="AK54" s="54"/>
+      <c r="AL54" s="54"/>
+      <c r="AM54" s="54"/>
+      <c r="AN54" s="54"/>
+      <c r="AO54" s="54"/>
+      <c r="AP54" s="54"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A55" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="57">
+        <v>6</v>
+      </c>
+      <c r="C55" s="57">
+        <v>1</v>
+      </c>
+      <c r="D55" s="55"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="54"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="54"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="54"/>
+      <c r="AF55" s="54"/>
+      <c r="AG55" s="54"/>
+      <c r="AH55" s="54"/>
+      <c r="AI55" s="54"/>
+      <c r="AJ55" s="54"/>
+      <c r="AK55" s="54"/>
+      <c r="AL55" s="54"/>
+      <c r="AM55" s="54"/>
+      <c r="AN55" s="54"/>
+      <c r="AO55" s="54"/>
+      <c r="AP55" s="54"/>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A56" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="57">
+        <v>8</v>
+      </c>
+      <c r="C56" s="57">
+        <v>1</v>
+      </c>
+      <c r="D56" s="55"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="54"/>
+      <c r="W56" s="54"/>
+      <c r="X56" s="54"/>
+      <c r="Y56" s="54"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="54"/>
+      <c r="AB56" s="54"/>
+      <c r="AC56" s="54"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="54"/>
+      <c r="AF56" s="54"/>
+      <c r="AG56" s="54"/>
+      <c r="AH56" s="54"/>
+      <c r="AI56" s="54"/>
+      <c r="AJ56" s="54"/>
+      <c r="AK56" s="54"/>
+      <c r="AL56" s="54"/>
+      <c r="AM56" s="54"/>
+      <c r="AN56" s="54"/>
+      <c r="AO56" s="54"/>
+      <c r="AP56" s="54"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A57" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="57">
+        <v>8</v>
+      </c>
+      <c r="C57" s="57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="55"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="54"/>
+      <c r="AF57" s="54"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="54"/>
+      <c r="AI57" s="54"/>
+      <c r="AJ57" s="54"/>
+      <c r="AK57" s="54"/>
+      <c r="AL57" s="54"/>
+      <c r="AM57" s="54"/>
+      <c r="AN57" s="54"/>
+      <c r="AO57" s="54"/>
+      <c r="AP57" s="54"/>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A58" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="57">
+        <v>4</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="55"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="54"/>
+      <c r="X58" s="54"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="54"/>
+      <c r="AC58" s="54"/>
+      <c r="AD58" s="54"/>
+      <c r="AE58" s="54"/>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="54"/>
+      <c r="AI58" s="54"/>
+      <c r="AJ58" s="54"/>
+      <c r="AK58" s="54"/>
+      <c r="AL58" s="54"/>
+      <c r="AM58" s="54"/>
+      <c r="AN58" s="54"/>
+      <c r="AO58" s="54"/>
+      <c r="AP58" s="54"/>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A59" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="57">
+        <v>8</v>
+      </c>
+      <c r="C59" s="57">
+        <v>3</v>
+      </c>
+      <c r="D59" s="55"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="54"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="54"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="54"/>
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="54"/>
+      <c r="AI59" s="54"/>
+      <c r="AJ59" s="54"/>
+      <c r="AK59" s="54"/>
+      <c r="AL59" s="54"/>
+      <c r="AM59" s="54"/>
+      <c r="AN59" s="54"/>
+      <c r="AO59" s="54"/>
+      <c r="AP59" s="54"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A60" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="57">
+        <v>4</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="55"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="59"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="59"/>
+      <c r="AB60" s="59"/>
+      <c r="AC60" s="54"/>
+      <c r="AD60" s="54"/>
+      <c r="AE60" s="54"/>
+      <c r="AF60" s="54"/>
+      <c r="AG60" s="54"/>
+      <c r="AH60" s="54"/>
+      <c r="AI60" s="54"/>
+      <c r="AJ60" s="54"/>
+      <c r="AK60" s="54"/>
+      <c r="AL60" s="54"/>
+      <c r="AM60" s="54"/>
+      <c r="AN60" s="54"/>
+      <c r="AO60" s="54"/>
+      <c r="AP60" s="54"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A61" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="57">
+        <v>4</v>
+      </c>
+      <c r="C61" s="57">
+        <v>5</v>
+      </c>
+      <c r="D61" s="55"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="54"/>
+      <c r="AG61" s="54"/>
+      <c r="AH61" s="54"/>
+      <c r="AI61" s="54"/>
+      <c r="AJ61" s="54"/>
+      <c r="AK61" s="54"/>
+      <c r="AL61" s="54"/>
+      <c r="AM61" s="54"/>
+      <c r="AN61" s="54"/>
+      <c r="AO61" s="54"/>
+      <c r="AP61" s="54"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A62" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="57">
+        <v>3</v>
+      </c>
+      <c r="C62" s="57">
+        <v>7</v>
+      </c>
+      <c r="D62" s="55"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="59"/>
+      <c r="AD62" s="59"/>
+      <c r="AE62" s="59"/>
+      <c r="AF62" s="54"/>
+      <c r="AG62" s="54"/>
+      <c r="AH62" s="54"/>
+      <c r="AI62" s="54"/>
+      <c r="AJ62" s="54"/>
+      <c r="AK62" s="54"/>
+      <c r="AL62" s="54"/>
+      <c r="AM62" s="54"/>
+      <c r="AN62" s="54"/>
+      <c r="AO62" s="54"/>
+      <c r="AP62" s="54"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A63" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="57">
+        <v>3</v>
+      </c>
+      <c r="C63" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="55"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="54"/>
+      <c r="AF63" s="59"/>
+      <c r="AG63" s="59"/>
+      <c r="AH63" s="59"/>
+      <c r="AI63" s="54"/>
+      <c r="AJ63" s="54"/>
+      <c r="AK63" s="54"/>
+      <c r="AL63" s="54"/>
+      <c r="AM63" s="54"/>
+      <c r="AN63" s="54"/>
+      <c r="AO63" s="54"/>
+      <c r="AP63" s="54"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.45">
+      <c r="A64" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="57">
+        <v>4</v>
+      </c>
+      <c r="C64" s="57">
+        <v>10</v>
+      </c>
+      <c r="D64" s="55"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="54"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="54"/>
+      <c r="AF64" s="54"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="54"/>
+      <c r="AI64" s="59"/>
+      <c r="AJ64" s="59"/>
+      <c r="AK64" s="59"/>
+      <c r="AL64" s="59"/>
+      <c r="AM64" s="54"/>
+      <c r="AN64" s="54"/>
+      <c r="AO64" s="54"/>
+      <c r="AP64" s="54"/>
+    </row>
+    <row r="65" spans="1:50" x14ac:dyDescent="0.45">
+      <c r="A65" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="57">
+        <v>4</v>
+      </c>
+      <c r="C65" s="57">
+        <v>11</v>
+      </c>
+      <c r="D65" s="55"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="54"/>
+      <c r="X65" s="54"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="54"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="54"/>
+      <c r="AD65" s="54"/>
+      <c r="AE65" s="54"/>
+      <c r="AF65" s="54"/>
+      <c r="AG65" s="54"/>
+      <c r="AH65" s="54"/>
+      <c r="AI65" s="54"/>
+      <c r="AJ65" s="54"/>
+      <c r="AK65" s="54"/>
+      <c r="AL65" s="54"/>
+      <c r="AM65" s="59"/>
+      <c r="AN65" s="59"/>
+      <c r="AO65" s="59"/>
+      <c r="AP65" s="59"/>
+    </row>
+    <row r="66" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A66" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="14"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A67" s="11" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2738,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A68" s="11" t="s">
         <v>21</v>
       </c>
@@ -2158,7 +2757,7 @@
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A69" s="11" t="s">
         <v>22</v>
       </c>
@@ -2178,7 +2777,7 @@
       <c r="R69" s="17"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A70" s="11" t="s">
         <v>23</v>
       </c>
@@ -2194,7 +2793,7 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A71" s="11" t="s">
         <v>24</v>
       </c>
@@ -2212,7 +2811,7 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A72" s="11" t="s">
         <v>25</v>
       </c>
@@ -2230,7 +2829,7 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A73" s="11" t="s">
         <v>26</v>
       </c>
@@ -2247,7 +2846,7 @@
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A74" s="11" t="s">
         <v>27</v>
       </c>
@@ -2265,7 +2864,7 @@
       <c r="AL74" s="17"/>
       <c r="AM74" s="17"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A75" s="11" t="s">
         <v>28</v>
       </c>
@@ -2281,7 +2880,7 @@
       <c r="AN75" s="17"/>
       <c r="AO75" s="17"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A76" s="11" t="s">
         <v>29</v>
       </c>
@@ -2299,7 +2898,7 @@
       <c r="AT76" s="17"/>
       <c r="AU76" s="17"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A77" s="11" t="s">
         <v>30</v>
       </c>
@@ -2314,73 +2913,73 @@
       <c r="AW77" s="17"/>
       <c r="AX77" s="17"/>
     </row>
-    <row r="78" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A78" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="14"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.45">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A92" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="14"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="27" t="s">
         <v>86</v>
       </c>
@@ -2394,7 +2993,7 @@
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="27" t="s">
         <v>87</v>
       </c>
@@ -2411,7 +3010,7 @@
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="27" t="s">
         <v>88</v>
       </c>
@@ -2428,7 +3027,7 @@
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="27" t="s">
         <v>89</v>
       </c>
@@ -2445,7 +3044,7 @@
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A97" s="27" t="s">
         <v>90</v>
       </c>
@@ -2463,7 +3062,7 @@
       <c r="K97" s="17"/>
       <c r="L97" s="17"/>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A98" s="27" t="s">
         <v>91</v>
       </c>
@@ -2480,7 +3079,7 @@
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A99" s="27" t="s">
         <v>92</v>
       </c>
@@ -2497,7 +3096,7 @@
       <c r="U99" s="17"/>
       <c r="V99" s="17"/>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A100" s="27" t="s">
         <v>93</v>
       </c>
@@ -2513,7 +3112,7 @@
       <c r="Y100" s="17"/>
       <c r="Z100" s="17"/>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A101" s="27" t="s">
         <v>29</v>
       </c>
@@ -2531,7 +3130,7 @@
       <c r="AE101" s="17"/>
       <c r="AF101" s="17"/>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A102" s="27" t="s">
         <v>94</v>
       </c>
@@ -2564,294 +3163,294 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29" t="s">
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2866,12 +3465,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -2884,12 +3483,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2901,7 +3500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bidhi\OneDrive\Desktop\school\CS383\Git\CS383BrainstewGame\383Game\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A45A8A7-9DC1-4B88-B9F9-B52A0538915E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C1B42E-A572-2341-BF18-0023AE4A5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -402,6 +402,48 @@
   </si>
   <si>
     <t xml:space="preserve">Final Testing and Polishing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Requirement Collection</t>
+  </si>
+  <si>
+    <t>Sprite Design</t>
+  </si>
+  <si>
+    <t>Movement Design</t>
+  </si>
+  <si>
+    <t>Attack Design</t>
+  </si>
+  <si>
+    <t>Minimum Viable Product</t>
+  </si>
+  <si>
+    <t>Assigning Sprites to movement</t>
+  </si>
+  <si>
+    <t>Testing on blank backgrounds</t>
+  </si>
+  <si>
+    <t>Testing with main character</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Requirement Collection for AI</t>
+  </si>
+  <si>
+    <t>Building AI runner</t>
+  </si>
+  <si>
+    <t>Creating AI escape sequence</t>
+  </si>
+  <si>
+    <t>Testing and debugging AI on all levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation/Finalization </t>
   </si>
 </sst>
 </file>
@@ -438,7 +480,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +538,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -700,27 +748,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,20 +771,38 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -763,14 +813,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,122 +1169,134 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="43" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="40" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="37"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -1243,18 +1313,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1262,24 +1320,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
-  <dimension ref="A1:BL102"/>
+  <dimension ref="A1:CRB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.90625" style="12" customWidth="1"/>
-    <col min="2" max="3" width="17.6328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="12"/>
-    <col min="6" max="6" width="8.90625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.90625" style="12"/>
+    <col min="1" max="1" width="42.83203125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="12"/>
+    <col min="6" max="6" width="8.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1302,11 +1360,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="51"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -1489,7 +1547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -1505,7 +1563,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -1519,7 +1577,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1535,7 +1593,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
@@ -1548,7 +1606,7 @@
       <c r="D6" s="20"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
@@ -1562,7 +1620,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>54</v>
       </c>
@@ -1576,7 +1634,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
@@ -1590,7 +1648,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
@@ -1604,7 +1662,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1620,7 +1678,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -1638,7 +1696,7 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>59</v>
       </c>
@@ -1653,7 +1711,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>60</v>
       </c>
@@ -1667,7 +1725,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>61</v>
       </c>
@@ -1681,7 +1739,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>62</v>
       </c>
@@ -1695,7 +1753,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>63</v>
       </c>
@@ -1710,7 +1768,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
@@ -1727,7 +1785,7 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
@@ -1743,7 +1801,7 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>66</v>
       </c>
@@ -1758,7 +1816,7 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>67</v>
       </c>
@@ -1772,14 +1830,14 @@
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="14"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>31</v>
       </c>
@@ -1790,7 +1848,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
@@ -1805,7 +1863,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1821,7 +1879,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
@@ -1839,7 +1897,7 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +1912,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -1867,7 +1925,7 @@
       <c r="D28" s="25"/>
       <c r="W28" s="24"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
@@ -1884,7 +1942,7 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
@@ -1899,7 +1957,7 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>38</v>
       </c>
@@ -1917,7 +1975,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -1931,7 +1989,7 @@
       <c r="AK32" s="17"/>
       <c r="AL32" s="17"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
@@ -1946,7 +2004,7 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
@@ -1962,7 +2020,7 @@
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -1981,7 +2039,7 @@
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -1995,7 +2053,7 @@
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>80</v>
       </c>
@@ -2014,7 +2072,7 @@
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>81</v>
       </c>
@@ -2034,7 +2092,7 @@
       <c r="BB38" s="17"/>
       <c r="BC38" s="17"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>82</v>
       </c>
@@ -2052,674 +2110,674 @@
       <c r="BH39" s="17"/>
       <c r="BI39" s="17"/>
     </row>
-    <row r="40" spans="1:61" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:61" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="14"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:42" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:42" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="14"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A54" s="54" t="s">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="57">
+      <c r="B54" s="32">
         <v>4</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
-      <c r="AD54" s="54"/>
-      <c r="AE54" s="54"/>
-      <c r="AF54" s="54"/>
-      <c r="AG54" s="54"/>
-      <c r="AH54" s="54"/>
-      <c r="AI54" s="54"/>
-      <c r="AJ54" s="54"/>
-      <c r="AK54" s="54"/>
-      <c r="AL54" s="54"/>
-      <c r="AM54" s="54"/>
-      <c r="AN54" s="54"/>
-      <c r="AO54" s="54"/>
-      <c r="AP54" s="54"/>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A55" s="54" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="57">
+      <c r="B55" s="32">
         <v>6</v>
       </c>
-      <c r="C55" s="57">
+      <c r="C55" s="32">
         <v>1</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="54"/>
-      <c r="AE55" s="54"/>
-      <c r="AF55" s="54"/>
-      <c r="AG55" s="54"/>
-      <c r="AH55" s="54"/>
-      <c r="AI55" s="54"/>
-      <c r="AJ55" s="54"/>
-      <c r="AK55" s="54"/>
-      <c r="AL55" s="54"/>
-      <c r="AM55" s="54"/>
-      <c r="AN55" s="54"/>
-      <c r="AO55" s="54"/>
-      <c r="AP55" s="54"/>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A56" s="54" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="57">
+      <c r="B56" s="32">
         <v>8</v>
       </c>
-      <c r="C56" s="57">
+      <c r="C56" s="32">
         <v>1</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="54"/>
-      <c r="AF56" s="54"/>
-      <c r="AG56" s="54"/>
-      <c r="AH56" s="54"/>
-      <c r="AI56" s="54"/>
-      <c r="AJ56" s="54"/>
-      <c r="AK56" s="54"/>
-      <c r="AL56" s="54"/>
-      <c r="AM56" s="54"/>
-      <c r="AN56" s="54"/>
-      <c r="AO56" s="54"/>
-      <c r="AP56" s="54"/>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A57" s="54" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="57">
+      <c r="B57" s="32">
         <v>8</v>
       </c>
-      <c r="C57" s="57">
+      <c r="C57" s="32">
         <v>3</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
-      <c r="AH57" s="54"/>
-      <c r="AI57" s="54"/>
-      <c r="AJ57" s="54"/>
-      <c r="AK57" s="54"/>
-      <c r="AL57" s="54"/>
-      <c r="AM57" s="54"/>
-      <c r="AN57" s="54"/>
-      <c r="AO57" s="54"/>
-      <c r="AP57" s="54"/>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A58" s="54" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="57">
+      <c r="B58" s="32">
         <v>4</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="59"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
-      <c r="AH58" s="54"/>
-      <c r="AI58" s="54"/>
-      <c r="AJ58" s="54"/>
-      <c r="AK58" s="54"/>
-      <c r="AL58" s="54"/>
-      <c r="AM58" s="54"/>
-      <c r="AN58" s="54"/>
-      <c r="AO58" s="54"/>
-      <c r="AP58" s="54"/>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A59" s="54" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="57">
+      <c r="B59" s="32">
         <v>8</v>
       </c>
-      <c r="C59" s="57">
+      <c r="C59" s="32">
         <v>3</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-      <c r="AH59" s="54"/>
-      <c r="AI59" s="54"/>
-      <c r="AJ59" s="54"/>
-      <c r="AK59" s="54"/>
-      <c r="AL59" s="54"/>
-      <c r="AM59" s="54"/>
-      <c r="AN59" s="54"/>
-      <c r="AO59" s="54"/>
-      <c r="AP59" s="54"/>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A60" s="54" t="s">
+      <c r="D59" s="16"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="57">
+      <c r="B60" s="32">
         <v>4</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="59"/>
-      <c r="Z60" s="59"/>
-      <c r="AA60" s="59"/>
-      <c r="AB60" s="59"/>
-      <c r="AC60" s="54"/>
-      <c r="AD60" s="54"/>
-      <c r="AE60" s="54"/>
-      <c r="AF60" s="54"/>
-      <c r="AG60" s="54"/>
-      <c r="AH60" s="54"/>
-      <c r="AI60" s="54"/>
-      <c r="AJ60" s="54"/>
-      <c r="AK60" s="54"/>
-      <c r="AL60" s="54"/>
-      <c r="AM60" s="54"/>
-      <c r="AN60" s="54"/>
-      <c r="AO60" s="54"/>
-      <c r="AP60" s="54"/>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A61" s="54" t="s">
+      <c r="D60" s="16"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="57">
+      <c r="B61" s="32">
         <v>4</v>
       </c>
-      <c r="C61" s="57">
+      <c r="C61" s="32">
         <v>5</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="59"/>
-      <c r="Z61" s="59"/>
-      <c r="AA61" s="59"/>
-      <c r="AB61" s="59"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="54"/>
-      <c r="AG61" s="54"/>
-      <c r="AH61" s="54"/>
-      <c r="AI61" s="54"/>
-      <c r="AJ61" s="54"/>
-      <c r="AK61" s="54"/>
-      <c r="AL61" s="54"/>
-      <c r="AM61" s="54"/>
-      <c r="AN61" s="54"/>
-      <c r="AO61" s="54"/>
-      <c r="AP61" s="54"/>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A62" s="54" t="s">
+      <c r="D61" s="16"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="57">
+      <c r="B62" s="32">
         <v>3</v>
       </c>
-      <c r="C62" s="57">
+      <c r="C62" s="32">
         <v>7</v>
       </c>
-      <c r="D62" s="55"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="59"/>
-      <c r="AD62" s="59"/>
-      <c r="AE62" s="59"/>
-      <c r="AF62" s="54"/>
-      <c r="AG62" s="54"/>
-      <c r="AH62" s="54"/>
-      <c r="AI62" s="54"/>
-      <c r="AJ62" s="54"/>
-      <c r="AK62" s="54"/>
-      <c r="AL62" s="54"/>
-      <c r="AM62" s="54"/>
-      <c r="AN62" s="54"/>
-      <c r="AO62" s="54"/>
-      <c r="AP62" s="54"/>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A63" s="54" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="35"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="57">
+      <c r="B63" s="32">
         <v>3</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="55"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="54"/>
-      <c r="AD63" s="54"/>
-      <c r="AE63" s="54"/>
-      <c r="AF63" s="59"/>
-      <c r="AG63" s="59"/>
-      <c r="AH63" s="59"/>
-      <c r="AI63" s="54"/>
-      <c r="AJ63" s="54"/>
-      <c r="AK63" s="54"/>
-      <c r="AL63" s="54"/>
-      <c r="AM63" s="54"/>
-      <c r="AN63" s="54"/>
-      <c r="AO63" s="54"/>
-      <c r="AP63" s="54"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.45">
-      <c r="A64" s="54" t="s">
+      <c r="D63" s="16"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63" s="35"/>
+      <c r="AG63" s="35"/>
+      <c r="AH63" s="35"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="57">
+      <c r="B64" s="32">
         <v>4</v>
       </c>
-      <c r="C64" s="57">
+      <c r="C64" s="32">
         <v>10</v>
       </c>
-      <c r="D64" s="55"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
-      <c r="AD64" s="54"/>
-      <c r="AE64" s="54"/>
-      <c r="AF64" s="54"/>
-      <c r="AG64" s="54"/>
-      <c r="AH64" s="54"/>
-      <c r="AI64" s="59"/>
-      <c r="AJ64" s="59"/>
-      <c r="AK64" s="59"/>
-      <c r="AL64" s="59"/>
-      <c r="AM64" s="54"/>
-      <c r="AN64" s="54"/>
-      <c r="AO64" s="54"/>
-      <c r="AP64" s="54"/>
-    </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A65" s="54" t="s">
+      <c r="D64" s="16"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64" s="35"/>
+      <c r="AJ64" s="35"/>
+      <c r="AK64" s="35"/>
+      <c r="AL64" s="35"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+    </row>
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="57">
+      <c r="B65" s="32">
         <v>4</v>
       </c>
-      <c r="C65" s="57">
+      <c r="C65" s="32">
         <v>11</v>
       </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="54"/>
-      <c r="AD65" s="54"/>
-      <c r="AE65" s="54"/>
-      <c r="AF65" s="54"/>
-      <c r="AG65" s="54"/>
-      <c r="AH65" s="54"/>
-      <c r="AI65" s="54"/>
-      <c r="AJ65" s="54"/>
-      <c r="AK65" s="54"/>
-      <c r="AL65" s="54"/>
-      <c r="AM65" s="59"/>
-      <c r="AN65" s="59"/>
-      <c r="AO65" s="59"/>
-      <c r="AP65" s="59"/>
-    </row>
-    <row r="66" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="D65" s="16"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65" s="35"/>
+      <c r="AN65" s="35"/>
+      <c r="AO65" s="35"/>
+      <c r="AP65" s="35"/>
+    </row>
+    <row r="66" spans="1:50" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="14"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>20</v>
       </c>
@@ -2738,7 +2796,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>21</v>
       </c>
@@ -2757,7 +2815,7 @@
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>22</v>
       </c>
@@ -2777,7 +2835,7 @@
       <c r="R69" s="17"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>23</v>
       </c>
@@ -2793,7 +2851,7 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>24</v>
       </c>
@@ -2811,7 +2869,7 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>25</v>
       </c>
@@ -2829,7 +2887,7 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>26</v>
       </c>
@@ -2846,7 +2904,7 @@
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>27</v>
       </c>
@@ -2864,7 +2922,7 @@
       <c r="AL74" s="17"/>
       <c r="AM74" s="17"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>28</v>
       </c>
@@ -2880,7 +2938,7 @@
       <c r="AN75" s="17"/>
       <c r="AO75" s="17"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>29</v>
       </c>
@@ -2898,7 +2956,7 @@
       <c r="AT76" s="17"/>
       <c r="AU76" s="17"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>30</v>
       </c>
@@ -2913,106 +2971,3162 @@
       <c r="AW77" s="17"/>
       <c r="AX77" s="17"/>
     </row>
-    <row r="78" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:50" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="14"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.45">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-    </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A92" s="18" t="s">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="33"/>
+      <c r="S79" s="33"/>
+      <c r="T79" s="33"/>
+      <c r="U79" s="33"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="33"/>
+      <c r="X79" s="33"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="33"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="33"/>
+      <c r="S80" s="33"/>
+      <c r="T80" s="33"/>
+      <c r="U80" s="33"/>
+      <c r="V80" s="33"/>
+      <c r="W80" s="33"/>
+      <c r="X80" s="33"/>
+      <c r="Y80" s="33"/>
+      <c r="Z80" s="33"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+    </row>
+    <row r="81" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="33"/>
+      <c r="U81" s="33"/>
+      <c r="V81" s="33"/>
+      <c r="W81" s="33"/>
+      <c r="X81" s="33"/>
+      <c r="Y81" s="33"/>
+      <c r="Z81" s="33"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+    </row>
+    <row r="82" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="33"/>
+      <c r="V82" s="33"/>
+      <c r="W82" s="33"/>
+      <c r="X82" s="33"/>
+      <c r="Y82" s="33"/>
+      <c r="Z82" s="33"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+    </row>
+    <row r="83" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="33"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="33"/>
+      <c r="X83" s="33"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+    </row>
+    <row r="84" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="33"/>
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+    </row>
+    <row r="85" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="33"/>
+      <c r="V85" s="33"/>
+      <c r="W85" s="33"/>
+      <c r="X85" s="33"/>
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="33"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+    </row>
+    <row r="86" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A86" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="60"/>
+      <c r="T86" s="60"/>
+      <c r="U86" s="60"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+    </row>
+    <row r="87" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="33"/>
+      <c r="T87" s="33"/>
+      <c r="U87" s="33"/>
+      <c r="V87" s="33"/>
+      <c r="W87" s="60"/>
+      <c r="X87" s="60"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+    </row>
+    <row r="88" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="61"/>
+      <c r="X88" s="61"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+    </row>
+    <row r="89" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="61"/>
+      <c r="Z89" s="61"/>
+      <c r="AA89" s="61"/>
+      <c r="AB89" s="61"/>
+      <c r="AC89" s="61"/>
+      <c r="AD89" s="61"/>
+      <c r="AE89" s="61"/>
+      <c r="AF89" s="61"/>
+      <c r="AG89" s="61"/>
+      <c r="AH89" s="61"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+    </row>
+    <row r="90" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="61"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+    </row>
+    <row r="91" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="61"/>
+      <c r="AJ91" s="61"/>
+      <c r="AK91" s="61"/>
+      <c r="AL91" s="61"/>
+      <c r="AM91" s="61"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+    </row>
+    <row r="92" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="61"/>
+      <c r="AO92" s="61"/>
+    </row>
+    <row r="93" spans="1:2498" ht="22" x14ac:dyDescent="0.3">
+      <c r="A93" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="D92" s="10"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A93" s="27" t="s">
+      <c r="B93" s="14"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
+      <c r="Y93" s="9"/>
+      <c r="Z93" s="9"/>
+      <c r="AA93" s="9"/>
+      <c r="AB93" s="9"/>
+      <c r="AC93" s="9"/>
+      <c r="AD93" s="9"/>
+      <c r="AE93" s="9"/>
+      <c r="AF93" s="9"/>
+      <c r="AG93" s="9"/>
+      <c r="AH93" s="9"/>
+      <c r="AI93" s="9"/>
+      <c r="AJ93" s="9"/>
+      <c r="AK93" s="9"/>
+      <c r="AL93" s="9"/>
+      <c r="AM93" s="9"/>
+      <c r="AN93" s="9"/>
+      <c r="AO93" s="9"/>
+      <c r="AP93" s="9"/>
+      <c r="AQ93" s="9"/>
+      <c r="AR93" s="9"/>
+      <c r="AS93" s="9"/>
+      <c r="AT93" s="9"/>
+      <c r="AU93" s="9"/>
+      <c r="AV93" s="9"/>
+      <c r="AW93" s="9"/>
+      <c r="AX93" s="9"/>
+      <c r="AY93" s="9"/>
+      <c r="AZ93" s="9"/>
+      <c r="BA93" s="9"/>
+      <c r="BB93" s="9"/>
+      <c r="BC93" s="9"/>
+      <c r="BD93" s="9"/>
+      <c r="BE93" s="9"/>
+      <c r="BF93" s="9"/>
+      <c r="BG93" s="9"/>
+      <c r="BH93" s="9"/>
+      <c r="BI93" s="9"/>
+      <c r="BJ93" s="9"/>
+      <c r="BK93" s="9"/>
+      <c r="BL93" s="9"/>
+      <c r="BM93" s="9"/>
+      <c r="BN93" s="9"/>
+      <c r="BO93" s="9"/>
+      <c r="BP93" s="9"/>
+      <c r="BQ93" s="9"/>
+      <c r="BR93" s="9"/>
+      <c r="BS93" s="9"/>
+      <c r="BT93" s="9"/>
+      <c r="BU93" s="9"/>
+      <c r="BV93" s="9"/>
+      <c r="BW93" s="9"/>
+      <c r="BX93" s="9"/>
+      <c r="BY93" s="9"/>
+      <c r="BZ93" s="9"/>
+      <c r="CA93" s="9"/>
+      <c r="CB93" s="9"/>
+      <c r="CC93" s="9"/>
+      <c r="CD93" s="9"/>
+      <c r="CE93" s="9"/>
+      <c r="CF93" s="9"/>
+      <c r="CG93" s="9"/>
+      <c r="CH93" s="9"/>
+      <c r="CI93" s="9"/>
+      <c r="CJ93" s="9"/>
+      <c r="CK93" s="9"/>
+      <c r="CL93" s="9"/>
+      <c r="CM93" s="9"/>
+      <c r="CN93" s="9"/>
+      <c r="CO93" s="9"/>
+      <c r="CP93" s="9"/>
+      <c r="CQ93" s="9"/>
+      <c r="CR93" s="9"/>
+      <c r="CS93" s="9"/>
+      <c r="CT93" s="9"/>
+      <c r="CU93" s="9"/>
+      <c r="CV93" s="9"/>
+      <c r="CW93" s="9"/>
+      <c r="CX93" s="9"/>
+      <c r="CY93" s="9"/>
+      <c r="CZ93" s="9"/>
+      <c r="DA93" s="9"/>
+      <c r="DB93" s="9"/>
+      <c r="DC93" s="9"/>
+      <c r="DD93" s="9"/>
+      <c r="DE93" s="9"/>
+      <c r="DF93" s="9"/>
+      <c r="DG93" s="9"/>
+      <c r="DH93" s="9"/>
+      <c r="DI93" s="9"/>
+      <c r="DJ93" s="9"/>
+      <c r="DK93" s="9"/>
+      <c r="DL93" s="9"/>
+      <c r="DM93" s="9"/>
+      <c r="DN93" s="9"/>
+      <c r="DO93" s="9"/>
+      <c r="DP93" s="9"/>
+      <c r="DQ93" s="9"/>
+      <c r="DR93" s="9"/>
+      <c r="DS93" s="9"/>
+      <c r="DT93" s="9"/>
+      <c r="DU93" s="9"/>
+      <c r="DV93" s="9"/>
+      <c r="DW93" s="9"/>
+      <c r="DX93" s="9"/>
+      <c r="DY93" s="9"/>
+      <c r="DZ93" s="9"/>
+      <c r="EA93" s="9"/>
+      <c r="EB93" s="9"/>
+      <c r="EC93" s="9"/>
+      <c r="ED93" s="9"/>
+      <c r="EE93" s="9"/>
+      <c r="EF93" s="9"/>
+      <c r="EG93" s="9"/>
+      <c r="EH93" s="9"/>
+      <c r="EI93" s="9"/>
+      <c r="EJ93" s="9"/>
+      <c r="EK93" s="9"/>
+      <c r="EL93" s="9"/>
+      <c r="EM93" s="9"/>
+      <c r="EN93" s="9"/>
+      <c r="EO93" s="9"/>
+      <c r="EP93" s="9"/>
+      <c r="EQ93" s="9"/>
+      <c r="ER93" s="9"/>
+      <c r="ES93" s="9"/>
+      <c r="ET93" s="9"/>
+      <c r="EU93" s="9"/>
+      <c r="EV93" s="9"/>
+      <c r="EW93" s="9"/>
+      <c r="EX93" s="9"/>
+      <c r="EY93" s="9"/>
+      <c r="EZ93" s="9"/>
+      <c r="FA93" s="9"/>
+      <c r="FB93" s="9"/>
+      <c r="FC93" s="9"/>
+      <c r="FD93" s="9"/>
+      <c r="FE93" s="9"/>
+      <c r="FF93" s="9"/>
+      <c r="FG93" s="9"/>
+      <c r="FH93" s="9"/>
+      <c r="FI93" s="9"/>
+      <c r="FJ93" s="9"/>
+      <c r="FK93" s="9"/>
+      <c r="FL93" s="9"/>
+      <c r="FM93" s="9"/>
+      <c r="FN93" s="9"/>
+      <c r="FO93" s="9"/>
+      <c r="FP93" s="9"/>
+      <c r="FQ93" s="9"/>
+      <c r="FR93" s="9"/>
+      <c r="FS93" s="9"/>
+      <c r="FT93" s="9"/>
+      <c r="FU93" s="9"/>
+      <c r="FV93" s="9"/>
+      <c r="FW93" s="9"/>
+      <c r="FX93" s="9"/>
+      <c r="FY93" s="9"/>
+      <c r="FZ93" s="9"/>
+      <c r="GA93" s="9"/>
+      <c r="GB93" s="9"/>
+      <c r="GC93" s="9"/>
+      <c r="GD93" s="9"/>
+      <c r="GE93" s="9"/>
+      <c r="GF93" s="9"/>
+      <c r="GG93" s="9"/>
+      <c r="GH93" s="9"/>
+      <c r="GI93" s="9"/>
+      <c r="GJ93" s="9"/>
+      <c r="GK93" s="9"/>
+      <c r="GL93" s="9"/>
+      <c r="GM93" s="9"/>
+      <c r="GN93" s="9"/>
+      <c r="GO93" s="9"/>
+      <c r="GP93" s="9"/>
+      <c r="GQ93" s="9"/>
+      <c r="GR93" s="9"/>
+      <c r="GS93" s="9"/>
+      <c r="GT93" s="9"/>
+      <c r="GU93" s="9"/>
+      <c r="GV93" s="9"/>
+      <c r="GW93" s="9"/>
+      <c r="GX93" s="9"/>
+      <c r="GY93" s="9"/>
+      <c r="GZ93" s="9"/>
+      <c r="HA93" s="9"/>
+      <c r="HB93" s="9"/>
+      <c r="HC93" s="9"/>
+      <c r="HD93" s="9"/>
+      <c r="HE93" s="9"/>
+      <c r="HF93" s="9"/>
+      <c r="HG93" s="9"/>
+      <c r="HH93" s="9"/>
+      <c r="HI93" s="9"/>
+      <c r="HJ93" s="9"/>
+      <c r="HK93" s="9"/>
+      <c r="HL93" s="9"/>
+      <c r="HM93" s="9"/>
+      <c r="HN93" s="9"/>
+      <c r="HO93" s="9"/>
+      <c r="HP93" s="9"/>
+      <c r="HQ93" s="9"/>
+      <c r="HR93" s="9"/>
+      <c r="HS93" s="9"/>
+      <c r="HT93" s="9"/>
+      <c r="HU93" s="9"/>
+      <c r="HV93" s="9"/>
+      <c r="HW93" s="9"/>
+      <c r="HX93" s="9"/>
+      <c r="HY93" s="9"/>
+      <c r="HZ93" s="9"/>
+      <c r="IA93" s="9"/>
+      <c r="IB93" s="9"/>
+      <c r="IC93" s="9"/>
+      <c r="ID93" s="9"/>
+      <c r="IE93" s="9"/>
+      <c r="IF93" s="9"/>
+      <c r="IG93" s="9"/>
+      <c r="IH93" s="9"/>
+      <c r="II93" s="9"/>
+      <c r="IJ93" s="9"/>
+      <c r="IK93" s="9"/>
+      <c r="IL93" s="9"/>
+      <c r="IM93" s="9"/>
+      <c r="IN93" s="9"/>
+      <c r="IO93" s="9"/>
+      <c r="IP93" s="9"/>
+      <c r="IQ93" s="9"/>
+      <c r="IR93" s="9"/>
+      <c r="IS93" s="9"/>
+      <c r="IT93" s="9"/>
+      <c r="IU93" s="9"/>
+      <c r="IV93" s="9"/>
+      <c r="IW93" s="9"/>
+      <c r="IX93" s="9"/>
+      <c r="IY93" s="9"/>
+      <c r="IZ93" s="9"/>
+      <c r="JA93" s="9"/>
+      <c r="JB93" s="9"/>
+      <c r="JC93" s="9"/>
+      <c r="JD93" s="9"/>
+      <c r="JE93" s="9"/>
+      <c r="JF93" s="9"/>
+      <c r="JG93" s="9"/>
+      <c r="JH93" s="9"/>
+      <c r="JI93" s="9"/>
+      <c r="JJ93" s="9"/>
+      <c r="JK93" s="9"/>
+      <c r="JL93" s="9"/>
+      <c r="JM93" s="9"/>
+      <c r="JN93" s="9"/>
+      <c r="JO93" s="9"/>
+      <c r="JP93" s="9"/>
+      <c r="JQ93" s="9"/>
+      <c r="JR93" s="9"/>
+      <c r="JS93" s="9"/>
+      <c r="JT93" s="9"/>
+      <c r="JU93" s="9"/>
+      <c r="JV93" s="9"/>
+      <c r="JW93" s="9"/>
+      <c r="JX93" s="9"/>
+      <c r="JY93" s="9"/>
+      <c r="JZ93" s="9"/>
+      <c r="KA93" s="9"/>
+      <c r="KB93" s="9"/>
+      <c r="KC93" s="9"/>
+      <c r="KD93" s="9"/>
+      <c r="KE93" s="9"/>
+      <c r="KF93" s="9"/>
+      <c r="KG93" s="9"/>
+      <c r="KH93" s="9"/>
+      <c r="KI93" s="9"/>
+      <c r="KJ93" s="9"/>
+      <c r="KK93" s="9"/>
+      <c r="KL93" s="9"/>
+      <c r="KM93" s="9"/>
+      <c r="KN93" s="9"/>
+      <c r="KO93" s="9"/>
+      <c r="KP93" s="9"/>
+      <c r="KQ93" s="9"/>
+      <c r="KR93" s="9"/>
+      <c r="KS93" s="9"/>
+      <c r="KT93" s="9"/>
+      <c r="KU93" s="9"/>
+      <c r="KV93" s="9"/>
+      <c r="KW93" s="9"/>
+      <c r="KX93" s="9"/>
+      <c r="KY93" s="9"/>
+      <c r="KZ93" s="9"/>
+      <c r="LA93" s="9"/>
+      <c r="LB93" s="9"/>
+      <c r="LC93" s="9"/>
+      <c r="LD93" s="9"/>
+      <c r="LE93" s="9"/>
+      <c r="LF93" s="9"/>
+      <c r="LG93" s="9"/>
+      <c r="LH93" s="9"/>
+      <c r="LI93" s="9"/>
+      <c r="LJ93" s="9"/>
+      <c r="LK93" s="9"/>
+      <c r="LL93" s="9"/>
+      <c r="LM93" s="9"/>
+      <c r="LN93" s="9"/>
+      <c r="LO93" s="9"/>
+      <c r="LP93" s="9"/>
+      <c r="LQ93" s="9"/>
+      <c r="LR93" s="9"/>
+      <c r="LS93" s="9"/>
+      <c r="LT93" s="9"/>
+      <c r="LU93" s="9"/>
+      <c r="LV93" s="9"/>
+      <c r="LW93" s="9"/>
+      <c r="LX93" s="9"/>
+      <c r="LY93" s="9"/>
+      <c r="LZ93" s="9"/>
+      <c r="MA93" s="9"/>
+      <c r="MB93" s="9"/>
+      <c r="MC93" s="9"/>
+      <c r="MD93" s="9"/>
+      <c r="ME93" s="9"/>
+      <c r="MF93" s="9"/>
+      <c r="MG93" s="9"/>
+      <c r="MH93" s="9"/>
+      <c r="MI93" s="9"/>
+      <c r="MJ93" s="9"/>
+      <c r="MK93" s="9"/>
+      <c r="ML93" s="9"/>
+      <c r="MM93" s="9"/>
+      <c r="MN93" s="9"/>
+      <c r="MO93" s="9"/>
+      <c r="MP93" s="9"/>
+      <c r="MQ93" s="9"/>
+      <c r="MR93" s="9"/>
+      <c r="MS93" s="9"/>
+      <c r="MT93" s="9"/>
+      <c r="MU93" s="9"/>
+      <c r="MV93" s="9"/>
+      <c r="MW93" s="9"/>
+      <c r="MX93" s="9"/>
+      <c r="MY93" s="9"/>
+      <c r="MZ93" s="9"/>
+      <c r="NA93" s="9"/>
+      <c r="NB93" s="9"/>
+      <c r="NC93" s="9"/>
+      <c r="ND93" s="9"/>
+      <c r="NE93" s="9"/>
+      <c r="NF93" s="9"/>
+      <c r="NG93" s="9"/>
+      <c r="NH93" s="9"/>
+      <c r="NI93" s="9"/>
+      <c r="NJ93" s="9"/>
+      <c r="NK93" s="9"/>
+      <c r="NL93" s="9"/>
+      <c r="NM93" s="9"/>
+      <c r="NN93" s="9"/>
+      <c r="NO93" s="9"/>
+      <c r="NP93" s="9"/>
+      <c r="NQ93" s="9"/>
+      <c r="NR93" s="9"/>
+      <c r="NS93" s="9"/>
+      <c r="NT93" s="9"/>
+      <c r="NU93" s="9"/>
+      <c r="NV93" s="9"/>
+      <c r="NW93" s="9"/>
+      <c r="NX93" s="9"/>
+      <c r="NY93" s="9"/>
+      <c r="NZ93" s="9"/>
+      <c r="OA93" s="9"/>
+      <c r="OB93" s="9"/>
+      <c r="OC93" s="9"/>
+      <c r="OD93" s="9"/>
+      <c r="OE93" s="9"/>
+      <c r="OF93" s="9"/>
+      <c r="OG93" s="9"/>
+      <c r="OH93" s="9"/>
+      <c r="OI93" s="9"/>
+      <c r="OJ93" s="9"/>
+      <c r="OK93" s="9"/>
+      <c r="OL93" s="9"/>
+      <c r="OM93" s="9"/>
+      <c r="ON93" s="9"/>
+      <c r="OO93" s="9"/>
+      <c r="OP93" s="9"/>
+      <c r="OQ93" s="9"/>
+      <c r="OR93" s="9"/>
+      <c r="OS93" s="9"/>
+      <c r="OT93" s="9"/>
+      <c r="OU93" s="9"/>
+      <c r="OV93" s="9"/>
+      <c r="OW93" s="9"/>
+      <c r="OX93" s="9"/>
+      <c r="OY93" s="9"/>
+      <c r="OZ93" s="9"/>
+      <c r="PA93" s="9"/>
+      <c r="PB93" s="9"/>
+      <c r="PC93" s="9"/>
+      <c r="PD93" s="9"/>
+      <c r="PE93" s="9"/>
+      <c r="PF93" s="9"/>
+      <c r="PG93" s="9"/>
+      <c r="PH93" s="9"/>
+      <c r="PI93" s="9"/>
+      <c r="PJ93" s="9"/>
+      <c r="PK93" s="9"/>
+      <c r="PL93" s="9"/>
+      <c r="PM93" s="9"/>
+      <c r="PN93" s="9"/>
+      <c r="PO93" s="9"/>
+      <c r="PP93" s="9"/>
+      <c r="PQ93" s="9"/>
+      <c r="PR93" s="9"/>
+      <c r="PS93" s="9"/>
+      <c r="PT93" s="9"/>
+      <c r="PU93" s="9"/>
+      <c r="PV93" s="9"/>
+      <c r="PW93" s="9"/>
+      <c r="PX93" s="9"/>
+      <c r="PY93" s="9"/>
+      <c r="PZ93" s="9"/>
+      <c r="QA93" s="9"/>
+      <c r="QB93" s="9"/>
+      <c r="QC93" s="9"/>
+      <c r="QD93" s="9"/>
+      <c r="QE93" s="9"/>
+      <c r="QF93" s="9"/>
+      <c r="QG93" s="9"/>
+      <c r="QH93" s="9"/>
+      <c r="QI93" s="9"/>
+      <c r="QJ93" s="9"/>
+      <c r="QK93" s="9"/>
+      <c r="QL93" s="9"/>
+      <c r="QM93" s="9"/>
+      <c r="QN93" s="9"/>
+      <c r="QO93" s="9"/>
+      <c r="QP93" s="9"/>
+      <c r="QQ93" s="9"/>
+      <c r="QR93" s="9"/>
+      <c r="QS93" s="9"/>
+      <c r="QT93" s="9"/>
+      <c r="QU93" s="9"/>
+      <c r="QV93" s="9"/>
+      <c r="QW93" s="9"/>
+      <c r="QX93" s="9"/>
+      <c r="QY93" s="9"/>
+      <c r="QZ93" s="9"/>
+      <c r="RA93" s="9"/>
+      <c r="RB93" s="9"/>
+      <c r="RC93" s="9"/>
+      <c r="RD93" s="9"/>
+      <c r="RE93" s="9"/>
+      <c r="RF93" s="9"/>
+      <c r="RG93" s="9"/>
+      <c r="RH93" s="9"/>
+      <c r="RI93" s="9"/>
+      <c r="RJ93" s="9"/>
+      <c r="RK93" s="9"/>
+      <c r="RL93" s="9"/>
+      <c r="RM93" s="9"/>
+      <c r="RN93" s="9"/>
+      <c r="RO93" s="9"/>
+      <c r="RP93" s="9"/>
+      <c r="RQ93" s="9"/>
+      <c r="RR93" s="9"/>
+      <c r="RS93" s="9"/>
+      <c r="RT93" s="9"/>
+      <c r="RU93" s="9"/>
+      <c r="RV93" s="9"/>
+      <c r="RW93" s="9"/>
+      <c r="RX93" s="9"/>
+      <c r="RY93" s="9"/>
+      <c r="RZ93" s="9"/>
+      <c r="SA93" s="9"/>
+      <c r="SB93" s="9"/>
+      <c r="SC93" s="9"/>
+      <c r="SD93" s="9"/>
+      <c r="SE93" s="9"/>
+      <c r="SF93" s="9"/>
+      <c r="SG93" s="9"/>
+      <c r="SH93" s="9"/>
+      <c r="SI93" s="9"/>
+      <c r="SJ93" s="9"/>
+      <c r="SK93" s="9"/>
+      <c r="SL93" s="9"/>
+      <c r="SM93" s="9"/>
+      <c r="SN93" s="9"/>
+      <c r="SO93" s="9"/>
+      <c r="SP93" s="9"/>
+      <c r="SQ93" s="9"/>
+      <c r="SR93" s="9"/>
+      <c r="SS93" s="9"/>
+      <c r="ST93" s="9"/>
+      <c r="SU93" s="9"/>
+      <c r="SV93" s="9"/>
+      <c r="SW93" s="9"/>
+      <c r="SX93" s="9"/>
+      <c r="SY93" s="9"/>
+      <c r="SZ93" s="9"/>
+      <c r="TA93" s="9"/>
+      <c r="TB93" s="9"/>
+      <c r="TC93" s="9"/>
+      <c r="TD93" s="9"/>
+      <c r="TE93" s="9"/>
+      <c r="TF93" s="9"/>
+      <c r="TG93" s="9"/>
+      <c r="TH93" s="9"/>
+      <c r="TI93" s="9"/>
+      <c r="TJ93" s="9"/>
+      <c r="TK93" s="9"/>
+      <c r="TL93" s="9"/>
+      <c r="TM93" s="9"/>
+      <c r="TN93" s="9"/>
+      <c r="TO93" s="9"/>
+      <c r="TP93" s="9"/>
+      <c r="TQ93" s="9"/>
+      <c r="TR93" s="9"/>
+      <c r="TS93" s="9"/>
+      <c r="TT93" s="9"/>
+      <c r="TU93" s="9"/>
+      <c r="TV93" s="9"/>
+      <c r="TW93" s="9"/>
+      <c r="TX93" s="9"/>
+      <c r="TY93" s="9"/>
+      <c r="TZ93" s="9"/>
+      <c r="UA93" s="9"/>
+      <c r="UB93" s="9"/>
+      <c r="UC93" s="9"/>
+      <c r="UD93" s="9"/>
+      <c r="UE93" s="9"/>
+      <c r="UF93" s="9"/>
+      <c r="UG93" s="9"/>
+      <c r="UH93" s="9"/>
+      <c r="UI93" s="9"/>
+      <c r="UJ93" s="9"/>
+      <c r="UK93" s="9"/>
+      <c r="UL93" s="9"/>
+      <c r="UM93" s="9"/>
+      <c r="UN93" s="9"/>
+      <c r="UO93" s="9"/>
+      <c r="UP93" s="9"/>
+      <c r="UQ93" s="9"/>
+      <c r="UR93" s="9"/>
+      <c r="US93" s="9"/>
+      <c r="UT93" s="9"/>
+      <c r="UU93" s="9"/>
+      <c r="UV93" s="9"/>
+      <c r="UW93" s="9"/>
+      <c r="UX93" s="9"/>
+      <c r="UY93" s="9"/>
+      <c r="UZ93" s="9"/>
+      <c r="VA93" s="9"/>
+      <c r="VB93" s="9"/>
+      <c r="VC93" s="9"/>
+      <c r="VD93" s="9"/>
+      <c r="VE93" s="9"/>
+      <c r="VF93" s="9"/>
+      <c r="VG93" s="9"/>
+      <c r="VH93" s="9"/>
+      <c r="VI93" s="9"/>
+      <c r="VJ93" s="9"/>
+      <c r="VK93" s="9"/>
+      <c r="VL93" s="9"/>
+      <c r="VM93" s="9"/>
+      <c r="VN93" s="9"/>
+      <c r="VO93" s="9"/>
+      <c r="VP93" s="9"/>
+      <c r="VQ93" s="9"/>
+      <c r="VR93" s="9"/>
+      <c r="VS93" s="9"/>
+      <c r="VT93" s="9"/>
+      <c r="VU93" s="9"/>
+      <c r="VV93" s="9"/>
+      <c r="VW93" s="9"/>
+      <c r="VX93" s="9"/>
+      <c r="VY93" s="9"/>
+      <c r="VZ93" s="9"/>
+      <c r="WA93" s="9"/>
+      <c r="WB93" s="9"/>
+      <c r="WC93" s="9"/>
+      <c r="WD93" s="9"/>
+      <c r="WE93" s="9"/>
+      <c r="WF93" s="9"/>
+      <c r="WG93" s="9"/>
+      <c r="WH93" s="9"/>
+      <c r="WI93" s="9"/>
+      <c r="WJ93" s="9"/>
+      <c r="WK93" s="9"/>
+      <c r="WL93" s="9"/>
+      <c r="WM93" s="9"/>
+      <c r="WN93" s="9"/>
+      <c r="WO93" s="9"/>
+      <c r="WP93" s="9"/>
+      <c r="WQ93" s="9"/>
+      <c r="WR93" s="9"/>
+      <c r="WS93" s="9"/>
+      <c r="WT93" s="9"/>
+      <c r="WU93" s="9"/>
+      <c r="WV93" s="9"/>
+      <c r="WW93" s="9"/>
+      <c r="WX93" s="9"/>
+      <c r="WY93" s="9"/>
+      <c r="WZ93" s="9"/>
+      <c r="XA93" s="9"/>
+      <c r="XB93" s="9"/>
+      <c r="XC93" s="9"/>
+      <c r="XD93" s="9"/>
+      <c r="XE93" s="9"/>
+      <c r="XF93" s="9"/>
+      <c r="XG93" s="9"/>
+      <c r="XH93" s="9"/>
+      <c r="XI93" s="9"/>
+      <c r="XJ93" s="9"/>
+      <c r="XK93" s="9"/>
+      <c r="XL93" s="9"/>
+      <c r="XM93" s="9"/>
+      <c r="XN93" s="9"/>
+      <c r="XO93" s="9"/>
+      <c r="XP93" s="9"/>
+      <c r="XQ93" s="9"/>
+      <c r="XR93" s="9"/>
+      <c r="XS93" s="9"/>
+      <c r="XT93" s="9"/>
+      <c r="XU93" s="9"/>
+      <c r="XV93" s="9"/>
+      <c r="XW93" s="9"/>
+      <c r="XX93" s="9"/>
+      <c r="XY93" s="9"/>
+      <c r="XZ93" s="9"/>
+      <c r="YA93" s="9"/>
+      <c r="YB93" s="9"/>
+      <c r="YC93" s="9"/>
+      <c r="YD93" s="9"/>
+      <c r="YE93" s="9"/>
+      <c r="YF93" s="9"/>
+      <c r="YG93" s="9"/>
+      <c r="YH93" s="9"/>
+      <c r="YI93" s="9"/>
+      <c r="YJ93" s="9"/>
+      <c r="YK93" s="9"/>
+      <c r="YL93" s="9"/>
+      <c r="YM93" s="9"/>
+      <c r="YN93" s="9"/>
+      <c r="YO93" s="9"/>
+      <c r="YP93" s="9"/>
+      <c r="YQ93" s="9"/>
+      <c r="YR93" s="9"/>
+      <c r="YS93" s="9"/>
+      <c r="YT93" s="9"/>
+      <c r="YU93" s="9"/>
+      <c r="YV93" s="9"/>
+      <c r="YW93" s="9"/>
+      <c r="YX93" s="9"/>
+      <c r="YY93" s="9"/>
+      <c r="YZ93" s="9"/>
+      <c r="ZA93" s="9"/>
+      <c r="ZB93" s="9"/>
+      <c r="ZC93" s="9"/>
+      <c r="ZD93" s="9"/>
+      <c r="ZE93" s="9"/>
+      <c r="ZF93" s="9"/>
+      <c r="ZG93" s="9"/>
+      <c r="ZH93" s="9"/>
+      <c r="ZI93" s="9"/>
+      <c r="ZJ93" s="9"/>
+      <c r="ZK93" s="9"/>
+      <c r="ZL93" s="9"/>
+      <c r="ZM93" s="9"/>
+      <c r="ZN93" s="9"/>
+      <c r="ZO93" s="9"/>
+      <c r="ZP93" s="9"/>
+      <c r="ZQ93" s="9"/>
+      <c r="ZR93" s="9"/>
+      <c r="ZS93" s="9"/>
+      <c r="ZT93" s="9"/>
+      <c r="ZU93" s="9"/>
+      <c r="ZV93" s="9"/>
+      <c r="ZW93" s="9"/>
+      <c r="ZX93" s="9"/>
+      <c r="ZY93" s="9"/>
+      <c r="ZZ93" s="9"/>
+      <c r="AAA93" s="9"/>
+      <c r="AAB93" s="9"/>
+      <c r="AAC93" s="9"/>
+      <c r="AAD93" s="9"/>
+      <c r="AAE93" s="9"/>
+      <c r="AAF93" s="9"/>
+      <c r="AAG93" s="9"/>
+      <c r="AAH93" s="9"/>
+      <c r="AAI93" s="9"/>
+      <c r="AAJ93" s="9"/>
+      <c r="AAK93" s="9"/>
+      <c r="AAL93" s="9"/>
+      <c r="AAM93" s="9"/>
+      <c r="AAN93" s="9"/>
+      <c r="AAO93" s="9"/>
+      <c r="AAP93" s="9"/>
+      <c r="AAQ93" s="9"/>
+      <c r="AAR93" s="9"/>
+      <c r="AAS93" s="9"/>
+      <c r="AAT93" s="9"/>
+      <c r="AAU93" s="9"/>
+      <c r="AAV93" s="9"/>
+      <c r="AAW93" s="9"/>
+      <c r="AAX93" s="9"/>
+      <c r="AAY93" s="9"/>
+      <c r="AAZ93" s="9"/>
+      <c r="ABA93" s="9"/>
+      <c r="ABB93" s="9"/>
+      <c r="ABC93" s="9"/>
+      <c r="ABD93" s="9"/>
+      <c r="ABE93" s="9"/>
+      <c r="ABF93" s="9"/>
+      <c r="ABG93" s="9"/>
+      <c r="ABH93" s="9"/>
+      <c r="ABI93" s="9"/>
+      <c r="ABJ93" s="9"/>
+      <c r="ABK93" s="9"/>
+      <c r="ABL93" s="9"/>
+      <c r="ABM93" s="9"/>
+      <c r="ABN93" s="9"/>
+      <c r="ABO93" s="9"/>
+      <c r="ABP93" s="9"/>
+      <c r="ABQ93" s="9"/>
+      <c r="ABR93" s="9"/>
+      <c r="ABS93" s="9"/>
+      <c r="ABT93" s="9"/>
+      <c r="ABU93" s="9"/>
+      <c r="ABV93" s="9"/>
+      <c r="ABW93" s="9"/>
+      <c r="ABX93" s="9"/>
+      <c r="ABY93" s="9"/>
+      <c r="ABZ93" s="9"/>
+      <c r="ACA93" s="9"/>
+      <c r="ACB93" s="9"/>
+      <c r="ACC93" s="9"/>
+      <c r="ACD93" s="9"/>
+      <c r="ACE93" s="9"/>
+      <c r="ACF93" s="9"/>
+      <c r="ACG93" s="9"/>
+      <c r="ACH93" s="9"/>
+      <c r="ACI93" s="9"/>
+      <c r="ACJ93" s="9"/>
+      <c r="ACK93" s="9"/>
+      <c r="ACL93" s="9"/>
+      <c r="ACM93" s="9"/>
+      <c r="ACN93" s="9"/>
+      <c r="ACO93" s="9"/>
+      <c r="ACP93" s="9"/>
+      <c r="ACQ93" s="9"/>
+      <c r="ACR93" s="9"/>
+      <c r="ACS93" s="9"/>
+      <c r="ACT93" s="9"/>
+      <c r="ACU93" s="9"/>
+      <c r="ACV93" s="9"/>
+      <c r="ACW93" s="9"/>
+      <c r="ACX93" s="9"/>
+      <c r="ACY93" s="9"/>
+      <c r="ACZ93" s="9"/>
+      <c r="ADA93" s="9"/>
+      <c r="ADB93" s="9"/>
+      <c r="ADC93" s="9"/>
+      <c r="ADD93" s="9"/>
+      <c r="ADE93" s="9"/>
+      <c r="ADF93" s="9"/>
+      <c r="ADG93" s="9"/>
+      <c r="ADH93" s="9"/>
+      <c r="ADI93" s="9"/>
+      <c r="ADJ93" s="9"/>
+      <c r="ADK93" s="9"/>
+      <c r="ADL93" s="9"/>
+      <c r="ADM93" s="9"/>
+      <c r="ADN93" s="9"/>
+      <c r="ADO93" s="9"/>
+      <c r="ADP93" s="9"/>
+      <c r="ADQ93" s="9"/>
+      <c r="ADR93" s="9"/>
+      <c r="ADS93" s="9"/>
+      <c r="ADT93" s="9"/>
+      <c r="ADU93" s="9"/>
+      <c r="ADV93" s="9"/>
+      <c r="ADW93" s="9"/>
+      <c r="ADX93" s="9"/>
+      <c r="ADY93" s="9"/>
+      <c r="ADZ93" s="9"/>
+      <c r="AEA93" s="9"/>
+      <c r="AEB93" s="9"/>
+      <c r="AEC93" s="9"/>
+      <c r="AED93" s="9"/>
+      <c r="AEE93" s="9"/>
+      <c r="AEF93" s="9"/>
+      <c r="AEG93" s="9"/>
+      <c r="AEH93" s="9"/>
+      <c r="AEI93" s="9"/>
+      <c r="AEJ93" s="9"/>
+      <c r="AEK93" s="9"/>
+      <c r="AEL93" s="9"/>
+      <c r="AEM93" s="9"/>
+      <c r="AEN93" s="9"/>
+      <c r="AEO93" s="9"/>
+      <c r="AEP93" s="9"/>
+      <c r="AEQ93" s="9"/>
+      <c r="AER93" s="9"/>
+      <c r="AES93" s="9"/>
+      <c r="AET93" s="9"/>
+      <c r="AEU93" s="9"/>
+      <c r="AEV93" s="9"/>
+      <c r="AEW93" s="9"/>
+      <c r="AEX93" s="9"/>
+      <c r="AEY93" s="9"/>
+      <c r="AEZ93" s="9"/>
+      <c r="AFA93" s="9"/>
+      <c r="AFB93" s="9"/>
+      <c r="AFC93" s="9"/>
+      <c r="AFD93" s="9"/>
+      <c r="AFE93" s="9"/>
+      <c r="AFF93" s="9"/>
+      <c r="AFG93" s="9"/>
+      <c r="AFH93" s="9"/>
+      <c r="AFI93" s="9"/>
+      <c r="AFJ93" s="9"/>
+      <c r="AFK93" s="9"/>
+      <c r="AFL93" s="9"/>
+      <c r="AFM93" s="9"/>
+      <c r="AFN93" s="9"/>
+      <c r="AFO93" s="9"/>
+      <c r="AFP93" s="9"/>
+      <c r="AFQ93" s="9"/>
+      <c r="AFR93" s="9"/>
+      <c r="AFS93" s="9"/>
+      <c r="AFT93" s="9"/>
+      <c r="AFU93" s="9"/>
+      <c r="AFV93" s="9"/>
+      <c r="AFW93" s="9"/>
+      <c r="AFX93" s="9"/>
+      <c r="AFY93" s="9"/>
+      <c r="AFZ93" s="9"/>
+      <c r="AGA93" s="9"/>
+      <c r="AGB93" s="9"/>
+      <c r="AGC93" s="9"/>
+      <c r="AGD93" s="9"/>
+      <c r="AGE93" s="9"/>
+      <c r="AGF93" s="9"/>
+      <c r="AGG93" s="9"/>
+      <c r="AGH93" s="9"/>
+      <c r="AGI93" s="9"/>
+      <c r="AGJ93" s="9"/>
+      <c r="AGK93" s="9"/>
+      <c r="AGL93" s="9"/>
+      <c r="AGM93" s="9"/>
+      <c r="AGN93" s="9"/>
+      <c r="AGO93" s="9"/>
+      <c r="AGP93" s="9"/>
+      <c r="AGQ93" s="9"/>
+      <c r="AGR93" s="9"/>
+      <c r="AGS93" s="9"/>
+      <c r="AGT93" s="9"/>
+      <c r="AGU93" s="9"/>
+      <c r="AGV93" s="9"/>
+      <c r="AGW93" s="9"/>
+      <c r="AGX93" s="9"/>
+      <c r="AGY93" s="9"/>
+      <c r="AGZ93" s="9"/>
+      <c r="AHA93" s="9"/>
+      <c r="AHB93" s="9"/>
+      <c r="AHC93" s="9"/>
+      <c r="AHD93" s="9"/>
+      <c r="AHE93" s="9"/>
+      <c r="AHF93" s="9"/>
+      <c r="AHG93" s="9"/>
+      <c r="AHH93" s="9"/>
+      <c r="AHI93" s="9"/>
+      <c r="AHJ93" s="9"/>
+      <c r="AHK93" s="9"/>
+      <c r="AHL93" s="9"/>
+      <c r="AHM93" s="9"/>
+      <c r="AHN93" s="9"/>
+      <c r="AHO93" s="9"/>
+      <c r="AHP93" s="9"/>
+      <c r="AHQ93" s="9"/>
+      <c r="AHR93" s="9"/>
+      <c r="AHS93" s="9"/>
+      <c r="AHT93" s="9"/>
+      <c r="AHU93" s="9"/>
+      <c r="AHV93" s="9"/>
+      <c r="AHW93" s="9"/>
+      <c r="AHX93" s="9"/>
+      <c r="AHY93" s="9"/>
+      <c r="AHZ93" s="9"/>
+      <c r="AIA93" s="9"/>
+      <c r="AIB93" s="9"/>
+      <c r="AIC93" s="9"/>
+      <c r="AID93" s="9"/>
+      <c r="AIE93" s="9"/>
+      <c r="AIF93" s="9"/>
+      <c r="AIG93" s="9"/>
+      <c r="AIH93" s="9"/>
+      <c r="AII93" s="9"/>
+      <c r="AIJ93" s="9"/>
+      <c r="AIK93" s="9"/>
+      <c r="AIL93" s="9"/>
+      <c r="AIM93" s="9"/>
+      <c r="AIN93" s="9"/>
+      <c r="AIO93" s="9"/>
+      <c r="AIP93" s="9"/>
+      <c r="AIQ93" s="9"/>
+      <c r="AIR93" s="9"/>
+      <c r="AIS93" s="9"/>
+      <c r="AIT93" s="9"/>
+      <c r="AIU93" s="9"/>
+      <c r="AIV93" s="9"/>
+      <c r="AIW93" s="9"/>
+      <c r="AIX93" s="9"/>
+      <c r="AIY93" s="9"/>
+      <c r="AIZ93" s="9"/>
+      <c r="AJA93" s="9"/>
+      <c r="AJB93" s="9"/>
+      <c r="AJC93" s="9"/>
+      <c r="AJD93" s="9"/>
+      <c r="AJE93" s="9"/>
+      <c r="AJF93" s="9"/>
+      <c r="AJG93" s="9"/>
+      <c r="AJH93" s="9"/>
+      <c r="AJI93" s="9"/>
+      <c r="AJJ93" s="9"/>
+      <c r="AJK93" s="9"/>
+      <c r="AJL93" s="9"/>
+      <c r="AJM93" s="9"/>
+      <c r="AJN93" s="9"/>
+      <c r="AJO93" s="9"/>
+      <c r="AJP93" s="9"/>
+      <c r="AJQ93" s="9"/>
+      <c r="AJR93" s="9"/>
+      <c r="AJS93" s="9"/>
+      <c r="AJT93" s="9"/>
+      <c r="AJU93" s="9"/>
+      <c r="AJV93" s="9"/>
+      <c r="AJW93" s="9"/>
+      <c r="AJX93" s="9"/>
+      <c r="AJY93" s="9"/>
+      <c r="AJZ93" s="9"/>
+      <c r="AKA93" s="9"/>
+      <c r="AKB93" s="9"/>
+      <c r="AKC93" s="9"/>
+      <c r="AKD93" s="9"/>
+      <c r="AKE93" s="9"/>
+      <c r="AKF93" s="9"/>
+      <c r="AKG93" s="9"/>
+      <c r="AKH93" s="9"/>
+      <c r="AKI93" s="9"/>
+      <c r="AKJ93" s="9"/>
+      <c r="AKK93" s="9"/>
+      <c r="AKL93" s="9"/>
+      <c r="AKM93" s="9"/>
+      <c r="AKN93" s="9"/>
+      <c r="AKO93" s="9"/>
+      <c r="AKP93" s="9"/>
+      <c r="AKQ93" s="9"/>
+      <c r="AKR93" s="9"/>
+      <c r="AKS93" s="9"/>
+      <c r="AKT93" s="9"/>
+      <c r="AKU93" s="9"/>
+      <c r="AKV93" s="9"/>
+      <c r="AKW93" s="9"/>
+      <c r="AKX93" s="9"/>
+      <c r="AKY93" s="9"/>
+      <c r="AKZ93" s="9"/>
+      <c r="ALA93" s="9"/>
+      <c r="ALB93" s="9"/>
+      <c r="ALC93" s="9"/>
+      <c r="ALD93" s="9"/>
+      <c r="ALE93" s="9"/>
+      <c r="ALF93" s="9"/>
+      <c r="ALG93" s="9"/>
+      <c r="ALH93" s="9"/>
+      <c r="ALI93" s="9"/>
+      <c r="ALJ93" s="9"/>
+      <c r="ALK93" s="9"/>
+      <c r="ALL93" s="9"/>
+      <c r="ALM93" s="9"/>
+      <c r="ALN93" s="9"/>
+      <c r="ALO93" s="9"/>
+      <c r="ALP93" s="9"/>
+      <c r="ALQ93" s="9"/>
+      <c r="ALR93" s="9"/>
+      <c r="ALS93" s="9"/>
+      <c r="ALT93" s="9"/>
+      <c r="ALU93" s="9"/>
+      <c r="ALV93" s="9"/>
+      <c r="ALW93" s="9"/>
+      <c r="ALX93" s="9"/>
+      <c r="ALY93" s="9"/>
+      <c r="ALZ93" s="9"/>
+      <c r="AMA93" s="9"/>
+      <c r="AMB93" s="9"/>
+      <c r="AMC93" s="9"/>
+      <c r="AMD93" s="9"/>
+      <c r="AME93" s="9"/>
+      <c r="AMF93" s="9"/>
+      <c r="AMG93" s="9"/>
+      <c r="AMH93" s="9"/>
+      <c r="AMI93" s="9"/>
+      <c r="AMJ93" s="9"/>
+      <c r="AMK93" s="9"/>
+      <c r="AML93" s="9"/>
+      <c r="AMM93" s="9"/>
+      <c r="AMN93" s="9"/>
+      <c r="AMO93" s="9"/>
+      <c r="AMP93" s="9"/>
+      <c r="AMQ93" s="9"/>
+      <c r="AMR93" s="9"/>
+      <c r="AMS93" s="9"/>
+      <c r="AMT93" s="9"/>
+      <c r="AMU93" s="9"/>
+      <c r="AMV93" s="9"/>
+      <c r="AMW93" s="9"/>
+      <c r="AMX93" s="9"/>
+      <c r="AMY93" s="9"/>
+      <c r="AMZ93" s="9"/>
+      <c r="ANA93" s="9"/>
+      <c r="ANB93" s="9"/>
+      <c r="ANC93" s="9"/>
+      <c r="AND93" s="9"/>
+      <c r="ANE93" s="9"/>
+      <c r="ANF93" s="9"/>
+      <c r="ANG93" s="9"/>
+      <c r="ANH93" s="9"/>
+      <c r="ANI93" s="9"/>
+      <c r="ANJ93" s="9"/>
+      <c r="ANK93" s="9"/>
+      <c r="ANL93" s="9"/>
+      <c r="ANM93" s="9"/>
+      <c r="ANN93" s="9"/>
+      <c r="ANO93" s="9"/>
+      <c r="ANP93" s="9"/>
+      <c r="ANQ93" s="9"/>
+      <c r="ANR93" s="9"/>
+      <c r="ANS93" s="9"/>
+      <c r="ANT93" s="9"/>
+      <c r="ANU93" s="9"/>
+      <c r="ANV93" s="9"/>
+      <c r="ANW93" s="9"/>
+      <c r="ANX93" s="9"/>
+      <c r="ANY93" s="9"/>
+      <c r="ANZ93" s="9"/>
+      <c r="AOA93" s="9"/>
+      <c r="AOB93" s="9"/>
+      <c r="AOC93" s="9"/>
+      <c r="AOD93" s="9"/>
+      <c r="AOE93" s="9"/>
+      <c r="AOF93" s="9"/>
+      <c r="AOG93" s="9"/>
+      <c r="AOH93" s="9"/>
+      <c r="AOI93" s="9"/>
+      <c r="AOJ93" s="9"/>
+      <c r="AOK93" s="9"/>
+      <c r="AOL93" s="9"/>
+      <c r="AOM93" s="9"/>
+      <c r="AON93" s="9"/>
+      <c r="AOO93" s="9"/>
+      <c r="AOP93" s="9"/>
+      <c r="AOQ93" s="9"/>
+      <c r="AOR93" s="9"/>
+      <c r="AOS93" s="9"/>
+      <c r="AOT93" s="9"/>
+      <c r="AOU93" s="9"/>
+      <c r="AOV93" s="9"/>
+      <c r="AOW93" s="9"/>
+      <c r="AOX93" s="9"/>
+      <c r="AOY93" s="9"/>
+      <c r="AOZ93" s="9"/>
+      <c r="APA93" s="9"/>
+      <c r="APB93" s="9"/>
+      <c r="APC93" s="9"/>
+      <c r="APD93" s="9"/>
+      <c r="APE93" s="9"/>
+      <c r="APF93" s="9"/>
+      <c r="APG93" s="9"/>
+      <c r="APH93" s="9"/>
+      <c r="API93" s="9"/>
+      <c r="APJ93" s="9"/>
+      <c r="APK93" s="9"/>
+      <c r="APL93" s="9"/>
+      <c r="APM93" s="9"/>
+      <c r="APN93" s="9"/>
+      <c r="APO93" s="9"/>
+      <c r="APP93" s="9"/>
+      <c r="APQ93" s="9"/>
+      <c r="APR93" s="9"/>
+      <c r="APS93" s="9"/>
+      <c r="APT93" s="9"/>
+      <c r="APU93" s="9"/>
+      <c r="APV93" s="9"/>
+      <c r="APW93" s="9"/>
+      <c r="APX93" s="9"/>
+      <c r="APY93" s="9"/>
+      <c r="APZ93" s="9"/>
+      <c r="AQA93" s="9"/>
+      <c r="AQB93" s="9"/>
+      <c r="AQC93" s="9"/>
+      <c r="AQD93" s="9"/>
+      <c r="AQE93" s="9"/>
+      <c r="AQF93" s="9"/>
+      <c r="AQG93" s="9"/>
+      <c r="AQH93" s="9"/>
+      <c r="AQI93" s="9"/>
+      <c r="AQJ93" s="9"/>
+      <c r="AQK93" s="9"/>
+      <c r="AQL93" s="9"/>
+      <c r="AQM93" s="9"/>
+      <c r="AQN93" s="9"/>
+      <c r="AQO93" s="9"/>
+      <c r="AQP93" s="9"/>
+      <c r="AQQ93" s="9"/>
+      <c r="AQR93" s="9"/>
+      <c r="AQS93" s="9"/>
+      <c r="AQT93" s="9"/>
+      <c r="AQU93" s="9"/>
+      <c r="AQV93" s="9"/>
+      <c r="AQW93" s="9"/>
+      <c r="AQX93" s="9"/>
+      <c r="AQY93" s="9"/>
+      <c r="AQZ93" s="9"/>
+      <c r="ARA93" s="9"/>
+      <c r="ARB93" s="9"/>
+      <c r="ARC93" s="9"/>
+      <c r="ARD93" s="9"/>
+      <c r="ARE93" s="9"/>
+      <c r="ARF93" s="9"/>
+      <c r="ARG93" s="9"/>
+      <c r="ARH93" s="9"/>
+      <c r="ARI93" s="9"/>
+      <c r="ARJ93" s="9"/>
+      <c r="ARK93" s="9"/>
+      <c r="ARL93" s="9"/>
+      <c r="ARM93" s="9"/>
+      <c r="ARN93" s="9"/>
+      <c r="ARO93" s="9"/>
+      <c r="ARP93" s="9"/>
+      <c r="ARQ93" s="9"/>
+      <c r="ARR93" s="9"/>
+      <c r="ARS93" s="9"/>
+      <c r="ART93" s="9"/>
+      <c r="ARU93" s="9"/>
+      <c r="ARV93" s="9"/>
+      <c r="ARW93" s="9"/>
+      <c r="ARX93" s="9"/>
+      <c r="ARY93" s="9"/>
+      <c r="ARZ93" s="9"/>
+      <c r="ASA93" s="9"/>
+      <c r="ASB93" s="9"/>
+      <c r="ASC93" s="9"/>
+      <c r="ASD93" s="9"/>
+      <c r="ASE93" s="9"/>
+      <c r="ASF93" s="9"/>
+      <c r="ASG93" s="9"/>
+      <c r="ASH93" s="9"/>
+      <c r="ASI93" s="9"/>
+      <c r="ASJ93" s="9"/>
+      <c r="ASK93" s="9"/>
+      <c r="ASL93" s="9"/>
+      <c r="ASM93" s="9"/>
+      <c r="ASN93" s="9"/>
+      <c r="ASO93" s="9"/>
+      <c r="ASP93" s="9"/>
+      <c r="ASQ93" s="9"/>
+      <c r="ASR93" s="9"/>
+      <c r="ASS93" s="9"/>
+      <c r="AST93" s="9"/>
+      <c r="ASU93" s="9"/>
+      <c r="ASV93" s="9"/>
+      <c r="ASW93" s="9"/>
+      <c r="ASX93" s="9"/>
+      <c r="ASY93" s="9"/>
+      <c r="ASZ93" s="9"/>
+      <c r="ATA93" s="9"/>
+      <c r="ATB93" s="9"/>
+      <c r="ATC93" s="9"/>
+      <c r="ATD93" s="9"/>
+      <c r="ATE93" s="9"/>
+      <c r="ATF93" s="9"/>
+      <c r="ATG93" s="9"/>
+      <c r="ATH93" s="9"/>
+      <c r="ATI93" s="9"/>
+      <c r="ATJ93" s="9"/>
+      <c r="ATK93" s="9"/>
+      <c r="ATL93" s="9"/>
+      <c r="ATM93" s="9"/>
+      <c r="ATN93" s="9"/>
+      <c r="ATO93" s="9"/>
+      <c r="ATP93" s="9"/>
+      <c r="ATQ93" s="9"/>
+      <c r="ATR93" s="9"/>
+      <c r="ATS93" s="9"/>
+      <c r="ATT93" s="9"/>
+      <c r="ATU93" s="9"/>
+      <c r="ATV93" s="9"/>
+      <c r="ATW93" s="9"/>
+      <c r="ATX93" s="9"/>
+      <c r="ATY93" s="9"/>
+      <c r="ATZ93" s="9"/>
+      <c r="AUA93" s="9"/>
+      <c r="AUB93" s="9"/>
+      <c r="AUC93" s="9"/>
+      <c r="AUD93" s="9"/>
+      <c r="AUE93" s="9"/>
+      <c r="AUF93" s="9"/>
+      <c r="AUG93" s="9"/>
+      <c r="AUH93" s="9"/>
+      <c r="AUI93" s="9"/>
+      <c r="AUJ93" s="9"/>
+      <c r="AUK93" s="9"/>
+      <c r="AUL93" s="9"/>
+      <c r="AUM93" s="9"/>
+      <c r="AUN93" s="9"/>
+      <c r="AUO93" s="9"/>
+      <c r="AUP93" s="9"/>
+      <c r="AUQ93" s="9"/>
+      <c r="AUR93" s="9"/>
+      <c r="AUS93" s="9"/>
+      <c r="AUT93" s="9"/>
+      <c r="AUU93" s="9"/>
+      <c r="AUV93" s="9"/>
+      <c r="AUW93" s="9"/>
+      <c r="AUX93" s="9"/>
+      <c r="AUY93" s="9"/>
+      <c r="AUZ93" s="9"/>
+      <c r="AVA93" s="9"/>
+      <c r="AVB93" s="9"/>
+      <c r="AVC93" s="9"/>
+      <c r="AVD93" s="9"/>
+      <c r="AVE93" s="9"/>
+      <c r="AVF93" s="9"/>
+      <c r="AVG93" s="9"/>
+      <c r="AVH93" s="9"/>
+      <c r="AVI93" s="9"/>
+      <c r="AVJ93" s="9"/>
+      <c r="AVK93" s="9"/>
+      <c r="AVL93" s="9"/>
+      <c r="AVM93" s="9"/>
+      <c r="AVN93" s="9"/>
+      <c r="AVO93" s="9"/>
+      <c r="AVP93" s="9"/>
+      <c r="AVQ93" s="9"/>
+      <c r="AVR93" s="9"/>
+      <c r="AVS93" s="9"/>
+      <c r="AVT93" s="9"/>
+      <c r="AVU93" s="9"/>
+      <c r="AVV93" s="9"/>
+      <c r="AVW93" s="9"/>
+      <c r="AVX93" s="9"/>
+      <c r="AVY93" s="9"/>
+      <c r="AVZ93" s="9"/>
+      <c r="AWA93" s="9"/>
+      <c r="AWB93" s="9"/>
+      <c r="AWC93" s="9"/>
+      <c r="AWD93" s="9"/>
+      <c r="AWE93" s="9"/>
+      <c r="AWF93" s="9"/>
+      <c r="AWG93" s="9"/>
+      <c r="AWH93" s="9"/>
+      <c r="AWI93" s="9"/>
+      <c r="AWJ93" s="9"/>
+      <c r="AWK93" s="9"/>
+      <c r="AWL93" s="9"/>
+      <c r="AWM93" s="9"/>
+      <c r="AWN93" s="9"/>
+      <c r="AWO93" s="9"/>
+      <c r="AWP93" s="9"/>
+      <c r="AWQ93" s="9"/>
+      <c r="AWR93" s="9"/>
+      <c r="AWS93" s="9"/>
+      <c r="AWT93" s="9"/>
+      <c r="AWU93" s="9"/>
+      <c r="AWV93" s="9"/>
+      <c r="AWW93" s="9"/>
+      <c r="AWX93" s="9"/>
+      <c r="AWY93" s="9"/>
+      <c r="AWZ93" s="9"/>
+      <c r="AXA93" s="9"/>
+      <c r="AXB93" s="9"/>
+      <c r="AXC93" s="9"/>
+      <c r="AXD93" s="9"/>
+      <c r="AXE93" s="9"/>
+      <c r="AXF93" s="9"/>
+      <c r="AXG93" s="9"/>
+      <c r="AXH93" s="9"/>
+      <c r="AXI93" s="9"/>
+      <c r="AXJ93" s="9"/>
+      <c r="AXK93" s="9"/>
+      <c r="AXL93" s="9"/>
+      <c r="AXM93" s="9"/>
+      <c r="AXN93" s="9"/>
+      <c r="AXO93" s="9"/>
+      <c r="AXP93" s="9"/>
+      <c r="AXQ93" s="9"/>
+      <c r="AXR93" s="9"/>
+      <c r="AXS93" s="9"/>
+      <c r="AXT93" s="9"/>
+      <c r="AXU93" s="9"/>
+      <c r="AXV93" s="9"/>
+      <c r="AXW93" s="9"/>
+      <c r="AXX93" s="9"/>
+      <c r="AXY93" s="9"/>
+      <c r="AXZ93" s="9"/>
+      <c r="AYA93" s="9"/>
+      <c r="AYB93" s="9"/>
+      <c r="AYC93" s="9"/>
+      <c r="AYD93" s="9"/>
+      <c r="AYE93" s="9"/>
+      <c r="AYF93" s="9"/>
+      <c r="AYG93" s="9"/>
+      <c r="AYH93" s="9"/>
+      <c r="AYI93" s="9"/>
+      <c r="AYJ93" s="9"/>
+      <c r="AYK93" s="9"/>
+      <c r="AYL93" s="9"/>
+      <c r="AYM93" s="9"/>
+      <c r="AYN93" s="9"/>
+      <c r="AYO93" s="9"/>
+      <c r="AYP93" s="9"/>
+      <c r="AYQ93" s="9"/>
+      <c r="AYR93" s="9"/>
+      <c r="AYS93" s="9"/>
+      <c r="AYT93" s="9"/>
+      <c r="AYU93" s="9"/>
+      <c r="AYV93" s="9"/>
+      <c r="AYW93" s="9"/>
+      <c r="AYX93" s="9"/>
+      <c r="AYY93" s="9"/>
+      <c r="AYZ93" s="9"/>
+      <c r="AZA93" s="9"/>
+      <c r="AZB93" s="9"/>
+      <c r="AZC93" s="9"/>
+      <c r="AZD93" s="9"/>
+      <c r="AZE93" s="9"/>
+      <c r="AZF93" s="9"/>
+      <c r="AZG93" s="9"/>
+      <c r="AZH93" s="9"/>
+      <c r="AZI93" s="9"/>
+      <c r="AZJ93" s="9"/>
+      <c r="AZK93" s="9"/>
+      <c r="AZL93" s="9"/>
+      <c r="AZM93" s="9"/>
+      <c r="AZN93" s="9"/>
+      <c r="AZO93" s="9"/>
+      <c r="AZP93" s="9"/>
+      <c r="AZQ93" s="9"/>
+      <c r="AZR93" s="9"/>
+      <c r="AZS93" s="9"/>
+      <c r="AZT93" s="9"/>
+      <c r="AZU93" s="9"/>
+      <c r="AZV93" s="9"/>
+      <c r="AZW93" s="9"/>
+      <c r="AZX93" s="9"/>
+      <c r="AZY93" s="9"/>
+      <c r="AZZ93" s="9"/>
+      <c r="BAA93" s="9"/>
+      <c r="BAB93" s="9"/>
+      <c r="BAC93" s="9"/>
+      <c r="BAD93" s="9"/>
+      <c r="BAE93" s="9"/>
+      <c r="BAF93" s="9"/>
+      <c r="BAG93" s="9"/>
+      <c r="BAH93" s="9"/>
+      <c r="BAI93" s="9"/>
+      <c r="BAJ93" s="9"/>
+      <c r="BAK93" s="9"/>
+      <c r="BAL93" s="9"/>
+      <c r="BAM93" s="9"/>
+      <c r="BAN93" s="9"/>
+      <c r="BAO93" s="9"/>
+      <c r="BAP93" s="9"/>
+      <c r="BAQ93" s="9"/>
+      <c r="BAR93" s="9"/>
+      <c r="BAS93" s="9"/>
+      <c r="BAT93" s="9"/>
+      <c r="BAU93" s="9"/>
+      <c r="BAV93" s="9"/>
+      <c r="BAW93" s="9"/>
+      <c r="BAX93" s="9"/>
+      <c r="BAY93" s="9"/>
+      <c r="BAZ93" s="9"/>
+      <c r="BBA93" s="9"/>
+      <c r="BBB93" s="9"/>
+      <c r="BBC93" s="9"/>
+      <c r="BBD93" s="9"/>
+      <c r="BBE93" s="9"/>
+      <c r="BBF93" s="9"/>
+      <c r="BBG93" s="9"/>
+      <c r="BBH93" s="9"/>
+      <c r="BBI93" s="9"/>
+      <c r="BBJ93" s="9"/>
+      <c r="BBK93" s="9"/>
+      <c r="BBL93" s="9"/>
+      <c r="BBM93" s="9"/>
+      <c r="BBN93" s="9"/>
+      <c r="BBO93" s="9"/>
+      <c r="BBP93" s="9"/>
+      <c r="BBQ93" s="9"/>
+      <c r="BBR93" s="9"/>
+      <c r="BBS93" s="9"/>
+      <c r="BBT93" s="9"/>
+      <c r="BBU93" s="9"/>
+      <c r="BBV93" s="9"/>
+      <c r="BBW93" s="9"/>
+      <c r="BBX93" s="9"/>
+      <c r="BBY93" s="9"/>
+      <c r="BBZ93" s="9"/>
+      <c r="BCA93" s="9"/>
+      <c r="BCB93" s="9"/>
+      <c r="BCC93" s="9"/>
+      <c r="BCD93" s="9"/>
+      <c r="BCE93" s="9"/>
+      <c r="BCF93" s="9"/>
+      <c r="BCG93" s="9"/>
+      <c r="BCH93" s="9"/>
+      <c r="BCI93" s="9"/>
+      <c r="BCJ93" s="9"/>
+      <c r="BCK93" s="9"/>
+      <c r="BCL93" s="9"/>
+      <c r="BCM93" s="9"/>
+      <c r="BCN93" s="9"/>
+      <c r="BCO93" s="9"/>
+      <c r="BCP93" s="9"/>
+      <c r="BCQ93" s="9"/>
+      <c r="BCR93" s="9"/>
+      <c r="BCS93" s="9"/>
+      <c r="BCT93" s="9"/>
+      <c r="BCU93" s="9"/>
+      <c r="BCV93" s="9"/>
+      <c r="BCW93" s="9"/>
+      <c r="BCX93" s="9"/>
+      <c r="BCY93" s="9"/>
+      <c r="BCZ93" s="9"/>
+      <c r="BDA93" s="9"/>
+      <c r="BDB93" s="9"/>
+      <c r="BDC93" s="9"/>
+      <c r="BDD93" s="9"/>
+      <c r="BDE93" s="9"/>
+      <c r="BDF93" s="9"/>
+      <c r="BDG93" s="9"/>
+      <c r="BDH93" s="9"/>
+      <c r="BDI93" s="9"/>
+      <c r="BDJ93" s="9"/>
+      <c r="BDK93" s="9"/>
+      <c r="BDL93" s="9"/>
+      <c r="BDM93" s="9"/>
+      <c r="BDN93" s="9"/>
+      <c r="BDO93" s="9"/>
+      <c r="BDP93" s="9"/>
+      <c r="BDQ93" s="9"/>
+      <c r="BDR93" s="9"/>
+      <c r="BDS93" s="9"/>
+      <c r="BDT93" s="9"/>
+      <c r="BDU93" s="9"/>
+      <c r="BDV93" s="9"/>
+      <c r="BDW93" s="9"/>
+      <c r="BDX93" s="9"/>
+      <c r="BDY93" s="9"/>
+      <c r="BDZ93" s="9"/>
+      <c r="BEA93" s="9"/>
+      <c r="BEB93" s="9"/>
+      <c r="BEC93" s="9"/>
+      <c r="BED93" s="9"/>
+      <c r="BEE93" s="9"/>
+      <c r="BEF93" s="9"/>
+      <c r="BEG93" s="9"/>
+      <c r="BEH93" s="9"/>
+      <c r="BEI93" s="9"/>
+      <c r="BEJ93" s="9"/>
+      <c r="BEK93" s="9"/>
+      <c r="BEL93" s="9"/>
+      <c r="BEM93" s="9"/>
+      <c r="BEN93" s="9"/>
+      <c r="BEO93" s="9"/>
+      <c r="BEP93" s="9"/>
+      <c r="BEQ93" s="9"/>
+      <c r="BER93" s="9"/>
+      <c r="BES93" s="9"/>
+      <c r="BET93" s="9"/>
+      <c r="BEU93" s="9"/>
+      <c r="BEV93" s="9"/>
+      <c r="BEW93" s="9"/>
+      <c r="BEX93" s="9"/>
+      <c r="BEY93" s="9"/>
+      <c r="BEZ93" s="9"/>
+      <c r="BFA93" s="9"/>
+      <c r="BFB93" s="9"/>
+      <c r="BFC93" s="9"/>
+      <c r="BFD93" s="9"/>
+      <c r="BFE93" s="9"/>
+      <c r="BFF93" s="9"/>
+      <c r="BFG93" s="9"/>
+      <c r="BFH93" s="9"/>
+      <c r="BFI93" s="9"/>
+      <c r="BFJ93" s="9"/>
+      <c r="BFK93" s="9"/>
+      <c r="BFL93" s="9"/>
+      <c r="BFM93" s="9"/>
+      <c r="BFN93" s="9"/>
+      <c r="BFO93" s="9"/>
+      <c r="BFP93" s="9"/>
+      <c r="BFQ93" s="9"/>
+      <c r="BFR93" s="9"/>
+      <c r="BFS93" s="9"/>
+      <c r="BFT93" s="9"/>
+      <c r="BFU93" s="9"/>
+      <c r="BFV93" s="9"/>
+      <c r="BFW93" s="9"/>
+      <c r="BFX93" s="9"/>
+      <c r="BFY93" s="9"/>
+      <c r="BFZ93" s="9"/>
+      <c r="BGA93" s="9"/>
+      <c r="BGB93" s="9"/>
+      <c r="BGC93" s="9"/>
+      <c r="BGD93" s="9"/>
+      <c r="BGE93" s="9"/>
+      <c r="BGF93" s="9"/>
+      <c r="BGG93" s="9"/>
+      <c r="BGH93" s="9"/>
+      <c r="BGI93" s="9"/>
+      <c r="BGJ93" s="9"/>
+      <c r="BGK93" s="9"/>
+      <c r="BGL93" s="9"/>
+      <c r="BGM93" s="9"/>
+      <c r="BGN93" s="9"/>
+      <c r="BGO93" s="9"/>
+      <c r="BGP93" s="9"/>
+      <c r="BGQ93" s="9"/>
+      <c r="BGR93" s="9"/>
+      <c r="BGS93" s="9"/>
+      <c r="BGT93" s="9"/>
+      <c r="BGU93" s="9"/>
+      <c r="BGV93" s="9"/>
+      <c r="BGW93" s="9"/>
+      <c r="BGX93" s="9"/>
+      <c r="BGY93" s="9"/>
+      <c r="BGZ93" s="9"/>
+      <c r="BHA93" s="9"/>
+      <c r="BHB93" s="9"/>
+      <c r="BHC93" s="9"/>
+      <c r="BHD93" s="9"/>
+      <c r="BHE93" s="9"/>
+      <c r="BHF93" s="9"/>
+      <c r="BHG93" s="9"/>
+      <c r="BHH93" s="9"/>
+      <c r="BHI93" s="9"/>
+      <c r="BHJ93" s="9"/>
+      <c r="BHK93" s="9"/>
+      <c r="BHL93" s="9"/>
+      <c r="BHM93" s="9"/>
+      <c r="BHN93" s="9"/>
+      <c r="BHO93" s="9"/>
+      <c r="BHP93" s="9"/>
+      <c r="BHQ93" s="9"/>
+      <c r="BHR93" s="9"/>
+      <c r="BHS93" s="9"/>
+      <c r="BHT93" s="9"/>
+      <c r="BHU93" s="9"/>
+      <c r="BHV93" s="9"/>
+      <c r="BHW93" s="9"/>
+      <c r="BHX93" s="9"/>
+      <c r="BHY93" s="9"/>
+      <c r="BHZ93" s="9"/>
+      <c r="BIA93" s="9"/>
+      <c r="BIB93" s="9"/>
+      <c r="BIC93" s="9"/>
+      <c r="BID93" s="9"/>
+      <c r="BIE93" s="9"/>
+      <c r="BIF93" s="9"/>
+      <c r="BIG93" s="9"/>
+      <c r="BIH93" s="9"/>
+      <c r="BII93" s="9"/>
+      <c r="BIJ93" s="9"/>
+      <c r="BIK93" s="9"/>
+      <c r="BIL93" s="9"/>
+      <c r="BIM93" s="9"/>
+      <c r="BIN93" s="9"/>
+      <c r="BIO93" s="9"/>
+      <c r="BIP93" s="9"/>
+      <c r="BIQ93" s="9"/>
+      <c r="BIR93" s="9"/>
+      <c r="BIS93" s="9"/>
+      <c r="BIT93" s="9"/>
+      <c r="BIU93" s="9"/>
+      <c r="BIV93" s="9"/>
+      <c r="BIW93" s="9"/>
+      <c r="BIX93" s="9"/>
+      <c r="BIY93" s="9"/>
+      <c r="BIZ93" s="9"/>
+      <c r="BJA93" s="9"/>
+      <c r="BJB93" s="9"/>
+      <c r="BJC93" s="9"/>
+      <c r="BJD93" s="9"/>
+      <c r="BJE93" s="9"/>
+      <c r="BJF93" s="9"/>
+      <c r="BJG93" s="9"/>
+      <c r="BJH93" s="9"/>
+      <c r="BJI93" s="9"/>
+      <c r="BJJ93" s="9"/>
+      <c r="BJK93" s="9"/>
+      <c r="BJL93" s="9"/>
+      <c r="BJM93" s="9"/>
+      <c r="BJN93" s="9"/>
+      <c r="BJO93" s="9"/>
+      <c r="BJP93" s="9"/>
+      <c r="BJQ93" s="9"/>
+      <c r="BJR93" s="9"/>
+      <c r="BJS93" s="9"/>
+      <c r="BJT93" s="9"/>
+      <c r="BJU93" s="9"/>
+      <c r="BJV93" s="9"/>
+      <c r="BJW93" s="9"/>
+      <c r="BJX93" s="9"/>
+      <c r="BJY93" s="9"/>
+      <c r="BJZ93" s="9"/>
+      <c r="BKA93" s="9"/>
+      <c r="BKB93" s="9"/>
+      <c r="BKC93" s="9"/>
+      <c r="BKD93" s="9"/>
+      <c r="BKE93" s="9"/>
+      <c r="BKF93" s="9"/>
+      <c r="BKG93" s="9"/>
+      <c r="BKH93" s="9"/>
+      <c r="BKI93" s="9"/>
+      <c r="BKJ93" s="9"/>
+      <c r="BKK93" s="9"/>
+      <c r="BKL93" s="9"/>
+      <c r="BKM93" s="9"/>
+      <c r="BKN93" s="9"/>
+      <c r="BKO93" s="9"/>
+      <c r="BKP93" s="9"/>
+      <c r="BKQ93" s="9"/>
+      <c r="BKR93" s="9"/>
+      <c r="BKS93" s="9"/>
+      <c r="BKT93" s="9"/>
+      <c r="BKU93" s="9"/>
+      <c r="BKV93" s="9"/>
+      <c r="BKW93" s="9"/>
+      <c r="BKX93" s="9"/>
+      <c r="BKY93" s="9"/>
+      <c r="BKZ93" s="9"/>
+      <c r="BLA93" s="9"/>
+      <c r="BLB93" s="9"/>
+      <c r="BLC93" s="9"/>
+      <c r="BLD93" s="9"/>
+      <c r="BLE93" s="9"/>
+      <c r="BLF93" s="9"/>
+      <c r="BLG93" s="9"/>
+      <c r="BLH93" s="9"/>
+      <c r="BLI93" s="9"/>
+      <c r="BLJ93" s="9"/>
+      <c r="BLK93" s="9"/>
+      <c r="BLL93" s="9"/>
+      <c r="BLM93" s="9"/>
+      <c r="BLN93" s="9"/>
+      <c r="BLO93" s="9"/>
+      <c r="BLP93" s="9"/>
+      <c r="BLQ93" s="9"/>
+      <c r="BLR93" s="9"/>
+      <c r="BLS93" s="9"/>
+      <c r="BLT93" s="9"/>
+      <c r="BLU93" s="9"/>
+      <c r="BLV93" s="9"/>
+      <c r="BLW93" s="9"/>
+      <c r="BLX93" s="9"/>
+      <c r="BLY93" s="9"/>
+      <c r="BLZ93" s="9"/>
+      <c r="BMA93" s="9"/>
+      <c r="BMB93" s="9"/>
+      <c r="BMC93" s="9"/>
+      <c r="BMD93" s="9"/>
+      <c r="BME93" s="9"/>
+      <c r="BMF93" s="9"/>
+      <c r="BMG93" s="9"/>
+      <c r="BMH93" s="9"/>
+      <c r="BMI93" s="9"/>
+      <c r="BMJ93" s="9"/>
+      <c r="BMK93" s="9"/>
+      <c r="BML93" s="9"/>
+      <c r="BMM93" s="9"/>
+      <c r="BMN93" s="9"/>
+      <c r="BMO93" s="9"/>
+      <c r="BMP93" s="9"/>
+      <c r="BMQ93" s="9"/>
+      <c r="BMR93" s="9"/>
+      <c r="BMS93" s="9"/>
+      <c r="BMT93" s="9"/>
+      <c r="BMU93" s="9"/>
+      <c r="BMV93" s="9"/>
+      <c r="BMW93" s="9"/>
+      <c r="BMX93" s="9"/>
+      <c r="BMY93" s="9"/>
+      <c r="BMZ93" s="9"/>
+      <c r="BNA93" s="9"/>
+      <c r="BNB93" s="9"/>
+      <c r="BNC93" s="9"/>
+      <c r="BND93" s="9"/>
+      <c r="BNE93" s="9"/>
+      <c r="BNF93" s="9"/>
+      <c r="BNG93" s="9"/>
+      <c r="BNH93" s="9"/>
+      <c r="BNI93" s="9"/>
+      <c r="BNJ93" s="9"/>
+      <c r="BNK93" s="9"/>
+      <c r="BNL93" s="9"/>
+      <c r="BNM93" s="9"/>
+      <c r="BNN93" s="9"/>
+      <c r="BNO93" s="9"/>
+      <c r="BNP93" s="9"/>
+      <c r="BNQ93" s="9"/>
+      <c r="BNR93" s="9"/>
+      <c r="BNS93" s="9"/>
+      <c r="BNT93" s="9"/>
+      <c r="BNU93" s="9"/>
+      <c r="BNV93" s="9"/>
+      <c r="BNW93" s="9"/>
+      <c r="BNX93" s="9"/>
+      <c r="BNY93" s="9"/>
+      <c r="BNZ93" s="9"/>
+      <c r="BOA93" s="9"/>
+      <c r="BOB93" s="9"/>
+      <c r="BOC93" s="9"/>
+      <c r="BOD93" s="9"/>
+      <c r="BOE93" s="9"/>
+      <c r="BOF93" s="9"/>
+      <c r="BOG93" s="9"/>
+      <c r="BOH93" s="9"/>
+      <c r="BOI93" s="9"/>
+      <c r="BOJ93" s="9"/>
+      <c r="BOK93" s="9"/>
+      <c r="BOL93" s="9"/>
+      <c r="BOM93" s="9"/>
+      <c r="BON93" s="9"/>
+      <c r="BOO93" s="9"/>
+      <c r="BOP93" s="9"/>
+      <c r="BOQ93" s="9"/>
+      <c r="BOR93" s="9"/>
+      <c r="BOS93" s="9"/>
+      <c r="BOT93" s="9"/>
+      <c r="BOU93" s="9"/>
+      <c r="BOV93" s="9"/>
+      <c r="BOW93" s="9"/>
+      <c r="BOX93" s="9"/>
+      <c r="BOY93" s="9"/>
+      <c r="BOZ93" s="9"/>
+      <c r="BPA93" s="9"/>
+      <c r="BPB93" s="9"/>
+      <c r="BPC93" s="9"/>
+      <c r="BPD93" s="9"/>
+      <c r="BPE93" s="9"/>
+      <c r="BPF93" s="9"/>
+      <c r="BPG93" s="9"/>
+      <c r="BPH93" s="9"/>
+      <c r="BPI93" s="9"/>
+      <c r="BPJ93" s="9"/>
+      <c r="BPK93" s="9"/>
+      <c r="BPL93" s="9"/>
+      <c r="BPM93" s="9"/>
+      <c r="BPN93" s="9"/>
+      <c r="BPO93" s="9"/>
+      <c r="BPP93" s="9"/>
+      <c r="BPQ93" s="9"/>
+      <c r="BPR93" s="9"/>
+      <c r="BPS93" s="9"/>
+      <c r="BPT93" s="9"/>
+      <c r="BPU93" s="9"/>
+      <c r="BPV93" s="9"/>
+      <c r="BPW93" s="9"/>
+      <c r="BPX93" s="9"/>
+      <c r="BPY93" s="9"/>
+      <c r="BPZ93" s="9"/>
+      <c r="BQA93" s="9"/>
+      <c r="BQB93" s="9"/>
+      <c r="BQC93" s="9"/>
+      <c r="BQD93" s="9"/>
+      <c r="BQE93" s="9"/>
+      <c r="BQF93" s="9"/>
+      <c r="BQG93" s="9"/>
+      <c r="BQH93" s="9"/>
+      <c r="BQI93" s="9"/>
+      <c r="BQJ93" s="9"/>
+      <c r="BQK93" s="9"/>
+      <c r="BQL93" s="9"/>
+      <c r="BQM93" s="9"/>
+      <c r="BQN93" s="9"/>
+      <c r="BQO93" s="9"/>
+      <c r="BQP93" s="9"/>
+      <c r="BQQ93" s="9"/>
+      <c r="BQR93" s="9"/>
+      <c r="BQS93" s="9"/>
+      <c r="BQT93" s="9"/>
+      <c r="BQU93" s="9"/>
+      <c r="BQV93" s="9"/>
+      <c r="BQW93" s="9"/>
+      <c r="BQX93" s="9"/>
+      <c r="BQY93" s="9"/>
+      <c r="BQZ93" s="9"/>
+      <c r="BRA93" s="9"/>
+      <c r="BRB93" s="9"/>
+      <c r="BRC93" s="9"/>
+      <c r="BRD93" s="9"/>
+      <c r="BRE93" s="9"/>
+      <c r="BRF93" s="9"/>
+      <c r="BRG93" s="9"/>
+      <c r="BRH93" s="9"/>
+      <c r="BRI93" s="9"/>
+      <c r="BRJ93" s="9"/>
+      <c r="BRK93" s="9"/>
+      <c r="BRL93" s="9"/>
+      <c r="BRM93" s="9"/>
+      <c r="BRN93" s="9"/>
+      <c r="BRO93" s="9"/>
+      <c r="BRP93" s="9"/>
+      <c r="BRQ93" s="9"/>
+      <c r="BRR93" s="9"/>
+      <c r="BRS93" s="9"/>
+      <c r="BRT93" s="9"/>
+      <c r="BRU93" s="9"/>
+      <c r="BRV93" s="9"/>
+      <c r="BRW93" s="9"/>
+      <c r="BRX93" s="9"/>
+      <c r="BRY93" s="9"/>
+      <c r="BRZ93" s="9"/>
+      <c r="BSA93" s="9"/>
+      <c r="BSB93" s="9"/>
+      <c r="BSC93" s="9"/>
+      <c r="BSD93" s="9"/>
+      <c r="BSE93" s="9"/>
+      <c r="BSF93" s="9"/>
+      <c r="BSG93" s="9"/>
+      <c r="BSH93" s="9"/>
+      <c r="BSI93" s="9"/>
+      <c r="BSJ93" s="9"/>
+      <c r="BSK93" s="9"/>
+      <c r="BSL93" s="9"/>
+      <c r="BSM93" s="9"/>
+      <c r="BSN93" s="9"/>
+      <c r="BSO93" s="9"/>
+      <c r="BSP93" s="9"/>
+      <c r="BSQ93" s="9"/>
+      <c r="BSR93" s="9"/>
+      <c r="BSS93" s="9"/>
+      <c r="BST93" s="9"/>
+      <c r="BSU93" s="9"/>
+      <c r="BSV93" s="9"/>
+      <c r="BSW93" s="9"/>
+      <c r="BSX93" s="9"/>
+      <c r="BSY93" s="9"/>
+      <c r="BSZ93" s="9"/>
+      <c r="BTA93" s="9"/>
+      <c r="BTB93" s="9"/>
+      <c r="BTC93" s="9"/>
+      <c r="BTD93" s="9"/>
+      <c r="BTE93" s="9"/>
+      <c r="BTF93" s="9"/>
+      <c r="BTG93" s="9"/>
+      <c r="BTH93" s="9"/>
+      <c r="BTI93" s="9"/>
+      <c r="BTJ93" s="9"/>
+      <c r="BTK93" s="9"/>
+      <c r="BTL93" s="9"/>
+      <c r="BTM93" s="9"/>
+      <c r="BTN93" s="9"/>
+      <c r="BTO93" s="9"/>
+      <c r="BTP93" s="9"/>
+      <c r="BTQ93" s="9"/>
+      <c r="BTR93" s="9"/>
+      <c r="BTS93" s="9"/>
+      <c r="BTT93" s="9"/>
+      <c r="BTU93" s="9"/>
+      <c r="BTV93" s="9"/>
+      <c r="BTW93" s="9"/>
+      <c r="BTX93" s="9"/>
+      <c r="BTY93" s="9"/>
+      <c r="BTZ93" s="9"/>
+      <c r="BUA93" s="9"/>
+      <c r="BUB93" s="9"/>
+      <c r="BUC93" s="9"/>
+      <c r="BUD93" s="9"/>
+      <c r="BUE93" s="9"/>
+      <c r="BUF93" s="9"/>
+      <c r="BUG93" s="9"/>
+      <c r="BUH93" s="9"/>
+      <c r="BUI93" s="9"/>
+      <c r="BUJ93" s="9"/>
+      <c r="BUK93" s="9"/>
+      <c r="BUL93" s="9"/>
+      <c r="BUM93" s="9"/>
+      <c r="BUN93" s="9"/>
+      <c r="BUO93" s="9"/>
+      <c r="BUP93" s="9"/>
+      <c r="BUQ93" s="9"/>
+      <c r="BUR93" s="9"/>
+      <c r="BUS93" s="9"/>
+      <c r="BUT93" s="9"/>
+      <c r="BUU93" s="9"/>
+      <c r="BUV93" s="9"/>
+      <c r="BUW93" s="9"/>
+      <c r="BUX93" s="9"/>
+      <c r="BUY93" s="9"/>
+      <c r="BUZ93" s="9"/>
+      <c r="BVA93" s="9"/>
+      <c r="BVB93" s="9"/>
+      <c r="BVC93" s="9"/>
+      <c r="BVD93" s="9"/>
+      <c r="BVE93" s="9"/>
+      <c r="BVF93" s="9"/>
+      <c r="BVG93" s="9"/>
+      <c r="BVH93" s="9"/>
+      <c r="BVI93" s="9"/>
+      <c r="BVJ93" s="9"/>
+      <c r="BVK93" s="9"/>
+      <c r="BVL93" s="9"/>
+      <c r="BVM93" s="9"/>
+      <c r="BVN93" s="9"/>
+      <c r="BVO93" s="9"/>
+      <c r="BVP93" s="9"/>
+      <c r="BVQ93" s="9"/>
+      <c r="BVR93" s="9"/>
+      <c r="BVS93" s="9"/>
+      <c r="BVT93" s="9"/>
+      <c r="BVU93" s="9"/>
+      <c r="BVV93" s="9"/>
+      <c r="BVW93" s="9"/>
+      <c r="BVX93" s="9"/>
+      <c r="BVY93" s="9"/>
+      <c r="BVZ93" s="9"/>
+      <c r="BWA93" s="9"/>
+      <c r="BWB93" s="9"/>
+      <c r="BWC93" s="9"/>
+      <c r="BWD93" s="9"/>
+      <c r="BWE93" s="9"/>
+      <c r="BWF93" s="9"/>
+      <c r="BWG93" s="9"/>
+      <c r="BWH93" s="9"/>
+      <c r="BWI93" s="9"/>
+      <c r="BWJ93" s="9"/>
+      <c r="BWK93" s="9"/>
+      <c r="BWL93" s="9"/>
+      <c r="BWM93" s="9"/>
+      <c r="BWN93" s="9"/>
+      <c r="BWO93" s="9"/>
+      <c r="BWP93" s="9"/>
+      <c r="BWQ93" s="9"/>
+      <c r="BWR93" s="9"/>
+      <c r="BWS93" s="9"/>
+      <c r="BWT93" s="9"/>
+      <c r="BWU93" s="9"/>
+      <c r="BWV93" s="9"/>
+      <c r="BWW93" s="9"/>
+      <c r="BWX93" s="9"/>
+      <c r="BWY93" s="9"/>
+      <c r="BWZ93" s="9"/>
+      <c r="BXA93" s="9"/>
+      <c r="BXB93" s="9"/>
+      <c r="BXC93" s="9"/>
+      <c r="BXD93" s="9"/>
+      <c r="BXE93" s="9"/>
+      <c r="BXF93" s="9"/>
+      <c r="BXG93" s="9"/>
+      <c r="BXH93" s="9"/>
+      <c r="BXI93" s="9"/>
+      <c r="BXJ93" s="9"/>
+      <c r="BXK93" s="9"/>
+      <c r="BXL93" s="9"/>
+      <c r="BXM93" s="9"/>
+      <c r="BXN93" s="9"/>
+      <c r="BXO93" s="9"/>
+      <c r="BXP93" s="9"/>
+      <c r="BXQ93" s="9"/>
+      <c r="BXR93" s="9"/>
+      <c r="BXS93" s="9"/>
+      <c r="BXT93" s="9"/>
+      <c r="BXU93" s="9"/>
+      <c r="BXV93" s="9"/>
+      <c r="BXW93" s="9"/>
+      <c r="BXX93" s="9"/>
+      <c r="BXY93" s="9"/>
+      <c r="BXZ93" s="9"/>
+      <c r="BYA93" s="9"/>
+      <c r="BYB93" s="9"/>
+      <c r="BYC93" s="9"/>
+      <c r="BYD93" s="9"/>
+      <c r="BYE93" s="9"/>
+      <c r="BYF93" s="9"/>
+      <c r="BYG93" s="9"/>
+      <c r="BYH93" s="9"/>
+      <c r="BYI93" s="9"/>
+      <c r="BYJ93" s="9"/>
+      <c r="BYK93" s="9"/>
+      <c r="BYL93" s="9"/>
+      <c r="BYM93" s="9"/>
+      <c r="BYN93" s="9"/>
+      <c r="BYO93" s="9"/>
+      <c r="BYP93" s="9"/>
+      <c r="BYQ93" s="9"/>
+      <c r="BYR93" s="9"/>
+      <c r="BYS93" s="9"/>
+      <c r="BYT93" s="9"/>
+      <c r="BYU93" s="9"/>
+      <c r="BYV93" s="9"/>
+      <c r="BYW93" s="9"/>
+      <c r="BYX93" s="9"/>
+      <c r="BYY93" s="9"/>
+      <c r="BYZ93" s="9"/>
+      <c r="BZA93" s="9"/>
+      <c r="BZB93" s="9"/>
+      <c r="BZC93" s="9"/>
+      <c r="BZD93" s="9"/>
+      <c r="BZE93" s="9"/>
+      <c r="BZF93" s="9"/>
+      <c r="BZG93" s="9"/>
+      <c r="BZH93" s="9"/>
+      <c r="BZI93" s="9"/>
+      <c r="BZJ93" s="9"/>
+      <c r="BZK93" s="9"/>
+      <c r="BZL93" s="9"/>
+      <c r="BZM93" s="9"/>
+      <c r="BZN93" s="9"/>
+      <c r="BZO93" s="9"/>
+      <c r="BZP93" s="9"/>
+      <c r="BZQ93" s="9"/>
+      <c r="BZR93" s="9"/>
+      <c r="BZS93" s="9"/>
+      <c r="BZT93" s="9"/>
+      <c r="BZU93" s="9"/>
+      <c r="BZV93" s="9"/>
+      <c r="BZW93" s="9"/>
+      <c r="BZX93" s="9"/>
+      <c r="BZY93" s="9"/>
+      <c r="BZZ93" s="9"/>
+      <c r="CAA93" s="9"/>
+      <c r="CAB93" s="9"/>
+      <c r="CAC93" s="9"/>
+      <c r="CAD93" s="9"/>
+      <c r="CAE93" s="9"/>
+      <c r="CAF93" s="9"/>
+      <c r="CAG93" s="9"/>
+      <c r="CAH93" s="9"/>
+      <c r="CAI93" s="9"/>
+      <c r="CAJ93" s="9"/>
+      <c r="CAK93" s="9"/>
+      <c r="CAL93" s="9"/>
+      <c r="CAM93" s="9"/>
+      <c r="CAN93" s="9"/>
+      <c r="CAO93" s="9"/>
+      <c r="CAP93" s="9"/>
+      <c r="CAQ93" s="9"/>
+      <c r="CAR93" s="9"/>
+      <c r="CAS93" s="9"/>
+      <c r="CAT93" s="9"/>
+      <c r="CAU93" s="9"/>
+      <c r="CAV93" s="9"/>
+      <c r="CAW93" s="9"/>
+      <c r="CAX93" s="9"/>
+      <c r="CAY93" s="9"/>
+      <c r="CAZ93" s="9"/>
+      <c r="CBA93" s="9"/>
+      <c r="CBB93" s="9"/>
+      <c r="CBC93" s="9"/>
+      <c r="CBD93" s="9"/>
+      <c r="CBE93" s="9"/>
+      <c r="CBF93" s="9"/>
+      <c r="CBG93" s="9"/>
+      <c r="CBH93" s="9"/>
+      <c r="CBI93" s="9"/>
+      <c r="CBJ93" s="9"/>
+      <c r="CBK93" s="9"/>
+      <c r="CBL93" s="9"/>
+      <c r="CBM93" s="9"/>
+      <c r="CBN93" s="9"/>
+      <c r="CBO93" s="9"/>
+      <c r="CBP93" s="9"/>
+      <c r="CBQ93" s="9"/>
+      <c r="CBR93" s="9"/>
+      <c r="CBS93" s="9"/>
+      <c r="CBT93" s="9"/>
+      <c r="CBU93" s="9"/>
+      <c r="CBV93" s="9"/>
+      <c r="CBW93" s="9"/>
+      <c r="CBX93" s="9"/>
+      <c r="CBY93" s="9"/>
+      <c r="CBZ93" s="9"/>
+      <c r="CCA93" s="9"/>
+      <c r="CCB93" s="9"/>
+      <c r="CCC93" s="9"/>
+      <c r="CCD93" s="9"/>
+      <c r="CCE93" s="9"/>
+      <c r="CCF93" s="9"/>
+      <c r="CCG93" s="9"/>
+      <c r="CCH93" s="9"/>
+      <c r="CCI93" s="9"/>
+      <c r="CCJ93" s="9"/>
+      <c r="CCK93" s="9"/>
+      <c r="CCL93" s="9"/>
+      <c r="CCM93" s="9"/>
+      <c r="CCN93" s="9"/>
+      <c r="CCO93" s="9"/>
+      <c r="CCP93" s="9"/>
+      <c r="CCQ93" s="9"/>
+      <c r="CCR93" s="9"/>
+      <c r="CCS93" s="9"/>
+      <c r="CCT93" s="9"/>
+      <c r="CCU93" s="9"/>
+      <c r="CCV93" s="9"/>
+      <c r="CCW93" s="9"/>
+      <c r="CCX93" s="9"/>
+      <c r="CCY93" s="9"/>
+      <c r="CCZ93" s="9"/>
+      <c r="CDA93" s="9"/>
+      <c r="CDB93" s="9"/>
+      <c r="CDC93" s="9"/>
+      <c r="CDD93" s="9"/>
+      <c r="CDE93" s="9"/>
+      <c r="CDF93" s="9"/>
+      <c r="CDG93" s="9"/>
+      <c r="CDH93" s="9"/>
+      <c r="CDI93" s="9"/>
+      <c r="CDJ93" s="9"/>
+      <c r="CDK93" s="9"/>
+      <c r="CDL93" s="9"/>
+      <c r="CDM93" s="9"/>
+      <c r="CDN93" s="9"/>
+      <c r="CDO93" s="9"/>
+      <c r="CDP93" s="9"/>
+      <c r="CDQ93" s="9"/>
+      <c r="CDR93" s="9"/>
+      <c r="CDS93" s="9"/>
+      <c r="CDT93" s="9"/>
+      <c r="CDU93" s="9"/>
+      <c r="CDV93" s="9"/>
+      <c r="CDW93" s="9"/>
+      <c r="CDX93" s="9"/>
+      <c r="CDY93" s="9"/>
+      <c r="CDZ93" s="9"/>
+      <c r="CEA93" s="9"/>
+      <c r="CEB93" s="9"/>
+      <c r="CEC93" s="9"/>
+      <c r="CED93" s="9"/>
+      <c r="CEE93" s="9"/>
+      <c r="CEF93" s="9"/>
+      <c r="CEG93" s="9"/>
+      <c r="CEH93" s="9"/>
+      <c r="CEI93" s="9"/>
+      <c r="CEJ93" s="9"/>
+      <c r="CEK93" s="9"/>
+      <c r="CEL93" s="9"/>
+      <c r="CEM93" s="9"/>
+      <c r="CEN93" s="9"/>
+      <c r="CEO93" s="9"/>
+      <c r="CEP93" s="9"/>
+      <c r="CEQ93" s="9"/>
+      <c r="CER93" s="9"/>
+      <c r="CES93" s="9"/>
+      <c r="CET93" s="9"/>
+      <c r="CEU93" s="9"/>
+      <c r="CEV93" s="9"/>
+      <c r="CEW93" s="9"/>
+      <c r="CEX93" s="9"/>
+      <c r="CEY93" s="9"/>
+      <c r="CEZ93" s="9"/>
+      <c r="CFA93" s="9"/>
+      <c r="CFB93" s="9"/>
+      <c r="CFC93" s="9"/>
+      <c r="CFD93" s="9"/>
+      <c r="CFE93" s="9"/>
+      <c r="CFF93" s="9"/>
+      <c r="CFG93" s="9"/>
+      <c r="CFH93" s="9"/>
+      <c r="CFI93" s="9"/>
+      <c r="CFJ93" s="9"/>
+      <c r="CFK93" s="9"/>
+      <c r="CFL93" s="9"/>
+      <c r="CFM93" s="9"/>
+      <c r="CFN93" s="9"/>
+      <c r="CFO93" s="9"/>
+      <c r="CFP93" s="9"/>
+      <c r="CFQ93" s="9"/>
+      <c r="CFR93" s="9"/>
+      <c r="CFS93" s="9"/>
+      <c r="CFT93" s="9"/>
+      <c r="CFU93" s="9"/>
+      <c r="CFV93" s="9"/>
+      <c r="CFW93" s="9"/>
+      <c r="CFX93" s="9"/>
+      <c r="CFY93" s="9"/>
+      <c r="CFZ93" s="9"/>
+      <c r="CGA93" s="9"/>
+      <c r="CGB93" s="9"/>
+      <c r="CGC93" s="9"/>
+      <c r="CGD93" s="9"/>
+      <c r="CGE93" s="9"/>
+      <c r="CGF93" s="9"/>
+      <c r="CGG93" s="9"/>
+      <c r="CGH93" s="9"/>
+      <c r="CGI93" s="9"/>
+      <c r="CGJ93" s="9"/>
+      <c r="CGK93" s="9"/>
+      <c r="CGL93" s="9"/>
+      <c r="CGM93" s="9"/>
+      <c r="CGN93" s="9"/>
+      <c r="CGO93" s="9"/>
+      <c r="CGP93" s="9"/>
+      <c r="CGQ93" s="9"/>
+      <c r="CGR93" s="9"/>
+      <c r="CGS93" s="9"/>
+      <c r="CGT93" s="9"/>
+      <c r="CGU93" s="9"/>
+      <c r="CGV93" s="9"/>
+      <c r="CGW93" s="9"/>
+      <c r="CGX93" s="9"/>
+      <c r="CGY93" s="9"/>
+      <c r="CGZ93" s="9"/>
+      <c r="CHA93" s="9"/>
+      <c r="CHB93" s="9"/>
+      <c r="CHC93" s="9"/>
+      <c r="CHD93" s="9"/>
+      <c r="CHE93" s="9"/>
+      <c r="CHF93" s="9"/>
+      <c r="CHG93" s="9"/>
+      <c r="CHH93" s="9"/>
+      <c r="CHI93" s="9"/>
+      <c r="CHJ93" s="9"/>
+      <c r="CHK93" s="9"/>
+      <c r="CHL93" s="9"/>
+      <c r="CHM93" s="9"/>
+      <c r="CHN93" s="9"/>
+      <c r="CHO93" s="9"/>
+      <c r="CHP93" s="9"/>
+      <c r="CHQ93" s="9"/>
+      <c r="CHR93" s="9"/>
+      <c r="CHS93" s="9"/>
+      <c r="CHT93" s="9"/>
+      <c r="CHU93" s="9"/>
+      <c r="CHV93" s="9"/>
+      <c r="CHW93" s="9"/>
+      <c r="CHX93" s="9"/>
+      <c r="CHY93" s="9"/>
+      <c r="CHZ93" s="9"/>
+      <c r="CIA93" s="9"/>
+      <c r="CIB93" s="9"/>
+      <c r="CIC93" s="9"/>
+      <c r="CID93" s="9"/>
+      <c r="CIE93" s="9"/>
+      <c r="CIF93" s="9"/>
+      <c r="CIG93" s="9"/>
+      <c r="CIH93" s="9"/>
+      <c r="CII93" s="9"/>
+      <c r="CIJ93" s="9"/>
+      <c r="CIK93" s="9"/>
+      <c r="CIL93" s="9"/>
+      <c r="CIM93" s="9"/>
+      <c r="CIN93" s="9"/>
+      <c r="CIO93" s="9"/>
+      <c r="CIP93" s="9"/>
+      <c r="CIQ93" s="9"/>
+      <c r="CIR93" s="9"/>
+      <c r="CIS93" s="9"/>
+      <c r="CIT93" s="9"/>
+      <c r="CIU93" s="9"/>
+      <c r="CIV93" s="9"/>
+      <c r="CIW93" s="9"/>
+      <c r="CIX93" s="9"/>
+      <c r="CIY93" s="9"/>
+      <c r="CIZ93" s="9"/>
+      <c r="CJA93" s="9"/>
+      <c r="CJB93" s="9"/>
+      <c r="CJC93" s="9"/>
+      <c r="CJD93" s="9"/>
+      <c r="CJE93" s="9"/>
+      <c r="CJF93" s="9"/>
+      <c r="CJG93" s="9"/>
+      <c r="CJH93" s="9"/>
+      <c r="CJI93" s="9"/>
+      <c r="CJJ93" s="9"/>
+      <c r="CJK93" s="9"/>
+      <c r="CJL93" s="9"/>
+      <c r="CJM93" s="9"/>
+      <c r="CJN93" s="9"/>
+      <c r="CJO93" s="9"/>
+      <c r="CJP93" s="9"/>
+      <c r="CJQ93" s="9"/>
+      <c r="CJR93" s="9"/>
+      <c r="CJS93" s="9"/>
+      <c r="CJT93" s="9"/>
+      <c r="CJU93" s="9"/>
+      <c r="CJV93" s="9"/>
+      <c r="CJW93" s="9"/>
+      <c r="CJX93" s="9"/>
+      <c r="CJY93" s="9"/>
+      <c r="CJZ93" s="9"/>
+      <c r="CKA93" s="9"/>
+      <c r="CKB93" s="9"/>
+      <c r="CKC93" s="9"/>
+      <c r="CKD93" s="9"/>
+      <c r="CKE93" s="9"/>
+      <c r="CKF93" s="9"/>
+      <c r="CKG93" s="9"/>
+      <c r="CKH93" s="9"/>
+      <c r="CKI93" s="9"/>
+      <c r="CKJ93" s="9"/>
+      <c r="CKK93" s="9"/>
+      <c r="CKL93" s="9"/>
+      <c r="CKM93" s="9"/>
+      <c r="CKN93" s="9"/>
+      <c r="CKO93" s="9"/>
+      <c r="CKP93" s="9"/>
+      <c r="CKQ93" s="9"/>
+      <c r="CKR93" s="9"/>
+      <c r="CKS93" s="9"/>
+      <c r="CKT93" s="9"/>
+      <c r="CKU93" s="9"/>
+      <c r="CKV93" s="9"/>
+      <c r="CKW93" s="9"/>
+      <c r="CKX93" s="9"/>
+      <c r="CKY93" s="9"/>
+      <c r="CKZ93" s="9"/>
+      <c r="CLA93" s="9"/>
+      <c r="CLB93" s="9"/>
+      <c r="CLC93" s="9"/>
+      <c r="CLD93" s="9"/>
+      <c r="CLE93" s="9"/>
+      <c r="CLF93" s="9"/>
+      <c r="CLG93" s="9"/>
+      <c r="CLH93" s="9"/>
+      <c r="CLI93" s="9"/>
+      <c r="CLJ93" s="9"/>
+      <c r="CLK93" s="9"/>
+      <c r="CLL93" s="9"/>
+      <c r="CLM93" s="9"/>
+      <c r="CLN93" s="9"/>
+      <c r="CLO93" s="9"/>
+      <c r="CLP93" s="9"/>
+      <c r="CLQ93" s="9"/>
+      <c r="CLR93" s="9"/>
+      <c r="CLS93" s="9"/>
+      <c r="CLT93" s="9"/>
+      <c r="CLU93" s="9"/>
+      <c r="CLV93" s="9"/>
+      <c r="CLW93" s="9"/>
+      <c r="CLX93" s="9"/>
+      <c r="CLY93" s="9"/>
+      <c r="CLZ93" s="9"/>
+      <c r="CMA93" s="9"/>
+      <c r="CMB93" s="9"/>
+      <c r="CMC93" s="9"/>
+      <c r="CMD93" s="9"/>
+      <c r="CME93" s="9"/>
+      <c r="CMF93" s="9"/>
+      <c r="CMG93" s="9"/>
+      <c r="CMH93" s="9"/>
+      <c r="CMI93" s="9"/>
+      <c r="CMJ93" s="9"/>
+      <c r="CMK93" s="9"/>
+      <c r="CML93" s="9"/>
+      <c r="CMM93" s="9"/>
+      <c r="CMN93" s="9"/>
+      <c r="CMO93" s="9"/>
+      <c r="CMP93" s="9"/>
+      <c r="CMQ93" s="9"/>
+      <c r="CMR93" s="9"/>
+      <c r="CMS93" s="9"/>
+      <c r="CMT93" s="9"/>
+      <c r="CMU93" s="9"/>
+      <c r="CMV93" s="9"/>
+      <c r="CMW93" s="9"/>
+      <c r="CMX93" s="9"/>
+      <c r="CMY93" s="9"/>
+      <c r="CMZ93" s="9"/>
+      <c r="CNA93" s="9"/>
+      <c r="CNB93" s="9"/>
+      <c r="CNC93" s="9"/>
+      <c r="CND93" s="9"/>
+      <c r="CNE93" s="9"/>
+      <c r="CNF93" s="9"/>
+      <c r="CNG93" s="9"/>
+      <c r="CNH93" s="9"/>
+      <c r="CNI93" s="9"/>
+      <c r="CNJ93" s="9"/>
+      <c r="CNK93" s="9"/>
+      <c r="CNL93" s="9"/>
+      <c r="CNM93" s="9"/>
+      <c r="CNN93" s="9"/>
+      <c r="CNO93" s="9"/>
+      <c r="CNP93" s="9"/>
+      <c r="CNQ93" s="9"/>
+      <c r="CNR93" s="9"/>
+      <c r="CNS93" s="9"/>
+      <c r="CNT93" s="9"/>
+      <c r="CNU93" s="9"/>
+      <c r="CNV93" s="9"/>
+      <c r="CNW93" s="9"/>
+      <c r="CNX93" s="9"/>
+      <c r="CNY93" s="9"/>
+      <c r="CNZ93" s="9"/>
+      <c r="COA93" s="9"/>
+      <c r="COB93" s="9"/>
+      <c r="COC93" s="9"/>
+      <c r="COD93" s="9"/>
+      <c r="COE93" s="9"/>
+      <c r="COF93" s="9"/>
+      <c r="COG93" s="9"/>
+      <c r="COH93" s="9"/>
+      <c r="COI93" s="9"/>
+      <c r="COJ93" s="9"/>
+      <c r="COK93" s="9"/>
+      <c r="COL93" s="9"/>
+      <c r="COM93" s="9"/>
+      <c r="CON93" s="9"/>
+      <c r="COO93" s="9"/>
+      <c r="COP93" s="9"/>
+      <c r="COQ93" s="9"/>
+      <c r="COR93" s="9"/>
+      <c r="COS93" s="9"/>
+      <c r="COT93" s="9"/>
+      <c r="COU93" s="9"/>
+      <c r="COV93" s="9"/>
+      <c r="COW93" s="9"/>
+      <c r="COX93" s="9"/>
+      <c r="COY93" s="9"/>
+      <c r="COZ93" s="9"/>
+      <c r="CPA93" s="9"/>
+      <c r="CPB93" s="9"/>
+      <c r="CPC93" s="9"/>
+      <c r="CPD93" s="9"/>
+      <c r="CPE93" s="9"/>
+      <c r="CPF93" s="9"/>
+      <c r="CPG93" s="9"/>
+      <c r="CPH93" s="9"/>
+      <c r="CPI93" s="9"/>
+      <c r="CPJ93" s="9"/>
+      <c r="CPK93" s="9"/>
+      <c r="CPL93" s="9"/>
+      <c r="CPM93" s="9"/>
+      <c r="CPN93" s="9"/>
+      <c r="CPO93" s="9"/>
+      <c r="CPP93" s="9"/>
+      <c r="CPQ93" s="9"/>
+      <c r="CPR93" s="9"/>
+      <c r="CPS93" s="9"/>
+      <c r="CPT93" s="9"/>
+      <c r="CPU93" s="9"/>
+      <c r="CPV93" s="9"/>
+      <c r="CPW93" s="9"/>
+      <c r="CPX93" s="9"/>
+      <c r="CPY93" s="9"/>
+      <c r="CPZ93" s="9"/>
+      <c r="CQA93" s="9"/>
+      <c r="CQB93" s="9"/>
+      <c r="CQC93" s="9"/>
+      <c r="CQD93" s="9"/>
+      <c r="CQE93" s="9"/>
+      <c r="CQF93" s="9"/>
+      <c r="CQG93" s="9"/>
+      <c r="CQH93" s="9"/>
+      <c r="CQI93" s="9"/>
+      <c r="CQJ93" s="9"/>
+      <c r="CQK93" s="9"/>
+      <c r="CQL93" s="9"/>
+      <c r="CQM93" s="9"/>
+      <c r="CQN93" s="9"/>
+      <c r="CQO93" s="9"/>
+      <c r="CQP93" s="9"/>
+      <c r="CQQ93" s="9"/>
+      <c r="CQR93" s="9"/>
+      <c r="CQS93" s="9"/>
+      <c r="CQT93" s="9"/>
+      <c r="CQU93" s="9"/>
+      <c r="CQV93" s="9"/>
+      <c r="CQW93" s="9"/>
+      <c r="CQX93" s="9"/>
+      <c r="CQY93" s="9"/>
+      <c r="CQZ93" s="9"/>
+      <c r="CRA93" s="9"/>
+      <c r="CRB93" s="9"/>
+    </row>
+    <row r="94" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B93" s="26">
+      <c r="B94" s="26">
         <v>2</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C94" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A94" s="27" t="s">
+      <c r="D94" s="23"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="B94" s="26">
-        <v>5</v>
-      </c>
-      <c r="C94" s="26">
-        <v>1</v>
-      </c>
-      <c r="D94" s="16"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A95" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="B95" s="26">
         <v>5</v>
@@ -3027,9 +6141,9 @@
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96" s="26">
         <v>5</v>
@@ -3044,12 +6158,12 @@
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="26">
         <v>1</v>
@@ -3060,91 +6174,108 @@
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-    </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="26">
+        <v>6</v>
+      </c>
+      <c r="C98" s="26">
+        <v>1</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="B98" s="26">
-        <v>5</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D98" s="16"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-    </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A99" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="B99" s="26">
         <v>5</v>
       </c>
-      <c r="C99" s="26">
-        <v>6</v>
+      <c r="C99" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="D99" s="16"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-    </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+    </row>
+    <row r="100" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C100" s="26">
         <v>6</v>
       </c>
       <c r="D100" s="16"/>
-      <c r="W100" s="17"/>
-      <c r="X100" s="17"/>
-      <c r="Y100" s="17"/>
-      <c r="Z100" s="17"/>
-    </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="17"/>
+    </row>
+    <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="26">
+        <v>4</v>
+      </c>
+      <c r="C101" s="26">
+        <v>6</v>
+      </c>
+      <c r="D101" s="16"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+    </row>
+    <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A102" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B101" s="26">
+      <c r="B102" s="26">
         <v>6</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C102" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D101" s="16"/>
-      <c r="AA101" s="17"/>
-      <c r="AB101" s="17"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="17"/>
-      <c r="AE101" s="17"/>
-      <c r="AF101" s="17"/>
-    </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A102" s="27" t="s">
+      <c r="D102" s="16"/>
+      <c r="AA102" s="17"/>
+      <c r="AB102" s="17"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="17"/>
+      <c r="AE102" s="17"/>
+      <c r="AF102" s="17"/>
+    </row>
+    <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A103" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B102" s="26">
+      <c r="B103" s="26">
         <v>4</v>
       </c>
-      <c r="C102" s="26">
+      <c r="C103" s="26">
         <v>9</v>
       </c>
-      <c r="D102" s="16"/>
-      <c r="AG102" s="17"/>
-      <c r="AH102" s="17"/>
-      <c r="AI102" s="17"/>
-      <c r="AJ102" s="17"/>
+      <c r="D103" s="16"/>
+      <c r="AG103" s="17"/>
+      <c r="AH103" s="17"/>
+      <c r="AI103" s="17"/>
+      <c r="AJ103" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3163,294 +6294,294 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48" t="s">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48" t="s">
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B3" s="49" t="s">
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -3465,12 +6596,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -3483,12 +6614,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3500,7 +6631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C1B42E-A572-2341-BF18-0023AE4A5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793C14F1-A52F-9746-91B6-723DB09700AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t xml:space="preserve">Installation/Finalization </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1, 3, 4</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -692,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -748,11 +760,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,35 +801,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -813,22 +828,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,131 +1188,119 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="49"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="50"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="50"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -1313,6 +1317,18 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1322,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P89" sqref="P89"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1361,10 +1377,10 @@
       </c>
     </row>
     <row r="2" spans="1:64" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="50"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -2181,10 +2197,10 @@
       </c>
       <c r="C54" s="32"/>
       <c r="D54" s="23"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -2235,12 +2251,12 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
@@ -2285,14 +2301,14 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
@@ -2343,14 +2359,14 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
       <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57"/>
@@ -2393,10 +2409,10 @@
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
@@ -2443,14 +2459,14 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
       <c r="Y59"/>
       <c r="Z59"/>
       <c r="AA59"/>
@@ -2501,10 +2517,10 @@
       <c r="V60"/>
       <c r="W60"/>
       <c r="X60"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
       <c r="AC60"/>
       <c r="AD60"/>
       <c r="AE60"/>
@@ -2551,10 +2567,10 @@
       <c r="V61"/>
       <c r="W61"/>
       <c r="X61"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
       <c r="AC61"/>
       <c r="AD61"/>
       <c r="AE61"/>
@@ -2605,9 +2621,9 @@
       <c r="Z62"/>
       <c r="AA62"/>
       <c r="AB62"/>
-      <c r="AC62" s="35"/>
-      <c r="AD62" s="35"/>
-      <c r="AE62" s="35"/>
+      <c r="AC62" s="34"/>
+      <c r="AD62" s="34"/>
+      <c r="AE62" s="34"/>
       <c r="AF62"/>
       <c r="AG62"/>
       <c r="AH62"/>
@@ -2658,9 +2674,9 @@
       <c r="AC63"/>
       <c r="AD63"/>
       <c r="AE63"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="35"/>
+      <c r="AF63" s="34"/>
+      <c r="AG63" s="34"/>
+      <c r="AH63" s="34"/>
       <c r="AI63"/>
       <c r="AJ63"/>
       <c r="AK63"/>
@@ -2711,10 +2727,10 @@
       <c r="AF64"/>
       <c r="AG64"/>
       <c r="AH64"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="35"/>
+      <c r="AI64" s="34"/>
+      <c r="AJ64" s="34"/>
+      <c r="AK64" s="34"/>
+      <c r="AL64" s="34"/>
       <c r="AM64"/>
       <c r="AN64"/>
       <c r="AO64"/>
@@ -2765,10 +2781,10 @@
       <c r="AJ65"/>
       <c r="AK65"/>
       <c r="AL65"/>
-      <c r="AM65" s="35"/>
-      <c r="AN65" s="35"/>
-      <c r="AO65" s="35"/>
-      <c r="AP65" s="35"/>
+      <c r="AM65" s="34"/>
+      <c r="AN65" s="34"/>
+      <c r="AO65" s="34"/>
+      <c r="AP65" s="34"/>
     </row>
     <row r="66" spans="1:50" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
@@ -2979,634 +2995,704 @@
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="33"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="33"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
+      <c r="B79" s="58">
+        <v>3</v>
+      </c>
+      <c r="C79" s="58">
+        <v>0</v>
+      </c>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
+      <c r="W79" s="57"/>
+      <c r="X79" s="57"/>
+      <c r="Y79" s="57"/>
+      <c r="Z79" s="57"/>
+      <c r="AA79" s="57"/>
+      <c r="AB79" s="60"/>
+      <c r="AC79" s="60"/>
+      <c r="AD79" s="60"/>
+      <c r="AE79" s="60"/>
+      <c r="AF79" s="60"/>
+      <c r="AG79" s="60"/>
+      <c r="AH79" s="60"/>
+      <c r="AI79" s="60"/>
+      <c r="AJ79" s="60"/>
+      <c r="AK79" s="60"/>
+      <c r="AL79" s="60"/>
+      <c r="AM79" s="60"/>
+      <c r="AN79" s="60"/>
+      <c r="AO79" s="60"/>
+      <c r="AP79" s="60"/>
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
-      <c r="S80" s="33"/>
-      <c r="T80" s="33"/>
-      <c r="U80" s="33"/>
-      <c r="V80" s="33"/>
-      <c r="W80" s="33"/>
-      <c r="X80" s="33"/>
-      <c r="Y80" s="33"/>
-      <c r="Z80" s="33"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
+      <c r="B80" s="58">
+        <v>4</v>
+      </c>
+      <c r="C80" s="58">
+        <v>1</v>
+      </c>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="57"/>
+      <c r="S80" s="57"/>
+      <c r="T80" s="57"/>
+      <c r="U80" s="57"/>
+      <c r="V80" s="57"/>
+      <c r="W80" s="57"/>
+      <c r="X80" s="57"/>
+      <c r="Y80" s="57"/>
+      <c r="Z80" s="57"/>
+      <c r="AA80" s="57"/>
+      <c r="AB80" s="60"/>
+      <c r="AC80" s="60"/>
+      <c r="AD80" s="60"/>
+      <c r="AE80" s="60"/>
+      <c r="AF80" s="60"/>
+      <c r="AG80" s="60"/>
+      <c r="AH80" s="60"/>
+      <c r="AI80" s="60"/>
+      <c r="AJ80" s="60"/>
+      <c r="AK80" s="60"/>
+      <c r="AL80" s="60"/>
+      <c r="AM80" s="60"/>
+      <c r="AN80" s="60"/>
+      <c r="AO80" s="60"/>
+      <c r="AP80" s="60"/>
     </row>
     <row r="81" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="33"/>
-      <c r="U81" s="33"/>
-      <c r="V81" s="33"/>
-      <c r="W81" s="33"/>
-      <c r="X81" s="33"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
-      <c r="AM81" s="1"/>
-      <c r="AN81" s="1"/>
-      <c r="AO81" s="1"/>
+      <c r="B81" s="58">
+        <v>4</v>
+      </c>
+      <c r="C81" s="58">
+        <v>1</v>
+      </c>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="57"/>
+      <c r="T81" s="57"/>
+      <c r="U81" s="57"/>
+      <c r="V81" s="57"/>
+      <c r="W81" s="57"/>
+      <c r="X81" s="57"/>
+      <c r="Y81" s="57"/>
+      <c r="Z81" s="57"/>
+      <c r="AA81" s="57"/>
+      <c r="AB81" s="60"/>
+      <c r="AC81" s="60"/>
+      <c r="AD81" s="60"/>
+      <c r="AE81" s="60"/>
+      <c r="AF81" s="60"/>
+      <c r="AG81" s="60"/>
+      <c r="AH81" s="60"/>
+      <c r="AI81" s="60"/>
+      <c r="AJ81" s="60"/>
+      <c r="AK81" s="60"/>
+      <c r="AL81" s="60"/>
+      <c r="AM81" s="60"/>
+      <c r="AN81" s="60"/>
+      <c r="AO81" s="60"/>
+      <c r="AP81" s="60"/>
     </row>
     <row r="82" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="33"/>
-      <c r="R82" s="33"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="33"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="33"/>
-      <c r="W82" s="33"/>
-      <c r="X82" s="33"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="33"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
-      <c r="AH82" s="1"/>
-      <c r="AI82" s="1"/>
-      <c r="AJ82" s="1"/>
-      <c r="AK82" s="1"/>
-      <c r="AL82" s="1"/>
-      <c r="AM82" s="1"/>
-      <c r="AN82" s="1"/>
-      <c r="AO82" s="1"/>
+      <c r="B82" s="58">
+        <v>4</v>
+      </c>
+      <c r="C82" s="58">
+        <v>1</v>
+      </c>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57"/>
+      <c r="S82" s="57"/>
+      <c r="T82" s="57"/>
+      <c r="U82" s="57"/>
+      <c r="V82" s="57"/>
+      <c r="W82" s="57"/>
+      <c r="X82" s="57"/>
+      <c r="Y82" s="57"/>
+      <c r="Z82" s="57"/>
+      <c r="AA82" s="57"/>
+      <c r="AB82" s="60"/>
+      <c r="AC82" s="60"/>
+      <c r="AD82" s="60"/>
+      <c r="AE82" s="60"/>
+      <c r="AF82" s="60"/>
+      <c r="AG82" s="60"/>
+      <c r="AH82" s="60"/>
+      <c r="AI82" s="60"/>
+      <c r="AJ82" s="60"/>
+      <c r="AK82" s="60"/>
+      <c r="AL82" s="60"/>
+      <c r="AM82" s="60"/>
+      <c r="AN82" s="60"/>
+      <c r="AO82" s="60"/>
+      <c r="AP82" s="60"/>
     </row>
     <row r="83" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="33"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="33"/>
-      <c r="U83" s="33"/>
-      <c r="V83" s="33"/>
-      <c r="W83" s="33"/>
-      <c r="X83" s="33"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
-      <c r="AM83" s="1"/>
-      <c r="AN83" s="1"/>
-      <c r="AO83" s="1"/>
+      <c r="B83" s="58">
+        <v>10</v>
+      </c>
+      <c r="C83" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="57"/>
+      <c r="S83" s="57"/>
+      <c r="T83" s="57"/>
+      <c r="U83" s="57"/>
+      <c r="V83" s="57"/>
+      <c r="W83" s="57"/>
+      <c r="X83" s="57"/>
+      <c r="Y83" s="57"/>
+      <c r="Z83" s="57"/>
+      <c r="AA83" s="57"/>
+      <c r="AB83" s="60"/>
+      <c r="AC83" s="60"/>
+      <c r="AD83" s="60"/>
+      <c r="AE83" s="60"/>
+      <c r="AF83" s="60"/>
+      <c r="AG83" s="60"/>
+      <c r="AH83" s="60"/>
+      <c r="AI83" s="60"/>
+      <c r="AJ83" s="60"/>
+      <c r="AK83" s="60"/>
+      <c r="AL83" s="60"/>
+      <c r="AM83" s="60"/>
+      <c r="AN83" s="60"/>
+      <c r="AO83" s="60"/>
+      <c r="AP83" s="60"/>
     </row>
     <row r="84" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="33"/>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="1"/>
-      <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-      <c r="AH84" s="1"/>
-      <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
-      <c r="AK84" s="1"/>
-      <c r="AL84" s="1"/>
-      <c r="AM84" s="1"/>
-      <c r="AN84" s="1"/>
-      <c r="AO84" s="1"/>
+      <c r="B84" s="58">
+        <v>2</v>
+      </c>
+      <c r="C84" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="60"/>
+      <c r="T84" s="57"/>
+      <c r="U84" s="57"/>
+      <c r="V84" s="57"/>
+      <c r="W84" s="57"/>
+      <c r="X84" s="57"/>
+      <c r="Y84" s="57"/>
+      <c r="Z84" s="57"/>
+      <c r="AA84" s="57"/>
+      <c r="AB84" s="60"/>
+      <c r="AC84" s="60"/>
+      <c r="AD84" s="60"/>
+      <c r="AE84" s="60"/>
+      <c r="AF84" s="60"/>
+      <c r="AG84" s="60"/>
+      <c r="AH84" s="60"/>
+      <c r="AI84" s="60"/>
+      <c r="AJ84" s="60"/>
+      <c r="AK84" s="60"/>
+      <c r="AL84" s="60"/>
+      <c r="AM84" s="60"/>
+      <c r="AN84" s="60"/>
+      <c r="AO84" s="60"/>
+      <c r="AP84" s="60"/>
     </row>
     <row r="85" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="60"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="33"/>
-      <c r="W85" s="33"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
-      <c r="AM85" s="1"/>
-      <c r="AN85" s="1"/>
-      <c r="AO85" s="1"/>
+      <c r="B85" s="58">
+        <v>2</v>
+      </c>
+      <c r="C85" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="57"/>
+      <c r="R85" s="62"/>
+      <c r="S85" s="62"/>
+      <c r="T85" s="60"/>
+      <c r="U85" s="60"/>
+      <c r="V85" s="57"/>
+      <c r="W85" s="57"/>
+      <c r="X85" s="57"/>
+      <c r="Y85" s="57"/>
+      <c r="Z85" s="57"/>
+      <c r="AA85" s="57"/>
+      <c r="AB85" s="60"/>
+      <c r="AC85" s="60"/>
+      <c r="AD85" s="60"/>
+      <c r="AE85" s="60"/>
+      <c r="AF85" s="60"/>
+      <c r="AG85" s="60"/>
+      <c r="AH85" s="60"/>
+      <c r="AI85" s="60"/>
+      <c r="AJ85" s="60"/>
+      <c r="AK85" s="60"/>
+      <c r="AL85" s="60"/>
+      <c r="AM85" s="60"/>
+      <c r="AN85" s="60"/>
+      <c r="AO85" s="60"/>
+      <c r="AP85" s="60"/>
     </row>
     <row r="86" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-      <c r="S86" s="60"/>
-      <c r="T86" s="60"/>
-      <c r="U86" s="60"/>
-      <c r="V86" s="60"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-      <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
-      <c r="AM86" s="1"/>
-      <c r="AN86" s="1"/>
-      <c r="AO86" s="1"/>
+      <c r="B86" s="58">
+        <v>4</v>
+      </c>
+      <c r="C86" s="58">
+        <v>7</v>
+      </c>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
+      <c r="Q86" s="57"/>
+      <c r="R86" s="57"/>
+      <c r="S86" s="57"/>
+      <c r="T86" s="62"/>
+      <c r="U86" s="62"/>
+      <c r="V86" s="62"/>
+      <c r="W86" s="62"/>
+      <c r="X86" s="60"/>
+      <c r="Y86" s="60"/>
+      <c r="Z86" s="57"/>
+      <c r="AA86" s="57"/>
+      <c r="AB86" s="60"/>
+      <c r="AC86" s="60"/>
+      <c r="AD86" s="60"/>
+      <c r="AE86" s="60"/>
+      <c r="AF86" s="60"/>
+      <c r="AG86" s="60"/>
+      <c r="AH86" s="60"/>
+      <c r="AI86" s="60"/>
+      <c r="AJ86" s="60"/>
+      <c r="AK86" s="60"/>
+      <c r="AL86" s="60"/>
+      <c r="AM86" s="60"/>
+      <c r="AN86" s="60"/>
+      <c r="AO86" s="60"/>
+      <c r="AP86" s="60"/>
     </row>
     <row r="87" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="33"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="33"/>
-      <c r="W87" s="60"/>
-      <c r="X87" s="60"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
+      <c r="B87" s="58">
+        <v>2</v>
+      </c>
+      <c r="C87" s="58">
+        <v>8</v>
+      </c>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="57"/>
+      <c r="N87" s="57"/>
+      <c r="O87" s="57"/>
+      <c r="P87" s="57"/>
+      <c r="Q87" s="57"/>
+      <c r="R87" s="57"/>
+      <c r="S87" s="57"/>
+      <c r="T87" s="57"/>
+      <c r="U87" s="57"/>
+      <c r="V87" s="57"/>
+      <c r="W87" s="57"/>
+      <c r="X87" s="62"/>
+      <c r="Y87" s="62"/>
+      <c r="Z87" s="60"/>
+      <c r="AA87" s="60"/>
+      <c r="AB87" s="60"/>
+      <c r="AC87" s="60"/>
+      <c r="AD87" s="60"/>
+      <c r="AE87" s="60"/>
+      <c r="AF87" s="60"/>
+      <c r="AG87" s="60"/>
+      <c r="AH87" s="60"/>
+      <c r="AI87" s="60"/>
+      <c r="AJ87" s="60"/>
+      <c r="AK87" s="60"/>
+      <c r="AL87" s="60"/>
+      <c r="AM87" s="60"/>
+      <c r="AN87" s="60"/>
+      <c r="AO87" s="60"/>
+      <c r="AP87" s="60"/>
     </row>
     <row r="88" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="61"/>
-      <c r="X88" s="61"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
-      <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
-      <c r="AO88" s="1"/>
+      <c r="B88" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="60"/>
+      <c r="T88" s="60"/>
+      <c r="U88" s="60"/>
+      <c r="V88" s="60"/>
+      <c r="W88" s="60"/>
+      <c r="X88" s="63"/>
+      <c r="Y88" s="63"/>
+      <c r="Z88" s="60"/>
+      <c r="AA88" s="60"/>
+      <c r="AB88" s="60"/>
+      <c r="AC88" s="60"/>
+      <c r="AD88" s="60"/>
+      <c r="AE88" s="60"/>
+      <c r="AF88" s="60"/>
+      <c r="AG88" s="60"/>
+      <c r="AH88" s="60"/>
+      <c r="AI88" s="60"/>
+      <c r="AJ88" s="60"/>
+      <c r="AK88" s="60"/>
+      <c r="AL88" s="60"/>
+      <c r="AM88" s="60"/>
+      <c r="AN88" s="60"/>
+      <c r="AO88" s="60"/>
+      <c r="AP88" s="60"/>
     </row>
     <row r="89" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="61"/>
-      <c r="Z89" s="61"/>
-      <c r="AA89" s="61"/>
-      <c r="AB89" s="61"/>
-      <c r="AC89" s="61"/>
-      <c r="AD89" s="61"/>
-      <c r="AE89" s="61"/>
-      <c r="AF89" s="61"/>
-      <c r="AG89" s="61"/>
-      <c r="AH89" s="61"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
+      <c r="B89" s="58">
+        <v>10</v>
+      </c>
+      <c r="C89" s="58">
+        <v>10</v>
+      </c>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="60"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="60"/>
+      <c r="P89" s="60"/>
+      <c r="Q89" s="60"/>
+      <c r="R89" s="60"/>
+      <c r="S89" s="60"/>
+      <c r="T89" s="60"/>
+      <c r="U89" s="60"/>
+      <c r="V89" s="60"/>
+      <c r="W89" s="60"/>
+      <c r="X89" s="60"/>
+      <c r="Y89" s="60"/>
+      <c r="Z89" s="63"/>
+      <c r="AA89" s="63"/>
+      <c r="AB89" s="63"/>
+      <c r="AC89" s="63"/>
+      <c r="AD89" s="63"/>
+      <c r="AE89" s="63"/>
+      <c r="AF89" s="63"/>
+      <c r="AG89" s="63"/>
+      <c r="AH89" s="63"/>
+      <c r="AI89" s="63"/>
+      <c r="AJ89" s="60"/>
+      <c r="AK89" s="60"/>
+      <c r="AL89" s="60"/>
+      <c r="AM89" s="60"/>
+      <c r="AN89" s="60"/>
+      <c r="AO89" s="60"/>
+      <c r="AP89" s="60"/>
     </row>
     <row r="90" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="61"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
+      <c r="B90" s="60">
+        <v>1</v>
+      </c>
+      <c r="C90" s="60">
+        <v>11</v>
+      </c>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="60"/>
+      <c r="N90" s="60"/>
+      <c r="O90" s="60"/>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="60"/>
+      <c r="R90" s="60"/>
+      <c r="S90" s="60"/>
+      <c r="T90" s="60"/>
+      <c r="U90" s="60"/>
+      <c r="V90" s="60"/>
+      <c r="W90" s="60"/>
+      <c r="X90" s="60"/>
+      <c r="Y90" s="60"/>
+      <c r="Z90" s="60"/>
+      <c r="AA90" s="60"/>
+      <c r="AB90" s="60"/>
+      <c r="AC90" s="60"/>
+      <c r="AD90" s="60"/>
+      <c r="AE90" s="60"/>
+      <c r="AF90" s="60"/>
+      <c r="AG90" s="60"/>
+      <c r="AH90" s="60"/>
+      <c r="AI90" s="63"/>
+      <c r="AJ90" s="60"/>
+      <c r="AK90" s="60"/>
+      <c r="AL90" s="60"/>
+      <c r="AM90" s="60"/>
+      <c r="AN90" s="60"/>
+      <c r="AO90" s="60"/>
+      <c r="AP90" s="60"/>
     </row>
     <row r="91" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="61"/>
-      <c r="AJ91" s="61"/>
-      <c r="AK91" s="61"/>
-      <c r="AL91" s="61"/>
-      <c r="AM91" s="61"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
+      <c r="B91" s="60">
+        <v>5</v>
+      </c>
+      <c r="C91" s="60">
+        <v>12</v>
+      </c>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="60"/>
+      <c r="T91" s="60"/>
+      <c r="U91" s="60"/>
+      <c r="V91" s="60"/>
+      <c r="W91" s="60"/>
+      <c r="X91" s="60"/>
+      <c r="Y91" s="60"/>
+      <c r="Z91" s="60"/>
+      <c r="AA91" s="60"/>
+      <c r="AB91" s="60"/>
+      <c r="AC91" s="60"/>
+      <c r="AD91" s="60"/>
+      <c r="AE91" s="60"/>
+      <c r="AF91" s="60"/>
+      <c r="AG91" s="60"/>
+      <c r="AH91" s="60"/>
+      <c r="AI91" s="60"/>
+      <c r="AJ91" s="63"/>
+      <c r="AK91" s="63"/>
+      <c r="AL91" s="63"/>
+      <c r="AM91" s="63"/>
+      <c r="AN91" s="63"/>
+      <c r="AO91" s="60"/>
+      <c r="AP91" s="60"/>
     </row>
     <row r="92" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
-      <c r="AM92" s="1"/>
-      <c r="AN92" s="61"/>
-      <c r="AO92" s="61"/>
+      <c r="B92" s="60">
+        <v>2</v>
+      </c>
+      <c r="C92" s="60">
+        <v>13</v>
+      </c>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="60"/>
+      <c r="N92" s="60"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="60"/>
+      <c r="T92" s="60"/>
+      <c r="U92" s="60"/>
+      <c r="V92" s="60"/>
+      <c r="W92" s="60"/>
+      <c r="X92" s="60"/>
+      <c r="Y92" s="60"/>
+      <c r="Z92" s="60"/>
+      <c r="AA92" s="60"/>
+      <c r="AB92" s="60"/>
+      <c r="AC92" s="60"/>
+      <c r="AD92" s="60"/>
+      <c r="AE92" s="60"/>
+      <c r="AF92" s="60"/>
+      <c r="AG92" s="60"/>
+      <c r="AH92" s="60"/>
+      <c r="AI92" s="60"/>
+      <c r="AJ92" s="60"/>
+      <c r="AK92" s="60"/>
+      <c r="AL92" s="60"/>
+      <c r="AM92" s="60"/>
+      <c r="AN92" s="60"/>
+      <c r="AO92" s="63"/>
+      <c r="AP92" s="63"/>
     </row>
     <row r="93" spans="1:2498" ht="22" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
@@ -6297,36 +6383,36 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="52" t="s">
@@ -6361,216 +6447,216 @@
       <c r="S3" s="52"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
       <c r="K14" s="52"/>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
@@ -6596,12 +6682,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -6614,12 +6700,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793C14F1-A52F-9746-91B6-723DB09700AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A8E916-2475-7441-8076-219DB8BADA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -845,6 +845,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3011,7 @@
       <c r="C79" s="58">
         <v>0</v>
       </c>
-      <c r="D79" s="59"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="59"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
@@ -3054,7 +3061,7 @@
       <c r="C80" s="58">
         <v>1</v>
       </c>
-      <c r="D80" s="57"/>
+      <c r="D80" s="65"/>
       <c r="E80" s="57"/>
       <c r="F80" s="61"/>
       <c r="G80" s="61"/>
@@ -3104,7 +3111,7 @@
       <c r="C81" s="58">
         <v>1</v>
       </c>
-      <c r="D81" s="57"/>
+      <c r="D81" s="65"/>
       <c r="E81" s="57"/>
       <c r="F81" s="61"/>
       <c r="G81" s="61"/>
@@ -3154,7 +3161,7 @@
       <c r="C82" s="58">
         <v>1</v>
       </c>
-      <c r="D82" s="57"/>
+      <c r="D82" s="65"/>
       <c r="E82" s="57"/>
       <c r="F82" s="61"/>
       <c r="G82" s="61"/>
@@ -3204,7 +3211,7 @@
       <c r="C83" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D83" s="57"/>
+      <c r="D83" s="65"/>
       <c r="E83" s="57"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
@@ -3254,7 +3261,7 @@
       <c r="C84" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D84" s="57"/>
+      <c r="D84" s="65"/>
       <c r="E84" s="57"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
@@ -3304,7 +3311,7 @@
       <c r="C85" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D85" s="57"/>
+      <c r="D85" s="65"/>
       <c r="E85" s="57"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
@@ -3354,7 +3361,7 @@
       <c r="C86" s="58">
         <v>7</v>
       </c>
-      <c r="D86" s="57"/>
+      <c r="D86" s="65"/>
       <c r="E86" s="57"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
@@ -3404,7 +3411,7 @@
       <c r="C87" s="58">
         <v>8</v>
       </c>
-      <c r="D87" s="57"/>
+      <c r="D87" s="65"/>
       <c r="E87" s="57"/>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
@@ -3454,7 +3461,7 @@
       <c r="C88" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="D88" s="60"/>
+      <c r="D88" s="66"/>
       <c r="E88" s="60"/>
       <c r="F88" s="60"/>
       <c r="G88" s="60"/>
@@ -3504,7 +3511,7 @@
       <c r="C89" s="58">
         <v>10</v>
       </c>
-      <c r="D89" s="60"/>
+      <c r="D89" s="66"/>
       <c r="E89" s="60"/>
       <c r="F89" s="60"/>
       <c r="G89" s="60"/>
@@ -3554,7 +3561,7 @@
       <c r="C90" s="60">
         <v>11</v>
       </c>
-      <c r="D90" s="60"/>
+      <c r="D90" s="66"/>
       <c r="E90" s="60"/>
       <c r="F90" s="60"/>
       <c r="G90" s="60"/>
@@ -3604,7 +3611,7 @@
       <c r="C91" s="60">
         <v>12</v>
       </c>
-      <c r="D91" s="60"/>
+      <c r="D91" s="66"/>
       <c r="E91" s="60"/>
       <c r="F91" s="60"/>
       <c r="G91" s="60"/>
@@ -3654,7 +3661,7 @@
       <c r="C92" s="60">
         <v>13</v>
       </c>
-      <c r="D92" s="60"/>
+      <c r="D92" s="66"/>
       <c r="E92" s="60"/>
       <c r="F92" s="60"/>
       <c r="G92" s="60"/>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C1B42E-A572-2341-BF18-0023AE4A5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{B4C1B42E-A572-2341-BF18-0023AE4A5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E74CF52B-86B8-4DFC-8DB2-6419ABF91E2D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="11460" windowHeight="9144" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -188,63 +188,6 @@
     <t>3,7</t>
   </si>
   <si>
-    <t>1. Coordinate other tl's needs</t>
-  </si>
-  <si>
-    <t>2. Create sound need checklist</t>
-  </si>
-  <si>
-    <t>3. Plan Enemy Design</t>
-  </si>
-  <si>
-    <t>4. Coordinate Level Themes</t>
-  </si>
-  <si>
-    <t>5. Coordinate Player Sounds</t>
-  </si>
-  <si>
-    <t>6. Coordinate Enemy Sounds</t>
-  </si>
-  <si>
-    <t>7. Source Sound effects</t>
-  </si>
-  <si>
-    <t>8. Source music</t>
-  </si>
-  <si>
-    <t>9. Design Enemy Movement</t>
-  </si>
-  <si>
-    <t>10. Help Progarm Enemys</t>
-  </si>
-  <si>
-    <t>11. Apply Sound To Enemies</t>
-  </si>
-  <si>
-    <t>12. Apply Themes to Levels</t>
-  </si>
-  <si>
-    <t>13. Apply Sounds to Player</t>
-  </si>
-  <si>
-    <t>14. Align music with scenes</t>
-  </si>
-  <si>
-    <t>15. Mixing Audio Levels</t>
-  </si>
-  <si>
-    <t>16. Validate Audio Triggers</t>
-  </si>
-  <si>
-    <t>17. Debugging/Testing</t>
-  </si>
-  <si>
-    <t>18. Installation/Finalizing</t>
-  </si>
-  <si>
-    <t>19. Stress Test</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -444,6 +387,63 @@
   </si>
   <si>
     <t xml:space="preserve">Installation/Finalization </t>
+  </si>
+  <si>
+    <t>Coordinate other tl's needs</t>
+  </si>
+  <si>
+    <t>Create sound need checklist</t>
+  </si>
+  <si>
+    <t>Plan Enemy Design</t>
+  </si>
+  <si>
+    <t>Coordinate Level Themes</t>
+  </si>
+  <si>
+    <t>Coordinate Player Sounds</t>
+  </si>
+  <si>
+    <t>Coordinate Enemy Sounds</t>
+  </si>
+  <si>
+    <t>Source Sound effects</t>
+  </si>
+  <si>
+    <t>Source music</t>
+  </si>
+  <si>
+    <t>Design Enemy Movement</t>
+  </si>
+  <si>
+    <t>Help Progarm Enemys</t>
+  </si>
+  <si>
+    <t>Apply Sound To Enemies</t>
+  </si>
+  <si>
+    <t>Apply Themes to Levels</t>
+  </si>
+  <si>
+    <t>Apply Sounds to Player</t>
+  </si>
+  <si>
+    <t>Align music with scenes</t>
+  </si>
+  <si>
+    <t>Mixing Audio Levels</t>
+  </si>
+  <si>
+    <t>Validate Audio Triggers</t>
+  </si>
+  <si>
+    <t>Debugging/Testing</t>
+  </si>
+  <si>
+    <t>Installation/Finalizing</t>
+  </si>
+  <si>
+    <t>Stress Test</t>
   </si>
 </sst>
 </file>
@@ -474,13 +474,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,12 +538,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -735,9 +729,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -745,14 +736,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,35 +777,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -813,22 +804,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,134 +1173,122 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
-        <v>96</v>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>97</v>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
-        <v>98</v>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
-        <v>99</v>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
-        <v>100</v>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -1313,6 +1305,18 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1322,30 +1326,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P89" sqref="P89"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" style="12" customWidth="1"/>
     <col min="2" max="3" width="17.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="12"/>
-    <col min="6" max="6" width="8.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="12"/>
+    <col min="6" max="6" width="8.77734375" style="12" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="12"/>
+    <col min="8" max="16384" width="8.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
@@ -1360,11 +1364,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="48"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -1547,15 +1551,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="19"/>
@@ -1563,9 +1567,9 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -1577,9 +1581,9 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B5" s="15">
         <v>4</v>
@@ -1593,64 +1597,64 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B6" s="15">
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D6" s="20"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="B7" s="15">
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D7" s="20"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="B8" s="15">
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D8" s="21"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="B9" s="15">
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D9" s="21"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="B10" s="15">
         <v>2</v>
@@ -1662,9 +1666,9 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B11" s="15">
         <v>4</v>
@@ -1678,9 +1682,9 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="B12" s="15">
         <v>6</v>
@@ -1696,24 +1700,24 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D13" s="21"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="B14" s="15">
         <v>2</v>
@@ -1725,9 +1729,9 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B15" s="15">
         <v>3</v>
@@ -1739,9 +1743,9 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B16" s="15">
         <v>2</v>
@@ -1753,24 +1757,24 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B17" s="15">
         <v>3</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D17" s="21"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B18" s="15">
         <v>3</v>
@@ -1785,15 +1789,15 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="B19" s="15">
         <v>4</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D19" s="21"/>
       <c r="AA19" s="17"/>
@@ -1801,9 +1805,9 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B20" s="15">
         <v>3</v>
@@ -1816,9 +1820,9 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="B21" s="15">
         <v>2</v>
@@ -1830,14 +1834,14 @@
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:38" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="14"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>31</v>
       </c>
@@ -1848,7 +1852,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
@@ -1863,7 +1867,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1879,7 +1883,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
@@ -1897,7 +1901,7 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>34</v>
       </c>
@@ -1912,7 +1916,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -1925,7 +1929,7 @@
       <c r="D28" s="25"/>
       <c r="W28" s="24"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
@@ -1942,7 +1946,7 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
@@ -1957,7 +1961,7 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +1979,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -1989,7 +1993,7 @@
       <c r="AK32" s="17"/>
       <c r="AL32" s="17"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
@@ -2004,7 +2008,7 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
@@ -2020,7 +2024,7 @@
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -2039,7 +2043,7 @@
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -2053,9 +2057,9 @@
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B37" s="15">
         <v>7</v>
@@ -2072,9 +2076,9 @@
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B38" s="15">
         <v>8</v>
@@ -2092,9 +2096,9 @@
       <c r="BB38" s="17"/>
       <c r="BC38" s="17"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B39" s="15">
         <v>6</v>
@@ -2110,81 +2114,83 @@
       <c r="BH39" s="17"/>
       <c r="BI39" s="17"/>
     </row>
-    <row r="40" spans="1:61" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="14"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:42" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A53" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="14"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="32">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="15">
         <v>4</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="D54" s="23"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -2220,14 +2226,14 @@
       <c r="AO54"/>
       <c r="AP54"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="32">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="15">
         <v>6</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="15">
         <v>1</v>
       </c>
       <c r="D55" s="16"/>
@@ -2235,12 +2241,12 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
@@ -2270,14 +2276,14 @@
       <c r="AO55"/>
       <c r="AP55"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="32">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="15">
         <v>8</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="15">
         <v>1</v>
       </c>
       <c r="D56" s="16"/>
@@ -2285,14 +2291,14 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
@@ -2320,14 +2326,14 @@
       <c r="AO56"/>
       <c r="AP56"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="32">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="15">
         <v>8</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="15">
         <v>3</v>
       </c>
       <c r="D57" s="16"/>
@@ -2343,14 +2349,14 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
       <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57"/>
@@ -2370,15 +2376,15 @@
       <c r="AO57"/>
       <c r="AP57"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="32">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="15">
         <v>4</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>111</v>
+      <c r="C58" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58"/>
@@ -2393,10 +2399,10 @@
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
@@ -2420,14 +2426,14 @@
       <c r="AO58"/>
       <c r="AP58"/>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="32">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="15">
         <v>8</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="15">
         <v>3</v>
       </c>
       <c r="D59" s="16"/>
@@ -2443,14 +2449,14 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
       <c r="Y59"/>
       <c r="Z59"/>
       <c r="AA59"/>
@@ -2470,15 +2476,15 @@
       <c r="AO59"/>
       <c r="AP59"/>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="32">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="15">
         <v>4</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>114</v>
+      <c r="C60" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60"/>
@@ -2501,10 +2507,10 @@
       <c r="V60"/>
       <c r="W60"/>
       <c r="X60"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
       <c r="AC60"/>
       <c r="AD60"/>
       <c r="AE60"/>
@@ -2520,14 +2526,14 @@
       <c r="AO60"/>
       <c r="AP60"/>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="32">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="15">
         <v>4</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="15">
         <v>5</v>
       </c>
       <c r="D61" s="16"/>
@@ -2551,10 +2557,10 @@
       <c r="V61"/>
       <c r="W61"/>
       <c r="X61"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
+      <c r="Y61" s="32"/>
+      <c r="Z61" s="32"/>
+      <c r="AA61" s="32"/>
+      <c r="AB61" s="32"/>
       <c r="AC61"/>
       <c r="AD61"/>
       <c r="AE61"/>
@@ -2570,14 +2576,14 @@
       <c r="AO61"/>
       <c r="AP61"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="32">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="15">
         <v>3</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="15">
         <v>7</v>
       </c>
       <c r="D62" s="16"/>
@@ -2605,9 +2611,9 @@
       <c r="Z62"/>
       <c r="AA62"/>
       <c r="AB62"/>
-      <c r="AC62" s="35"/>
-      <c r="AD62" s="35"/>
-      <c r="AE62" s="35"/>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="32"/>
+      <c r="AE62" s="32"/>
       <c r="AF62"/>
       <c r="AG62"/>
       <c r="AH62"/>
@@ -2620,15 +2626,15 @@
       <c r="AO62"/>
       <c r="AP62"/>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="32">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="15">
         <v>3</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>118</v>
+      <c r="C63" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63"/>
@@ -2658,9 +2664,9 @@
       <c r="AC63"/>
       <c r="AD63"/>
       <c r="AE63"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="35"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="32"/>
       <c r="AI63"/>
       <c r="AJ63"/>
       <c r="AK63"/>
@@ -2670,14 +2676,14 @@
       <c r="AO63"/>
       <c r="AP63"/>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="32">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="15">
         <v>4</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="15">
         <v>10</v>
       </c>
       <c r="D64" s="16"/>
@@ -2711,23 +2717,23 @@
       <c r="AF64"/>
       <c r="AG64"/>
       <c r="AH64"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="35"/>
+      <c r="AI64" s="32"/>
+      <c r="AJ64" s="32"/>
+      <c r="AK64" s="32"/>
+      <c r="AL64" s="32"/>
       <c r="AM64"/>
       <c r="AN64"/>
       <c r="AO64"/>
       <c r="AP64"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="32">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="15">
         <v>4</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="15">
         <v>11</v>
       </c>
       <c r="D65" s="16"/>
@@ -2765,19 +2771,19 @@
       <c r="AJ65"/>
       <c r="AK65"/>
       <c r="AL65"/>
-      <c r="AM65" s="35"/>
-      <c r="AN65" s="35"/>
-      <c r="AO65" s="35"/>
-      <c r="AP65" s="35"/>
-    </row>
-    <row r="66" spans="1:50" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="AM65" s="32"/>
+      <c r="AN65" s="32"/>
+      <c r="AO65" s="32"/>
+      <c r="AP65" s="32"/>
+    </row>
+    <row r="66" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A66" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="14"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>20</v>
       </c>
@@ -2785,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="19"/>
@@ -2796,7 +2802,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>21</v>
       </c>
@@ -2815,7 +2821,7 @@
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>22</v>
       </c>
@@ -2835,7 +2841,7 @@
       <c r="R69" s="17"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>23</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D70" s="16"/>
       <c r="S70" s="17"/>
@@ -2851,7 +2857,7 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>24</v>
       </c>
@@ -2869,7 +2875,7 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>25</v>
       </c>
@@ -2887,7 +2893,7 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>26</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D73" s="16"/>
       <c r="AC73" s="17"/>
@@ -2904,7 +2910,7 @@
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>27</v>
       </c>
@@ -2922,7 +2928,7 @@
       <c r="AL74" s="17"/>
       <c r="AM74" s="17"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>28</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D75" s="16"/>
       <c r="AL75" s="17"/>
@@ -2938,7 +2944,7 @@
       <c r="AN75" s="17"/>
       <c r="AO75" s="17"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>29</v>
       </c>
@@ -2946,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D76" s="16"/>
       <c r="AP76" s="17"/>
@@ -2956,7 +2962,7 @@
       <c r="AT76" s="17"/>
       <c r="AU76" s="17"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>30</v>
       </c>
@@ -2971,644 +2977,825 @@
       <c r="AW77" s="17"/>
       <c r="AX77" s="17"/>
     </row>
-    <row r="78" spans="1:50" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A78" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="14"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="33"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="33"/>
-      <c r="X79" s="33"/>
-      <c r="Y79" s="33"/>
-      <c r="Z79" s="33"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
-    </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
-      <c r="S80" s="33"/>
-      <c r="T80" s="33"/>
-      <c r="U80" s="33"/>
-      <c r="V80" s="33"/>
-      <c r="W80" s="33"/>
-      <c r="X80" s="33"/>
-      <c r="Y80" s="33"/>
-      <c r="Z80" s="33"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
-    </row>
-    <row r="81" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="33"/>
-      <c r="U81" s="33"/>
-      <c r="V81" s="33"/>
-      <c r="W81" s="33"/>
-      <c r="X81" s="33"/>
-      <c r="Y81" s="33"/>
-      <c r="Z81" s="33"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
-      <c r="AM81" s="1"/>
-      <c r="AN81" s="1"/>
-      <c r="AO81" s="1"/>
-    </row>
-    <row r="82" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="33"/>
-      <c r="R82" s="33"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="33"/>
-      <c r="U82" s="33"/>
-      <c r="V82" s="33"/>
-      <c r="W82" s="33"/>
-      <c r="X82" s="33"/>
-      <c r="Y82" s="33"/>
-      <c r="Z82" s="33"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="1"/>
-      <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
-      <c r="AH82" s="1"/>
-      <c r="AI82" s="1"/>
-      <c r="AJ82" s="1"/>
-      <c r="AK82" s="1"/>
-      <c r="AL82" s="1"/>
-      <c r="AM82" s="1"/>
-      <c r="AN82" s="1"/>
-      <c r="AO82" s="1"/>
-    </row>
-    <row r="83" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="33"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="33"/>
-      <c r="U83" s="33"/>
-      <c r="V83" s="33"/>
-      <c r="W83" s="33"/>
-      <c r="X83" s="33"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
-      <c r="AK83" s="1"/>
-      <c r="AL83" s="1"/>
-      <c r="AM83" s="1"/>
-      <c r="AN83" s="1"/>
-      <c r="AO83" s="1"/>
-    </row>
-    <row r="84" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="33"/>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="1"/>
-      <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-      <c r="AH84" s="1"/>
-      <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
-      <c r="AK84" s="1"/>
-      <c r="AL84" s="1"/>
-      <c r="AM84" s="1"/>
-      <c r="AN84" s="1"/>
-      <c r="AO84" s="1"/>
-    </row>
-    <row r="85" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="60"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="33"/>
-      <c r="W85" s="33"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-      <c r="AK85" s="1"/>
-      <c r="AL85" s="1"/>
-      <c r="AM85" s="1"/>
-      <c r="AN85" s="1"/>
-      <c r="AO85" s="1"/>
-    </row>
-    <row r="86" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-      <c r="S86" s="60"/>
-      <c r="T86" s="60"/>
-      <c r="U86" s="60"/>
-      <c r="V86" s="60"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-      <c r="AH86" s="1"/>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
-      <c r="AK86" s="1"/>
-      <c r="AL86" s="1"/>
-      <c r="AM86" s="1"/>
-      <c r="AN86" s="1"/>
-      <c r="AO86" s="1"/>
-    </row>
-    <row r="87" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="33"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="33"/>
-      <c r="W87" s="60"/>
-      <c r="X87" s="60"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
-    </row>
-    <row r="88" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="61"/>
-      <c r="X88" s="61"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
-      <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
-      <c r="AO88" s="1"/>
-    </row>
-    <row r="89" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-      <c r="Y89" s="61"/>
-      <c r="Z89" s="61"/>
-      <c r="AA89" s="61"/>
-      <c r="AB89" s="61"/>
-      <c r="AC89" s="61"/>
-      <c r="AD89" s="61"/>
-      <c r="AE89" s="61"/>
-      <c r="AF89" s="61"/>
-      <c r="AG89" s="61"/>
-      <c r="AH89" s="61"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
-      <c r="AK89" s="1"/>
-      <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-    </row>
-    <row r="90" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="61"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-      <c r="AK90" s="1"/>
-      <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
-    </row>
-    <row r="91" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="61"/>
-      <c r="AJ91" s="61"/>
-      <c r="AK91" s="61"/>
-      <c r="AL91" s="61"/>
-      <c r="AM91" s="61"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
-    </row>
-    <row r="92" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-      <c r="AK92" s="1"/>
-      <c r="AL92" s="1"/>
-      <c r="AM92" s="1"/>
-      <c r="AN92" s="61"/>
-      <c r="AO92" s="61"/>
-    </row>
-    <row r="93" spans="1:2498" ht="22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A79" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="55"/>
+      <c r="Q79" s="55"/>
+      <c r="R79" s="55"/>
+      <c r="S79" s="55"/>
+      <c r="T79" s="55"/>
+      <c r="U79" s="55"/>
+      <c r="V79" s="55"/>
+      <c r="W79" s="55"/>
+      <c r="X79" s="55"/>
+      <c r="Y79" s="55"/>
+      <c r="Z79" s="55"/>
+      <c r="AA79" s="56"/>
+      <c r="AB79" s="56"/>
+      <c r="AC79" s="56"/>
+      <c r="AD79" s="56"/>
+      <c r="AE79" s="56"/>
+      <c r="AF79" s="56"/>
+      <c r="AG79" s="56"/>
+      <c r="AH79" s="56"/>
+      <c r="AI79" s="56"/>
+      <c r="AJ79" s="56"/>
+      <c r="AK79" s="56"/>
+      <c r="AL79" s="56"/>
+      <c r="AM79" s="56"/>
+      <c r="AN79" s="56"/>
+      <c r="AO79" s="56"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A80" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="55"/>
+      <c r="X80" s="55"/>
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="55"/>
+      <c r="AA80" s="56"/>
+      <c r="AB80" s="56"/>
+      <c r="AC80" s="56"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="56"/>
+      <c r="AH80" s="56"/>
+      <c r="AI80" s="56"/>
+      <c r="AJ80" s="56"/>
+      <c r="AK80" s="56"/>
+      <c r="AL80" s="56"/>
+      <c r="AM80" s="56"/>
+      <c r="AN80" s="56"/>
+      <c r="AO80" s="56"/>
+    </row>
+    <row r="81" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A81" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="55"/>
+      <c r="R81" s="55"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="55"/>
+      <c r="V81" s="55"/>
+      <c r="W81" s="55"/>
+      <c r="X81" s="55"/>
+      <c r="Y81" s="55"/>
+      <c r="Z81" s="55"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="56"/>
+      <c r="AI81" s="56"/>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="56"/>
+      <c r="AL81" s="56"/>
+      <c r="AM81" s="56"/>
+      <c r="AN81" s="56"/>
+      <c r="AO81" s="56"/>
+    </row>
+    <row r="82" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A82" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="55"/>
+      <c r="R82" s="55"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
+      <c r="X82" s="55"/>
+      <c r="Y82" s="55"/>
+      <c r="Z82" s="55"/>
+      <c r="AA82" s="56"/>
+      <c r="AB82" s="56"/>
+      <c r="AC82" s="56"/>
+      <c r="AD82" s="56"/>
+      <c r="AE82" s="56"/>
+      <c r="AF82" s="56"/>
+      <c r="AG82" s="56"/>
+      <c r="AH82" s="56"/>
+      <c r="AI82" s="56"/>
+      <c r="AJ82" s="56"/>
+      <c r="AK82" s="56"/>
+      <c r="AL82" s="56"/>
+      <c r="AM82" s="56"/>
+      <c r="AN82" s="56"/>
+      <c r="AO82" s="56"/>
+    </row>
+    <row r="83" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A83" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="58"/>
+      <c r="P83" s="58"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="55"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="55"/>
+      <c r="U83" s="55"/>
+      <c r="V83" s="55"/>
+      <c r="W83" s="55"/>
+      <c r="X83" s="55"/>
+      <c r="Y83" s="55"/>
+      <c r="Z83" s="55"/>
+      <c r="AA83" s="56"/>
+      <c r="AB83" s="56"/>
+      <c r="AC83" s="56"/>
+      <c r="AD83" s="56"/>
+      <c r="AE83" s="56"/>
+      <c r="AF83" s="56"/>
+      <c r="AG83" s="56"/>
+      <c r="AH83" s="56"/>
+      <c r="AI83" s="56"/>
+      <c r="AJ83" s="56"/>
+      <c r="AK83" s="56"/>
+      <c r="AL83" s="56"/>
+      <c r="AM83" s="56"/>
+      <c r="AN83" s="56"/>
+      <c r="AO83" s="56"/>
+    </row>
+    <row r="84" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A84" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="55"/>
+      <c r="V84" s="55"/>
+      <c r="W84" s="55"/>
+      <c r="X84" s="55"/>
+      <c r="Y84" s="55"/>
+      <c r="Z84" s="55"/>
+      <c r="AA84" s="56"/>
+      <c r="AB84" s="56"/>
+      <c r="AC84" s="56"/>
+      <c r="AD84" s="56"/>
+      <c r="AE84" s="56"/>
+      <c r="AF84" s="56"/>
+      <c r="AG84" s="56"/>
+      <c r="AH84" s="56"/>
+      <c r="AI84" s="56"/>
+      <c r="AJ84" s="56"/>
+      <c r="AK84" s="56"/>
+      <c r="AL84" s="56"/>
+      <c r="AM84" s="56"/>
+      <c r="AN84" s="56"/>
+      <c r="AO84" s="56"/>
+    </row>
+    <row r="85" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A85" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="55"/>
+      <c r="Q85" s="58"/>
+      <c r="R85" s="58"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="55"/>
+      <c r="V85" s="55"/>
+      <c r="W85" s="55"/>
+      <c r="X85" s="55"/>
+      <c r="Y85" s="55"/>
+      <c r="Z85" s="55"/>
+      <c r="AA85" s="56"/>
+      <c r="AB85" s="56"/>
+      <c r="AC85" s="56"/>
+      <c r="AD85" s="56"/>
+      <c r="AE85" s="56"/>
+      <c r="AF85" s="56"/>
+      <c r="AG85" s="56"/>
+      <c r="AH85" s="56"/>
+      <c r="AI85" s="56"/>
+      <c r="AJ85" s="56"/>
+      <c r="AK85" s="56"/>
+      <c r="AL85" s="56"/>
+      <c r="AM85" s="56"/>
+      <c r="AN85" s="56"/>
+      <c r="AO85" s="56"/>
+    </row>
+    <row r="86" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A86" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="55"/>
+      <c r="Q86" s="55"/>
+      <c r="R86" s="55"/>
+      <c r="S86" s="58"/>
+      <c r="T86" s="58"/>
+      <c r="U86" s="58"/>
+      <c r="V86" s="58"/>
+      <c r="W86" s="56"/>
+      <c r="X86" s="56"/>
+      <c r="Y86" s="55"/>
+      <c r="Z86" s="55"/>
+      <c r="AA86" s="56"/>
+      <c r="AB86" s="56"/>
+      <c r="AC86" s="56"/>
+      <c r="AD86" s="56"/>
+      <c r="AE86" s="56"/>
+      <c r="AF86" s="56"/>
+      <c r="AG86" s="56"/>
+      <c r="AH86" s="56"/>
+      <c r="AI86" s="56"/>
+      <c r="AJ86" s="56"/>
+      <c r="AK86" s="56"/>
+      <c r="AL86" s="56"/>
+      <c r="AM86" s="56"/>
+      <c r="AN86" s="56"/>
+      <c r="AO86" s="56"/>
+    </row>
+    <row r="87" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A87" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="64"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="55"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="55"/>
+      <c r="R87" s="55"/>
+      <c r="S87" s="55"/>
+      <c r="T87" s="55"/>
+      <c r="U87" s="55"/>
+      <c r="V87" s="55"/>
+      <c r="W87" s="58"/>
+      <c r="X87" s="58"/>
+      <c r="Y87" s="56"/>
+      <c r="Z87" s="56"/>
+      <c r="AA87" s="56"/>
+      <c r="AB87" s="56"/>
+      <c r="AC87" s="56"/>
+      <c r="AD87" s="56"/>
+      <c r="AE87" s="56"/>
+      <c r="AF87" s="56"/>
+      <c r="AG87" s="56"/>
+      <c r="AH87" s="56"/>
+      <c r="AI87" s="56"/>
+      <c r="AJ87" s="56"/>
+      <c r="AK87" s="56"/>
+      <c r="AL87" s="56"/>
+      <c r="AM87" s="56"/>
+      <c r="AN87" s="56"/>
+      <c r="AO87" s="56"/>
+    </row>
+    <row r="88" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A88" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="56"/>
+      <c r="T88" s="56"/>
+      <c r="U88" s="56"/>
+      <c r="V88" s="56"/>
+      <c r="W88" s="59"/>
+      <c r="X88" s="59"/>
+      <c r="Y88" s="56"/>
+      <c r="Z88" s="56"/>
+      <c r="AA88" s="56"/>
+      <c r="AB88" s="56"/>
+      <c r="AC88" s="56"/>
+      <c r="AD88" s="56"/>
+      <c r="AE88" s="56"/>
+      <c r="AF88" s="56"/>
+      <c r="AG88" s="56"/>
+      <c r="AH88" s="56"/>
+      <c r="AI88" s="56"/>
+      <c r="AJ88" s="56"/>
+      <c r="AK88" s="56"/>
+      <c r="AL88" s="56"/>
+      <c r="AM88" s="56"/>
+      <c r="AN88" s="56"/>
+      <c r="AO88" s="56"/>
+    </row>
+    <row r="89" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A89" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="56"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
+      <c r="T89" s="56"/>
+      <c r="U89" s="56"/>
+      <c r="V89" s="56"/>
+      <c r="W89" s="56"/>
+      <c r="X89" s="56"/>
+      <c r="Y89" s="59"/>
+      <c r="Z89" s="59"/>
+      <c r="AA89" s="59"/>
+      <c r="AB89" s="59"/>
+      <c r="AC89" s="59"/>
+      <c r="AD89" s="59"/>
+      <c r="AE89" s="59"/>
+      <c r="AF89" s="59"/>
+      <c r="AG89" s="59"/>
+      <c r="AH89" s="59"/>
+      <c r="AI89" s="56"/>
+      <c r="AJ89" s="56"/>
+      <c r="AK89" s="56"/>
+      <c r="AL89" s="56"/>
+      <c r="AM89" s="56"/>
+      <c r="AN89" s="56"/>
+      <c r="AO89" s="56"/>
+    </row>
+    <row r="90" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A90" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="56"/>
+      <c r="V90" s="56"/>
+      <c r="W90" s="56"/>
+      <c r="X90" s="56"/>
+      <c r="Y90" s="56"/>
+      <c r="Z90" s="56"/>
+      <c r="AA90" s="56"/>
+      <c r="AB90" s="56"/>
+      <c r="AC90" s="56"/>
+      <c r="AD90" s="56"/>
+      <c r="AE90" s="56"/>
+      <c r="AF90" s="56"/>
+      <c r="AG90" s="56"/>
+      <c r="AH90" s="59"/>
+      <c r="AI90" s="56"/>
+      <c r="AJ90" s="56"/>
+      <c r="AK90" s="56"/>
+      <c r="AL90" s="56"/>
+      <c r="AM90" s="56"/>
+      <c r="AN90" s="56"/>
+      <c r="AO90" s="56"/>
+    </row>
+    <row r="91" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A91" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="56"/>
+      <c r="P91" s="56"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="56"/>
+      <c r="T91" s="56"/>
+      <c r="U91" s="56"/>
+      <c r="V91" s="56"/>
+      <c r="W91" s="56"/>
+      <c r="X91" s="56"/>
+      <c r="Y91" s="56"/>
+      <c r="Z91" s="56"/>
+      <c r="AA91" s="56"/>
+      <c r="AB91" s="56"/>
+      <c r="AC91" s="56"/>
+      <c r="AD91" s="56"/>
+      <c r="AE91" s="56"/>
+      <c r="AF91" s="56"/>
+      <c r="AG91" s="56"/>
+      <c r="AH91" s="56"/>
+      <c r="AI91" s="59"/>
+      <c r="AJ91" s="59"/>
+      <c r="AK91" s="59"/>
+      <c r="AL91" s="59"/>
+      <c r="AM91" s="59"/>
+      <c r="AN91" s="56"/>
+      <c r="AO91" s="56"/>
+    </row>
+    <row r="92" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="56"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="56"/>
+      <c r="T92" s="56"/>
+      <c r="U92" s="56"/>
+      <c r="V92" s="56"/>
+      <c r="W92" s="56"/>
+      <c r="X92" s="56"/>
+      <c r="Y92" s="56"/>
+      <c r="Z92" s="56"/>
+      <c r="AA92" s="56"/>
+      <c r="AB92" s="56"/>
+      <c r="AC92" s="56"/>
+      <c r="AD92" s="56"/>
+      <c r="AE92" s="56"/>
+      <c r="AF92" s="56"/>
+      <c r="AG92" s="56"/>
+      <c r="AH92" s="56"/>
+      <c r="AI92" s="56"/>
+      <c r="AJ92" s="56"/>
+      <c r="AK92" s="56"/>
+      <c r="AL92" s="56"/>
+      <c r="AM92" s="56"/>
+      <c r="AN92" s="59"/>
+      <c r="AO92" s="59"/>
+      <c r="AP92" s="63"/>
+      <c r="AQ92" s="63"/>
+      <c r="AR92" s="63"/>
+      <c r="AS92" s="63"/>
+      <c r="AT92" s="63"/>
+      <c r="AU92" s="63"/>
+      <c r="AV92" s="63"/>
+      <c r="AW92" s="63"/>
+      <c r="AX92" s="63"/>
+      <c r="AY92" s="63"/>
+      <c r="AZ92" s="63"/>
+      <c r="BA92" s="63"/>
+      <c r="BB92" s="63"/>
+      <c r="BC92" s="63"/>
+      <c r="BD92" s="63"/>
+      <c r="BE92" s="63"/>
+      <c r="BF92" s="63"/>
+      <c r="BG92" s="63"/>
+      <c r="BH92" s="63"/>
+      <c r="BI92" s="63"/>
+      <c r="BJ92" s="63"/>
+      <c r="BK92" s="63"/>
+      <c r="BL92" s="63"/>
+      <c r="BM92" s="63"/>
+      <c r="BN92" s="63"/>
+      <c r="BO92" s="63"/>
+      <c r="BP92" s="63"/>
+      <c r="BQ92" s="63"/>
+      <c r="BR92" s="63"/>
+      <c r="BS92" s="63"/>
+      <c r="BT92" s="63"/>
+      <c r="BU92" s="63"/>
+      <c r="BV92" s="63"/>
+      <c r="BW92" s="63"/>
+      <c r="BX92" s="63"/>
+      <c r="BY92" s="63"/>
+      <c r="BZ92" s="63"/>
+      <c r="CA92" s="63"/>
+      <c r="CB92" s="63"/>
+      <c r="CC92" s="63"/>
+      <c r="CD92" s="63"/>
+      <c r="CE92" s="63"/>
+      <c r="CF92" s="63"/>
+      <c r="CG92" s="63"/>
+      <c r="CH92" s="63"/>
+      <c r="CI92" s="63"/>
+      <c r="CJ92" s="63"/>
+      <c r="CK92" s="63"/>
+      <c r="CL92" s="63"/>
+      <c r="CM92" s="63"/>
+      <c r="CN92" s="63"/>
+      <c r="CO92" s="63"/>
+      <c r="CP92" s="63"/>
+      <c r="CQ92" s="63"/>
+      <c r="CR92" s="63"/>
+      <c r="CS92" s="63"/>
+      <c r="CT92" s="63"/>
+      <c r="CU92" s="63"/>
+      <c r="CV92" s="63"/>
+      <c r="CW92" s="63"/>
+      <c r="CX92" s="63"/>
+      <c r="CY92" s="63"/>
+      <c r="CZ92" s="63"/>
+      <c r="DA92" s="63"/>
+      <c r="DB92" s="63"/>
+      <c r="DC92" s="63"/>
+      <c r="DD92" s="63"/>
+      <c r="DE92" s="63"/>
+      <c r="DF92" s="63"/>
+      <c r="DG92" s="63"/>
+      <c r="DH92" s="63"/>
+      <c r="DI92" s="63"/>
+      <c r="DJ92" s="63"/>
+      <c r="DK92" s="63"/>
+      <c r="DL92" s="63"/>
+      <c r="DM92" s="63"/>
+      <c r="DN92" s="63"/>
+      <c r="DO92" s="63"/>
+      <c r="DP92" s="63"/>
+      <c r="DQ92" s="63"/>
+      <c r="DR92" s="63"/>
+      <c r="DS92" s="63"/>
+      <c r="DT92" s="63"/>
+      <c r="DU92" s="63"/>
+      <c r="DV92" s="63"/>
+      <c r="DW92" s="63"/>
+      <c r="DX92" s="63"/>
+      <c r="DY92" s="63"/>
+      <c r="DZ92" s="63"/>
+      <c r="EA92" s="63"/>
+      <c r="EB92" s="63"/>
+      <c r="EC92" s="63"/>
+      <c r="ED92" s="63"/>
+      <c r="EE92" s="63"/>
+      <c r="EF92" s="63"/>
+      <c r="EG92" s="63"/>
+      <c r="EH92" s="63"/>
+      <c r="EI92" s="63"/>
+      <c r="EJ92" s="63"/>
+      <c r="EK92" s="63"/>
+      <c r="EL92" s="63"/>
+      <c r="EM92" s="63"/>
+      <c r="EN92" s="63"/>
+      <c r="EO92" s="63"/>
+      <c r="EP92" s="63"/>
+      <c r="EQ92" s="63"/>
+      <c r="ER92" s="63"/>
+      <c r="ES92" s="63"/>
+      <c r="ET92" s="63"/>
+      <c r="EU92" s="63"/>
+      <c r="EV92" s="63"/>
+      <c r="EW92" s="63"/>
+      <c r="EX92" s="63"/>
+      <c r="EY92" s="63"/>
+      <c r="EZ92" s="63"/>
+      <c r="FA92" s="63"/>
+      <c r="FB92" s="63"/>
+      <c r="FC92" s="63"/>
+      <c r="FD92" s="63"/>
+      <c r="FE92" s="63"/>
+      <c r="FF92" s="63"/>
+      <c r="FG92" s="63"/>
+      <c r="FH92" s="63"/>
+      <c r="FI92" s="63"/>
+      <c r="FJ92" s="63"/>
+      <c r="FK92" s="63"/>
+      <c r="FL92" s="63"/>
+      <c r="FM92" s="63"/>
+      <c r="FN92" s="63"/>
+      <c r="FO92" s="63"/>
+      <c r="FP92" s="63"/>
+      <c r="FQ92" s="63"/>
+      <c r="FR92" s="63"/>
+      <c r="FS92" s="63"/>
+      <c r="FT92" s="63"/>
+      <c r="FU92" s="63"/>
+      <c r="FV92" s="63"/>
+      <c r="FW92" s="63"/>
+      <c r="FX92" s="63"/>
+      <c r="FY92" s="63"/>
+      <c r="FZ92" s="63"/>
+      <c r="GA92" s="63"/>
+      <c r="GB92" s="63"/>
+      <c r="GC92" s="63"/>
+      <c r="GD92" s="63"/>
+      <c r="GE92" s="63"/>
+      <c r="GF92" s="63"/>
+      <c r="GG92" s="63"/>
+      <c r="GH92" s="63"/>
+      <c r="GI92" s="63"/>
+      <c r="GJ92" s="63"/>
+      <c r="GK92" s="63"/>
+      <c r="GL92" s="63"/>
+      <c r="GM92" s="63"/>
+      <c r="GN92" s="63"/>
+      <c r="GO92" s="63"/>
+      <c r="GP92" s="63"/>
+      <c r="GQ92" s="63"/>
+      <c r="GR92" s="63"/>
+      <c r="GS92" s="63"/>
+      <c r="GT92" s="63"/>
+      <c r="GU92" s="63"/>
+      <c r="GV92" s="63"/>
+      <c r="GW92" s="63"/>
+      <c r="GX92" s="63"/>
+      <c r="GY92" s="63"/>
+      <c r="GZ92" s="63"/>
+      <c r="HA92" s="63"/>
+      <c r="HB92" s="63"/>
+      <c r="HC92" s="63"/>
+      <c r="HD92" s="63"/>
+      <c r="HE92" s="63"/>
+      <c r="HF92" s="63"/>
+      <c r="HG92" s="63"/>
+      <c r="HH92" s="63"/>
+      <c r="HI92" s="63"/>
+      <c r="HJ92" s="63"/>
+      <c r="HK92" s="63"/>
+      <c r="HL92" s="63"/>
+      <c r="HM92" s="63"/>
+      <c r="HN92" s="63"/>
+    </row>
+    <row r="93" spans="1:2498" ht="21" x14ac:dyDescent="0.4">
       <c r="A93" s="18" t="s">
         <v>6</v>
       </c>
@@ -6110,28 +6297,28 @@
       <c r="CRA93" s="9"/>
       <c r="CRB93" s="9"/>
     </row>
-    <row r="94" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" s="26">
+    <row r="94" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A94" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="67">
         <v>2</v>
       </c>
-      <c r="C94" s="26" t="s">
-        <v>75</v>
+      <c r="C94" s="67" t="s">
+        <v>56</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" s="26">
+    <row r="95" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A95" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" s="67">
         <v>5</v>
       </c>
-      <c r="C95" s="26">
+      <c r="C95" s="67">
         <v>1</v>
       </c>
       <c r="D95" s="16"/>
@@ -6141,14 +6328,14 @@
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96" s="26">
+    <row r="96" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A96" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="67">
         <v>5</v>
       </c>
-      <c r="C96" s="26">
+      <c r="C96" s="67">
         <v>1</v>
       </c>
       <c r="D96" s="16"/>
@@ -6158,14 +6345,14 @@
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B97" s="26">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A97" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="67">
         <v>5</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="67">
         <v>1</v>
       </c>
       <c r="D97" s="16"/>
@@ -6175,14 +6362,14 @@
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="A98" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B98" s="26">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A98" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" s="67">
         <v>6</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="67">
         <v>1</v>
       </c>
       <c r="D98" s="16"/>
@@ -6193,15 +6380,15 @@
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
     </row>
-    <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="A99" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99" s="26">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A99" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="67">
         <v>5</v>
       </c>
-      <c r="C99" s="26" t="s">
-        <v>76</v>
+      <c r="C99" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="D99" s="16"/>
       <c r="M99" s="17"/>
@@ -6210,14 +6397,14 @@
       <c r="P99" s="17"/>
       <c r="Q99" s="17"/>
     </row>
-    <row r="100" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="A100" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="26">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A100" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" s="67">
         <v>5</v>
       </c>
-      <c r="C100" s="26">
+      <c r="C100" s="67">
         <v>6</v>
       </c>
       <c r="D100" s="16"/>
@@ -6227,14 +6414,14 @@
       <c r="U100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B101" s="26">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A101" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" s="67">
         <v>4</v>
       </c>
-      <c r="C101" s="26">
+      <c r="C101" s="67">
         <v>6</v>
       </c>
       <c r="D101" s="16"/>
@@ -6243,15 +6430,15 @@
       <c r="Y101" s="17"/>
       <c r="Z101" s="17"/>
     </row>
-    <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A102" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B102" s="26">
+      <c r="B102" s="67">
         <v>6</v>
       </c>
-      <c r="C102" s="26" t="s">
-        <v>77</v>
+      <c r="C102" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="D102" s="16"/>
       <c r="AA102" s="17"/>
@@ -6261,14 +6448,14 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="17"/>
     </row>
-    <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="A103" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B103" s="26">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A103" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="67">
         <v>4</v>
       </c>
-      <c r="C103" s="26">
+      <c r="C103" s="67">
         <v>9</v>
       </c>
       <c r="D103" s="16"/>
@@ -6294,294 +6481,294 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="52" t="s">
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52" t="s">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6596,12 +6783,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -6614,12 +6801,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6631,7 +6818,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clcla\Documents\bc\BcGitReop\CS383BrainstewGame\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C1B42E-A572-2341-BF18-0023AE4A5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE09DB93-455B-4F3E-B148-35CF4B961FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -753,6 +753,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,35 +802,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -813,22 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,134 +1169,122 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="39" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="36" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="53"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="44"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="54"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="54"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="54"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="54"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="54"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="52"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -1313,6 +1301,18 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1322,22 +1322,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P89" sqref="P89"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="42.77734375" style="12" customWidth="1"/>
     <col min="2" max="3" width="17.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="12"/>
-    <col min="6" max="6" width="8.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="12"/>
+    <col min="6" max="6" width="8.77734375" style="12" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="12"/>
+    <col min="8" max="16384" width="8.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1360,11 +1360,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="55"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -1557,13 +1557,13 @@
       <c r="C3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -1573,11 +1573,11 @@
       <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D4" s="25"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
@@ -1587,13 +1587,13 @@
       <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
@@ -1603,10 +1603,10 @@
       <c r="C6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D6" s="25"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
@@ -1616,11 +1616,11 @@
       <c r="C7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>54</v>
       </c>
@@ -1630,11 +1630,11 @@
       <c r="C8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D8" s="20"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
@@ -1644,11 +1644,11 @@
       <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D9" s="20"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
@@ -1658,11 +1658,11 @@
       <c r="C10" s="15">
         <v>4</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="D10" s="25"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>59</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>61</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>62</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>63</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>66</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>67</v>
       </c>
@@ -1830,14 +1830,14 @@
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:38" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="14"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>31</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>34</v>
       </c>
@@ -1912,7 +1912,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="D28" s="25"/>
       <c r="W28" s="24"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
@@ -1942,7 +1942,7 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="AK32" s="17"/>
       <c r="AL32" s="17"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>80</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>81</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="BB38" s="17"/>
       <c r="BC38" s="17"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>82</v>
       </c>
@@ -2110,69 +2110,69 @@
       <c r="BH39" s="17"/>
       <c r="BI39" s="17"/>
     </row>
-    <row r="40" spans="1:61" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="14"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:42" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A53" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="14"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="AO54"/>
       <c r="AP54"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="AO55"/>
       <c r="AP55"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="AO56"/>
       <c r="AP56"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="AO57"/>
       <c r="AP57"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="AO58"/>
       <c r="AP58"/>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="AO59"/>
       <c r="AP59"/>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="AO60"/>
       <c r="AP60"/>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="AO61"/>
       <c r="AP61"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="AO62"/>
       <c r="AP62"/>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="AO63"/>
       <c r="AP63"/>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="AO64"/>
       <c r="AP64"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -2770,14 +2770,14 @@
       <c r="AO65" s="35"/>
       <c r="AP65" s="35"/>
     </row>
-    <row r="66" spans="1:50" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A66" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="14"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>20</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>21</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>22</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="R69" s="17"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>23</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>24</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>25</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>26</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>27</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="AL74" s="17"/>
       <c r="AM74" s="17"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>28</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="AN75" s="17"/>
       <c r="AO75" s="17"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>29</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="AT76" s="17"/>
       <c r="AU76" s="17"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>30</v>
       </c>
@@ -2971,20 +2971,20 @@
       <c r="AW77" s="17"/>
       <c r="AX77" s="17"/>
     </row>
-    <row r="78" spans="1:50" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A78" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="14"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A79" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -3023,17 +3023,17 @@
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
       <c r="I80" s="33"/>
       <c r="J80" s="33"/>
       <c r="K80" s="33"/>
@@ -3068,17 +3068,17 @@
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
     </row>
-    <row r="81" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A81" s="33" t="s">
         <v>123</v>
       </c>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
       <c r="I81" s="33"/>
       <c r="J81" s="33"/>
       <c r="K81" s="33"/>
@@ -3113,17 +3113,17 @@
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
     </row>
-    <row r="82" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A82" s="33" t="s">
         <v>124</v>
       </c>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
       <c r="I82" s="33"/>
       <c r="J82" s="33"/>
       <c r="K82" s="33"/>
@@ -3158,7 +3158,7 @@
       <c r="AN82" s="1"/>
       <c r="AO82" s="1"/>
     </row>
-    <row r="83" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>125</v>
       </c>
@@ -3169,14 +3169,14 @@
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="60"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
       <c r="Q83" s="33"/>
       <c r="R83" s="33"/>
       <c r="S83" s="33"/>
@@ -3203,7 +3203,7 @@
       <c r="AN83" s="1"/>
       <c r="AO83" s="1"/>
     </row>
-    <row r="84" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A84" s="33" t="s">
         <v>126</v>
       </c>
@@ -3214,8 +3214,8 @@
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
       <c r="K84" s="33"/>
       <c r="L84" s="33"/>
       <c r="M84" s="33"/>
@@ -3248,7 +3248,7 @@
       <c r="AN84" s="1"/>
       <c r="AO84" s="1"/>
     </row>
-    <row r="85" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
         <v>127</v>
       </c>
@@ -3267,8 +3267,8 @@
       <c r="N85" s="33"/>
       <c r="O85" s="33"/>
       <c r="P85" s="33"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="60"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="33"/>
@@ -3293,7 +3293,7 @@
       <c r="AN85" s="1"/>
       <c r="AO85" s="1"/>
     </row>
-    <row r="86" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A86" s="33" t="s">
         <v>128</v>
       </c>
@@ -3314,10 +3314,10 @@
       <c r="P86" s="33"/>
       <c r="Q86" s="33"/>
       <c r="R86" s="33"/>
-      <c r="S86" s="60"/>
-      <c r="T86" s="60"/>
-      <c r="U86" s="60"/>
-      <c r="V86" s="60"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="33"/>
@@ -3338,7 +3338,7 @@
       <c r="AN86" s="1"/>
       <c r="AO86" s="1"/>
     </row>
-    <row r="87" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
         <v>129</v>
       </c>
@@ -3363,8 +3363,8 @@
       <c r="T87" s="33"/>
       <c r="U87" s="33"/>
       <c r="V87" s="33"/>
-      <c r="W87" s="60"/>
-      <c r="X87" s="60"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="38"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
@@ -3383,7 +3383,7 @@
       <c r="AN87" s="1"/>
       <c r="AO87" s="1"/>
     </row>
-    <row r="88" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A88" s="33" t="s">
         <v>130</v>
       </c>
@@ -3408,8 +3408,8 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
-      <c r="W88" s="61"/>
-      <c r="X88" s="61"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
@@ -3428,7 +3428,7 @@
       <c r="AN88" s="1"/>
       <c r="AO88" s="1"/>
     </row>
-    <row r="89" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
         <v>131</v>
       </c>
@@ -3455,16 +3455,16 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="61"/>
-      <c r="Z89" s="61"/>
-      <c r="AA89" s="61"/>
-      <c r="AB89" s="61"/>
-      <c r="AC89" s="61"/>
-      <c r="AD89" s="61"/>
-      <c r="AE89" s="61"/>
-      <c r="AF89" s="61"/>
-      <c r="AG89" s="61"/>
-      <c r="AH89" s="61"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39"/>
+      <c r="AA89" s="39"/>
+      <c r="AB89" s="39"/>
+      <c r="AC89" s="39"/>
+      <c r="AD89" s="39"/>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="39"/>
+      <c r="AH89" s="39"/>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
       <c r="AK89" s="1"/>
@@ -3473,7 +3473,7 @@
       <c r="AN89" s="1"/>
       <c r="AO89" s="1"/>
     </row>
-    <row r="90" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>132</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
-      <c r="AH90" s="61"/>
+      <c r="AH90" s="39"/>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
       <c r="AK90" s="1"/>
@@ -3518,7 +3518,7 @@
       <c r="AN90" s="1"/>
       <c r="AO90" s="1"/>
     </row>
-    <row r="91" spans="1:2498" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>133</v>
       </c>
@@ -3555,15 +3555,15 @@
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
-      <c r="AI91" s="61"/>
-      <c r="AJ91" s="61"/>
-      <c r="AK91" s="61"/>
-      <c r="AL91" s="61"/>
-      <c r="AM91" s="61"/>
+      <c r="AI91" s="39"/>
+      <c r="AJ91" s="39"/>
+      <c r="AK91" s="39"/>
+      <c r="AL91" s="39"/>
+      <c r="AM91" s="39"/>
       <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
     </row>
-    <row r="92" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>134</v>
       </c>
@@ -3605,10 +3605,10 @@
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
-      <c r="AN92" s="61"/>
-      <c r="AO92" s="61"/>
-    </row>
-    <row r="93" spans="1:2498" ht="22" x14ac:dyDescent="0.3">
+      <c r="AN92" s="39"/>
+      <c r="AO92" s="39"/>
+    </row>
+    <row r="93" spans="1:2498" ht="21" x14ac:dyDescent="0.4">
       <c r="A93" s="18" t="s">
         <v>6</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="CRA93" s="9"/>
       <c r="CRB93" s="9"/>
     </row>
-    <row r="94" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A94" s="27" t="s">
         <v>86</v>
       </c>
@@ -6124,7 +6124,7 @@
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
         <v>87</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
         <v>88</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="27" t="s">
         <v>89</v>
       </c>
@@ -6175,7 +6175,7 @@
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" s="27" t="s">
         <v>90</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
     </row>
-    <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="27" t="s">
         <v>91</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="P99" s="17"/>
       <c r="Q99" s="17"/>
     </row>
-    <row r="100" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" s="27" t="s">
         <v>92</v>
       </c>
@@ -6227,7 +6227,7 @@
       <c r="U100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" s="27" t="s">
         <v>93</v>
       </c>
@@ -6243,7 +6243,7 @@
       <c r="Y101" s="17"/>
       <c r="Z101" s="17"/>
     </row>
-    <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="27" t="s">
         <v>29</v>
       </c>
@@ -6261,7 +6261,7 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="17"/>
     </row>
-    <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" s="27" t="s">
         <v>94</v>
       </c>
@@ -6294,294 +6294,294 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="52" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6596,12 +6596,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -6614,12 +6614,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6631,7 +6631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{B4C1B42E-A572-2341-BF18-0023AE4A5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E74CF52B-86B8-4DFC-8DB2-6419ABF91E2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D35931-D168-2542-B8D8-D18AB6DCEFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="11460" windowHeight="9144" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -188,6 +188,63 @@
     <t>3,7</t>
   </si>
   <si>
+    <t>1. Coordinate other tl's needs</t>
+  </si>
+  <si>
+    <t>2. Create sound need checklist</t>
+  </si>
+  <si>
+    <t>3. Plan Enemy Design</t>
+  </si>
+  <si>
+    <t>4. Coordinate Level Themes</t>
+  </si>
+  <si>
+    <t>5. Coordinate Player Sounds</t>
+  </si>
+  <si>
+    <t>6. Coordinate Enemy Sounds</t>
+  </si>
+  <si>
+    <t>7. Source Sound effects</t>
+  </si>
+  <si>
+    <t>8. Source music</t>
+  </si>
+  <si>
+    <t>9. Design Enemy Movement</t>
+  </si>
+  <si>
+    <t>10. Help Progarm Enemys</t>
+  </si>
+  <si>
+    <t>11. Apply Sound To Enemies</t>
+  </si>
+  <si>
+    <t>12. Apply Themes to Levels</t>
+  </si>
+  <si>
+    <t>13. Apply Sounds to Player</t>
+  </si>
+  <si>
+    <t>14. Align music with scenes</t>
+  </si>
+  <si>
+    <t>15. Mixing Audio Levels</t>
+  </si>
+  <si>
+    <t>16. Validate Audio Triggers</t>
+  </si>
+  <si>
+    <t>17. Debugging/Testing</t>
+  </si>
+  <si>
+    <t>18. Installation/Finalizing</t>
+  </si>
+  <si>
+    <t>19. Stress Test</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -389,61 +446,19 @@
     <t xml:space="preserve">Installation/Finalization </t>
   </si>
   <si>
-    <t>Coordinate other tl's needs</t>
-  </si>
-  <si>
-    <t>Create sound need checklist</t>
-  </si>
-  <si>
-    <t>Plan Enemy Design</t>
-  </si>
-  <si>
-    <t>Coordinate Level Themes</t>
-  </si>
-  <si>
-    <t>Coordinate Player Sounds</t>
-  </si>
-  <si>
-    <t>Coordinate Enemy Sounds</t>
-  </si>
-  <si>
-    <t>Source Sound effects</t>
-  </si>
-  <si>
-    <t>Source music</t>
-  </si>
-  <si>
-    <t>Design Enemy Movement</t>
-  </si>
-  <si>
-    <t>Help Progarm Enemys</t>
-  </si>
-  <si>
-    <t>Apply Sound To Enemies</t>
-  </si>
-  <si>
-    <t>Apply Themes to Levels</t>
-  </si>
-  <si>
-    <t>Apply Sounds to Player</t>
-  </si>
-  <si>
-    <t>Align music with scenes</t>
-  </si>
-  <si>
-    <t>Mixing Audio Levels</t>
-  </si>
-  <si>
-    <t>Validate Audio Triggers</t>
-  </si>
-  <si>
-    <t>Debugging/Testing</t>
-  </si>
-  <si>
-    <t>Installation/Finalizing</t>
-  </si>
-  <si>
-    <t>Stress Test</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1, 3, 4</t>
+  </si>
+  <si>
+    <t>2, 5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -474,13 +489,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +553,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -729,6 +750,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -736,6 +760,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -807,6 +834,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -815,24 +848,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,119 +1195,119 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="41"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1326,30 +1348,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" style="12" customWidth="1"/>
     <col min="2" max="3" width="17.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="12"/>
-    <col min="6" max="6" width="8.77734375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="12"/>
+    <col min="6" max="6" width="8.83203125" style="12" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="12"/>
+    <col min="8" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>8</v>
@@ -1364,11 +1386,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:64" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="50"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -1551,15 +1573,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="19"/>
@@ -1567,9 +1589,9 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B4" s="15">
         <v>2</v>
@@ -1581,9 +1603,9 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="B5" s="15">
         <v>4</v>
@@ -1597,64 +1619,64 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="B6" s="15">
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D6" s="20"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="B7" s="15">
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D7" s="20"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="B8" s="15">
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D8" s="21"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="B9" s="15">
         <v>2</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D9" s="21"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="B10" s="15">
         <v>2</v>
@@ -1666,9 +1688,9 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B11" s="15">
         <v>4</v>
@@ -1682,9 +1704,9 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="B12" s="15">
         <v>6</v>
@@ -1700,24 +1722,24 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D13" s="21"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="B14" s="15">
         <v>2</v>
@@ -1729,9 +1751,9 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="B15" s="15">
         <v>3</v>
@@ -1743,9 +1765,9 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="B16" s="15">
         <v>2</v>
@@ -1757,24 +1779,24 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="B17" s="15">
         <v>3</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D17" s="21"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="B18" s="15">
         <v>3</v>
@@ -1789,15 +1811,15 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="B19" s="15">
         <v>4</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D19" s="21"/>
       <c r="AA19" s="17"/>
@@ -1805,9 +1827,9 @@
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="B20" s="15">
         <v>3</v>
@@ -1820,9 +1842,9 @@
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="B21" s="15">
         <v>2</v>
@@ -1834,14 +1856,14 @@
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
     </row>
-    <row r="22" spans="1:38" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="14"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>31</v>
       </c>
@@ -1852,7 +1874,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
@@ -1867,7 +1889,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1883,7 +1905,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
@@ -1901,7 +1923,7 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>34</v>
       </c>
@@ -1916,7 +1938,7 @@
       <c r="U27" s="24"/>
       <c r="V27" s="24"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -1929,7 +1951,7 @@
       <c r="D28" s="25"/>
       <c r="W28" s="24"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
@@ -1946,7 +1968,7 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
@@ -1961,7 +1983,7 @@
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>38</v>
       </c>
@@ -1979,7 +2001,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>39</v>
       </c>
@@ -1993,7 +2015,7 @@
       <c r="AK32" s="17"/>
       <c r="AL32" s="17"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>40</v>
       </c>
@@ -2008,7 +2030,7 @@
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
@@ -2024,7 +2046,7 @@
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -2043,7 +2065,7 @@
       <c r="AR35" s="17"/>
       <c r="AS35" s="17"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
@@ -2057,9 +2079,9 @@
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B37" s="15">
         <v>7</v>
@@ -2076,9 +2098,9 @@
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B38" s="15">
         <v>8</v>
@@ -2096,9 +2118,9 @@
       <c r="BB38" s="17"/>
       <c r="BC38" s="17"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B39" s="15">
         <v>6</v>
@@ -2114,83 +2136,81 @@
       <c r="BH39" s="17"/>
       <c r="BI39" s="17"/>
     </row>
-    <row r="40" spans="1:61" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:61" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="14"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:42" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:42" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="14"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="15">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="32">
         <v>4</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="C54" s="32"/>
       <c r="D54" s="23"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -2226,14 +2246,14 @@
       <c r="AO54"/>
       <c r="AP54"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="15">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="32">
         <v>6</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="32">
         <v>1</v>
       </c>
       <c r="D55" s="16"/>
@@ -2241,12 +2261,12 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
@@ -2276,14 +2296,14 @@
       <c r="AO55"/>
       <c r="AP55"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="15">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="32">
         <v>8</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="32">
         <v>1</v>
       </c>
       <c r="D56" s="16"/>
@@ -2291,14 +2311,14 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
@@ -2326,14 +2346,14 @@
       <c r="AO56"/>
       <c r="AP56"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="15">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="32">
         <v>8</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="32">
         <v>3</v>
       </c>
       <c r="D57" s="16"/>
@@ -2349,14 +2369,14 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="32"/>
-      <c r="X57" s="32"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
       <c r="Y57"/>
       <c r="Z57"/>
       <c r="AA57"/>
@@ -2376,15 +2396,15 @@
       <c r="AO57"/>
       <c r="AP57"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="15">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="32">
         <v>4</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>92</v>
+      <c r="C58" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58"/>
@@ -2399,10 +2419,10 @@
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58"/>
@@ -2426,14 +2446,14 @@
       <c r="AO58"/>
       <c r="AP58"/>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="15">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="32">
         <v>8</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="32">
         <v>3</v>
       </c>
       <c r="D59" s="16"/>
@@ -2449,14 +2469,14 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="32"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
       <c r="Y59"/>
       <c r="Z59"/>
       <c r="AA59"/>
@@ -2476,15 +2496,15 @@
       <c r="AO59"/>
       <c r="AP59"/>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="15">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="32">
         <v>4</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>95</v>
+      <c r="C60" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60"/>
@@ -2507,10 +2527,10 @@
       <c r="V60"/>
       <c r="W60"/>
       <c r="X60"/>
-      <c r="Y60" s="32"/>
-      <c r="Z60" s="32"/>
-      <c r="AA60" s="32"/>
-      <c r="AB60" s="32"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
       <c r="AC60"/>
       <c r="AD60"/>
       <c r="AE60"/>
@@ -2526,14 +2546,14 @@
       <c r="AO60"/>
       <c r="AP60"/>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="15">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="32">
         <v>4</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="32">
         <v>5</v>
       </c>
       <c r="D61" s="16"/>
@@ -2557,10 +2577,10 @@
       <c r="V61"/>
       <c r="W61"/>
       <c r="X61"/>
-      <c r="Y61" s="32"/>
-      <c r="Z61" s="32"/>
-      <c r="AA61" s="32"/>
-      <c r="AB61" s="32"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
       <c r="AC61"/>
       <c r="AD61"/>
       <c r="AE61"/>
@@ -2576,14 +2596,14 @@
       <c r="AO61"/>
       <c r="AP61"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="15">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="32">
         <v>3</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="32">
         <v>7</v>
       </c>
       <c r="D62" s="16"/>
@@ -2611,9 +2631,9 @@
       <c r="Z62"/>
       <c r="AA62"/>
       <c r="AB62"/>
-      <c r="AC62" s="32"/>
-      <c r="AD62" s="32"/>
-      <c r="AE62" s="32"/>
+      <c r="AC62" s="34"/>
+      <c r="AD62" s="34"/>
+      <c r="AE62" s="34"/>
       <c r="AF62"/>
       <c r="AG62"/>
       <c r="AH62"/>
@@ -2626,15 +2646,15 @@
       <c r="AO62"/>
       <c r="AP62"/>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="15">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="32">
         <v>3</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>99</v>
+      <c r="C63" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63"/>
@@ -2664,9 +2684,9 @@
       <c r="AC63"/>
       <c r="AD63"/>
       <c r="AE63"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="32"/>
-      <c r="AH63" s="32"/>
+      <c r="AF63" s="34"/>
+      <c r="AG63" s="34"/>
+      <c r="AH63" s="34"/>
       <c r="AI63"/>
       <c r="AJ63"/>
       <c r="AK63"/>
@@ -2676,14 +2696,14 @@
       <c r="AO63"/>
       <c r="AP63"/>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="15">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="32">
         <v>4</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="32">
         <v>10</v>
       </c>
       <c r="D64" s="16"/>
@@ -2717,23 +2737,23 @@
       <c r="AF64"/>
       <c r="AG64"/>
       <c r="AH64"/>
-      <c r="AI64" s="32"/>
-      <c r="AJ64" s="32"/>
-      <c r="AK64" s="32"/>
-      <c r="AL64" s="32"/>
+      <c r="AI64" s="34"/>
+      <c r="AJ64" s="34"/>
+      <c r="AK64" s="34"/>
+      <c r="AL64" s="34"/>
       <c r="AM64"/>
       <c r="AN64"/>
       <c r="AO64"/>
       <c r="AP64"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="15">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="32">
         <v>4</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="32">
         <v>11</v>
       </c>
       <c r="D65" s="16"/>
@@ -2771,19 +2791,19 @@
       <c r="AJ65"/>
       <c r="AK65"/>
       <c r="AL65"/>
-      <c r="AM65" s="32"/>
-      <c r="AN65" s="32"/>
-      <c r="AO65" s="32"/>
-      <c r="AP65" s="32"/>
-    </row>
-    <row r="66" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="AM65" s="34"/>
+      <c r="AN65" s="34"/>
+      <c r="AO65" s="34"/>
+      <c r="AP65" s="34"/>
+    </row>
+    <row r="66" spans="1:50" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="14"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>20</v>
       </c>
@@ -2791,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="19"/>
@@ -2802,7 +2822,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>21</v>
       </c>
@@ -2821,7 +2841,7 @@
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>22</v>
       </c>
@@ -2841,7 +2861,7 @@
       <c r="R69" s="17"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>23</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D70" s="16"/>
       <c r="S70" s="17"/>
@@ -2857,7 +2877,7 @@
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>24</v>
       </c>
@@ -2875,7 +2895,7 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2913,7 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>26</v>
       </c>
@@ -2901,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D73" s="16"/>
       <c r="AC73" s="17"/>
@@ -2910,7 +2930,7 @@
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>27</v>
       </c>
@@ -2928,7 +2948,7 @@
       <c r="AL74" s="17"/>
       <c r="AM74" s="17"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>28</v>
       </c>
@@ -2936,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D75" s="16"/>
       <c r="AL75" s="17"/>
@@ -2944,7 +2964,7 @@
       <c r="AN75" s="17"/>
       <c r="AO75" s="17"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>29</v>
       </c>
@@ -2952,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D76" s="16"/>
       <c r="AP76" s="17"/>
@@ -2962,7 +2982,7 @@
       <c r="AT76" s="17"/>
       <c r="AU76" s="17"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>30</v>
       </c>
@@ -2977,825 +2997,716 @@
       <c r="AW77" s="17"/>
       <c r="AX77" s="17"/>
     </row>
-    <row r="78" spans="1:50" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:50" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="14"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A79" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="55"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="55"/>
-      <c r="R79" s="55"/>
-      <c r="S79" s="55"/>
-      <c r="T79" s="55"/>
-      <c r="U79" s="55"/>
-      <c r="V79" s="55"/>
-      <c r="W79" s="55"/>
-      <c r="X79" s="55"/>
-      <c r="Y79" s="55"/>
-      <c r="Z79" s="55"/>
-      <c r="AA79" s="56"/>
-      <c r="AB79" s="56"/>
-      <c r="AC79" s="56"/>
-      <c r="AD79" s="56"/>
-      <c r="AE79" s="56"/>
-      <c r="AF79" s="56"/>
-      <c r="AG79" s="56"/>
-      <c r="AH79" s="56"/>
-      <c r="AI79" s="56"/>
-      <c r="AJ79" s="56"/>
-      <c r="AK79" s="56"/>
-      <c r="AL79" s="56"/>
-      <c r="AM79" s="56"/>
-      <c r="AN79" s="56"/>
-      <c r="AO79" s="56"/>
-    </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A80" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="61"/>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A79" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="58">
+        <v>3</v>
+      </c>
+      <c r="C79" s="58">
+        <v>0</v>
+      </c>
+      <c r="D79" s="64"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
+      <c r="W79" s="57"/>
+      <c r="X79" s="57"/>
+      <c r="Y79" s="57"/>
+      <c r="Z79" s="57"/>
+      <c r="AA79" s="57"/>
+      <c r="AB79" s="60"/>
+      <c r="AC79" s="60"/>
+      <c r="AD79" s="60"/>
+      <c r="AE79" s="60"/>
+      <c r="AF79" s="60"/>
+      <c r="AG79" s="60"/>
+      <c r="AH79" s="60"/>
+      <c r="AI79" s="60"/>
+      <c r="AJ79" s="60"/>
+      <c r="AK79" s="60"/>
+      <c r="AL79" s="60"/>
+      <c r="AM79" s="60"/>
+      <c r="AN79" s="60"/>
+      <c r="AO79" s="60"/>
+      <c r="AP79" s="60"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A80" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="58">
+        <v>4</v>
+      </c>
+      <c r="C80" s="58">
+        <v>1</v>
+      </c>
+      <c r="D80" s="65"/>
       <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="55"/>
-      <c r="R80" s="55"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="55"/>
-      <c r="U80" s="55"/>
-      <c r="V80" s="55"/>
-      <c r="W80" s="55"/>
-      <c r="X80" s="55"/>
-      <c r="Y80" s="55"/>
-      <c r="Z80" s="55"/>
-      <c r="AA80" s="56"/>
-      <c r="AB80" s="56"/>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
-      <c r="AG80" s="56"/>
-      <c r="AH80" s="56"/>
-      <c r="AI80" s="56"/>
-      <c r="AJ80" s="56"/>
-      <c r="AK80" s="56"/>
-      <c r="AL80" s="56"/>
-      <c r="AM80" s="56"/>
-      <c r="AN80" s="56"/>
-      <c r="AO80" s="56"/>
-    </row>
-    <row r="81" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A81" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="57"/>
+      <c r="S80" s="57"/>
+      <c r="T80" s="57"/>
+      <c r="U80" s="57"/>
+      <c r="V80" s="57"/>
+      <c r="W80" s="57"/>
+      <c r="X80" s="57"/>
+      <c r="Y80" s="57"/>
+      <c r="Z80" s="57"/>
+      <c r="AA80" s="57"/>
+      <c r="AB80" s="60"/>
+      <c r="AC80" s="60"/>
+      <c r="AD80" s="60"/>
+      <c r="AE80" s="60"/>
+      <c r="AF80" s="60"/>
+      <c r="AG80" s="60"/>
+      <c r="AH80" s="60"/>
+      <c r="AI80" s="60"/>
+      <c r="AJ80" s="60"/>
+      <c r="AK80" s="60"/>
+      <c r="AL80" s="60"/>
+      <c r="AM80" s="60"/>
+      <c r="AN80" s="60"/>
+      <c r="AO80" s="60"/>
+      <c r="AP80" s="60"/>
+    </row>
+    <row r="81" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A81" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="58">
+        <v>4</v>
+      </c>
+      <c r="C81" s="58">
+        <v>1</v>
+      </c>
+      <c r="D81" s="65"/>
       <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="55"/>
-      <c r="R81" s="55"/>
-      <c r="S81" s="55"/>
-      <c r="T81" s="55"/>
-      <c r="U81" s="55"/>
-      <c r="V81" s="55"/>
-      <c r="W81" s="55"/>
-      <c r="X81" s="55"/>
-      <c r="Y81" s="55"/>
-      <c r="Z81" s="55"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
-      <c r="AO81" s="56"/>
-    </row>
-    <row r="82" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A82" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="57"/>
+      <c r="T81" s="57"/>
+      <c r="U81" s="57"/>
+      <c r="V81" s="57"/>
+      <c r="W81" s="57"/>
+      <c r="X81" s="57"/>
+      <c r="Y81" s="57"/>
+      <c r="Z81" s="57"/>
+      <c r="AA81" s="57"/>
+      <c r="AB81" s="60"/>
+      <c r="AC81" s="60"/>
+      <c r="AD81" s="60"/>
+      <c r="AE81" s="60"/>
+      <c r="AF81" s="60"/>
+      <c r="AG81" s="60"/>
+      <c r="AH81" s="60"/>
+      <c r="AI81" s="60"/>
+      <c r="AJ81" s="60"/>
+      <c r="AK81" s="60"/>
+      <c r="AL81" s="60"/>
+      <c r="AM81" s="60"/>
+      <c r="AN81" s="60"/>
+      <c r="AO81" s="60"/>
+      <c r="AP81" s="60"/>
+    </row>
+    <row r="82" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A82" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="58">
+        <v>4</v>
+      </c>
+      <c r="C82" s="58">
+        <v>1</v>
+      </c>
+      <c r="D82" s="65"/>
       <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="57"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="55"/>
-      <c r="R82" s="55"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="55"/>
-      <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
-      <c r="W82" s="55"/>
-      <c r="X82" s="55"/>
-      <c r="Y82" s="55"/>
-      <c r="Z82" s="55"/>
-      <c r="AA82" s="56"/>
-      <c r="AB82" s="56"/>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="56"/>
-      <c r="AE82" s="56"/>
-      <c r="AF82" s="56"/>
-      <c r="AG82" s="56"/>
-      <c r="AH82" s="56"/>
-      <c r="AI82" s="56"/>
-      <c r="AJ82" s="56"/>
-      <c r="AK82" s="56"/>
-      <c r="AL82" s="56"/>
-      <c r="AM82" s="56"/>
-      <c r="AN82" s="56"/>
-      <c r="AO82" s="56"/>
-    </row>
-    <row r="83" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A83" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="58"/>
-      <c r="O83" s="58"/>
-      <c r="P83" s="58"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="55"/>
-      <c r="U83" s="55"/>
-      <c r="V83" s="55"/>
-      <c r="W83" s="55"/>
-      <c r="X83" s="55"/>
-      <c r="Y83" s="55"/>
-      <c r="Z83" s="55"/>
-      <c r="AA83" s="56"/>
-      <c r="AB83" s="56"/>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="56"/>
-      <c r="AE83" s="56"/>
-      <c r="AF83" s="56"/>
-      <c r="AG83" s="56"/>
-      <c r="AH83" s="56"/>
-      <c r="AI83" s="56"/>
-      <c r="AJ83" s="56"/>
-      <c r="AK83" s="56"/>
-      <c r="AL83" s="56"/>
-      <c r="AM83" s="56"/>
-      <c r="AN83" s="56"/>
-      <c r="AO83" s="56"/>
-    </row>
-    <row r="84" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A84" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="55"/>
-      <c r="U84" s="55"/>
-      <c r="V84" s="55"/>
-      <c r="W84" s="55"/>
-      <c r="X84" s="55"/>
-      <c r="Y84" s="55"/>
-      <c r="Z84" s="55"/>
-      <c r="AA84" s="56"/>
-      <c r="AB84" s="56"/>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="56"/>
-      <c r="AE84" s="56"/>
-      <c r="AF84" s="56"/>
-      <c r="AG84" s="56"/>
-      <c r="AH84" s="56"/>
-      <c r="AI84" s="56"/>
-      <c r="AJ84" s="56"/>
-      <c r="AK84" s="56"/>
-      <c r="AL84" s="56"/>
-      <c r="AM84" s="56"/>
-      <c r="AN84" s="56"/>
-      <c r="AO84" s="56"/>
-    </row>
-    <row r="85" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A85" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="58"/>
-      <c r="R85" s="58"/>
-      <c r="S85" s="56"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="55"/>
-      <c r="V85" s="55"/>
-      <c r="W85" s="55"/>
-      <c r="X85" s="55"/>
-      <c r="Y85" s="55"/>
-      <c r="Z85" s="55"/>
-      <c r="AA85" s="56"/>
-      <c r="AB85" s="56"/>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="56"/>
-      <c r="AE85" s="56"/>
-      <c r="AF85" s="56"/>
-      <c r="AG85" s="56"/>
-      <c r="AH85" s="56"/>
-      <c r="AI85" s="56"/>
-      <c r="AJ85" s="56"/>
-      <c r="AK85" s="56"/>
-      <c r="AL85" s="56"/>
-      <c r="AM85" s="56"/>
-      <c r="AN85" s="56"/>
-      <c r="AO85" s="56"/>
-    </row>
-    <row r="86" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A86" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="55"/>
-      <c r="R86" s="55"/>
-      <c r="S86" s="58"/>
-      <c r="T86" s="58"/>
-      <c r="U86" s="58"/>
-      <c r="V86" s="58"/>
-      <c r="W86" s="56"/>
-      <c r="X86" s="56"/>
-      <c r="Y86" s="55"/>
-      <c r="Z86" s="55"/>
-      <c r="AA86" s="56"/>
-      <c r="AB86" s="56"/>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="56"/>
-      <c r="AE86" s="56"/>
-      <c r="AF86" s="56"/>
-      <c r="AG86" s="56"/>
-      <c r="AH86" s="56"/>
-      <c r="AI86" s="56"/>
-      <c r="AJ86" s="56"/>
-      <c r="AK86" s="56"/>
-      <c r="AL86" s="56"/>
-      <c r="AM86" s="56"/>
-      <c r="AN86" s="56"/>
-      <c r="AO86" s="56"/>
-    </row>
-    <row r="87" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A87" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="55"/>
-      <c r="R87" s="55"/>
-      <c r="S87" s="55"/>
-      <c r="T87" s="55"/>
-      <c r="U87" s="55"/>
-      <c r="V87" s="55"/>
-      <c r="W87" s="58"/>
-      <c r="X87" s="58"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
-      <c r="AJ87" s="56"/>
-      <c r="AK87" s="56"/>
-      <c r="AL87" s="56"/>
-      <c r="AM87" s="56"/>
-      <c r="AN87" s="56"/>
-      <c r="AO87" s="56"/>
-    </row>
-    <row r="88" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A88" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" s="66"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="56"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="56"/>
-      <c r="R88" s="56"/>
-      <c r="S88" s="56"/>
-      <c r="T88" s="56"/>
-      <c r="U88" s="56"/>
-      <c r="V88" s="56"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="56"/>
-      <c r="Z88" s="56"/>
-      <c r="AA88" s="56"/>
-      <c r="AB88" s="56"/>
-      <c r="AC88" s="56"/>
-      <c r="AD88" s="56"/>
-      <c r="AE88" s="56"/>
-      <c r="AF88" s="56"/>
-      <c r="AG88" s="56"/>
-      <c r="AH88" s="56"/>
-      <c r="AI88" s="56"/>
-      <c r="AJ88" s="56"/>
-      <c r="AK88" s="56"/>
-      <c r="AL88" s="56"/>
-      <c r="AM88" s="56"/>
-      <c r="AN88" s="56"/>
-      <c r="AO88" s="56"/>
-    </row>
-    <row r="89" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A89" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="56"/>
-      <c r="U89" s="56"/>
-      <c r="V89" s="56"/>
-      <c r="W89" s="56"/>
-      <c r="X89" s="56"/>
-      <c r="Y89" s="59"/>
-      <c r="Z89" s="59"/>
-      <c r="AA89" s="59"/>
-      <c r="AB89" s="59"/>
-      <c r="AC89" s="59"/>
-      <c r="AD89" s="59"/>
-      <c r="AE89" s="59"/>
-      <c r="AF89" s="59"/>
-      <c r="AG89" s="59"/>
-      <c r="AH89" s="59"/>
-      <c r="AI89" s="56"/>
-      <c r="AJ89" s="56"/>
-      <c r="AK89" s="56"/>
-      <c r="AL89" s="56"/>
-      <c r="AM89" s="56"/>
-      <c r="AN89" s="56"/>
-      <c r="AO89" s="56"/>
-    </row>
-    <row r="90" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A90" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="56"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="56"/>
-      <c r="R90" s="56"/>
-      <c r="S90" s="56"/>
-      <c r="T90" s="56"/>
-      <c r="U90" s="56"/>
-      <c r="V90" s="56"/>
-      <c r="W90" s="56"/>
-      <c r="X90" s="56"/>
-      <c r="Y90" s="56"/>
-      <c r="Z90" s="56"/>
-      <c r="AA90" s="56"/>
-      <c r="AB90" s="56"/>
-      <c r="AC90" s="56"/>
-      <c r="AD90" s="56"/>
-      <c r="AE90" s="56"/>
-      <c r="AF90" s="56"/>
-      <c r="AG90" s="56"/>
-      <c r="AH90" s="59"/>
-      <c r="AI90" s="56"/>
-      <c r="AJ90" s="56"/>
-      <c r="AK90" s="56"/>
-      <c r="AL90" s="56"/>
-      <c r="AM90" s="56"/>
-      <c r="AN90" s="56"/>
-      <c r="AO90" s="56"/>
-    </row>
-    <row r="91" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A91" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="56"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="56"/>
-      <c r="P91" s="56"/>
-      <c r="Q91" s="56"/>
-      <c r="R91" s="56"/>
-      <c r="S91" s="56"/>
-      <c r="T91" s="56"/>
-      <c r="U91" s="56"/>
-      <c r="V91" s="56"/>
-      <c r="W91" s="56"/>
-      <c r="X91" s="56"/>
-      <c r="Y91" s="56"/>
-      <c r="Z91" s="56"/>
-      <c r="AA91" s="56"/>
-      <c r="AB91" s="56"/>
-      <c r="AC91" s="56"/>
-      <c r="AD91" s="56"/>
-      <c r="AE91" s="56"/>
-      <c r="AF91" s="56"/>
-      <c r="AG91" s="56"/>
-      <c r="AH91" s="56"/>
-      <c r="AI91" s="59"/>
-      <c r="AJ91" s="59"/>
-      <c r="AK91" s="59"/>
-      <c r="AL91" s="59"/>
-      <c r="AM91" s="59"/>
-      <c r="AN91" s="56"/>
-      <c r="AO91" s="56"/>
-    </row>
-    <row r="92" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="56"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="56"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="56"/>
-      <c r="R92" s="56"/>
-      <c r="S92" s="56"/>
-      <c r="T92" s="56"/>
-      <c r="U92" s="56"/>
-      <c r="V92" s="56"/>
-      <c r="W92" s="56"/>
-      <c r="X92" s="56"/>
-      <c r="Y92" s="56"/>
-      <c r="Z92" s="56"/>
-      <c r="AA92" s="56"/>
-      <c r="AB92" s="56"/>
-      <c r="AC92" s="56"/>
-      <c r="AD92" s="56"/>
-      <c r="AE92" s="56"/>
-      <c r="AF92" s="56"/>
-      <c r="AG92" s="56"/>
-      <c r="AH92" s="56"/>
-      <c r="AI92" s="56"/>
-      <c r="AJ92" s="56"/>
-      <c r="AK92" s="56"/>
-      <c r="AL92" s="56"/>
-      <c r="AM92" s="56"/>
-      <c r="AN92" s="59"/>
-      <c r="AO92" s="59"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="57"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="57"/>
+      <c r="S82" s="57"/>
+      <c r="T82" s="57"/>
+      <c r="U82" s="57"/>
+      <c r="V82" s="57"/>
+      <c r="W82" s="57"/>
+      <c r="X82" s="57"/>
+      <c r="Y82" s="57"/>
+      <c r="Z82" s="57"/>
+      <c r="AA82" s="57"/>
+      <c r="AB82" s="60"/>
+      <c r="AC82" s="60"/>
+      <c r="AD82" s="60"/>
+      <c r="AE82" s="60"/>
+      <c r="AF82" s="60"/>
+      <c r="AG82" s="60"/>
+      <c r="AH82" s="60"/>
+      <c r="AI82" s="60"/>
+      <c r="AJ82" s="60"/>
+      <c r="AK82" s="60"/>
+      <c r="AL82" s="60"/>
+      <c r="AM82" s="60"/>
+      <c r="AN82" s="60"/>
+      <c r="AO82" s="60"/>
+      <c r="AP82" s="60"/>
+    </row>
+    <row r="83" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A83" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="58">
+        <v>10</v>
+      </c>
+      <c r="C83" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="65"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="57"/>
+      <c r="S83" s="57"/>
+      <c r="T83" s="57"/>
+      <c r="U83" s="57"/>
+      <c r="V83" s="57"/>
+      <c r="W83" s="57"/>
+      <c r="X83" s="57"/>
+      <c r="Y83" s="57"/>
+      <c r="Z83" s="57"/>
+      <c r="AA83" s="57"/>
+      <c r="AB83" s="60"/>
+      <c r="AC83" s="60"/>
+      <c r="AD83" s="60"/>
+      <c r="AE83" s="60"/>
+      <c r="AF83" s="60"/>
+      <c r="AG83" s="60"/>
+      <c r="AH83" s="60"/>
+      <c r="AI83" s="60"/>
+      <c r="AJ83" s="60"/>
+      <c r="AK83" s="60"/>
+      <c r="AL83" s="60"/>
+      <c r="AM83" s="60"/>
+      <c r="AN83" s="60"/>
+      <c r="AO83" s="60"/>
+      <c r="AP83" s="60"/>
+    </row>
+    <row r="84" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A84" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="58">
+        <v>2</v>
+      </c>
+      <c r="C84" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="65"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="60"/>
+      <c r="T84" s="57"/>
+      <c r="U84" s="57"/>
+      <c r="V84" s="57"/>
+      <c r="W84" s="57"/>
+      <c r="X84" s="57"/>
+      <c r="Y84" s="57"/>
+      <c r="Z84" s="57"/>
+      <c r="AA84" s="57"/>
+      <c r="AB84" s="60"/>
+      <c r="AC84" s="60"/>
+      <c r="AD84" s="60"/>
+      <c r="AE84" s="60"/>
+      <c r="AF84" s="60"/>
+      <c r="AG84" s="60"/>
+      <c r="AH84" s="60"/>
+      <c r="AI84" s="60"/>
+      <c r="AJ84" s="60"/>
+      <c r="AK84" s="60"/>
+      <c r="AL84" s="60"/>
+      <c r="AM84" s="60"/>
+      <c r="AN84" s="60"/>
+      <c r="AO84" s="60"/>
+      <c r="AP84" s="60"/>
+    </row>
+    <row r="85" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A85" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="58">
+        <v>2</v>
+      </c>
+      <c r="C85" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="65"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="57"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
+      <c r="Q85" s="57"/>
+      <c r="R85" s="62"/>
+      <c r="S85" s="62"/>
+      <c r="T85" s="60"/>
+      <c r="U85" s="60"/>
+      <c r="V85" s="57"/>
+      <c r="W85" s="57"/>
+      <c r="X85" s="57"/>
+      <c r="Y85" s="57"/>
+      <c r="Z85" s="57"/>
+      <c r="AA85" s="57"/>
+      <c r="AB85" s="60"/>
+      <c r="AC85" s="60"/>
+      <c r="AD85" s="60"/>
+      <c r="AE85" s="60"/>
+      <c r="AF85" s="60"/>
+      <c r="AG85" s="60"/>
+      <c r="AH85" s="60"/>
+      <c r="AI85" s="60"/>
+      <c r="AJ85" s="60"/>
+      <c r="AK85" s="60"/>
+      <c r="AL85" s="60"/>
+      <c r="AM85" s="60"/>
+      <c r="AN85" s="60"/>
+      <c r="AO85" s="60"/>
+      <c r="AP85" s="60"/>
+    </row>
+    <row r="86" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A86" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="58">
+        <v>4</v>
+      </c>
+      <c r="C86" s="58">
+        <v>7</v>
+      </c>
+      <c r="D86" s="65"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="57"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
+      <c r="Q86" s="57"/>
+      <c r="R86" s="57"/>
+      <c r="S86" s="57"/>
+      <c r="T86" s="62"/>
+      <c r="U86" s="62"/>
+      <c r="V86" s="62"/>
+      <c r="W86" s="62"/>
+      <c r="X86" s="60"/>
+      <c r="Y86" s="60"/>
+      <c r="Z86" s="57"/>
+      <c r="AA86" s="57"/>
+      <c r="AB86" s="60"/>
+      <c r="AC86" s="60"/>
+      <c r="AD86" s="60"/>
+      <c r="AE86" s="60"/>
+      <c r="AF86" s="60"/>
+      <c r="AG86" s="60"/>
+      <c r="AH86" s="60"/>
+      <c r="AI86" s="60"/>
+      <c r="AJ86" s="60"/>
+      <c r="AK86" s="60"/>
+      <c r="AL86" s="60"/>
+      <c r="AM86" s="60"/>
+      <c r="AN86" s="60"/>
+      <c r="AO86" s="60"/>
+      <c r="AP86" s="60"/>
+    </row>
+    <row r="87" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A87" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="58">
+        <v>2</v>
+      </c>
+      <c r="C87" s="58">
+        <v>8</v>
+      </c>
+      <c r="D87" s="65"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="57"/>
+      <c r="N87" s="57"/>
+      <c r="O87" s="57"/>
+      <c r="P87" s="57"/>
+      <c r="Q87" s="57"/>
+      <c r="R87" s="57"/>
+      <c r="S87" s="57"/>
+      <c r="T87" s="57"/>
+      <c r="U87" s="57"/>
+      <c r="V87" s="57"/>
+      <c r="W87" s="57"/>
+      <c r="X87" s="62"/>
+      <c r="Y87" s="62"/>
+      <c r="Z87" s="60"/>
+      <c r="AA87" s="60"/>
+      <c r="AB87" s="60"/>
+      <c r="AC87" s="60"/>
+      <c r="AD87" s="60"/>
+      <c r="AE87" s="60"/>
+      <c r="AF87" s="60"/>
+      <c r="AG87" s="60"/>
+      <c r="AH87" s="60"/>
+      <c r="AI87" s="60"/>
+      <c r="AJ87" s="60"/>
+      <c r="AK87" s="60"/>
+      <c r="AL87" s="60"/>
+      <c r="AM87" s="60"/>
+      <c r="AN87" s="60"/>
+      <c r="AO87" s="60"/>
+      <c r="AP87" s="60"/>
+    </row>
+    <row r="88" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A88" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="66"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="60"/>
+      <c r="T88" s="60"/>
+      <c r="U88" s="60"/>
+      <c r="V88" s="60"/>
+      <c r="W88" s="60"/>
+      <c r="X88" s="63"/>
+      <c r="Y88" s="63"/>
+      <c r="Z88" s="60"/>
+      <c r="AA88" s="60"/>
+      <c r="AB88" s="60"/>
+      <c r="AC88" s="60"/>
+      <c r="AD88" s="60"/>
+      <c r="AE88" s="60"/>
+      <c r="AF88" s="60"/>
+      <c r="AG88" s="60"/>
+      <c r="AH88" s="60"/>
+      <c r="AI88" s="60"/>
+      <c r="AJ88" s="60"/>
+      <c r="AK88" s="60"/>
+      <c r="AL88" s="60"/>
+      <c r="AM88" s="60"/>
+      <c r="AN88" s="60"/>
+      <c r="AO88" s="60"/>
+      <c r="AP88" s="60"/>
+    </row>
+    <row r="89" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A89" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="58">
+        <v>10</v>
+      </c>
+      <c r="C89" s="58">
+        <v>10</v>
+      </c>
+      <c r="D89" s="66"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="60"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="60"/>
+      <c r="P89" s="60"/>
+      <c r="Q89" s="60"/>
+      <c r="R89" s="60"/>
+      <c r="S89" s="60"/>
+      <c r="T89" s="60"/>
+      <c r="U89" s="60"/>
+      <c r="V89" s="60"/>
+      <c r="W89" s="60"/>
+      <c r="X89" s="60"/>
+      <c r="Y89" s="60"/>
+      <c r="Z89" s="63"/>
+      <c r="AA89" s="63"/>
+      <c r="AB89" s="63"/>
+      <c r="AC89" s="63"/>
+      <c r="AD89" s="63"/>
+      <c r="AE89" s="63"/>
+      <c r="AF89" s="63"/>
+      <c r="AG89" s="63"/>
+      <c r="AH89" s="63"/>
+      <c r="AI89" s="63"/>
+      <c r="AJ89" s="60"/>
+      <c r="AK89" s="60"/>
+      <c r="AL89" s="60"/>
+      <c r="AM89" s="60"/>
+      <c r="AN89" s="60"/>
+      <c r="AO89" s="60"/>
+      <c r="AP89" s="60"/>
+    </row>
+    <row r="90" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A90" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="60">
+        <v>1</v>
+      </c>
+      <c r="C90" s="60">
+        <v>11</v>
+      </c>
+      <c r="D90" s="66"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="60"/>
+      <c r="N90" s="60"/>
+      <c r="O90" s="60"/>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="60"/>
+      <c r="R90" s="60"/>
+      <c r="S90" s="60"/>
+      <c r="T90" s="60"/>
+      <c r="U90" s="60"/>
+      <c r="V90" s="60"/>
+      <c r="W90" s="60"/>
+      <c r="X90" s="60"/>
+      <c r="Y90" s="60"/>
+      <c r="Z90" s="60"/>
+      <c r="AA90" s="60"/>
+      <c r="AB90" s="60"/>
+      <c r="AC90" s="60"/>
+      <c r="AD90" s="60"/>
+      <c r="AE90" s="60"/>
+      <c r="AF90" s="60"/>
+      <c r="AG90" s="60"/>
+      <c r="AH90" s="60"/>
+      <c r="AI90" s="63"/>
+      <c r="AJ90" s="60"/>
+      <c r="AK90" s="60"/>
+      <c r="AL90" s="60"/>
+      <c r="AM90" s="60"/>
+      <c r="AN90" s="60"/>
+      <c r="AO90" s="60"/>
+      <c r="AP90" s="60"/>
+    </row>
+    <row r="91" spans="1:2498" x14ac:dyDescent="0.25">
+      <c r="A91" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="60">
+        <v>5</v>
+      </c>
+      <c r="C91" s="60">
+        <v>12</v>
+      </c>
+      <c r="D91" s="66"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="60"/>
+      <c r="T91" s="60"/>
+      <c r="U91" s="60"/>
+      <c r="V91" s="60"/>
+      <c r="W91" s="60"/>
+      <c r="X91" s="60"/>
+      <c r="Y91" s="60"/>
+      <c r="Z91" s="60"/>
+      <c r="AA91" s="60"/>
+      <c r="AB91" s="60"/>
+      <c r="AC91" s="60"/>
+      <c r="AD91" s="60"/>
+      <c r="AE91" s="60"/>
+      <c r="AF91" s="60"/>
+      <c r="AG91" s="60"/>
+      <c r="AH91" s="60"/>
+      <c r="AI91" s="60"/>
+      <c r="AJ91" s="63"/>
+      <c r="AK91" s="63"/>
+      <c r="AL91" s="63"/>
+      <c r="AM91" s="63"/>
+      <c r="AN91" s="63"/>
+      <c r="AO91" s="60"/>
+      <c r="AP91" s="60"/>
+    </row>
+    <row r="92" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="60">
+        <v>2</v>
+      </c>
+      <c r="C92" s="60">
+        <v>13</v>
+      </c>
+      <c r="D92" s="66"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="60"/>
+      <c r="N92" s="60"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="60"/>
+      <c r="T92" s="60"/>
+      <c r="U92" s="60"/>
+      <c r="V92" s="60"/>
+      <c r="W92" s="60"/>
+      <c r="X92" s="60"/>
+      <c r="Y92" s="60"/>
+      <c r="Z92" s="60"/>
+      <c r="AA92" s="60"/>
+      <c r="AB92" s="60"/>
+      <c r="AC92" s="60"/>
+      <c r="AD92" s="60"/>
+      <c r="AE92" s="60"/>
+      <c r="AF92" s="60"/>
+      <c r="AG92" s="60"/>
+      <c r="AH92" s="60"/>
+      <c r="AI92" s="60"/>
+      <c r="AJ92" s="60"/>
+      <c r="AK92" s="60"/>
+      <c r="AL92" s="60"/>
+      <c r="AM92" s="60"/>
+      <c r="AN92" s="60"/>
+      <c r="AO92" s="63"/>
       <c r="AP92" s="63"/>
-      <c r="AQ92" s="63"/>
-      <c r="AR92" s="63"/>
-      <c r="AS92" s="63"/>
-      <c r="AT92" s="63"/>
-      <c r="AU92" s="63"/>
-      <c r="AV92" s="63"/>
-      <c r="AW92" s="63"/>
-      <c r="AX92" s="63"/>
-      <c r="AY92" s="63"/>
-      <c r="AZ92" s="63"/>
-      <c r="BA92" s="63"/>
-      <c r="BB92" s="63"/>
-      <c r="BC92" s="63"/>
-      <c r="BD92" s="63"/>
-      <c r="BE92" s="63"/>
-      <c r="BF92" s="63"/>
-      <c r="BG92" s="63"/>
-      <c r="BH92" s="63"/>
-      <c r="BI92" s="63"/>
-      <c r="BJ92" s="63"/>
-      <c r="BK92" s="63"/>
-      <c r="BL92" s="63"/>
-      <c r="BM92" s="63"/>
-      <c r="BN92" s="63"/>
-      <c r="BO92" s="63"/>
-      <c r="BP92" s="63"/>
-      <c r="BQ92" s="63"/>
-      <c r="BR92" s="63"/>
-      <c r="BS92" s="63"/>
-      <c r="BT92" s="63"/>
-      <c r="BU92" s="63"/>
-      <c r="BV92" s="63"/>
-      <c r="BW92" s="63"/>
-      <c r="BX92" s="63"/>
-      <c r="BY92" s="63"/>
-      <c r="BZ92" s="63"/>
-      <c r="CA92" s="63"/>
-      <c r="CB92" s="63"/>
-      <c r="CC92" s="63"/>
-      <c r="CD92" s="63"/>
-      <c r="CE92" s="63"/>
-      <c r="CF92" s="63"/>
-      <c r="CG92" s="63"/>
-      <c r="CH92" s="63"/>
-      <c r="CI92" s="63"/>
-      <c r="CJ92" s="63"/>
-      <c r="CK92" s="63"/>
-      <c r="CL92" s="63"/>
-      <c r="CM92" s="63"/>
-      <c r="CN92" s="63"/>
-      <c r="CO92" s="63"/>
-      <c r="CP92" s="63"/>
-      <c r="CQ92" s="63"/>
-      <c r="CR92" s="63"/>
-      <c r="CS92" s="63"/>
-      <c r="CT92" s="63"/>
-      <c r="CU92" s="63"/>
-      <c r="CV92" s="63"/>
-      <c r="CW92" s="63"/>
-      <c r="CX92" s="63"/>
-      <c r="CY92" s="63"/>
-      <c r="CZ92" s="63"/>
-      <c r="DA92" s="63"/>
-      <c r="DB92" s="63"/>
-      <c r="DC92" s="63"/>
-      <c r="DD92" s="63"/>
-      <c r="DE92" s="63"/>
-      <c r="DF92" s="63"/>
-      <c r="DG92" s="63"/>
-      <c r="DH92" s="63"/>
-      <c r="DI92" s="63"/>
-      <c r="DJ92" s="63"/>
-      <c r="DK92" s="63"/>
-      <c r="DL92" s="63"/>
-      <c r="DM92" s="63"/>
-      <c r="DN92" s="63"/>
-      <c r="DO92" s="63"/>
-      <c r="DP92" s="63"/>
-      <c r="DQ92" s="63"/>
-      <c r="DR92" s="63"/>
-      <c r="DS92" s="63"/>
-      <c r="DT92" s="63"/>
-      <c r="DU92" s="63"/>
-      <c r="DV92" s="63"/>
-      <c r="DW92" s="63"/>
-      <c r="DX92" s="63"/>
-      <c r="DY92" s="63"/>
-      <c r="DZ92" s="63"/>
-      <c r="EA92" s="63"/>
-      <c r="EB92" s="63"/>
-      <c r="EC92" s="63"/>
-      <c r="ED92" s="63"/>
-      <c r="EE92" s="63"/>
-      <c r="EF92" s="63"/>
-      <c r="EG92" s="63"/>
-      <c r="EH92" s="63"/>
-      <c r="EI92" s="63"/>
-      <c r="EJ92" s="63"/>
-      <c r="EK92" s="63"/>
-      <c r="EL92" s="63"/>
-      <c r="EM92" s="63"/>
-      <c r="EN92" s="63"/>
-      <c r="EO92" s="63"/>
-      <c r="EP92" s="63"/>
-      <c r="EQ92" s="63"/>
-      <c r="ER92" s="63"/>
-      <c r="ES92" s="63"/>
-      <c r="ET92" s="63"/>
-      <c r="EU92" s="63"/>
-      <c r="EV92" s="63"/>
-      <c r="EW92" s="63"/>
-      <c r="EX92" s="63"/>
-      <c r="EY92" s="63"/>
-      <c r="EZ92" s="63"/>
-      <c r="FA92" s="63"/>
-      <c r="FB92" s="63"/>
-      <c r="FC92" s="63"/>
-      <c r="FD92" s="63"/>
-      <c r="FE92" s="63"/>
-      <c r="FF92" s="63"/>
-      <c r="FG92" s="63"/>
-      <c r="FH92" s="63"/>
-      <c r="FI92" s="63"/>
-      <c r="FJ92" s="63"/>
-      <c r="FK92" s="63"/>
-      <c r="FL92" s="63"/>
-      <c r="FM92" s="63"/>
-      <c r="FN92" s="63"/>
-      <c r="FO92" s="63"/>
-      <c r="FP92" s="63"/>
-      <c r="FQ92" s="63"/>
-      <c r="FR92" s="63"/>
-      <c r="FS92" s="63"/>
-      <c r="FT92" s="63"/>
-      <c r="FU92" s="63"/>
-      <c r="FV92" s="63"/>
-      <c r="FW92" s="63"/>
-      <c r="FX92" s="63"/>
-      <c r="FY92" s="63"/>
-      <c r="FZ92" s="63"/>
-      <c r="GA92" s="63"/>
-      <c r="GB92" s="63"/>
-      <c r="GC92" s="63"/>
-      <c r="GD92" s="63"/>
-      <c r="GE92" s="63"/>
-      <c r="GF92" s="63"/>
-      <c r="GG92" s="63"/>
-      <c r="GH92" s="63"/>
-      <c r="GI92" s="63"/>
-      <c r="GJ92" s="63"/>
-      <c r="GK92" s="63"/>
-      <c r="GL92" s="63"/>
-      <c r="GM92" s="63"/>
-      <c r="GN92" s="63"/>
-      <c r="GO92" s="63"/>
-      <c r="GP92" s="63"/>
-      <c r="GQ92" s="63"/>
-      <c r="GR92" s="63"/>
-      <c r="GS92" s="63"/>
-      <c r="GT92" s="63"/>
-      <c r="GU92" s="63"/>
-      <c r="GV92" s="63"/>
-      <c r="GW92" s="63"/>
-      <c r="GX92" s="63"/>
-      <c r="GY92" s="63"/>
-      <c r="GZ92" s="63"/>
-      <c r="HA92" s="63"/>
-      <c r="HB92" s="63"/>
-      <c r="HC92" s="63"/>
-      <c r="HD92" s="63"/>
-      <c r="HE92" s="63"/>
-      <c r="HF92" s="63"/>
-      <c r="HG92" s="63"/>
-      <c r="HH92" s="63"/>
-      <c r="HI92" s="63"/>
-      <c r="HJ92" s="63"/>
-      <c r="HK92" s="63"/>
-      <c r="HL92" s="63"/>
-      <c r="HM92" s="63"/>
-      <c r="HN92" s="63"/>
-    </row>
-    <row r="93" spans="1:2498" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:2498" ht="22" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
         <v>6</v>
       </c>
@@ -6297,28 +6208,28 @@
       <c r="CRA93" s="9"/>
       <c r="CRB93" s="9"/>
     </row>
-    <row r="94" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A94" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B94" s="67">
+    <row r="94" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="26">
         <v>2</v>
       </c>
-      <c r="C94" s="67" t="s">
-        <v>56</v>
+      <c r="C94" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A95" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B95" s="67">
+    <row r="95" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="26">
         <v>5</v>
       </c>
-      <c r="C95" s="67">
+      <c r="C95" s="26">
         <v>1</v>
       </c>
       <c r="D95" s="16"/>
@@ -6328,14 +6239,14 @@
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:2498" x14ac:dyDescent="0.35">
-      <c r="A96" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B96" s="67">
+    <row r="96" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A96" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="26">
         <v>5</v>
       </c>
-      <c r="C96" s="67">
+      <c r="C96" s="26">
         <v>1</v>
       </c>
       <c r="D96" s="16"/>
@@ -6345,14 +6256,14 @@
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A97" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="67">
+    <row r="97" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A97" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="26">
         <v>5</v>
       </c>
-      <c r="C97" s="67">
+      <c r="C97" s="26">
         <v>1</v>
       </c>
       <c r="D97" s="16"/>
@@ -6362,14 +6273,14 @@
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A98" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B98" s="67">
+    <row r="98" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A98" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="26">
         <v>6</v>
       </c>
-      <c r="C98" s="67">
+      <c r="C98" s="26">
         <v>1</v>
       </c>
       <c r="D98" s="16"/>
@@ -6380,15 +6291,15 @@
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A99" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B99" s="67">
+    <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="26">
         <v>5</v>
       </c>
-      <c r="C99" s="67" t="s">
-        <v>57</v>
+      <c r="C99" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="D99" s="16"/>
       <c r="M99" s="17"/>
@@ -6397,14 +6308,14 @@
       <c r="P99" s="17"/>
       <c r="Q99" s="17"/>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A100" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B100" s="67">
+    <row r="100" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A100" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="26">
         <v>5</v>
       </c>
-      <c r="C100" s="67">
+      <c r="C100" s="26">
         <v>6</v>
       </c>
       <c r="D100" s="16"/>
@@ -6414,14 +6325,14 @@
       <c r="U100" s="17"/>
       <c r="V100" s="17"/>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A101" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B101" s="67">
+    <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A101" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="26">
         <v>4</v>
       </c>
-      <c r="C101" s="67">
+      <c r="C101" s="26">
         <v>6</v>
       </c>
       <c r="D101" s="16"/>
@@ -6430,15 +6341,15 @@
       <c r="Y101" s="17"/>
       <c r="Z101" s="17"/>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A102" s="26" t="s">
+    <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A102" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B102" s="67">
+      <c r="B102" s="26">
         <v>6</v>
       </c>
-      <c r="C102" s="67" t="s">
-        <v>58</v>
+      <c r="C102" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="D102" s="16"/>
       <c r="AA102" s="17"/>
@@ -6448,14 +6359,14 @@
       <c r="AE102" s="17"/>
       <c r="AF102" s="17"/>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A103" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B103" s="67">
+    <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+      <c r="A103" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="26">
         <v>4</v>
       </c>
-      <c r="C103" s="67">
+      <c r="C103" s="26">
         <v>9</v>
       </c>
       <c r="D103" s="16"/>
@@ -6481,294 +6392,294 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="50" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -6818,7 +6729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D35931-D168-2542-B8D8-D18AB6DCEFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE3600C-5DEA-DE48-9BBC-534CD9EF1C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
@@ -1348,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE3600C-5DEA-DE48-9BBC-534CD9EF1C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1F702-F8DC-FF47-9C6B-6493C68127A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -707,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -765,24 +765,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,23 +808,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -831,30 +847,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,119 +1196,131 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="39"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="40"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="40"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="40"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="40"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="40"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
@@ -1327,18 +1337,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1348,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
@@ -1387,10 +1385,10 @@
       </c>
     </row>
     <row r="2" spans="1:64" s="9" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="58"/>
       <c r="D2" s="10"/>
       <c r="E2" s="9">
         <v>1</v>
@@ -3005,706 +3003,708 @@
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="58">
+      <c r="B79" s="36">
         <v>3</v>
       </c>
-      <c r="C79" s="58">
+      <c r="C79" s="36">
         <v>0</v>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
-      <c r="S79" s="57"/>
-      <c r="T79" s="57"/>
-      <c r="U79" s="57"/>
-      <c r="V79" s="57"/>
-      <c r="W79" s="57"/>
-      <c r="X79" s="57"/>
-      <c r="Y79" s="57"/>
-      <c r="Z79" s="57"/>
-      <c r="AA79" s="57"/>
-      <c r="AB79" s="60"/>
-      <c r="AC79" s="60"/>
-      <c r="AD79" s="60"/>
-      <c r="AE79" s="60"/>
-      <c r="AF79" s="60"/>
-      <c r="AG79" s="60"/>
-      <c r="AH79" s="60"/>
-      <c r="AI79" s="60"/>
-      <c r="AJ79" s="60"/>
-      <c r="AK79" s="60"/>
-      <c r="AL79" s="60"/>
-      <c r="AM79" s="60"/>
-      <c r="AN79" s="60"/>
-      <c r="AO79" s="60"/>
-      <c r="AP79" s="60"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="35"/>
+      <c r="U79" s="35"/>
+      <c r="V79" s="35"/>
+      <c r="W79" s="35"/>
+      <c r="X79" s="35"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
+      <c r="AL79"/>
+      <c r="AM79"/>
+      <c r="AN79"/>
+      <c r="AO79"/>
+      <c r="AP79"/>
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="58">
+      <c r="B80" s="36">
         <v>4</v>
       </c>
-      <c r="C80" s="58">
+      <c r="C80" s="36">
         <v>1</v>
       </c>
-      <c r="D80" s="65"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="57"/>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="57"/>
-      <c r="S80" s="57"/>
-      <c r="T80" s="57"/>
-      <c r="U80" s="57"/>
-      <c r="V80" s="57"/>
-      <c r="W80" s="57"/>
-      <c r="X80" s="57"/>
-      <c r="Y80" s="57"/>
-      <c r="Z80" s="57"/>
-      <c r="AA80" s="57"/>
-      <c r="AB80" s="60"/>
-      <c r="AC80" s="60"/>
-      <c r="AD80" s="60"/>
-      <c r="AE80" s="60"/>
-      <c r="AF80" s="60"/>
-      <c r="AG80" s="60"/>
-      <c r="AH80" s="60"/>
-      <c r="AI80" s="60"/>
-      <c r="AJ80" s="60"/>
-      <c r="AK80" s="60"/>
-      <c r="AL80" s="60"/>
-      <c r="AM80" s="60"/>
-      <c r="AN80" s="60"/>
-      <c r="AO80" s="60"/>
-      <c r="AP80" s="60"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
+      <c r="AL80"/>
+      <c r="AM80"/>
+      <c r="AN80"/>
+      <c r="AO80"/>
+      <c r="AP80"/>
     </row>
     <row r="81" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="58">
+      <c r="B81" s="36">
         <v>4</v>
       </c>
-      <c r="C81" s="58">
+      <c r="C81" s="36">
         <v>1</v>
       </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="57"/>
-      <c r="M81" s="57"/>
-      <c r="N81" s="57"/>
-      <c r="O81" s="57"/>
-      <c r="P81" s="57"/>
-      <c r="Q81" s="57"/>
-      <c r="R81" s="57"/>
-      <c r="S81" s="57"/>
-      <c r="T81" s="57"/>
-      <c r="U81" s="57"/>
-      <c r="V81" s="57"/>
-      <c r="W81" s="57"/>
-      <c r="X81" s="57"/>
-      <c r="Y81" s="57"/>
-      <c r="Z81" s="57"/>
-      <c r="AA81" s="57"/>
-      <c r="AB81" s="60"/>
-      <c r="AC81" s="60"/>
-      <c r="AD81" s="60"/>
-      <c r="AE81" s="60"/>
-      <c r="AF81" s="60"/>
-      <c r="AG81" s="60"/>
-      <c r="AH81" s="60"/>
-      <c r="AI81" s="60"/>
-      <c r="AJ81" s="60"/>
-      <c r="AK81" s="60"/>
-      <c r="AL81" s="60"/>
-      <c r="AM81" s="60"/>
-      <c r="AN81" s="60"/>
-      <c r="AO81" s="60"/>
-      <c r="AP81" s="60"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
+      <c r="AL81"/>
+      <c r="AM81"/>
+      <c r="AN81"/>
+      <c r="AO81"/>
+      <c r="AP81"/>
     </row>
     <row r="82" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A82" s="57" t="s">
+      <c r="A82" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="58">
+      <c r="B82" s="36">
         <v>4</v>
       </c>
-      <c r="C82" s="58">
+      <c r="C82" s="36">
         <v>1</v>
       </c>
-      <c r="D82" s="65"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="57"/>
-      <c r="K82" s="57"/>
-      <c r="L82" s="57"/>
-      <c r="M82" s="57"/>
-      <c r="N82" s="57"/>
-      <c r="O82" s="57"/>
-      <c r="P82" s="57"/>
-      <c r="Q82" s="57"/>
-      <c r="R82" s="57"/>
-      <c r="S82" s="57"/>
-      <c r="T82" s="57"/>
-      <c r="U82" s="57"/>
-      <c r="V82" s="57"/>
-      <c r="W82" s="57"/>
-      <c r="X82" s="57"/>
-      <c r="Y82" s="57"/>
-      <c r="Z82" s="57"/>
-      <c r="AA82" s="57"/>
-      <c r="AB82" s="60"/>
-      <c r="AC82" s="60"/>
-      <c r="AD82" s="60"/>
-      <c r="AE82" s="60"/>
-      <c r="AF82" s="60"/>
-      <c r="AG82" s="60"/>
-      <c r="AH82" s="60"/>
-      <c r="AI82" s="60"/>
-      <c r="AJ82" s="60"/>
-      <c r="AK82" s="60"/>
-      <c r="AL82" s="60"/>
-      <c r="AM82" s="60"/>
-      <c r="AN82" s="60"/>
-      <c r="AO82" s="60"/>
-      <c r="AP82" s="60"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
+      <c r="AL82"/>
+      <c r="AM82"/>
+      <c r="AN82"/>
+      <c r="AO82"/>
+      <c r="AP82"/>
     </row>
     <row r="83" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A83" s="57" t="s">
+      <c r="A83" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="58">
+      <c r="B83" s="36">
         <v>10</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D83" s="65"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="57"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
-      <c r="R83" s="57"/>
-      <c r="S83" s="57"/>
-      <c r="T83" s="57"/>
-      <c r="U83" s="57"/>
-      <c r="V83" s="57"/>
-      <c r="W83" s="57"/>
-      <c r="X83" s="57"/>
-      <c r="Y83" s="57"/>
-      <c r="Z83" s="57"/>
-      <c r="AA83" s="57"/>
-      <c r="AB83" s="60"/>
-      <c r="AC83" s="60"/>
-      <c r="AD83" s="60"/>
-      <c r="AE83" s="60"/>
-      <c r="AF83" s="60"/>
-      <c r="AG83" s="60"/>
-      <c r="AH83" s="60"/>
-      <c r="AI83" s="60"/>
-      <c r="AJ83" s="60"/>
-      <c r="AK83" s="60"/>
-      <c r="AL83" s="60"/>
-      <c r="AM83" s="60"/>
-      <c r="AN83" s="60"/>
-      <c r="AO83" s="60"/>
-      <c r="AP83" s="60"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+      <c r="AK83"/>
+      <c r="AL83"/>
+      <c r="AM83"/>
+      <c r="AN83"/>
+      <c r="AO83"/>
+      <c r="AP83"/>
     </row>
     <row r="84" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A84" s="57" t="s">
+      <c r="A84" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="58">
+      <c r="B84" s="36">
         <v>2</v>
       </c>
-      <c r="C84" s="58" t="s">
+      <c r="C84" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D84" s="65"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="57"/>
-      <c r="N84" s="57"/>
-      <c r="O84" s="57"/>
-      <c r="P84" s="57"/>
-      <c r="Q84" s="57"/>
-      <c r="R84" s="60"/>
-      <c r="S84" s="60"/>
-      <c r="T84" s="57"/>
-      <c r="U84" s="57"/>
-      <c r="V84" s="57"/>
-      <c r="W84" s="57"/>
-      <c r="X84" s="57"/>
-      <c r="Y84" s="57"/>
-      <c r="Z84" s="57"/>
-      <c r="AA84" s="57"/>
-      <c r="AB84" s="60"/>
-      <c r="AC84" s="60"/>
-      <c r="AD84" s="60"/>
-      <c r="AE84" s="60"/>
-      <c r="AF84" s="60"/>
-      <c r="AG84" s="60"/>
-      <c r="AH84" s="60"/>
-      <c r="AI84" s="60"/>
-      <c r="AJ84" s="60"/>
-      <c r="AK84" s="60"/>
-      <c r="AL84" s="60"/>
-      <c r="AM84" s="60"/>
-      <c r="AN84" s="60"/>
-      <c r="AO84" s="60"/>
-      <c r="AP84" s="60"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="35"/>
+      <c r="W84" s="35"/>
+      <c r="X84" s="35"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+      <c r="AH84"/>
+      <c r="AI84"/>
+      <c r="AJ84"/>
+      <c r="AK84"/>
+      <c r="AL84"/>
+      <c r="AM84"/>
+      <c r="AN84"/>
+      <c r="AO84"/>
+      <c r="AP84"/>
     </row>
     <row r="85" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="58">
+      <c r="B85" s="36">
         <v>2</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D85" s="65"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="57"/>
-      <c r="K85" s="57"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="57"/>
-      <c r="O85" s="57"/>
-      <c r="P85" s="57"/>
-      <c r="Q85" s="57"/>
-      <c r="R85" s="62"/>
-      <c r="S85" s="62"/>
-      <c r="T85" s="60"/>
-      <c r="U85" s="60"/>
-      <c r="V85" s="57"/>
-      <c r="W85" s="57"/>
-      <c r="X85" s="57"/>
-      <c r="Y85" s="57"/>
-      <c r="Z85" s="57"/>
-      <c r="AA85" s="57"/>
-      <c r="AB85" s="60"/>
-      <c r="AC85" s="60"/>
-      <c r="AD85" s="60"/>
-      <c r="AE85" s="60"/>
-      <c r="AF85" s="60"/>
-      <c r="AG85" s="60"/>
-      <c r="AH85" s="60"/>
-      <c r="AI85" s="60"/>
-      <c r="AJ85" s="60"/>
-      <c r="AK85" s="60"/>
-      <c r="AL85" s="60"/>
-      <c r="AM85" s="60"/>
-      <c r="AN85" s="60"/>
-      <c r="AO85" s="60"/>
-      <c r="AP85" s="60"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85" s="35"/>
+      <c r="W85" s="35"/>
+      <c r="X85" s="35"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+      <c r="AH85"/>
+      <c r="AI85"/>
+      <c r="AJ85"/>
+      <c r="AK85"/>
+      <c r="AL85"/>
+      <c r="AM85"/>
+      <c r="AN85"/>
+      <c r="AO85"/>
+      <c r="AP85"/>
     </row>
     <row r="86" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="58">
+      <c r="B86" s="36">
         <v>4</v>
       </c>
-      <c r="C86" s="58">
+      <c r="C86" s="36">
         <v>7</v>
       </c>
-      <c r="D86" s="65"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="57"/>
-      <c r="P86" s="57"/>
-      <c r="Q86" s="57"/>
-      <c r="R86" s="57"/>
-      <c r="S86" s="57"/>
-      <c r="T86" s="62"/>
-      <c r="U86" s="62"/>
-      <c r="V86" s="62"/>
-      <c r="W86" s="62"/>
-      <c r="X86" s="60"/>
-      <c r="Y86" s="60"/>
-      <c r="Z86" s="57"/>
-      <c r="AA86" s="57"/>
-      <c r="AB86" s="60"/>
-      <c r="AC86" s="60"/>
-      <c r="AD86" s="60"/>
-      <c r="AE86" s="60"/>
-      <c r="AF86" s="60"/>
-      <c r="AG86" s="60"/>
-      <c r="AH86" s="60"/>
-      <c r="AI86" s="60"/>
-      <c r="AJ86" s="60"/>
-      <c r="AK86" s="60"/>
-      <c r="AL86" s="60"/>
-      <c r="AM86" s="60"/>
-      <c r="AN86" s="60"/>
-      <c r="AO86" s="60"/>
-      <c r="AP86" s="60"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="39"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
+      <c r="AL86"/>
+      <c r="AM86"/>
+      <c r="AN86"/>
+      <c r="AO86"/>
+      <c r="AP86"/>
     </row>
     <row r="87" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A87" s="57" t="s">
+      <c r="A87" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="58">
+      <c r="B87" s="36">
         <v>2</v>
       </c>
-      <c r="C87" s="58">
+      <c r="C87" s="36">
         <v>8</v>
       </c>
-      <c r="D87" s="65"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57" t="s">
+      <c r="D87" s="41"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H87" s="57"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="57"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="57"/>
-      <c r="M87" s="57"/>
-      <c r="N87" s="57"/>
-      <c r="O87" s="57"/>
-      <c r="P87" s="57"/>
-      <c r="Q87" s="57"/>
-      <c r="R87" s="57"/>
-      <c r="S87" s="57"/>
-      <c r="T87" s="57"/>
-      <c r="U87" s="57"/>
-      <c r="V87" s="57"/>
-      <c r="W87" s="57"/>
-      <c r="X87" s="62"/>
-      <c r="Y87" s="62"/>
-      <c r="Z87" s="60"/>
-      <c r="AA87" s="60"/>
-      <c r="AB87" s="60"/>
-      <c r="AC87" s="60"/>
-      <c r="AD87" s="60"/>
-      <c r="AE87" s="60"/>
-      <c r="AF87" s="60"/>
-      <c r="AG87" s="60"/>
-      <c r="AH87" s="60"/>
-      <c r="AI87" s="60"/>
-      <c r="AJ87" s="60"/>
-      <c r="AK87" s="60"/>
-      <c r="AL87" s="60"/>
-      <c r="AM87" s="60"/>
-      <c r="AN87" s="60"/>
-      <c r="AO87" s="60"/>
-      <c r="AP87" s="60"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="39"/>
+      <c r="Y87" s="39"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+      <c r="AK87"/>
+      <c r="AL87"/>
+      <c r="AM87"/>
+      <c r="AN87"/>
+      <c r="AO87"/>
+      <c r="AP87"/>
     </row>
     <row r="88" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B88" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D88" s="66"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
-      <c r="O88" s="60"/>
-      <c r="P88" s="60"/>
-      <c r="Q88" s="60"/>
-      <c r="R88" s="60"/>
-      <c r="S88" s="60"/>
-      <c r="T88" s="60"/>
-      <c r="U88" s="60"/>
-      <c r="V88" s="60"/>
-      <c r="W88" s="60"/>
-      <c r="X88" s="63"/>
-      <c r="Y88" s="63"/>
-      <c r="Z88" s="60"/>
-      <c r="AA88" s="60"/>
-      <c r="AB88" s="60"/>
-      <c r="AC88" s="60"/>
-      <c r="AD88" s="60"/>
-      <c r="AE88" s="60"/>
-      <c r="AF88" s="60"/>
-      <c r="AG88" s="60"/>
-      <c r="AH88" s="60"/>
-      <c r="AI88" s="60"/>
-      <c r="AJ88" s="60"/>
-      <c r="AK88" s="60"/>
-      <c r="AL88" s="60"/>
-      <c r="AM88" s="60"/>
-      <c r="AN88" s="60"/>
-      <c r="AO88" s="60"/>
-      <c r="AP88" s="60"/>
+      <c r="D88" s="42"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+      <c r="AH88"/>
+      <c r="AI88"/>
+      <c r="AJ88"/>
+      <c r="AK88"/>
+      <c r="AL88"/>
+      <c r="AM88"/>
+      <c r="AN88"/>
+      <c r="AO88"/>
+      <c r="AP88"/>
     </row>
     <row r="89" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="58">
+      <c r="B89" s="36">
         <v>10</v>
       </c>
-      <c r="C89" s="58">
+      <c r="C89" s="36">
         <v>10</v>
       </c>
-      <c r="D89" s="66"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="60"/>
-      <c r="N89" s="60"/>
-      <c r="O89" s="60"/>
-      <c r="P89" s="60"/>
-      <c r="Q89" s="60"/>
-      <c r="R89" s="60"/>
-      <c r="S89" s="60"/>
-      <c r="T89" s="60"/>
-      <c r="U89" s="60"/>
-      <c r="V89" s="60"/>
-      <c r="W89" s="60"/>
-      <c r="X89" s="60"/>
-      <c r="Y89" s="60"/>
-      <c r="Z89" s="63"/>
-      <c r="AA89" s="63"/>
-      <c r="AB89" s="63"/>
-      <c r="AC89" s="63"/>
-      <c r="AD89" s="63"/>
-      <c r="AE89" s="63"/>
-      <c r="AF89" s="63"/>
-      <c r="AG89" s="63"/>
-      <c r="AH89" s="63"/>
-      <c r="AI89" s="63"/>
-      <c r="AJ89" s="60"/>
-      <c r="AK89" s="60"/>
-      <c r="AL89" s="60"/>
-      <c r="AM89" s="60"/>
-      <c r="AN89" s="60"/>
-      <c r="AO89" s="60"/>
-      <c r="AP89" s="60"/>
+      <c r="D89" s="42"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89" s="34"/>
+      <c r="AA89" s="34"/>
+      <c r="AB89" s="34"/>
+      <c r="AC89" s="34"/>
+      <c r="AD89" s="34"/>
+      <c r="AE89" s="34"/>
+      <c r="AF89" s="34"/>
+      <c r="AG89" s="34"/>
+      <c r="AH89" s="34"/>
+      <c r="AI89" s="34"/>
+      <c r="AJ89"/>
+      <c r="AK89"/>
+      <c r="AL89"/>
+      <c r="AM89"/>
+      <c r="AN89"/>
+      <c r="AO89"/>
+      <c r="AP89"/>
     </row>
     <row r="90" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A90" s="60" t="s">
+      <c r="A90" t="s">
         <v>132</v>
       </c>
-      <c r="B90" s="60">
+      <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" s="60">
+      <c r="C90">
         <v>11</v>
       </c>
-      <c r="D90" s="66"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="60"/>
-      <c r="N90" s="60"/>
-      <c r="O90" s="60"/>
-      <c r="P90" s="60"/>
-      <c r="Q90" s="60"/>
-      <c r="R90" s="60"/>
-      <c r="S90" s="60"/>
-      <c r="T90" s="60"/>
-      <c r="U90" s="60"/>
-      <c r="V90" s="60"/>
-      <c r="W90" s="60"/>
-      <c r="X90" s="60"/>
-      <c r="Y90" s="60"/>
-      <c r="Z90" s="60"/>
-      <c r="AA90" s="60"/>
-      <c r="AB90" s="60"/>
-      <c r="AC90" s="60"/>
-      <c r="AD90" s="60"/>
-      <c r="AE90" s="60"/>
-      <c r="AF90" s="60"/>
-      <c r="AG90" s="60"/>
-      <c r="AH90" s="60"/>
-      <c r="AI90" s="63"/>
-      <c r="AJ90" s="60"/>
-      <c r="AK90" s="60"/>
-      <c r="AL90" s="60"/>
-      <c r="AM90" s="60"/>
-      <c r="AN90" s="60"/>
-      <c r="AO90" s="60"/>
-      <c r="AP90" s="60"/>
+      <c r="D90" s="42"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+      <c r="AG90"/>
+      <c r="AH90"/>
+      <c r="AI90" s="34"/>
+      <c r="AJ90"/>
+      <c r="AK90"/>
+      <c r="AL90"/>
+      <c r="AM90"/>
+      <c r="AN90"/>
+      <c r="AO90"/>
+      <c r="AP90"/>
     </row>
     <row r="91" spans="1:2498" x14ac:dyDescent="0.25">
-      <c r="A91" s="60" t="s">
+      <c r="A91" t="s">
         <v>133</v>
       </c>
-      <c r="B91" s="60">
+      <c r="B91">
         <v>5</v>
       </c>
-      <c r="C91" s="60">
+      <c r="C91">
         <v>12</v>
       </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="60"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="60"/>
-      <c r="P91" s="60"/>
-      <c r="Q91" s="60"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="60"/>
-      <c r="T91" s="60"/>
-      <c r="U91" s="60"/>
-      <c r="V91" s="60"/>
-      <c r="W91" s="60"/>
-      <c r="X91" s="60"/>
-      <c r="Y91" s="60"/>
-      <c r="Z91" s="60"/>
-      <c r="AA91" s="60"/>
-      <c r="AB91" s="60"/>
-      <c r="AC91" s="60"/>
-      <c r="AD91" s="60"/>
-      <c r="AE91" s="60"/>
-      <c r="AF91" s="60"/>
-      <c r="AG91" s="60"/>
-      <c r="AH91" s="60"/>
-      <c r="AI91" s="60"/>
-      <c r="AJ91" s="63"/>
-      <c r="AK91" s="63"/>
-      <c r="AL91" s="63"/>
-      <c r="AM91" s="63"/>
-      <c r="AN91" s="63"/>
-      <c r="AO91" s="60"/>
-      <c r="AP91" s="60"/>
+      <c r="D91" s="42"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+      <c r="AG91"/>
+      <c r="AH91"/>
+      <c r="AI91"/>
+      <c r="AJ91" s="34"/>
+      <c r="AK91" s="34"/>
+      <c r="AL91" s="34"/>
+      <c r="AM91" s="34"/>
+      <c r="AN91" s="34"/>
+      <c r="AO91"/>
+      <c r="AP91"/>
     </row>
     <row r="92" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="60" t="s">
+      <c r="A92" t="s">
         <v>134</v>
       </c>
-      <c r="B92" s="60">
+      <c r="B92">
         <v>2</v>
       </c>
-      <c r="C92" s="60">
+      <c r="C92">
         <v>13</v>
       </c>
-      <c r="D92" s="66"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="60"/>
-      <c r="N92" s="60"/>
-      <c r="O92" s="60"/>
-      <c r="P92" s="60"/>
-      <c r="Q92" s="60"/>
-      <c r="R92" s="60"/>
-      <c r="S92" s="60"/>
-      <c r="T92" s="60"/>
-      <c r="U92" s="60"/>
-      <c r="V92" s="60"/>
-      <c r="W92" s="60"/>
-      <c r="X92" s="60"/>
-      <c r="Y92" s="60"/>
-      <c r="Z92" s="60"/>
-      <c r="AA92" s="60"/>
-      <c r="AB92" s="60"/>
-      <c r="AC92" s="60"/>
-      <c r="AD92" s="60"/>
-      <c r="AE92" s="60"/>
-      <c r="AF92" s="60"/>
-      <c r="AG92" s="60"/>
-      <c r="AH92" s="60"/>
-      <c r="AI92" s="60"/>
-      <c r="AJ92" s="60"/>
-      <c r="AK92" s="60"/>
-      <c r="AL92" s="60"/>
-      <c r="AM92" s="60"/>
-      <c r="AN92" s="60"/>
-      <c r="AO92" s="63"/>
-      <c r="AP92" s="63"/>
+      <c r="D92" s="42"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+      <c r="AH92"/>
+      <c r="AI92"/>
+      <c r="AJ92"/>
+      <c r="AK92"/>
+      <c r="AL92"/>
+      <c r="AM92"/>
+      <c r="AN92"/>
+      <c r="AO92" s="34"/>
+      <c r="AP92" s="34"/>
     </row>
     <row r="93" spans="1:2498" ht="22" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
@@ -6395,289 +6395,289 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -6694,12 +6694,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -6712,12 +6712,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Masaüstü/Computer Science Courses/CS383 General Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{702C128C-5C0E-40CF-9FAC-647E37248155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DADED0E9-BD80-4468-B842-EF7695729C1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F154A668-4499-40DB-9C61-ABFFA038B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="11460" windowHeight="9144" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -506,9 +506,6 @@
     <t xml:space="preserve">5. HUD Design and Implementation </t>
   </si>
   <si>
-    <t>6. UI Animations, Effects and Transitions</t>
-  </si>
-  <si>
     <t>7. User Input and Navigation Integration</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>$TBD</t>
+  </si>
+  <si>
+    <t>6. UI Animations, Effects, Graphics</t>
   </si>
 </sst>
 </file>
@@ -793,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -888,19 +888,28 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,10 +930,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -936,26 +948,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -966,12 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,10 +988,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1312,553 +1309,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562B3B-3013-4879-ABBB-AEB80198B717}">
   <dimension ref="B2:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+    <sheetView zoomScale="35" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="C2" s="59" t="s">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.5">
+      <c r="C2" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="K2" s="59" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="K2" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="S2" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
-      <c r="S2" s="59" t="s">
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="64"/>
+      <c r="AA2" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61"/>
-      <c r="AA2" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="61"/>
-    </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="C3" s="62" t="s">
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="64"/>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.5">
+      <c r="C3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="K3" s="62" t="s">
+      <c r="H3" s="67"/>
+      <c r="K3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="S3" s="62" t="s">
+      <c r="P3" s="67"/>
+      <c r="S3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63" t="s">
+      <c r="T3" s="66"/>
+      <c r="U3" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63" t="s">
+      <c r="V3" s="66"/>
+      <c r="W3" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="AA3" s="62" t="s">
+      <c r="X3" s="67"/>
+      <c r="AA3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63" t="s">
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63" t="s">
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="64"/>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AF3" s="67"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.5">
       <c r="B4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="69"/>
       <c r="J4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="68">
         <v>5200</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="P4" s="66"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="69"/>
       <c r="R4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="70"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="66"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="69"/>
       <c r="Z4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="66"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="69"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.5">
       <c r="B5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="55"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
       <c r="J5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="71">
+      <c r="K5" s="70">
         <v>7200</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="P5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="56"/>
       <c r="R5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="58"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="55"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="56"/>
       <c r="Z5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="55"/>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="56"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.5">
       <c r="B6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
       <c r="J6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="70">
         <v>5300</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="P6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="56"/>
       <c r="R6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="58"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="55"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56"/>
       <c r="Z6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="55"/>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="56"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.5">
       <c r="B7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
       <c r="J7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="70">
         <v>6000</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="P7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="56"/>
       <c r="R7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="58"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="55"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56"/>
       <c r="Z7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="55"/>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.5">
       <c r="B8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
       <c r="J8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="70">
         <v>6300</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="P8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" s="56"/>
       <c r="R8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="58"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="55"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="56"/>
       <c r="Z8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="55"/>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="56"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.5">
       <c r="B9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
       <c r="J9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K9" s="70">
         <v>5500</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="P9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="56"/>
       <c r="R9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="58"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="55"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="56"/>
       <c r="Z9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="55"/>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="56"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.5">
       <c r="B10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
       <c r="J10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="74">
         <v>4700</v>
       </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="P10" s="57"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="61"/>
       <c r="R10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="S10" s="74"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="57"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="61"/>
       <c r="Z10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="57"/>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="61"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.5">
       <c r="B11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
       <c r="J11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="71">
         <v>40200</v>
       </c>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="P11" s="69"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" s="73"/>
       <c r="R11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="74"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="57"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="61"/>
       <c r="Z11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="57"/>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="61"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.5">
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.5">
       <c r="I15" s="52"/>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.5">
       <c r="I16" s="52"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I18" s="52"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I19" s="52"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I20" s="52"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I21" s="52"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.5">
       <c r="I22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -1883,30 +1837,73 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC9:AD9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1916,22 +1913,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B111"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" style="11" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="11"/>
-    <col min="6" max="6" width="8.77734375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="11"/>
+    <col min="1" max="1" width="45.41015625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="17.64453125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.64453125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.76171875" style="11"/>
+    <col min="6" max="6" width="8.76171875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.64453125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.76171875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.65">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1954,7 +1951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" s="33" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +2138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2157,7 +2154,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -2171,7 +2168,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
@@ -2182,12 +2179,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -2200,7 +2197,7 @@
       <c r="D6" s="31"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2214,7 +2211,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
@@ -2228,7 +2225,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
@@ -2242,7 +2239,7 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -2256,7 +2253,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
@@ -2272,7 +2269,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
@@ -2290,7 +2287,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -2305,7 +2302,7 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
@@ -2319,7 +2316,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -2333,7 +2330,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.65">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -2347,7 +2344,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A17" s="10" t="s">
         <v>38</v>
       </c>
@@ -2362,7 +2359,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
@@ -2379,7 +2376,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
@@ -2395,7 +2392,7 @@
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2407,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
@@ -2424,14 +2421,14 @@
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
     </row>
-    <row r="22" spans="1:38" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" s="37" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A22" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="36"/>
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A23" s="10" t="s">
         <v>76</v>
       </c>
@@ -2445,7 +2442,7 @@
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A24" s="10" t="s">
         <v>77</v>
       </c>
@@ -2460,7 +2457,7 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
@@ -2476,7 +2473,7 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A26" s="10" t="s">
         <v>79</v>
       </c>
@@ -2494,7 +2491,7 @@
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A27" s="10" t="s">
         <v>80</v>
       </c>
@@ -2509,7 +2506,7 @@
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A28" s="10" t="s">
         <v>81</v>
       </c>
@@ -2522,7 +2519,7 @@
       <c r="D28" s="31"/>
       <c r="W28" s="32"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A29" s="10" t="s">
         <v>82</v>
       </c>
@@ -2539,7 +2536,7 @@
       <c r="Z29" s="16"/>
       <c r="AA29" s="16"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A30" s="10" t="s">
         <v>83</v>
       </c>
@@ -2554,7 +2551,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A31" s="10" t="s">
         <v>84</v>
       </c>
@@ -2564,7 +2561,7 @@
       <c r="C31" s="13">
         <v>8</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
@@ -2572,7 +2569,7 @@
       <c r="AI31" s="15"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.65">
       <c r="A32" s="10" t="s">
         <v>85</v>
       </c>
@@ -2582,11 +2579,11 @@
       <c r="C32" s="13">
         <v>9</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="17"/>
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A33" s="10" t="s">
         <v>86</v>
       </c>
@@ -2596,12 +2593,12 @@
       <c r="C33" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="17"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A34" s="10" t="s">
         <v>87</v>
       </c>
@@ -2611,13 +2608,13 @@
       <c r="C34" s="13">
         <v>11</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="17"/>
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
       <c r="AG34" s="15"/>
       <c r="AH34" s="15"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A35" s="10" t="s">
         <v>88</v>
       </c>
@@ -2636,7 +2633,7 @@
       <c r="AR35" s="15"/>
       <c r="AS35" s="15"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A36" s="10" t="s">
         <v>89</v>
       </c>
@@ -2650,7 +2647,7 @@
       <c r="AT36" s="15"/>
       <c r="AU36" s="15"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A37" s="10" t="s">
         <v>90</v>
       </c>
@@ -2669,7 +2666,7 @@
       <c r="AJ37" s="15"/>
       <c r="AK37" s="15"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A38" s="10" t="s">
         <v>91</v>
       </c>
@@ -2689,7 +2686,7 @@
       <c r="BB38" s="15"/>
       <c r="BC38" s="15"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A39" s="10" t="s">
         <v>92</v>
       </c>
@@ -2707,14 +2704,14 @@
       <c r="BH39" s="15"/>
       <c r="BI39" s="15"/>
     </row>
-    <row r="40" spans="1:61" s="37" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:61" s="37" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="36"/>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A41" s="10" t="s">
         <v>93</v>
       </c>
@@ -2728,7 +2725,7 @@
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A42" s="10" t="s">
         <v>94</v>
       </c>
@@ -2742,7 +2739,7 @@
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A43" s="10" t="s">
         <v>95</v>
       </c>
@@ -2752,10 +2749,10 @@
       <c r="C43" s="13">
         <v>2</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="D43" s="20"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A44" s="10" t="s">
         <v>96</v>
       </c>
@@ -2771,7 +2768,7 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A45" s="10" t="s">
         <v>97</v>
       </c>
@@ -2787,7 +2784,7 @@
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A46" s="10" t="s">
         <v>98</v>
       </c>
@@ -2801,7 +2798,7 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A47" s="10" t="s">
         <v>99</v>
       </c>
@@ -2817,7 +2814,7 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.65">
       <c r="A48" s="10" t="s">
         <v>100</v>
       </c>
@@ -2831,7 +2828,7 @@
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
@@ -2845,7 +2842,7 @@
       <c r="W49" s="15"/>
       <c r="X49" s="15"/>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A50" s="10" t="s">
         <v>102</v>
       </c>
@@ -2858,7 +2855,7 @@
       <c r="D50" s="14"/>
       <c r="Y50" s="15"/>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A51" s="10" t="s">
         <v>103</v>
       </c>
@@ -2874,7 +2871,7 @@
       <c r="AA51" s="15"/>
       <c r="AB51" s="15"/>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A52" s="10" t="s">
         <v>104</v>
       </c>
@@ -2882,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="14"/>
       <c r="AC52" s="15"/>
@@ -2890,7 +2887,7 @@
       <c r="AE52" s="15"/>
       <c r="AF52" s="15"/>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A53" s="10" t="s">
         <v>105</v>
       </c>
@@ -2898,13 +2895,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="14"/>
       <c r="AG53" s="15"/>
       <c r="AH53" s="15"/>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A54" s="10" t="s">
         <v>106</v>
       </c>
@@ -2920,7 +2917,7 @@
       <c r="AI54" s="15"/>
       <c r="AJ54" s="15"/>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A55" s="10" t="s">
         <v>107</v>
       </c>
@@ -2934,7 +2931,7 @@
       <c r="AK55" s="15"/>
       <c r="AL55" s="15"/>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A56" s="10" t="s">
         <v>108</v>
       </c>
@@ -2948,7 +2945,7 @@
       <c r="AM56" s="15"/>
       <c r="AN56" s="15"/>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A57" s="10" t="s">
         <v>109</v>
       </c>
@@ -2961,7 +2958,7 @@
       <c r="D57" s="14"/>
       <c r="AO57" s="15"/>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A58" s="10" t="s">
         <v>110</v>
       </c>
@@ -2969,7 +2966,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D58" s="14"/>
       <c r="AP58" s="15"/>
@@ -2977,7 +2974,7 @@
       <c r="AR58" s="15"/>
       <c r="AS58" s="15"/>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A59" s="10" t="s">
         <v>111</v>
       </c>
@@ -2985,13 +2982,13 @@
         <v>2</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="14"/>
       <c r="AT59" s="15"/>
       <c r="AU59" s="15"/>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A60" s="10" t="s">
         <v>112</v>
       </c>
@@ -3007,14 +3004,14 @@
       <c r="AV60" s="15"/>
       <c r="AW60" s="15"/>
     </row>
-    <row r="61" spans="1:49" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:49" s="37" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A61" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="36"/>
       <c r="D61" s="38"/>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A62" s="11" t="s">
         <v>113</v>
       </c>
@@ -3024,11 +3021,11 @@
       <c r="C62" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="82"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
@@ -3064,7 +3061,7 @@
       <c r="AO62"/>
       <c r="AP62"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A63" s="11" t="s">
         <v>114</v>
       </c>
@@ -3079,12 +3076,12 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
@@ -3114,7 +3111,7 @@
       <c r="AO63"/>
       <c r="AP63"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.65">
       <c r="A64" s="11" t="s">
         <v>115</v>
       </c>
@@ -3129,14 +3126,14 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
       <c r="Q64"/>
       <c r="R64"/>
       <c r="S64"/>
@@ -3164,7 +3161,7 @@
       <c r="AO64"/>
       <c r="AP64"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A65" s="11" t="s">
         <v>116</v>
       </c>
@@ -3214,7 +3211,7 @@
       <c r="AO65"/>
       <c r="AP65"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A66" s="11" t="s">
         <v>117</v>
       </c>
@@ -3264,7 +3261,7 @@
       <c r="AO66"/>
       <c r="AP66"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A67" s="11" t="s">
         <v>118</v>
       </c>
@@ -3314,7 +3311,7 @@
       <c r="AO67"/>
       <c r="AP67"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A68" s="11" t="s">
         <v>119</v>
       </c>
@@ -3364,7 +3361,7 @@
       <c r="AO68"/>
       <c r="AP68"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A69" s="11" t="s">
         <v>120</v>
       </c>
@@ -3414,7 +3411,7 @@
       <c r="AO69"/>
       <c r="AP69"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A70" s="11" t="s">
         <v>121</v>
       </c>
@@ -3464,7 +3461,7 @@
       <c r="AO70"/>
       <c r="AP70"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A71" s="11" t="s">
         <v>122</v>
       </c>
@@ -3514,7 +3511,7 @@
       <c r="AO71"/>
       <c r="AP71"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A72" s="11" t="s">
         <v>123</v>
       </c>
@@ -3564,7 +3561,7 @@
       <c r="AO72"/>
       <c r="AP72"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A73" s="11" t="s">
         <v>124</v>
       </c>
@@ -3614,14 +3611,14 @@
       <c r="AO73" s="26"/>
       <c r="AP73" s="26"/>
     </row>
-    <row r="74" spans="1:42" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:42" s="37" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A74" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="51"/>
       <c r="D74" s="38"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A75" s="10" t="s">
         <v>125</v>
       </c>
@@ -3640,7 +3637,7 @@
       <c r="J75" s="16"/>
       <c r="K75" s="16"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -3651,15 +3648,15 @@
         <v>1</v>
       </c>
       <c r="D76" s="14"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A77" s="10" t="s">
         <v>127</v>
       </c>
@@ -3670,16 +3667,16 @@
         <v>1</v>
       </c>
       <c r="D77" s="14"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
       <c r="S77" s="15"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A78" s="10" t="s">
         <v>128</v>
       </c>
@@ -3695,7 +3692,7 @@
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A79" s="10" t="s">
         <v>129</v>
       </c>
@@ -3713,7 +3710,7 @@
       <c r="AA79" s="15"/>
       <c r="AB79" s="15"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.65">
       <c r="A80" s="10" t="s">
         <v>130</v>
       </c>
@@ -3731,7 +3728,7 @@
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A81" s="10" t="s">
         <v>131</v>
       </c>
@@ -3748,7 +3745,7 @@
       <c r="AF81" s="15"/>
       <c r="AG81" s="15"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A82" s="10" t="s">
         <v>132</v>
       </c>
@@ -3766,7 +3763,7 @@
       <c r="AL82" s="15"/>
       <c r="AM82" s="15"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A83" s="10" t="s">
         <v>133</v>
       </c>
@@ -3782,7 +3779,7 @@
       <c r="AN83" s="15"/>
       <c r="AO83" s="15"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A84" s="10" t="s">
         <v>134</v>
       </c>
@@ -3800,7 +3797,7 @@
       <c r="AT84" s="15"/>
       <c r="AU84" s="15"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A85" s="10" t="s">
         <v>135</v>
       </c>
@@ -3815,14 +3812,14 @@
       <c r="AW85" s="15"/>
       <c r="AX85" s="15"/>
     </row>
-    <row r="86" spans="1:50" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:50" s="37" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A86" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="36"/>
       <c r="D86" s="38"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A87" s="10" t="s">
         <v>136</v>
       </c>
@@ -3872,7 +3869,7 @@
       <c r="AO87"/>
       <c r="AP87"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A88" s="10" t="s">
         <v>137</v>
       </c>
@@ -3922,7 +3919,7 @@
       <c r="AO88"/>
       <c r="AP88"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A89" s="10" t="s">
         <v>138</v>
       </c>
@@ -3972,7 +3969,7 @@
       <c r="AO89"/>
       <c r="AP89"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A90" s="10" t="s">
         <v>139</v>
       </c>
@@ -4022,7 +4019,7 @@
       <c r="AO90"/>
       <c r="AP90"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A91" s="10" t="s">
         <v>140</v>
       </c>
@@ -4072,7 +4069,7 @@
       <c r="AO91"/>
       <c r="AP91"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A92" s="10" t="s">
         <v>141</v>
       </c>
@@ -4122,7 +4119,7 @@
       <c r="AO92"/>
       <c r="AP92"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A93" s="10" t="s">
         <v>142</v>
       </c>
@@ -4172,7 +4169,7 @@
       <c r="AO93"/>
       <c r="AP93"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A94" s="10" t="s">
         <v>143</v>
       </c>
@@ -4224,7 +4221,7 @@
       <c r="AO94"/>
       <c r="AP94"/>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A95" s="10" t="s">
         <v>144</v>
       </c>
@@ -4276,7 +4273,7 @@
       <c r="AO95"/>
       <c r="AP95"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.65">
       <c r="A96" s="10" t="s">
         <v>145</v>
       </c>
@@ -4326,7 +4323,7 @@
       <c r="AO96"/>
       <c r="AP96"/>
     </row>
-    <row r="97" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A97" s="10" t="s">
         <v>146</v>
       </c>
@@ -4376,7 +4373,7 @@
       <c r="AO97"/>
       <c r="AP97"/>
     </row>
-    <row r="98" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A98" s="11" t="s">
         <v>147</v>
       </c>
@@ -4426,7 +4423,7 @@
       <c r="AO98"/>
       <c r="AP98"/>
     </row>
-    <row r="99" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A99" s="11" t="s">
         <v>148</v>
       </c>
@@ -4476,7 +4473,7 @@
       <c r="AO99"/>
       <c r="AP99"/>
     </row>
-    <row r="100" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A100" s="11" t="s">
         <v>149</v>
       </c>
@@ -4526,7 +4523,7 @@
       <c r="AO100" s="26"/>
       <c r="AP100" s="26"/>
     </row>
-    <row r="101" spans="1:2498" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2498" s="41" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A101" s="35" t="s">
         <v>6</v>
       </c>
@@ -7028,7 +7025,7 @@
       <c r="CRA101" s="37"/>
       <c r="CRB101" s="37"/>
     </row>
-    <row r="102" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A102" s="45" t="s">
         <v>150</v>
       </c>
@@ -7038,11 +7035,11 @@
       <c r="C102" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-    </row>
-    <row r="103" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="D102" s="46"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+    </row>
+    <row r="103" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A103" s="45" t="s">
         <v>151</v>
       </c>
@@ -7052,14 +7049,14 @@
       <c r="C103" s="30">
         <v>1</v>
       </c>
-      <c r="D103" s="14"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-    </row>
-    <row r="104" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="D103" s="46"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+    </row>
+    <row r="104" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A104" s="45" t="s">
         <v>152</v>
       </c>
@@ -7069,14 +7066,14 @@
       <c r="C104" s="30">
         <v>1</v>
       </c>
-      <c r="D104" s="14"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="D104" s="46"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+    </row>
+    <row r="105" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A105" s="45" t="s">
         <v>153</v>
       </c>
@@ -7086,14 +7083,14 @@
       <c r="C105" s="30">
         <v>1</v>
       </c>
-      <c r="D105" s="14"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-    </row>
-    <row r="106" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="D105" s="46"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+    </row>
+    <row r="106" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A106" s="45" t="s">
         <v>154</v>
       </c>
@@ -7103,17 +7100,17 @@
       <c r="C106" s="30">
         <v>1</v>
       </c>
-      <c r="D106" s="14"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
-    </row>
-    <row r="107" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="D106" s="20"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+    </row>
+    <row r="107" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A107" s="45" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B107" s="30">
         <v>5</v>
@@ -7128,9 +7125,9 @@
       <c r="P107" s="15"/>
       <c r="Q107" s="15"/>
     </row>
-    <row r="108" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A108" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B108" s="30">
         <v>5</v>
@@ -7145,9 +7142,9 @@
       <c r="U108" s="15"/>
       <c r="V108" s="15"/>
     </row>
-    <row r="109" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A109" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B109" s="30">
         <v>4</v>
@@ -7161,9 +7158,9 @@
       <c r="Y109" s="15"/>
       <c r="Z109" s="15"/>
     </row>
-    <row r="110" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2498" x14ac:dyDescent="0.65">
       <c r="A110" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B110" s="30">
         <v>6</v>
@@ -7179,9 +7176,9 @@
       <c r="AE110" s="15"/>
       <c r="AF110" s="15"/>
     </row>
-    <row r="111" spans="1:2498" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2498" s="41" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A111" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B111" s="48">
         <v>4</v>
@@ -7212,294 +7209,294 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81" t="s">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76" t="s">
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76" t="s">
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -7514,12 +7511,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -7532,12 +7529,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7549,7 +7546,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/252328c91043836d/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F154A668-4499-40DB-9C61-ABFFA038B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{F154A668-4499-40DB-9C61-ABFFA038B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F0B5A1-8E35-4465-8BC2-B174E7517F94}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -793,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -886,30 +886,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,16 +922,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -948,20 +940,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -972,7 +967,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,145 +1317,145 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3515625" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.5">
-      <c r="C2" s="62" t="s">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="C2" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="K2" s="62" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="K2" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
-      <c r="S2" s="62" t="s">
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="62"/>
+      <c r="S2" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="64"/>
-      <c r="AA2" s="62" t="s">
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="62"/>
+      <c r="AA2" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="64"/>
-    </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.5">
-      <c r="C3" s="65" t="s">
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="62"/>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="C3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="65"/>
+      <c r="K3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66" t="s">
+      <c r="N3" s="64"/>
+      <c r="O3" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="S3" s="65" t="s">
+      <c r="P3" s="65"/>
+      <c r="S3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66" t="s">
+      <c r="T3" s="64"/>
+      <c r="U3" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66" t="s">
+      <c r="V3" s="64"/>
+      <c r="W3" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="67"/>
-      <c r="AA3" s="65" t="s">
+      <c r="X3" s="65"/>
+      <c r="AA3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66" t="s">
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66" t="s">
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="67"/>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.5">
+      <c r="AF3" s="65"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="69"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
       <c r="J4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="75">
         <v>5200</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58" t="s">
+      <c r="N4" s="66"/>
+      <c r="O4" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="69"/>
+      <c r="P4" s="67"/>
       <c r="R4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="69"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="67"/>
       <c r="Z4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="69"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.5">
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="67"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
@@ -1460,7 +1464,7 @@
       <c r="J5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="73">
         <v>7200</v>
       </c>
       <c r="L5" s="55"/>
@@ -1475,7 +1479,7 @@
       <c r="R5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="54"/>
+      <c r="S5" s="59"/>
       <c r="T5" s="55"/>
       <c r="U5" s="55"/>
       <c r="V5" s="55"/>
@@ -1484,18 +1488,18 @@
       <c r="Z5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" s="54"/>
+      <c r="AA5" s="59"/>
       <c r="AB5" s="55"/>
       <c r="AC5" s="55"/>
       <c r="AD5" s="55"/>
       <c r="AE5" s="55"/>
       <c r="AF5" s="56"/>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
@@ -1504,7 +1508,7 @@
       <c r="J6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="73">
         <v>5300</v>
       </c>
       <c r="L6" s="55"/>
@@ -1519,7 +1523,7 @@
       <c r="R6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="54"/>
+      <c r="S6" s="59"/>
       <c r="T6" s="55"/>
       <c r="U6" s="55"/>
       <c r="V6" s="55"/>
@@ -1528,18 +1532,18 @@
       <c r="Z6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="54"/>
+      <c r="AA6" s="59"/>
       <c r="AB6" s="55"/>
       <c r="AC6" s="55"/>
       <c r="AD6" s="55"/>
       <c r="AE6" s="55"/>
       <c r="AF6" s="56"/>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -1548,7 +1552,7 @@
       <c r="J7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="73">
         <v>6000</v>
       </c>
       <c r="L7" s="55"/>
@@ -1563,7 +1567,7 @@
       <c r="R7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="54"/>
+      <c r="S7" s="59"/>
       <c r="T7" s="55"/>
       <c r="U7" s="55"/>
       <c r="V7" s="55"/>
@@ -1572,18 +1576,18 @@
       <c r="Z7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="54"/>
+      <c r="AA7" s="59"/>
       <c r="AB7" s="55"/>
       <c r="AC7" s="55"/>
       <c r="AD7" s="55"/>
       <c r="AE7" s="55"/>
       <c r="AF7" s="56"/>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
@@ -1592,7 +1596,7 @@
       <c r="J8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="73">
         <v>6300</v>
       </c>
       <c r="L8" s="55"/>
@@ -1607,7 +1611,7 @@
       <c r="R8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="54"/>
+      <c r="S8" s="59"/>
       <c r="T8" s="55"/>
       <c r="U8" s="55"/>
       <c r="V8" s="55"/>
@@ -1616,18 +1620,18 @@
       <c r="Z8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" s="54"/>
+      <c r="AA8" s="59"/>
       <c r="AB8" s="55"/>
       <c r="AC8" s="55"/>
       <c r="AD8" s="55"/>
       <c r="AE8" s="55"/>
       <c r="AF8" s="56"/>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
@@ -1636,7 +1640,7 @@
       <c r="J9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K9" s="73">
         <v>5500</v>
       </c>
       <c r="L9" s="55"/>
@@ -1651,7 +1655,7 @@
       <c r="R9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="54"/>
+      <c r="S9" s="59"/>
       <c r="T9" s="55"/>
       <c r="U9" s="55"/>
       <c r="V9" s="55"/>
@@ -1660,102 +1664,102 @@
       <c r="Z9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="54"/>
+      <c r="AA9" s="59"/>
       <c r="AB9" s="55"/>
       <c r="AC9" s="55"/>
       <c r="AD9" s="55"/>
       <c r="AE9" s="55"/>
       <c r="AF9" s="56"/>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
       <c r="J10" s="24" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="74">
         <v>4700</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60" t="s">
+      <c r="L10" s="57"/>
+      <c r="M10" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60" t="s">
+      <c r="N10" s="57"/>
+      <c r="O10" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="P10" s="61"/>
+      <c r="P10" s="58"/>
       <c r="R10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="61"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="58"/>
       <c r="Z10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="61"/>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.5">
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="58"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
       <c r="J11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="69">
         <v>40200</v>
       </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72" t="s">
+      <c r="L11" s="70"/>
+      <c r="M11" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72" t="s">
+      <c r="N11" s="70"/>
+      <c r="O11" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="P11" s="73"/>
+      <c r="P11" s="71"/>
       <c r="R11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="59"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="61"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="58"/>
       <c r="Z11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="61"/>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.5">
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="58"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
       <c r="Y12" s="55"/>
       <c r="Z12" s="55"/>
       <c r="AA12" s="55"/>
@@ -1763,32 +1767,123 @@
       <c r="AC12" s="55"/>
       <c r="AD12" s="55"/>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I15" s="52"/>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I16" s="52"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="52"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" s="52"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" s="52"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" s="52"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AE10:AF10"/>
     <mergeCell ref="AE11:AF11"/>
@@ -1813,97 +1908,6 @@
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="W8:X8"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC9:AD9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1913,22 +1917,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG111" sqref="AG111:AJ111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="18.350000000000001" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.41015625" style="11" customWidth="1"/>
-    <col min="2" max="3" width="17.64453125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.64453125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.76171875" style="11"/>
-    <col min="6" max="6" width="8.76171875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.64453125" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="8.76171875" style="11"/>
+    <col min="1" max="1" width="45.44140625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="11"/>
+    <col min="6" max="6" width="8.77734375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1951,11 +1955,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="33" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:64" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
       <c r="D2" s="34"/>
       <c r="E2" s="33">
         <v>1</v>
@@ -2138,7 +2142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2158,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +2172,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
@@ -2184,7 +2188,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -2197,7 +2201,7 @@
       <c r="D6" s="31"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2211,7 +2215,7 @@
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
@@ -2225,7 +2229,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
@@ -2239,7 +2243,7 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -2253,7 +2257,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
@@ -2269,7 +2273,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
@@ -2287,7 +2291,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -2302,7 +2306,7 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
@@ -2316,7 +2320,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -2330,7 +2334,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -2344,7 +2348,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>38</v>
       </c>
@@ -2359,7 +2363,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
@@ -2376,7 +2380,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
@@ -2392,7 +2396,7 @@
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
@@ -2407,7 +2411,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
@@ -2421,14 +2425,14 @@
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
     </row>
-    <row r="22" spans="1:38" s="37" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:38" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="36"/>
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>76</v>
       </c>
@@ -2442,7 +2446,7 @@
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>77</v>
       </c>
@@ -2457,7 +2461,7 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>79</v>
       </c>
@@ -2491,7 +2495,7 @@
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>80</v>
       </c>
@@ -2506,7 +2510,7 @@
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>81</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="D28" s="31"/>
       <c r="W28" s="32"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>82</v>
       </c>
@@ -2536,7 +2540,7 @@
       <c r="Z29" s="16"/>
       <c r="AA29" s="16"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>83</v>
       </c>
@@ -2551,7 +2555,7 @@
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>84</v>
       </c>
@@ -2569,7 +2573,7 @@
       <c r="AI31" s="15"/>
       <c r="AJ31" s="15"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>85</v>
       </c>
@@ -2583,7 +2587,7 @@
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>86</v>
       </c>
@@ -2598,7 +2602,7 @@
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>87</v>
       </c>
@@ -2614,7 +2618,7 @@
       <c r="AG34" s="15"/>
       <c r="AH34" s="15"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>88</v>
       </c>
@@ -2633,7 +2637,7 @@
       <c r="AR35" s="15"/>
       <c r="AS35" s="15"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>89</v>
       </c>
@@ -2647,7 +2651,7 @@
       <c r="AT36" s="15"/>
       <c r="AU36" s="15"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>90</v>
       </c>
@@ -2666,7 +2670,7 @@
       <c r="AJ37" s="15"/>
       <c r="AK37" s="15"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>91</v>
       </c>
@@ -2686,7 +2690,7 @@
       <c r="BB38" s="15"/>
       <c r="BC38" s="15"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>92</v>
       </c>
@@ -2704,14 +2708,14 @@
       <c r="BH39" s="15"/>
       <c r="BI39" s="15"/>
     </row>
-    <row r="40" spans="1:61" s="37" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:61" s="37" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="36"/>
       <c r="D40" s="38"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>93</v>
       </c>
@@ -2725,7 +2729,7 @@
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>94</v>
       </c>
@@ -2739,7 +2743,7 @@
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>95</v>
       </c>
@@ -2752,7 +2756,7 @@
       <c r="D43" s="20"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>96</v>
       </c>
@@ -2768,7 +2772,7 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>97</v>
       </c>
@@ -2784,7 +2788,7 @@
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>98</v>
       </c>
@@ -2798,7 +2802,7 @@
       <c r="Q46" s="15"/>
       <c r="R46" s="15"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>99</v>
       </c>
@@ -2814,7 +2818,7 @@
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>100</v>
       </c>
@@ -2828,7 +2832,7 @@
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
@@ -2842,7 +2846,7 @@
       <c r="W49" s="15"/>
       <c r="X49" s="15"/>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>102</v>
       </c>
@@ -2855,7 +2859,7 @@
       <c r="D50" s="14"/>
       <c r="Y50" s="15"/>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>103</v>
       </c>
@@ -2871,7 +2875,7 @@
       <c r="AA51" s="15"/>
       <c r="AB51" s="15"/>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>104</v>
       </c>
@@ -2887,7 +2891,7 @@
       <c r="AE52" s="15"/>
       <c r="AF52" s="15"/>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>105</v>
       </c>
@@ -2901,7 +2905,7 @@
       <c r="AG53" s="15"/>
       <c r="AH53" s="15"/>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>106</v>
       </c>
@@ -2917,7 +2921,7 @@
       <c r="AI54" s="15"/>
       <c r="AJ54" s="15"/>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>107</v>
       </c>
@@ -2931,7 +2935,7 @@
       <c r="AK55" s="15"/>
       <c r="AL55" s="15"/>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>108</v>
       </c>
@@ -2945,7 +2949,7 @@
       <c r="AM56" s="15"/>
       <c r="AN56" s="15"/>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>109</v>
       </c>
@@ -2958,7 +2962,7 @@
       <c r="D57" s="14"/>
       <c r="AO57" s="15"/>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>110</v>
       </c>
@@ -2974,7 +2978,7 @@
       <c r="AR58" s="15"/>
       <c r="AS58" s="15"/>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>111</v>
       </c>
@@ -2988,7 +2992,7 @@
       <c r="AT59" s="15"/>
       <c r="AU59" s="15"/>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>112</v>
       </c>
@@ -3004,14 +3008,14 @@
       <c r="AV60" s="15"/>
       <c r="AW60" s="15"/>
     </row>
-    <row r="61" spans="1:49" s="37" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:49" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="36"/>
       <c r="D61" s="38"/>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>113</v>
       </c>
@@ -3022,10 +3026,10 @@
         <v>43</v>
       </c>
       <c r="D62" s="46"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
@@ -3061,7 +3065,7 @@
       <c r="AO62"/>
       <c r="AP62"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>114</v>
       </c>
@@ -3111,7 +3115,7 @@
       <c r="AO63"/>
       <c r="AP63"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>115</v>
       </c>
@@ -3161,7 +3165,7 @@
       <c r="AO64"/>
       <c r="AP64"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>116</v>
       </c>
@@ -3211,7 +3215,7 @@
       <c r="AO65"/>
       <c r="AP65"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>117</v>
       </c>
@@ -3261,7 +3265,7 @@
       <c r="AO66"/>
       <c r="AP66"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>118</v>
       </c>
@@ -3311,7 +3315,7 @@
       <c r="AO67"/>
       <c r="AP67"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>119</v>
       </c>
@@ -3361,7 +3365,7 @@
       <c r="AO68"/>
       <c r="AP68"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>120</v>
       </c>
@@ -3411,7 +3415,7 @@
       <c r="AO69"/>
       <c r="AP69"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>121</v>
       </c>
@@ -3461,7 +3465,7 @@
       <c r="AO70"/>
       <c r="AP70"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>122</v>
       </c>
@@ -3511,7 +3515,7 @@
       <c r="AO71"/>
       <c r="AP71"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>123</v>
       </c>
@@ -3561,7 +3565,7 @@
       <c r="AO72"/>
       <c r="AP72"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>124</v>
       </c>
@@ -3611,14 +3615,14 @@
       <c r="AO73" s="26"/>
       <c r="AP73" s="26"/>
     </row>
-    <row r="74" spans="1:42" s="37" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:42" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A74" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="51"/>
       <c r="D74" s="38"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>125</v>
       </c>
@@ -3637,7 +3641,7 @@
       <c r="J75" s="16"/>
       <c r="K75" s="16"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>126</v>
       </c>
@@ -3656,7 +3660,7 @@
       <c r="Q76" s="16"/>
       <c r="R76" s="16"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>127</v>
       </c>
@@ -3676,7 +3680,7 @@
       <c r="R77" s="16"/>
       <c r="S77" s="15"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>128</v>
       </c>
@@ -3692,7 +3696,7 @@
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>129</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="AA79" s="15"/>
       <c r="AB79" s="15"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>130</v>
       </c>
@@ -3728,7 +3732,7 @@
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>131</v>
       </c>
@@ -3745,7 +3749,7 @@
       <c r="AF81" s="15"/>
       <c r="AG81" s="15"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>132</v>
       </c>
@@ -3763,7 +3767,7 @@
       <c r="AL82" s="15"/>
       <c r="AM82" s="15"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>133</v>
       </c>
@@ -3779,7 +3783,7 @@
       <c r="AN83" s="15"/>
       <c r="AO83" s="15"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>134</v>
       </c>
@@ -3797,7 +3801,7 @@
       <c r="AT84" s="15"/>
       <c r="AU84" s="15"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>135</v>
       </c>
@@ -3812,14 +3816,14 @@
       <c r="AW85" s="15"/>
       <c r="AX85" s="15"/>
     </row>
-    <row r="86" spans="1:50" s="37" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:50" s="37" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A86" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="36"/>
       <c r="D86" s="38"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>136</v>
       </c>
@@ -3869,7 +3873,7 @@
       <c r="AO87"/>
       <c r="AP87"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>137</v>
       </c>
@@ -3919,7 +3923,7 @@
       <c r="AO88"/>
       <c r="AP88"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>138</v>
       </c>
@@ -3969,7 +3973,7 @@
       <c r="AO89"/>
       <c r="AP89"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>139</v>
       </c>
@@ -4019,7 +4023,7 @@
       <c r="AO90"/>
       <c r="AP90"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>140</v>
       </c>
@@ -4069,7 +4073,7 @@
       <c r="AO91"/>
       <c r="AP91"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>141</v>
       </c>
@@ -4119,7 +4123,7 @@
       <c r="AO92"/>
       <c r="AP92"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>142</v>
       </c>
@@ -4169,7 +4173,7 @@
       <c r="AO93"/>
       <c r="AP93"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>143</v>
       </c>
@@ -4221,7 +4225,7 @@
       <c r="AO94"/>
       <c r="AP94"/>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>144</v>
       </c>
@@ -4273,7 +4277,7 @@
       <c r="AO95"/>
       <c r="AP95"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>145</v>
       </c>
@@ -4323,7 +4327,7 @@
       <c r="AO96"/>
       <c r="AP96"/>
     </row>
-    <row r="97" spans="1:2498" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>146</v>
       </c>
@@ -4373,7 +4377,7 @@
       <c r="AO97"/>
       <c r="AP97"/>
     </row>
-    <row r="98" spans="1:2498" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
         <v>147</v>
       </c>
@@ -4423,7 +4427,7 @@
       <c r="AO98"/>
       <c r="AP98"/>
     </row>
-    <row r="99" spans="1:2498" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>148</v>
       </c>
@@ -4473,7 +4477,7 @@
       <c r="AO99"/>
       <c r="AP99"/>
     </row>
-    <row r="100" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:2498" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
         <v>149</v>
       </c>
@@ -4523,7 +4527,7 @@
       <c r="AO100" s="26"/>
       <c r="AP100" s="26"/>
     </row>
-    <row r="101" spans="1:2498" s="41" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:2498" s="41" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A101" s="35" t="s">
         <v>6</v>
       </c>
@@ -7025,7 +7029,7 @@
       <c r="CRA101" s="37"/>
       <c r="CRB101" s="37"/>
     </row>
-    <row r="102" spans="1:2498" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A102" s="45" t="s">
         <v>150</v>
       </c>
@@ -7039,7 +7043,7 @@
       <c r="E102" s="32"/>
       <c r="F102" s="32"/>
     </row>
-    <row r="103" spans="1:2498" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A103" s="45" t="s">
         <v>151</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="J103" s="32"/>
       <c r="K103" s="32"/>
     </row>
-    <row r="104" spans="1:2498" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A104" s="45" t="s">
         <v>152</v>
       </c>
@@ -7073,7 +7077,7 @@
       <c r="J104" s="32"/>
       <c r="K104" s="32"/>
     </row>
-    <row r="105" spans="1:2498" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A105" s="45" t="s">
         <v>153</v>
       </c>
@@ -7090,12 +7094,12 @@
       <c r="J105" s="32"/>
       <c r="K105" s="32"/>
     </row>
-    <row r="106" spans="1:2498" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A106" s="45" t="s">
         <v>154</v>
       </c>
       <c r="B106" s="30">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C106" s="30">
         <v>1</v>
@@ -7107,8 +7111,15 @@
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
       <c r="L106" s="16"/>
-    </row>
-    <row r="107" spans="1:2498" x14ac:dyDescent="0.65">
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="16"/>
+    </row>
+    <row r="107" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A107" s="45" t="s">
         <v>167</v>
       </c>
@@ -7119,13 +7130,18 @@
         <v>50</v>
       </c>
       <c r="D107" s="14"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="15"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-    </row>
-    <row r="108" spans="1:2498" x14ac:dyDescent="0.65">
+      <c r="M107" s="85"/>
+      <c r="N107" s="85"/>
+      <c r="O107" s="85"/>
+      <c r="P107" s="85"/>
+      <c r="Q107" s="85"/>
+      <c r="T107" s="15"/>
+      <c r="U107" s="15"/>
+      <c r="V107" s="15"/>
+      <c r="W107" s="15"/>
+      <c r="X107" s="15"/>
+    </row>
+    <row r="108" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A108" s="45" t="s">
         <v>155</v>
       </c>
@@ -7136,29 +7152,45 @@
         <v>6</v>
       </c>
       <c r="D108" s="14"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
-      <c r="T108" s="15"/>
-      <c r="U108" s="15"/>
-      <c r="V108" s="15"/>
-    </row>
-    <row r="109" spans="1:2498" x14ac:dyDescent="0.65">
+      <c r="M108" s="86"/>
+      <c r="N108" s="86"/>
+      <c r="O108" s="86"/>
+      <c r="P108" s="86"/>
+      <c r="Q108" s="86"/>
+      <c r="R108" s="84"/>
+      <c r="S108" s="84"/>
+      <c r="T108" s="84"/>
+      <c r="U108" s="84"/>
+      <c r="V108" s="84"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="15"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="15"/>
+    </row>
+    <row r="109" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A109" s="45" t="s">
         <v>156</v>
       </c>
       <c r="B109" s="30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C109" s="30">
         <v>6</v>
       </c>
       <c r="D109" s="14"/>
-      <c r="W109" s="15"/>
-      <c r="X109" s="15"/>
-      <c r="Y109" s="15"/>
-      <c r="Z109" s="15"/>
-    </row>
-    <row r="110" spans="1:2498" x14ac:dyDescent="0.65">
+      <c r="W109" s="84"/>
+      <c r="X109" s="84"/>
+      <c r="Y109" s="84"/>
+      <c r="Z109" s="84"/>
+      <c r="AD109" s="15"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+    </row>
+    <row r="110" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A110" s="45" t="s">
         <v>157</v>
       </c>
@@ -7169,14 +7201,20 @@
         <v>51</v>
       </c>
       <c r="D110" s="14"/>
-      <c r="AA110" s="15"/>
-      <c r="AB110" s="15"/>
-      <c r="AC110" s="15"/>
-      <c r="AD110" s="15"/>
-      <c r="AE110" s="15"/>
-      <c r="AF110" s="15"/>
-    </row>
-    <row r="111" spans="1:2498" s="41" customFormat="1" x14ac:dyDescent="0.65">
+      <c r="AA110" s="84"/>
+      <c r="AB110" s="84"/>
+      <c r="AC110" s="84"/>
+      <c r="AD110" s="84"/>
+      <c r="AE110" s="84"/>
+      <c r="AF110" s="84"/>
+      <c r="AJ110" s="15"/>
+      <c r="AK110" s="15"/>
+      <c r="AL110" s="15"/>
+      <c r="AM110" s="15"/>
+      <c r="AN110" s="15"/>
+      <c r="AO110" s="15"/>
+    </row>
+    <row r="111" spans="1:2498" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="47" t="s">
         <v>158</v>
       </c>
@@ -7187,10 +7225,14 @@
         <v>9</v>
       </c>
       <c r="D111" s="49"/>
-      <c r="AG111" s="50"/>
-      <c r="AH111" s="50"/>
-      <c r="AI111" s="50"/>
-      <c r="AJ111" s="50"/>
+      <c r="AG111" s="83"/>
+      <c r="AH111" s="83"/>
+      <c r="AI111" s="83"/>
+      <c r="AJ111" s="83"/>
+      <c r="AP111" s="50"/>
+      <c r="AQ111" s="50"/>
+      <c r="AR111" s="50"/>
+      <c r="AS111" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7209,41 +7251,41 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="77" t="s">
         <v>18</v>
       </c>
@@ -7275,217 +7317,217 @@
       <c r="R3" s="77"/>
       <c r="S3" s="77"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="77"/>
       <c r="L14" s="77"/>
       <c r="M14" s="77"/>
@@ -7496,7 +7538,7 @@
       <c r="R14" s="77"/>
       <c r="S14" s="77"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -7511,12 +7553,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -7529,12 +7571,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7546,7 +7588,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/252328c91043836d/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{F154A668-4499-40DB-9C61-ABFFA038B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F0B5A1-8E35-4465-8BC2-B174E7517F94}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{F154A668-4499-40DB-9C61-ABFFA038B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{759806D6-E4D5-457B-97B8-7961D89361B6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" activeTab="3" xr2:uid="{6C77CEAA-6C20-4875-8E69-F182CEDC365C}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="180">
   <si>
     <t>Cory Clairmont</t>
   </si>
@@ -543,17 +543,52 @@
   </si>
   <si>
     <t>6. UI Animations, Effects, Graphics</t>
+  </si>
+  <si>
+    <t>First Meeting</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Andrew S</t>
+  </si>
+  <si>
+    <t>Nihat K</t>
+  </si>
+  <si>
+    <t>Jan. 24</t>
+  </si>
+  <si>
+    <t>Weekly Meeting</t>
+  </si>
+  <si>
+    <t>Jan. 27</t>
+  </si>
+  <si>
+    <t>Feb. 3</t>
+  </si>
+  <si>
+    <t>Feb. 10</t>
+  </si>
+  <si>
+    <t>SA Presentation Prep</t>
+  </si>
+  <si>
+    <t>Feb. 24</t>
+  </si>
+  <si>
+    <t>MVP Prep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,8 +627,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,8 +695,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -789,11 +842,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -886,22 +976,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,16 +1021,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -940,23 +1036,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -967,16 +1060,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A562B3B-3013-4879-ABBB-AEB80198B717}">
   <dimension ref="B2:AF22"/>
   <sheetViews>
-    <sheetView zoomScale="35" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,448 +1435,544 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="K2" s="60" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="K2" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="62"/>
-      <c r="S2" s="60" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+      <c r="S2" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="62"/>
-      <c r="AA2" s="60" t="s">
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="65"/>
+      <c r="AA2" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="65"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="K3" s="63" t="s">
+      <c r="H3" s="68"/>
+      <c r="K3" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="65"/>
-      <c r="S3" s="63" t="s">
+      <c r="P3" s="68"/>
+      <c r="S3" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64" t="s">
+      <c r="V3" s="67"/>
+      <c r="W3" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="AA3" s="63" t="s">
+      <c r="X3" s="68"/>
+      <c r="AA3" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64" t="s">
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64" t="s">
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="65"/>
+      <c r="AF3" s="68"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="C4" s="69">
+        <v>8200</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="70"/>
       <c r="J4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="69">
         <v>5200</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66" t="s">
+      <c r="N4" s="59"/>
+      <c r="O4" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="67"/>
+      <c r="P4" s="70"/>
       <c r="R4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="72"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="67"/>
+      <c r="S4" s="69">
+        <v>3000</v>
+      </c>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="X4" s="70"/>
       <c r="Z4" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="67"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="70"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="C5" s="69">
+        <v>10200</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="57"/>
       <c r="J5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="73">
+      <c r="K5" s="71">
         <v>7200</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55" t="s">
+      <c r="N5" s="56"/>
+      <c r="O5" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="P5" s="56"/>
+      <c r="P5" s="57"/>
       <c r="R5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="59"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="56"/>
+      <c r="S5" s="69">
+        <v>3000</v>
+      </c>
+      <c r="T5" s="59"/>
+      <c r="U5" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="X5" s="57"/>
       <c r="Z5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="56"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="57"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+      <c r="C6" s="69">
+        <v>8300</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="57"/>
       <c r="J6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="71">
         <v>5300</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55" t="s">
+      <c r="L6" s="56"/>
+      <c r="M6" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55" t="s">
+      <c r="N6" s="56"/>
+      <c r="O6" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="P6" s="56"/>
+      <c r="P6" s="57"/>
       <c r="R6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="59"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="56"/>
+      <c r="S6" s="69">
+        <v>3000</v>
+      </c>
+      <c r="T6" s="59"/>
+      <c r="U6" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="X6" s="57"/>
       <c r="Z6" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="56"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="57"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="C7" s="69">
+        <v>9000</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="57"/>
       <c r="J7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="71">
         <v>6000</v>
       </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55" t="s">
+      <c r="L7" s="56"/>
+      <c r="M7" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55" t="s">
+      <c r="N7" s="56"/>
+      <c r="O7" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="56"/>
+      <c r="P7" s="57"/>
       <c r="R7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="59"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
+      <c r="S7" s="69">
+        <v>3000</v>
+      </c>
+      <c r="T7" s="59"/>
+      <c r="U7" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="X7" s="57"/>
       <c r="Z7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="56"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="57"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+      <c r="C8" s="69">
+        <v>9300</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="57"/>
       <c r="J8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="71">
         <v>6300</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55" t="s">
+      <c r="L8" s="56"/>
+      <c r="M8" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55" t="s">
+      <c r="N8" s="56"/>
+      <c r="O8" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="P8" s="56"/>
+      <c r="P8" s="57"/>
       <c r="R8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="59"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56"/>
+      <c r="S8" s="69">
+        <v>3000</v>
+      </c>
+      <c r="T8" s="59"/>
+      <c r="U8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="X8" s="57"/>
       <c r="Z8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="56"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="57"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+      <c r="C9" s="69">
+        <v>8500</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="57"/>
       <c r="J9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="71">
         <v>5500</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55" t="s">
+      <c r="L9" s="56"/>
+      <c r="M9" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="P9" s="56"/>
+      <c r="P9" s="57"/>
       <c r="R9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="59"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
+      <c r="S9" s="69">
+        <v>3000</v>
+      </c>
+      <c r="T9" s="59"/>
+      <c r="U9" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="X9" s="57"/>
       <c r="Z9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="56"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="57"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
+      <c r="C10" s="69">
+        <v>7700</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="62"/>
       <c r="J10" s="24" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="74">
         <v>4700</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57" t="s">
+      <c r="L10" s="61"/>
+      <c r="M10" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57" t="s">
+      <c r="N10" s="61"/>
+      <c r="O10" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="P10" s="58"/>
+      <c r="P10" s="62"/>
       <c r="R10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="S10" s="68"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
+      <c r="S10" s="69">
+        <v>3000</v>
+      </c>
+      <c r="T10" s="59"/>
+      <c r="U10" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="X10" s="62"/>
       <c r="Z10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="58"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="62"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="C11" s="69">
+        <v>5200</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="62"/>
       <c r="J11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="69">
-        <v>40200</v>
-      </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70" t="s">
+      <c r="K11" s="74">
+        <v>42000</v>
+      </c>
+      <c r="L11" s="61"/>
+      <c r="M11" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70" t="s">
+      <c r="N11" s="72"/>
+      <c r="O11" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="P11" s="71"/>
+      <c r="P11" s="73"/>
       <c r="R11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
+      <c r="S11" s="69">
+        <v>21000</v>
+      </c>
+      <c r="T11" s="59"/>
+      <c r="U11" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="X11" s="62"/>
       <c r="Z11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="58"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="62"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I15" s="52"/>
@@ -1793,73 +2000,30 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
@@ -1884,30 +2048,73 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AC9:AD9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1917,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50249A2-2F05-400B-B05E-0C14F827A1C5}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AG111" sqref="AG111:AJ111"/>
     </sheetView>
   </sheetViews>
@@ -1956,10 +2163,10 @@
       </c>
     </row>
     <row r="2" spans="1:64" s="33" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="75"/>
       <c r="D2" s="34"/>
       <c r="E2" s="33">
         <v>1</v>
@@ -7130,11 +7337,6 @@
         <v>50</v>
       </c>
       <c r="D107" s="14"/>
-      <c r="M107" s="85"/>
-      <c r="N107" s="85"/>
-      <c r="O107" s="85"/>
-      <c r="P107" s="85"/>
-      <c r="Q107" s="85"/>
       <c r="T107" s="15"/>
       <c r="U107" s="15"/>
       <c r="V107" s="15"/>
@@ -7152,16 +7354,6 @@
         <v>6</v>
       </c>
       <c r="D108" s="14"/>
-      <c r="M108" s="86"/>
-      <c r="N108" s="86"/>
-      <c r="O108" s="86"/>
-      <c r="P108" s="86"/>
-      <c r="Q108" s="86"/>
-      <c r="R108" s="84"/>
-      <c r="S108" s="84"/>
-      <c r="T108" s="84"/>
-      <c r="U108" s="84"/>
-      <c r="V108" s="84"/>
       <c r="Y108" s="15"/>
       <c r="Z108" s="15"/>
       <c r="AA108" s="15"/>
@@ -7179,10 +7371,6 @@
         <v>6</v>
       </c>
       <c r="D109" s="14"/>
-      <c r="W109" s="84"/>
-      <c r="X109" s="84"/>
-      <c r="Y109" s="84"/>
-      <c r="Z109" s="84"/>
       <c r="AD109" s="15"/>
       <c r="AE109" s="15"/>
       <c r="AF109" s="15"/>
@@ -7201,12 +7389,6 @@
         <v>51</v>
       </c>
       <c r="D110" s="14"/>
-      <c r="AA110" s="84"/>
-      <c r="AB110" s="84"/>
-      <c r="AC110" s="84"/>
-      <c r="AD110" s="84"/>
-      <c r="AE110" s="84"/>
-      <c r="AF110" s="84"/>
       <c r="AJ110" s="15"/>
       <c r="AK110" s="15"/>
       <c r="AL110" s="15"/>
@@ -7225,10 +7407,6 @@
         <v>9</v>
       </c>
       <c r="D111" s="49"/>
-      <c r="AG111" s="83"/>
-      <c r="AH111" s="83"/>
-      <c r="AI111" s="83"/>
-      <c r="AJ111" s="83"/>
       <c r="AP111" s="50"/>
       <c r="AQ111" s="50"/>
       <c r="AR111" s="50"/>
@@ -7254,36 +7432,36 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82" t="s">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82" t="s">
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="77" t="s">
@@ -7318,216 +7496,216 @@
       <c r="S3" s="77"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="77"/>
       <c r="L14" s="77"/>
       <c r="M14" s="77"/>
@@ -7553,12 +7731,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B4:D13"/>
@@ -7571,12 +7749,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7584,12 +7762,301 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51242B0-8199-4649-98A5-8BB48574D175}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="83"/>
+      <c r="C2" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="91"/>
+    </row>
+    <row r="3" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="83"/>
+      <c r="C3" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="95">
+        <v>1</v>
+      </c>
+      <c r="D4" s="96">
+        <v>2</v>
+      </c>
+      <c r="E4" s="96">
+        <v>2</v>
+      </c>
+      <c r="F4" s="96">
+        <v>3</v>
+      </c>
+      <c r="G4" s="96">
+        <v>4</v>
+      </c>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="O7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="O8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="99">
+        <v>7</v>
+      </c>
+      <c r="D12" s="100">
+        <v>14</v>
+      </c>
+      <c r="E12" s="100">
+        <v>14</v>
+      </c>
+      <c r="F12" s="100">
+        <v>35</v>
+      </c>
+      <c r="G12" s="100">
+        <v>4</v>
+      </c>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amad6847\Documents\GitHub\CS383BrainstewGame#\383Game\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DD3803-488E-425B-BDDF-5DD4FF8FD80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EFEB6-BC69-234F-B622-F5F1D74BC570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,6 +689,18 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -873,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -938,9 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -993,40 +1002,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1047,19 +1024,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,168 +1345,168 @@
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="87" t="s">
+    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="K2" s="87" t="s">
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="K2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="S2" s="87" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="S2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="AA2" s="87" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="AA2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-    </row>
-    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="88" t="s">
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+    </row>
+    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="K3" s="88" t="s">
+      <c r="H3" s="79"/>
+      <c r="K3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="90" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="S3" s="88" t="s">
+      <c r="P3" s="79"/>
+      <c r="S3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="88"/>
-      <c r="U3" s="89" t="s">
+      <c r="T3" s="77"/>
+      <c r="U3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="89"/>
-      <c r="W3" s="90" t="s">
+      <c r="V3" s="78"/>
+      <c r="W3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="90"/>
-      <c r="AA3" s="88" t="s">
+      <c r="X3" s="79"/>
+      <c r="AA3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="89" t="s">
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="90" t="s">
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="90"/>
-    </row>
-    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF3" s="79"/>
+    </row>
+    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="73">
         <v>8200</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="85" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="86"/>
+      <c r="H4" s="75"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="77">
+      <c r="K4" s="73">
         <v>5200</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86" t="s">
+      <c r="N4" s="74"/>
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="86"/>
+      <c r="P4" s="75"/>
       <c r="R4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="77">
+      <c r="S4" s="73">
         <v>3000</v>
       </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="85" t="s">
+      <c r="T4" s="73"/>
+      <c r="U4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="85"/>
-      <c r="W4" s="86" t="s">
+      <c r="V4" s="74"/>
+      <c r="W4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="86"/>
+      <c r="X4" s="75"/>
       <c r="Z4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-    </row>
-    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+    </row>
+    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="73">
         <v>10200</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="82" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="81"/>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1496,55 +1514,55 @@
         <v>7200</v>
       </c>
       <c r="L5" s="83"/>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="82" t="s">
+      <c r="N5" s="80"/>
+      <c r="O5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="82"/>
+      <c r="P5" s="81"/>
       <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="77">
+      <c r="S5" s="73">
         <v>3000</v>
       </c>
-      <c r="T5" s="77"/>
-      <c r="U5" s="73" t="s">
+      <c r="T5" s="73"/>
+      <c r="U5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="73"/>
-      <c r="W5" s="82" t="s">
+      <c r="V5" s="80"/>
+      <c r="W5" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="82"/>
+      <c r="X5" s="81"/>
       <c r="Z5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="81"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-    </row>
-    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+    </row>
+    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="73">
         <v>8300</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="73" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="82" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="81"/>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1552,55 +1570,55 @@
         <v>5300</v>
       </c>
       <c r="L6" s="83"/>
-      <c r="M6" s="73" t="s">
+      <c r="M6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="73"/>
-      <c r="O6" s="82" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="82"/>
+      <c r="P6" s="81"/>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="77">
+      <c r="S6" s="73">
         <v>3000</v>
       </c>
-      <c r="T6" s="77"/>
-      <c r="U6" s="73" t="s">
+      <c r="T6" s="73"/>
+      <c r="U6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="73"/>
-      <c r="W6" s="82" t="s">
+      <c r="V6" s="80"/>
+      <c r="W6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="82"/>
+      <c r="X6" s="81"/>
       <c r="Z6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-    </row>
-    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+    </row>
+    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="73">
         <v>9000</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="82" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="82"/>
+      <c r="H7" s="81"/>
       <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1608,55 +1626,55 @@
         <v>6000</v>
       </c>
       <c r="L7" s="83"/>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="82" t="s">
+      <c r="N7" s="80"/>
+      <c r="O7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="82"/>
+      <c r="P7" s="81"/>
       <c r="R7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="77">
+      <c r="S7" s="73">
         <v>3000</v>
       </c>
-      <c r="T7" s="77"/>
-      <c r="U7" s="73" t="s">
+      <c r="T7" s="73"/>
+      <c r="U7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="73"/>
-      <c r="W7" s="82" t="s">
+      <c r="V7" s="80"/>
+      <c r="W7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="82"/>
+      <c r="X7" s="81"/>
       <c r="Z7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-    </row>
-    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+    </row>
+    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="73">
         <v>9300</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="73" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="82" t="s">
+      <c r="F8" s="80"/>
+      <c r="G8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="81"/>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1664,55 +1682,55 @@
         <v>6300</v>
       </c>
       <c r="L8" s="83"/>
-      <c r="M8" s="73" t="s">
+      <c r="M8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="82" t="s">
+      <c r="N8" s="80"/>
+      <c r="O8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="82"/>
+      <c r="P8" s="81"/>
       <c r="R8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="77">
+      <c r="S8" s="73">
         <v>3000</v>
       </c>
-      <c r="T8" s="77"/>
-      <c r="U8" s="73" t="s">
+      <c r="T8" s="73"/>
+      <c r="U8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="73"/>
-      <c r="W8" s="82" t="s">
+      <c r="V8" s="80"/>
+      <c r="W8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="82"/>
+      <c r="X8" s="81"/>
       <c r="Z8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-    </row>
-    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+    </row>
+    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="73">
         <v>8500</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="73" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="82" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="82"/>
+      <c r="H9" s="81"/>
       <c r="J9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1720,204 +1738,257 @@
         <v>5500</v>
       </c>
       <c r="L9" s="83"/>
-      <c r="M9" s="73" t="s">
+      <c r="M9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="73"/>
-      <c r="O9" s="82" t="s">
+      <c r="N9" s="80"/>
+      <c r="O9" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="82"/>
+      <c r="P9" s="81"/>
       <c r="R9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="77">
+      <c r="S9" s="73">
         <v>3000</v>
       </c>
-      <c r="T9" s="77"/>
-      <c r="U9" s="73" t="s">
+      <c r="T9" s="73"/>
+      <c r="U9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="73"/>
-      <c r="W9" s="82" t="s">
+      <c r="V9" s="80"/>
+      <c r="W9" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="82"/>
+      <c r="X9" s="81"/>
       <c r="Z9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-    </row>
-    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+    </row>
+    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="73">
         <v>7700</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="75" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="76"/>
+      <c r="H10" s="86"/>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="78">
+      <c r="K10" s="88">
         <v>4700</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="75" t="s">
+      <c r="L10" s="88"/>
+      <c r="M10" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="75"/>
-      <c r="O10" s="76" t="s">
+      <c r="N10" s="85"/>
+      <c r="O10" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="76"/>
+      <c r="P10" s="86"/>
       <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="77">
+      <c r="S10" s="73">
         <v>3000</v>
       </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="75" t="s">
+      <c r="T10" s="73"/>
+      <c r="U10" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="75"/>
-      <c r="W10" s="76" t="s">
+      <c r="V10" s="85"/>
+      <c r="W10" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="76"/>
+      <c r="X10" s="86"/>
       <c r="Z10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-    </row>
-    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+    </row>
+    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="73">
         <v>5200</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76" t="s">
+      <c r="F11" s="85"/>
+      <c r="G11" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="76"/>
+      <c r="H11" s="86"/>
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="78">
+      <c r="K11" s="88">
         <v>42000</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79" t="s">
+      <c r="L11" s="88"/>
+      <c r="M11" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80" t="s">
+      <c r="N11" s="89"/>
+      <c r="O11" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="80"/>
+      <c r="P11" s="90"/>
       <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="77">
+      <c r="S11" s="73">
         <v>21000</v>
       </c>
-      <c r="T11" s="77"/>
-      <c r="U11" s="75" t="s">
+      <c r="T11" s="73"/>
+      <c r="U11" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="75"/>
-      <c r="W11" s="76" t="s">
+      <c r="V11" s="85"/>
+      <c r="W11" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="76"/>
+      <c r="X11" s="86"/>
       <c r="Z11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-    </row>
-    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-    </row>
-    <row r="15" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+    </row>
+    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+    </row>
+    <row r="15" spans="2:32" ht="15" x14ac:dyDescent="0.2">
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" ht="15" x14ac:dyDescent="0.2">
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
@@ -1942,78 +2013,25 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2024,21 +2042,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="8" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="7"/>
-    <col min="7" max="7" width="12.7109375" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="7"/>
+    <col min="1" max="1" width="45.5" style="7" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="7"/>
+    <col min="7" max="7" width="12.6640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
@@ -2061,7 +2079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" s="14" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
         <v>22</v>
       </c>
@@ -2248,7 +2266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2282,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
@@ -2278,7 +2296,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2294,7 +2312,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -2307,7 +2325,7 @@
       <c r="D6" s="18"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -2321,7 +2339,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
@@ -2335,7 +2353,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -2349,7 +2367,7 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
@@ -2363,7 +2381,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2379,7 +2397,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
@@ -2397,7 +2415,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
@@ -2412,7 +2430,7 @@
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -2426,7 +2444,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -2440,7 +2458,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
@@ -2454,7 +2472,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
@@ -2469,7 +2487,7 @@
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
@@ -2486,7 +2504,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>46</v>
       </c>
@@ -2502,7 +2520,7 @@
       <c r="AC19" s="24"/>
       <c r="AD19" s="24"/>
     </row>
-    <row r="20" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
@@ -2517,7 +2535,7 @@
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
     </row>
-    <row r="21" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -2531,14 +2549,14 @@
       <c r="AH21" s="24"/>
       <c r="AI21" s="24"/>
     </row>
-    <row r="22" spans="1:38" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" s="27" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="26"/>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -2552,7 +2570,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>52</v>
       </c>
@@ -2567,7 +2585,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>53</v>
       </c>
@@ -2583,7 +2601,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -2601,7 +2619,7 @@
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>55</v>
       </c>
@@ -2616,7 +2634,7 @@
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
     </row>
-    <row r="28" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>57</v>
       </c>
@@ -2629,7 +2647,7 @@
       <c r="D28" s="18"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>58</v>
       </c>
@@ -2646,7 +2664,7 @@
       <c r="Z29" s="22"/>
       <c r="AA29" s="22"/>
     </row>
-    <row r="30" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
@@ -2661,7 +2679,7 @@
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
     </row>
-    <row r="31" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
@@ -2679,7 +2697,7 @@
       <c r="AI31" s="24"/>
       <c r="AJ31" s="24"/>
     </row>
-    <row r="32" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>61</v>
       </c>
@@ -2693,7 +2711,7 @@
       <c r="AK32" s="24"/>
       <c r="AL32" s="24"/>
     </row>
-    <row r="33" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>62</v>
       </c>
@@ -2708,7 +2726,7 @@
       <c r="AC33" s="24"/>
       <c r="AD33" s="24"/>
     </row>
-    <row r="34" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>64</v>
       </c>
@@ -2724,7 +2742,7 @@
       <c r="AG34" s="24"/>
       <c r="AH34" s="24"/>
     </row>
-    <row r="35" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>65</v>
       </c>
@@ -2743,7 +2761,7 @@
       <c r="AR35" s="24"/>
       <c r="AS35" s="24"/>
     </row>
-    <row r="36" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>67</v>
       </c>
@@ -2757,7 +2775,7 @@
       <c r="AT36" s="24"/>
       <c r="AU36" s="24"/>
     </row>
-    <row r="37" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>68</v>
       </c>
@@ -2776,7 +2794,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
     </row>
-    <row r="38" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>69</v>
       </c>
@@ -2796,7 +2814,7 @@
       <c r="BB38" s="24"/>
       <c r="BC38" s="24"/>
     </row>
-    <row r="39" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>70</v>
       </c>
@@ -2814,14 +2832,14 @@
       <c r="BH39" s="24"/>
       <c r="BI39" s="24"/>
     </row>
-    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="26"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>72</v>
       </c>
@@ -2835,7 +2853,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>73</v>
       </c>
@@ -2849,7 +2867,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>74</v>
       </c>
@@ -2862,7 +2880,7 @@
       <c r="D43" s="30"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>75</v>
       </c>
@@ -2878,7 +2896,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>76</v>
       </c>
@@ -2894,7 +2912,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>78</v>
       </c>
@@ -2908,7 +2926,7 @@
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
     </row>
-    <row r="47" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>80</v>
       </c>
@@ -2924,7 +2942,7 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:61" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>81</v>
       </c>
@@ -2938,7 +2956,7 @@
       <c r="U48" s="24"/>
       <c r="V48" s="24"/>
     </row>
-    <row r="49" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>82</v>
       </c>
@@ -2952,7 +2970,7 @@
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>83</v>
       </c>
@@ -2965,7 +2983,7 @@
       <c r="D50" s="31"/>
       <c r="Y50" s="24"/>
     </row>
-    <row r="51" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>84</v>
       </c>
@@ -2981,7 +2999,7 @@
       <c r="AA51" s="24"/>
       <c r="AB51" s="24"/>
     </row>
-    <row r="52" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>85</v>
       </c>
@@ -2997,7 +3015,7 @@
       <c r="AE52" s="24"/>
       <c r="AF52" s="24"/>
     </row>
-    <row r="53" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>87</v>
       </c>
@@ -3011,7 +3029,7 @@
       <c r="AG53" s="24"/>
       <c r="AH53" s="24"/>
     </row>
-    <row r="54" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>89</v>
       </c>
@@ -3027,7 +3045,7 @@
       <c r="AI54" s="24"/>
       <c r="AJ54" s="24"/>
     </row>
-    <row r="55" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>90</v>
       </c>
@@ -3041,7 +3059,7 @@
       <c r="AK55" s="24"/>
       <c r="AL55" s="24"/>
     </row>
-    <row r="56" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>91</v>
       </c>
@@ -3055,7 +3073,7 @@
       <c r="AM56" s="24"/>
       <c r="AN56" s="24"/>
     </row>
-    <row r="57" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>92</v>
       </c>
@@ -3068,7 +3086,7 @@
       <c r="D57" s="31"/>
       <c r="AO57" s="24"/>
     </row>
-    <row r="58" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>93</v>
       </c>
@@ -3084,7 +3102,7 @@
       <c r="AR58" s="24"/>
       <c r="AS58" s="24"/>
     </row>
-    <row r="59" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>95</v>
       </c>
@@ -3098,7 +3116,7 @@
       <c r="AT59" s="24"/>
       <c r="AU59" s="24"/>
     </row>
-    <row r="60" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>97</v>
       </c>
@@ -3114,14 +3132,14 @@
       <c r="AV60" s="24"/>
       <c r="AW60" s="24"/>
     </row>
-    <row r="61" spans="1:49" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:49" s="27" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="26"/>
       <c r="D61" s="28"/>
     </row>
-    <row r="62" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>99</v>
       </c>
@@ -3137,7 +3155,7 @@
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
     </row>
-    <row r="63" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>100</v>
       </c>
@@ -3155,7 +3173,7 @@
       <c r="M63" s="33"/>
       <c r="N63" s="33"/>
     </row>
-    <row r="64" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>101</v>
       </c>
@@ -3175,7 +3193,7 @@
       <c r="O64" s="33"/>
       <c r="P64" s="33"/>
     </row>
-    <row r="65" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>102</v>
       </c>
@@ -3195,7 +3213,7 @@
       <c r="W65" s="34"/>
       <c r="X65" s="34"/>
     </row>
-    <row r="66" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>103</v>
       </c>
@@ -3211,7 +3229,7 @@
       <c r="S66" s="34"/>
       <c r="T66" s="34"/>
     </row>
-    <row r="67" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>105</v>
       </c>
@@ -3231,7 +3249,7 @@
       <c r="W67" s="34"/>
       <c r="X67" s="34"/>
     </row>
-    <row r="68" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>106</v>
       </c>
@@ -3247,7 +3265,7 @@
       <c r="AA68" s="34"/>
       <c r="AB68" s="34"/>
     </row>
-    <row r="69" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>108</v>
       </c>
@@ -3263,7 +3281,7 @@
       <c r="AA69" s="34"/>
       <c r="AB69" s="34"/>
     </row>
-    <row r="70" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>109</v>
       </c>
@@ -3278,7 +3296,7 @@
       <c r="AD70" s="34"/>
       <c r="AE70" s="34"/>
     </row>
-    <row r="71" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>110</v>
       </c>
@@ -3293,7 +3311,7 @@
       <c r="AG71" s="34"/>
       <c r="AH71" s="34"/>
     </row>
-    <row r="72" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>112</v>
       </c>
@@ -3309,7 +3327,7 @@
       <c r="AK72" s="34"/>
       <c r="AL72" s="34"/>
     </row>
-    <row r="73" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>113</v>
       </c>
@@ -3325,14 +3343,14 @@
       <c r="AO73" s="34"/>
       <c r="AP73" s="34"/>
     </row>
-    <row r="74" spans="1:42" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:42" s="27" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B74" s="35"/>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>115</v>
       </c>
@@ -3351,7 +3369,7 @@
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
     </row>
-    <row r="76" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>116</v>
       </c>
@@ -3370,7 +3388,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>117</v>
       </c>
@@ -3390,7 +3408,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="24"/>
     </row>
-    <row r="78" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>118</v>
       </c>
@@ -3406,7 +3424,7 @@
       <c r="U78" s="24"/>
       <c r="V78" s="24"/>
     </row>
-    <row r="79" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>120</v>
       </c>
@@ -3424,7 +3442,7 @@
       <c r="AA79" s="24"/>
       <c r="AB79" s="24"/>
     </row>
-    <row r="80" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>121</v>
       </c>
@@ -3442,7 +3460,7 @@
       <c r="AA80" s="24"/>
       <c r="AB80" s="24"/>
     </row>
-    <row r="81" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>122</v>
       </c>
@@ -3459,7 +3477,7 @@
       <c r="AF81" s="24"/>
       <c r="AG81" s="24"/>
     </row>
-    <row r="82" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>124</v>
       </c>
@@ -3477,7 +3495,7 @@
       <c r="AL82" s="24"/>
       <c r="AM82" s="24"/>
     </row>
-    <row r="83" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>125</v>
       </c>
@@ -3493,7 +3511,7 @@
       <c r="AN83" s="24"/>
       <c r="AO83" s="24"/>
     </row>
-    <row r="84" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>126</v>
       </c>
@@ -3511,7 +3529,7 @@
       <c r="AT84" s="24"/>
       <c r="AU84" s="24"/>
     </row>
-    <row r="85" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>128</v>
       </c>
@@ -3526,14 +3544,14 @@
       <c r="AW85" s="24"/>
       <c r="AX85" s="24"/>
     </row>
-    <row r="86" spans="1:50" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:50" s="27" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B86" s="26"/>
       <c r="D86" s="28"/>
     </row>
-    <row r="87" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>130</v>
       </c>
@@ -3568,7 +3586,7 @@
       <c r="Z87" s="38"/>
       <c r="AA87" s="38"/>
     </row>
-    <row r="88" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>131</v>
       </c>
@@ -3580,10 +3598,10 @@
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="38"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
+      <c r="F88" s="95"/>
+      <c r="G88" s="95"/>
+      <c r="H88" s="95"/>
+      <c r="I88" s="95"/>
       <c r="J88" s="38"/>
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
@@ -3603,7 +3621,7 @@
       <c r="Z88" s="38"/>
       <c r="AA88" s="38"/>
     </row>
-    <row r="89" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>132</v>
       </c>
@@ -3615,10 +3633,10 @@
       </c>
       <c r="D89" s="39"/>
       <c r="E89" s="38"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
+      <c r="F89" s="95"/>
+      <c r="G89" s="95"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="95"/>
       <c r="J89" s="38"/>
       <c r="K89" s="38"/>
       <c r="L89" s="38"/>
@@ -3638,7 +3656,7 @@
       <c r="Z89" s="38"/>
       <c r="AA89" s="38"/>
     </row>
-    <row r="90" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>133</v>
       </c>
@@ -3650,10 +3668,10 @@
       </c>
       <c r="D90" s="39"/>
       <c r="E90" s="38"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="95"/>
+      <c r="H90" s="95"/>
+      <c r="I90" s="95"/>
       <c r="J90" s="38"/>
       <c r="K90" s="38"/>
       <c r="L90" s="38"/>
@@ -3673,7 +3691,7 @@
       <c r="Z90" s="38"/>
       <c r="AA90" s="38"/>
     </row>
-    <row r="91" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>134</v>
       </c>
@@ -3683,20 +3701,20 @@
       <c r="C91" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="41"/>
+      <c r="D91" s="40"/>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="42"/>
-      <c r="O91" s="42"/>
-      <c r="P91" s="42"/>
-      <c r="Q91" s="42"/>
+      <c r="J91" s="96"/>
+      <c r="K91" s="96"/>
+      <c r="L91" s="96"/>
+      <c r="M91" s="96"/>
+      <c r="N91" s="96"/>
+      <c r="O91" s="96"/>
+      <c r="P91" s="96"/>
+      <c r="Q91" s="96"/>
       <c r="R91" s="38"/>
       <c r="S91" s="38"/>
       <c r="T91" s="38"/>
@@ -3708,7 +3726,7 @@
       <c r="Z91" s="38"/>
       <c r="AA91" s="38"/>
     </row>
-    <row r="92" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>136</v>
       </c>
@@ -3718,14 +3736,14 @@
       <c r="C92" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D92" s="41"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="I92" s="38"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
+      <c r="J92" s="96"/>
+      <c r="K92" s="96"/>
       <c r="L92" s="38"/>
       <c r="M92" s="38"/>
       <c r="N92" s="38"/>
@@ -3741,7 +3759,7 @@
       <c r="Z92" s="38"/>
       <c r="AA92" s="38"/>
     </row>
-    <row r="93" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>138</v>
       </c>
@@ -3751,7 +3769,7 @@
       <c r="C93" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D93" s="41"/>
+      <c r="D93" s="40"/>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -3765,8 +3783,8 @@
       <c r="O93" s="38"/>
       <c r="P93" s="38"/>
       <c r="Q93" s="38"/>
-      <c r="R93" s="42"/>
-      <c r="S93" s="42"/>
+      <c r="R93" s="97"/>
+      <c r="S93" s="97"/>
       <c r="V93" s="38"/>
       <c r="W93" s="38"/>
       <c r="X93" s="38"/>
@@ -3774,7 +3792,7 @@
       <c r="Z93" s="38"/>
       <c r="AA93" s="38"/>
     </row>
-    <row r="94" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>139</v>
       </c>
@@ -3784,7 +3802,7 @@
       <c r="C94" s="17">
         <v>7</v>
       </c>
-      <c r="D94" s="41"/>
+      <c r="D94" s="40"/>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -3802,14 +3820,14 @@
       <c r="Q94" s="38"/>
       <c r="R94" s="38"/>
       <c r="S94" s="38"/>
-      <c r="T94" s="42"/>
-      <c r="U94" s="42"/>
-      <c r="V94" s="42"/>
-      <c r="W94" s="42"/>
+      <c r="T94" s="41"/>
+      <c r="U94" s="41"/>
+      <c r="V94" s="41"/>
+      <c r="W94" s="41"/>
       <c r="Z94" s="38"/>
       <c r="AA94" s="38"/>
     </row>
-    <row r="95" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>141</v>
       </c>
@@ -3819,7 +3837,7 @@
       <c r="C95" s="17">
         <v>8</v>
       </c>
-      <c r="D95" s="41"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
       <c r="G95" s="38" t="s">
@@ -3841,10 +3859,10 @@
       <c r="U95" s="38"/>
       <c r="V95" s="38"/>
       <c r="W95" s="38"/>
-      <c r="X95" s="42"/>
-      <c r="Y95" s="42"/>
-    </row>
-    <row r="96" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="X95" s="41"/>
+      <c r="Y95" s="41"/>
+    </row>
+    <row r="96" spans="1:50" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>142</v>
       </c>
@@ -3854,11 +3872,11 @@
       <c r="C96" s="17">
         <v>0</v>
       </c>
-      <c r="D96" s="43"/>
+      <c r="D96" s="42"/>
       <c r="X96" s="34"/>
       <c r="Y96" s="34"/>
     </row>
-    <row r="97" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2498" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>143</v>
       </c>
@@ -3868,7 +3886,7 @@
       <c r="C97" s="17">
         <v>10</v>
       </c>
-      <c r="D97" s="43"/>
+      <c r="D97" s="42"/>
       <c r="Z97" s="34"/>
       <c r="AA97" s="34"/>
       <c r="AB97" s="34"/>
@@ -3880,7 +3898,7 @@
       <c r="AH97" s="34"/>
       <c r="AI97" s="34"/>
     </row>
-    <row r="98" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2498" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>144</v>
       </c>
@@ -3890,10 +3908,10 @@
       <c r="C98" s="17">
         <v>11</v>
       </c>
-      <c r="D98" s="43"/>
+      <c r="D98" s="42"/>
       <c r="AI98" s="34"/>
     </row>
-    <row r="99" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2498" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>145</v>
       </c>
@@ -3903,14 +3921,14 @@
       <c r="C99" s="17">
         <v>12</v>
       </c>
-      <c r="D99" s="43"/>
+      <c r="D99" s="42"/>
       <c r="AJ99" s="34"/>
       <c r="AK99" s="34"/>
       <c r="AL99" s="34"/>
       <c r="AM99" s="34"/>
       <c r="AN99" s="34"/>
     </row>
-    <row r="100" spans="1:2498" s="44" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2498" s="43" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>146</v>
       </c>
@@ -3920,11 +3938,11 @@
       <c r="C100" s="17">
         <v>13</v>
       </c>
-      <c r="D100" s="43"/>
+      <c r="D100" s="42"/>
       <c r="AO100" s="34"/>
       <c r="AP100" s="34"/>
     </row>
-    <row r="101" spans="1:2498" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2498" s="44" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A101" s="25" t="s">
         <v>147</v>
       </c>
@@ -6426,28 +6444,28 @@
       <c r="CRA101" s="27"/>
       <c r="CRB101" s="27"/>
     </row>
-    <row r="102" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="46" t="s">
+    <row r="102" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A102" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="47">
+      <c r="B102" s="46">
         <v>2</v>
       </c>
-      <c r="C102" s="47" t="s">
+      <c r="C102" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="46" t="s">
+    <row r="103" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A103" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="B103" s="47">
+      <c r="B103" s="46">
         <v>5</v>
       </c>
-      <c r="C103" s="47">
+      <c r="C103" s="46">
         <v>1</v>
       </c>
       <c r="D103" s="29"/>
@@ -6457,14 +6475,14 @@
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
     </row>
-    <row r="104" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="46" t="s">
+    <row r="104" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A104" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="47">
+      <c r="B104" s="46">
         <v>5</v>
       </c>
-      <c r="C104" s="47">
+      <c r="C104" s="46">
         <v>1</v>
       </c>
       <c r="D104" s="29"/>
@@ -6474,14 +6492,14 @@
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="46" t="s">
+    <row r="105" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A105" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="B105" s="47">
+      <c r="B105" s="46">
         <v>5</v>
       </c>
-      <c r="C105" s="47">
+      <c r="C105" s="46">
         <v>1</v>
       </c>
       <c r="D105" s="29"/>
@@ -6491,23 +6509,23 @@
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
     </row>
-    <row r="106" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="46" t="s">
+    <row r="106" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A106" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B106" s="47">
+      <c r="B106" s="46">
         <v>15</v>
       </c>
-      <c r="C106" s="47">
+      <c r="C106" s="46">
         <v>1</v>
       </c>
       <c r="D106" s="30"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="95"/>
-      <c r="I106" s="95"/>
-      <c r="J106" s="95"/>
-      <c r="K106" s="95"/>
-      <c r="L106" s="95"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
+      <c r="K106" s="72"/>
+      <c r="L106" s="72"/>
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
@@ -6516,14 +6534,14 @@
       <c r="R106" s="22"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="46" t="s">
+    <row r="107" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A107" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B107" s="47">
+      <c r="B107" s="46">
         <v>5</v>
       </c>
-      <c r="C107" s="47" t="s">
+      <c r="C107" s="46" t="s">
         <v>154</v>
       </c>
       <c r="D107" s="31"/>
@@ -6533,14 +6551,14 @@
       <c r="W107" s="24"/>
       <c r="X107" s="24"/>
     </row>
-    <row r="108" spans="1:2498" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="46" t="s">
+    <row r="108" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A108" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B108" s="47">
+      <c r="B108" s="46">
         <v>5</v>
       </c>
-      <c r="C108" s="47">
+      <c r="C108" s="46">
         <v>6</v>
       </c>
       <c r="D108" s="31"/>
@@ -6550,14 +6568,14 @@
       <c r="AB108" s="24"/>
       <c r="AC108" s="24"/>
     </row>
-    <row r="109" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="46" t="s">
+    <row r="109" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A109" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="B109" s="47">
+      <c r="B109" s="46">
         <v>6</v>
       </c>
-      <c r="C109" s="47">
+      <c r="C109" s="46">
         <v>6</v>
       </c>
       <c r="D109" s="31"/>
@@ -6568,14 +6586,14 @@
       <c r="AH109" s="24"/>
       <c r="AI109" s="24"/>
     </row>
-    <row r="110" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="46" t="s">
+    <row r="110" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
+      <c r="A110" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B110" s="47">
+      <c r="B110" s="46">
         <v>6</v>
       </c>
-      <c r="C110" s="47" t="s">
+      <c r="C110" s="46" t="s">
         <v>158</v>
       </c>
       <c r="D110" s="31"/>
@@ -6586,21 +6604,21 @@
       <c r="AN110" s="24"/>
       <c r="AO110" s="24"/>
     </row>
-    <row r="111" spans="1:2498" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="48" t="s">
+    <row r="111" spans="1:2498" s="44" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A111" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B111" s="49">
+      <c r="B111" s="48">
         <v>4</v>
       </c>
-      <c r="C111" s="49">
+      <c r="C111" s="48">
         <v>9</v>
       </c>
-      <c r="D111" s="50"/>
-      <c r="AP111" s="51"/>
-      <c r="AQ111" s="51"/>
-      <c r="AR111" s="51"/>
-      <c r="AS111" s="51"/>
+      <c r="D111" s="49"/>
+      <c r="AP111" s="50"/>
+      <c r="AQ111" s="50"/>
+      <c r="AR111" s="50"/>
+      <c r="AS111" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6619,41 +6637,41 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94" t="s">
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94" t="s">
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94" t="s">
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-    </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="93" t="s">
         <v>166</v>
       </c>
@@ -6685,208 +6703,208 @@
       <c r="R3" s="93"/>
       <c r="S3" s="93"/>
     </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-    </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-    </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-    </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+    </row>
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+    </row>
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+    </row>
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
       <c r="B14" s="93"/>
       <c r="C14" s="93"/>
       <c r="D14" s="93"/>
@@ -6906,21 +6924,33 @@
       <c r="R14" s="93"/>
       <c r="S14" s="93"/>
     </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q4:S13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B4:D13"/>
+    <mergeCell ref="E4:G13"/>
+    <mergeCell ref="H4:J13"/>
+    <mergeCell ref="K4:M13"/>
+    <mergeCell ref="N4:P13"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -6933,18 +6963,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q4:S13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B4:D13"/>
-    <mergeCell ref="E4:G13"/>
-    <mergeCell ref="H4:J13"/>
-    <mergeCell ref="K4:M13"/>
-    <mergeCell ref="N4:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6959,84 +6977,84 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+    <row r="2" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-    </row>
-    <row r="3" spans="2:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="55"/>
-      <c r="C3" s="59" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="2:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="B3" s="54"/>
+      <c r="C3" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
-    </row>
-    <row r="4" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="61">
         <v>1</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="62">
         <v>2</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="62">
         <v>2</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="62">
         <v>3</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <v>4</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
-    </row>
-    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="64" t="s">
         <v>7</v>
       </c>
       <c r="C5">
@@ -7054,14 +7072,14 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-    </row>
-    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="66" t="s">
         <v>9</v>
       </c>
       <c r="C6">
@@ -7079,17 +7097,17 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
       <c r="O6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="66" t="s">
         <v>178</v>
       </c>
       <c r="C7">
@@ -7107,17 +7125,17 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
       <c r="O7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="67" t="s">
+    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="66" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -7135,17 +7153,17 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
       <c r="O8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="67" t="s">
+    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="66" t="s">
         <v>179</v>
       </c>
       <c r="C9">
@@ -7163,17 +7181,17 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+    <row r="10" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C10">
@@ -7191,14 +7209,14 @@
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C11">
@@ -7216,36 +7234,36 @@
       <c r="G11">
         <v>4</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-    </row>
-    <row r="12" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="69">
         <v>7</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="70">
         <v>14</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <v>14</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="70">
         <v>35</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="70">
         <v>4</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aneeshashrestha/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EFEB6-BC69-234F-B622-F5F1D74BC570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{B97EFEB6-BC69-234F-B622-F5F1D74BC570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4DD9EC-19B7-44CE-A9A1-CFA09F2FF91A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
     <sheet name="Gantt" sheetId="2" r:id="rId2"/>
     <sheet name="TL Deliverables" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Meetings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="182">
   <si>
     <t>Total</t>
   </si>
@@ -411,9 +411,6 @@
     <t>10. Debugging and testing</t>
   </si>
   <si>
-    <t>8, 9</t>
-  </si>
-  <si>
     <t>11. Installation and finalize</t>
   </si>
   <si>
@@ -568,13 +565,23 @@
   </si>
   <si>
     <t>Nihat K</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Mar. 24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);[Red]&quot;($&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -630,7 +637,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +708,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -885,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -957,7 +988,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1003,7 +1033,49 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1024,60 +1096,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,581 +1415,672 @@
   <dimension ref="B2:AF22"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="76" t="s">
+    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="K2" s="76" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="K2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="S2" s="76" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="S2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="AA2" s="76" t="s">
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="AA2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-    </row>
-    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="77" t="s">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+    </row>
+    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="K3" s="77" t="s">
+      <c r="H3" s="92"/>
+      <c r="K3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78" t="s">
+      <c r="L3" s="90"/>
+      <c r="M3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="79" t="s">
+      <c r="N3" s="91"/>
+      <c r="O3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="79"/>
-      <c r="S3" s="77" t="s">
+      <c r="P3" s="92"/>
+      <c r="S3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="78" t="s">
+      <c r="T3" s="90"/>
+      <c r="U3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="78"/>
-      <c r="W3" s="79" t="s">
+      <c r="V3" s="91"/>
+      <c r="W3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="79"/>
-      <c r="AA3" s="77" t="s">
+      <c r="X3" s="92"/>
+      <c r="AA3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="78" t="s">
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="79" t="s">
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="79"/>
-    </row>
-    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF3" s="92"/>
+    </row>
+    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="108">
         <v>8200</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="102">
+        <v>2500</v>
+      </c>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="88"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="79">
         <v>5200</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="102">
+        <v>1400</v>
+      </c>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="75"/>
+      <c r="P4" s="88"/>
       <c r="R4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="73">
+      <c r="S4" s="108">
         <v>3000</v>
       </c>
-      <c r="T4" s="73"/>
-      <c r="U4" s="74" t="s">
+      <c r="T4" s="108"/>
+      <c r="U4" s="102">
+        <v>1100</v>
+      </c>
+      <c r="V4" s="87"/>
+      <c r="W4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="74"/>
-      <c r="W4" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="75"/>
+      <c r="X4" s="88"/>
       <c r="Z4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-    </row>
-    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+    </row>
+    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="108">
         <v>10200</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="80" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="112">
+        <v>3100</v>
+      </c>
+      <c r="F5" s="106"/>
+      <c r="G5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="81"/>
+      <c r="H5" s="84"/>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="85">
         <v>7200</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="80" t="s">
+      <c r="L5" s="85"/>
+      <c r="M5" s="103">
+        <v>1900</v>
+      </c>
+      <c r="N5" s="75"/>
+      <c r="O5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="81"/>
+      <c r="P5" s="84"/>
       <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="73">
+      <c r="S5" s="108">
         <v>3000</v>
       </c>
-      <c r="T5" s="73"/>
-      <c r="U5" s="80" t="s">
+      <c r="T5" s="108"/>
+      <c r="U5" s="103">
+        <v>1200</v>
+      </c>
+      <c r="V5" s="75"/>
+      <c r="W5" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="80"/>
-      <c r="W5" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="X5" s="81"/>
+      <c r="X5" s="84"/>
       <c r="Z5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="81"/>
-    </row>
-    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+    </row>
+    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="108">
         <v>8300</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="80" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="112">
+        <v>1600</v>
+      </c>
+      <c r="F6" s="106"/>
+      <c r="G6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="81"/>
+      <c r="H6" s="84"/>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="83">
+      <c r="K6" s="85">
         <v>5300</v>
       </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="80" t="s">
+      <c r="L6" s="85"/>
+      <c r="M6" s="103">
+        <v>600</v>
+      </c>
+      <c r="N6" s="75"/>
+      <c r="O6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="81"/>
+      <c r="P6" s="84"/>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="73">
+      <c r="S6" s="108">
         <v>3000</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="80" t="s">
+      <c r="T6" s="108"/>
+      <c r="U6" s="103">
+        <v>1000</v>
+      </c>
+      <c r="V6" s="75"/>
+      <c r="W6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="80"/>
-      <c r="W6" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="X6" s="81"/>
+      <c r="X6" s="84"/>
       <c r="Z6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-    </row>
-    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+    </row>
+    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="108">
         <v>9000</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="80" t="s">
+      <c r="D7" s="108"/>
+      <c r="E7" s="112">
+        <v>1300</v>
+      </c>
+      <c r="F7" s="106"/>
+      <c r="G7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="84"/>
       <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="83">
+      <c r="K7" s="85">
         <v>6000</v>
       </c>
-      <c r="L7" s="83"/>
-      <c r="M7" s="80" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="103">
+        <v>400</v>
+      </c>
+      <c r="N7" s="75"/>
+      <c r="O7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="81"/>
+      <c r="P7" s="84"/>
       <c r="R7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="73">
+      <c r="S7" s="108">
         <v>3000</v>
       </c>
-      <c r="T7" s="73"/>
-      <c r="U7" s="80" t="s">
+      <c r="T7" s="108"/>
+      <c r="U7" s="103">
+        <v>900</v>
+      </c>
+      <c r="V7" s="75"/>
+      <c r="W7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="80"/>
-      <c r="W7" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="X7" s="81"/>
+      <c r="X7" s="84"/>
       <c r="Z7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-    </row>
-    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+    </row>
+    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="108">
         <v>9300</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="80" t="s">
+      <c r="D8" s="108"/>
+      <c r="E8" s="112">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="106"/>
+      <c r="G8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="84"/>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="83">
+      <c r="K8" s="85">
         <v>6300</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="80" t="s">
+      <c r="L8" s="85"/>
+      <c r="M8" s="103">
+        <v>600</v>
+      </c>
+      <c r="N8" s="75"/>
+      <c r="O8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="P8" s="81"/>
+      <c r="P8" s="84"/>
       <c r="R8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="73">
+      <c r="S8" s="108">
         <v>3000</v>
       </c>
-      <c r="T8" s="73"/>
-      <c r="U8" s="80" t="s">
+      <c r="T8" s="108"/>
+      <c r="U8" s="103">
+        <v>1300</v>
+      </c>
+      <c r="V8" s="75"/>
+      <c r="W8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="80"/>
-      <c r="W8" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="X8" s="81"/>
+      <c r="X8" s="84"/>
       <c r="Z8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-    </row>
-    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+    </row>
+    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="108">
         <v>8500</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="80" t="s">
+      <c r="D9" s="108"/>
+      <c r="E9" s="112">
+        <v>4400</v>
+      </c>
+      <c r="F9" s="106"/>
+      <c r="G9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="81"/>
+      <c r="H9" s="84"/>
       <c r="J9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="83">
+      <c r="K9" s="85">
         <v>5500</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="80" t="s">
+      <c r="L9" s="85"/>
+      <c r="M9" s="103">
+        <v>2200</v>
+      </c>
+      <c r="N9" s="75"/>
+      <c r="O9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="80"/>
-      <c r="O9" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="81"/>
+      <c r="P9" s="84"/>
       <c r="R9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="73">
+      <c r="S9" s="108">
         <v>3000</v>
       </c>
-      <c r="T9" s="73"/>
-      <c r="U9" s="80" t="s">
+      <c r="T9" s="108"/>
+      <c r="U9" s="103">
+        <v>1200</v>
+      </c>
+      <c r="V9" s="75"/>
+      <c r="W9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="80"/>
-      <c r="W9" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="81"/>
+      <c r="X9" s="84"/>
       <c r="Z9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="81"/>
-      <c r="AF9" s="81"/>
-    </row>
-    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+    </row>
+    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="73">
-        <v>7700</v>
-      </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="85" t="s">
+      <c r="C10" s="108">
+        <v>8800</v>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="112">
+        <v>3600</v>
+      </c>
+      <c r="F10" s="106"/>
+      <c r="G10" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="86"/>
+      <c r="H10" s="84"/>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="88">
-        <v>4700</v>
-      </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="85" t="s">
+      <c r="K10" s="80">
+        <v>5800</v>
+      </c>
+      <c r="L10" s="80"/>
+      <c r="M10" s="104">
+        <v>2300</v>
+      </c>
+      <c r="N10" s="77"/>
+      <c r="O10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="85"/>
-      <c r="O10" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="86"/>
+      <c r="P10" s="78"/>
       <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="73">
+      <c r="S10" s="108">
         <v>3000</v>
       </c>
-      <c r="T10" s="73"/>
-      <c r="U10" s="85" t="s">
+      <c r="T10" s="108"/>
+      <c r="U10" s="112">
+        <v>1300</v>
+      </c>
+      <c r="V10" s="106"/>
+      <c r="W10" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="85"/>
-      <c r="W10" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="86"/>
+      <c r="X10" s="84"/>
       <c r="Z10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-    </row>
-    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+    </row>
+    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="73">
-        <v>5200</v>
-      </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="85" t="s">
+      <c r="C11" s="107">
+        <v>62300</v>
+      </c>
+      <c r="D11" s="107"/>
+      <c r="E11" s="105">
+        <v>17400</v>
+      </c>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="86"/>
+      <c r="H11" s="82"/>
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="88">
-        <v>42000</v>
-      </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89" t="s">
+      <c r="K11" s="80">
+        <v>43100</v>
+      </c>
+      <c r="L11" s="80"/>
+      <c r="M11" s="105">
+        <v>9400</v>
+      </c>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="89"/>
-      <c r="O11" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="90"/>
+      <c r="P11" s="82"/>
       <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="73">
+      <c r="S11" s="107">
         <v>21000</v>
       </c>
-      <c r="T11" s="73"/>
-      <c r="U11" s="85" t="s">
+      <c r="T11" s="107"/>
+      <c r="U11" s="105">
+        <v>8000</v>
+      </c>
+      <c r="V11" s="81"/>
+      <c r="W11" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="85"/>
-      <c r="W11" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="86"/>
+      <c r="X11" s="82"/>
       <c r="Z11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-    </row>
-    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-    </row>
-    <row r="15" spans="2:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+    </row>
+    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+    </row>
+    <row r="15" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="9:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="9:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="9:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="9:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="9:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="9:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AC12:AD12"/>
@@ -1941,97 +2105,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2042,13 +2115,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R96" sqref="R96"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AU101" sqref="AU101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" style="7" customWidth="1"/>
     <col min="2" max="3" width="17.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
     <col min="5" max="6" width="8.6640625" style="7"/>
@@ -2056,7 +2129,7 @@
     <col min="8" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
@@ -2079,11 +2152,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="14" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:64" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="93"/>
       <c r="D2" s="15"/>
       <c r="E2" s="14">
         <v>1</v>
@@ -2266,7 +2339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -2282,7 +2355,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
@@ -2296,7 +2369,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2312,7 +2385,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -2325,7 +2398,7 @@
       <c r="D6" s="18"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -2339,7 +2412,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
@@ -2353,7 +2426,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -2367,7 +2440,7 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
@@ -2381,7 +2454,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2397,7 +2470,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
@@ -2415,7 +2488,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
@@ -2430,7 +2503,7 @@
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -2444,7 +2517,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -2458,7 +2531,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:64" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
@@ -2472,7 +2545,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
@@ -2487,7 +2560,7 @@
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
@@ -2504,7 +2577,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>46</v>
       </c>
@@ -2520,7 +2593,7 @@
       <c r="AC19" s="24"/>
       <c r="AD19" s="24"/>
     </row>
-    <row r="20" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
@@ -2535,7 +2608,7 @@
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
     </row>
-    <row r="21" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -2549,14 +2622,14 @@
       <c r="AH21" s="24"/>
       <c r="AI21" s="24"/>
     </row>
-    <row r="22" spans="1:38" s="27" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="26"/>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -2570,7 +2643,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>52</v>
       </c>
@@ -2585,7 +2658,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>53</v>
       </c>
@@ -2601,7 +2674,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -2619,7 +2692,7 @@
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>55</v>
       </c>
@@ -2634,7 +2707,7 @@
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
     </row>
-    <row r="28" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>57</v>
       </c>
@@ -2647,7 +2720,7 @@
       <c r="D28" s="18"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>58</v>
       </c>
@@ -2664,7 +2737,7 @@
       <c r="Z29" s="22"/>
       <c r="AA29" s="22"/>
     </row>
-    <row r="30" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
@@ -2679,7 +2752,7 @@
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
     </row>
-    <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
@@ -2697,7 +2770,7 @@
       <c r="AI31" s="24"/>
       <c r="AJ31" s="24"/>
     </row>
-    <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>61</v>
       </c>
@@ -2711,7 +2784,7 @@
       <c r="AK32" s="24"/>
       <c r="AL32" s="24"/>
     </row>
-    <row r="33" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>62</v>
       </c>
@@ -2726,7 +2799,7 @@
       <c r="AC33" s="24"/>
       <c r="AD33" s="24"/>
     </row>
-    <row r="34" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>64</v>
       </c>
@@ -2742,7 +2815,7 @@
       <c r="AG34" s="24"/>
       <c r="AH34" s="24"/>
     </row>
-    <row r="35" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>65</v>
       </c>
@@ -2761,7 +2834,7 @@
       <c r="AR35" s="24"/>
       <c r="AS35" s="24"/>
     </row>
-    <row r="36" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>67</v>
       </c>
@@ -2775,7 +2848,7 @@
       <c r="AT36" s="24"/>
       <c r="AU36" s="24"/>
     </row>
-    <row r="37" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>68</v>
       </c>
@@ -2794,7 +2867,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
     </row>
-    <row r="38" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>69</v>
       </c>
@@ -2814,7 +2887,7 @@
       <c r="BB38" s="24"/>
       <c r="BC38" s="24"/>
     </row>
-    <row r="39" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>70</v>
       </c>
@@ -2832,14 +2905,14 @@
       <c r="BH39" s="24"/>
       <c r="BI39" s="24"/>
     </row>
-    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="26"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>72</v>
       </c>
@@ -2853,7 +2926,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>73</v>
       </c>
@@ -2867,7 +2940,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>74</v>
       </c>
@@ -2880,7 +2953,7 @@
       <c r="D43" s="30"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>75</v>
       </c>
@@ -2896,7 +2969,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>76</v>
       </c>
@@ -2912,7 +2985,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>78</v>
       </c>
@@ -2926,7 +2999,7 @@
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
     </row>
-    <row r="47" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>80</v>
       </c>
@@ -2942,7 +3015,7 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>81</v>
       </c>
@@ -2956,7 +3029,7 @@
       <c r="U48" s="24"/>
       <c r="V48" s="24"/>
     </row>
-    <row r="49" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>82</v>
       </c>
@@ -2970,7 +3043,7 @@
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>83</v>
       </c>
@@ -2983,7 +3056,7 @@
       <c r="D50" s="31"/>
       <c r="Y50" s="24"/>
     </row>
-    <row r="51" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>84</v>
       </c>
@@ -2999,7 +3072,7 @@
       <c r="AA51" s="24"/>
       <c r="AB51" s="24"/>
     </row>
-    <row r="52" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>85</v>
       </c>
@@ -3015,7 +3088,7 @@
       <c r="AE52" s="24"/>
       <c r="AF52" s="24"/>
     </row>
-    <row r="53" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>87</v>
       </c>
@@ -3029,7 +3102,7 @@
       <c r="AG53" s="24"/>
       <c r="AH53" s="24"/>
     </row>
-    <row r="54" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>89</v>
       </c>
@@ -3045,7 +3118,7 @@
       <c r="AI54" s="24"/>
       <c r="AJ54" s="24"/>
     </row>
-    <row r="55" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>90</v>
       </c>
@@ -3059,7 +3132,7 @@
       <c r="AK55" s="24"/>
       <c r="AL55" s="24"/>
     </row>
-    <row r="56" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>91</v>
       </c>
@@ -3073,7 +3146,7 @@
       <c r="AM56" s="24"/>
       <c r="AN56" s="24"/>
     </row>
-    <row r="57" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>92</v>
       </c>
@@ -3086,7 +3159,7 @@
       <c r="D57" s="31"/>
       <c r="AO57" s="24"/>
     </row>
-    <row r="58" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>93</v>
       </c>
@@ -3102,7 +3175,7 @@
       <c r="AR58" s="24"/>
       <c r="AS58" s="24"/>
     </row>
-    <row r="59" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>95</v>
       </c>
@@ -3116,7 +3189,7 @@
       <c r="AT59" s="24"/>
       <c r="AU59" s="24"/>
     </row>
-    <row r="60" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>97</v>
       </c>
@@ -3132,14 +3205,14 @@
       <c r="AV60" s="24"/>
       <c r="AW60" s="24"/>
     </row>
-    <row r="61" spans="1:49" s="27" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="26"/>
       <c r="D61" s="28"/>
     </row>
-    <row r="62" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>99</v>
       </c>
@@ -3155,7 +3228,7 @@
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
     </row>
-    <row r="63" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>100</v>
       </c>
@@ -3173,7 +3246,7 @@
       <c r="M63" s="33"/>
       <c r="N63" s="33"/>
     </row>
-    <row r="64" spans="1:49" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>101</v>
       </c>
@@ -3193,7 +3266,7 @@
       <c r="O64" s="33"/>
       <c r="P64" s="33"/>
     </row>
-    <row r="65" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>102</v>
       </c>
@@ -3213,7 +3286,7 @@
       <c r="W65" s="34"/>
       <c r="X65" s="34"/>
     </row>
-    <row r="66" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>103</v>
       </c>
@@ -3229,7 +3302,7 @@
       <c r="S66" s="34"/>
       <c r="T66" s="34"/>
     </row>
-    <row r="67" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>105</v>
       </c>
@@ -3249,7 +3322,7 @@
       <c r="W67" s="34"/>
       <c r="X67" s="34"/>
     </row>
-    <row r="68" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>106</v>
       </c>
@@ -3265,7 +3338,7 @@
       <c r="AA68" s="34"/>
       <c r="AB68" s="34"/>
     </row>
-    <row r="69" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>108</v>
       </c>
@@ -3281,7 +3354,7 @@
       <c r="AA69" s="34"/>
       <c r="AB69" s="34"/>
     </row>
-    <row r="70" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>109</v>
       </c>
@@ -3296,7 +3369,7 @@
       <c r="AD70" s="34"/>
       <c r="AE70" s="34"/>
     </row>
-    <row r="71" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>110</v>
       </c>
@@ -3311,7 +3384,7 @@
       <c r="AG71" s="34"/>
       <c r="AH71" s="34"/>
     </row>
-    <row r="72" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>112</v>
       </c>
@@ -3327,7 +3400,7 @@
       <c r="AK72" s="34"/>
       <c r="AL72" s="34"/>
     </row>
-    <row r="73" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>113</v>
       </c>
@@ -3343,14 +3416,14 @@
       <c r="AO73" s="34"/>
       <c r="AP73" s="34"/>
     </row>
-    <row r="74" spans="1:42" s="27" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:42" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A74" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B74" s="35"/>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>115</v>
       </c>
@@ -3361,15 +3434,15 @@
         <v>24</v>
       </c>
       <c r="D75" s="30"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
     </row>
-    <row r="76" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
         <v>116</v>
       </c>
@@ -3388,7 +3461,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
         <v>117</v>
       </c>
@@ -3408,7 +3481,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="24"/>
     </row>
-    <row r="78" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
         <v>118</v>
       </c>
@@ -3424,7 +3497,7 @@
       <c r="U78" s="24"/>
       <c r="V78" s="24"/>
     </row>
-    <row r="79" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
         <v>120</v>
       </c>
@@ -3442,7 +3515,7 @@
       <c r="AA79" s="24"/>
       <c r="AB79" s="24"/>
     </row>
-    <row r="80" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
         <v>121</v>
       </c>
@@ -3460,7 +3533,7 @@
       <c r="AA80" s="24"/>
       <c r="AB80" s="24"/>
     </row>
-    <row r="81" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>122</v>
       </c>
@@ -3477,7 +3550,7 @@
       <c r="AF81" s="24"/>
       <c r="AG81" s="24"/>
     </row>
-    <row r="82" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
         <v>124</v>
       </c>
@@ -3495,7 +3568,7 @@
       <c r="AL82" s="24"/>
       <c r="AM82" s="24"/>
     </row>
-    <row r="83" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>125</v>
       </c>
@@ -3511,7 +3584,7 @@
       <c r="AN83" s="24"/>
       <c r="AO83" s="24"/>
     </row>
-    <row r="84" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
         <v>126</v>
       </c>
@@ -3519,41 +3592,92 @@
         <v>6</v>
       </c>
       <c r="C84" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="31"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="97"/>
+      <c r="K84" s="97"/>
+      <c r="L84" s="97"/>
+      <c r="M84" s="97"/>
+      <c r="N84" s="97"/>
+      <c r="O84" s="97"/>
+      <c r="P84" s="97"/>
+      <c r="Q84" s="97"/>
+      <c r="R84" s="97"/>
+      <c r="S84" s="101"/>
+      <c r="T84" s="101"/>
+      <c r="U84" s="101"/>
+      <c r="V84" s="101"/>
+      <c r="W84" s="101"/>
+      <c r="X84" s="101"/>
+      <c r="Y84" s="101"/>
+      <c r="Z84" s="101"/>
+      <c r="AA84" s="101"/>
+      <c r="AB84" s="101"/>
+      <c r="AC84" s="101"/>
+      <c r="AD84" s="101"/>
+      <c r="AE84" s="101"/>
+      <c r="AF84" s="101"/>
+      <c r="AG84" s="101"/>
+      <c r="AH84" s="101"/>
+      <c r="AI84" s="101"/>
+      <c r="AJ84" s="101"/>
+      <c r="AK84" s="101"/>
+      <c r="AL84" s="101"/>
+      <c r="AM84" s="101"/>
+      <c r="AN84" s="101"/>
+      <c r="AO84" s="101"/>
+      <c r="AP84" s="99"/>
+      <c r="AQ84" s="99"/>
+      <c r="AR84" s="99"/>
+      <c r="AS84" s="99"/>
+      <c r="AT84" s="99"/>
+      <c r="AU84" s="99"/>
+    </row>
+    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A85" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="D84" s="31"/>
-      <c r="AP84" s="24"/>
-      <c r="AQ84" s="24"/>
-      <c r="AR84" s="24"/>
-      <c r="AS84" s="24"/>
-      <c r="AT84" s="24"/>
-      <c r="AU84" s="24"/>
-    </row>
-    <row r="85" spans="1:50" ht="19" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="B85" s="17">
         <v>4</v>
       </c>
-      <c r="C85" s="17">
-        <v>10</v>
+      <c r="C85" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="D85" s="31"/>
-      <c r="AV85" s="24"/>
-      <c r="AW85" s="24"/>
-      <c r="AX85" s="24"/>
-    </row>
-    <row r="86" spans="1:50" s="27" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="H85" s="99"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="99"/>
+      <c r="K85" s="99"/>
+      <c r="L85" s="99"/>
+      <c r="M85" s="99"/>
+      <c r="N85" s="99"/>
+      <c r="O85" s="99"/>
+      <c r="P85" s="99"/>
+      <c r="Q85" s="99"/>
+      <c r="R85" s="99"/>
+      <c r="AP85" s="100"/>
+      <c r="AQ85" s="100"/>
+      <c r="AR85" s="100"/>
+      <c r="AV85" s="99"/>
+      <c r="AW85" s="99"/>
+      <c r="AX85" s="99"/>
+    </row>
+    <row r="86" spans="1:50" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A86" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" s="26"/>
       <c r="D86" s="28"/>
     </row>
-    <row r="87" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" s="17">
         <v>3</v>
@@ -3586,9 +3710,9 @@
       <c r="Z87" s="38"/>
       <c r="AA87" s="38"/>
     </row>
-    <row r="88" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B88" s="17">
         <v>4</v>
@@ -3598,10 +3722,10 @@
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="38"/>
-      <c r="F88" s="95"/>
-      <c r="G88" s="95"/>
-      <c r="H88" s="95"/>
-      <c r="I88" s="95"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="38"/>
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
@@ -3621,9 +3745,9 @@
       <c r="Z88" s="38"/>
       <c r="AA88" s="38"/>
     </row>
-    <row r="89" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B89" s="17">
         <v>4</v>
@@ -3633,10 +3757,10 @@
       </c>
       <c r="D89" s="39"/>
       <c r="E89" s="38"/>
-      <c r="F89" s="95"/>
-      <c r="G89" s="95"/>
-      <c r="H89" s="95"/>
-      <c r="I89" s="95"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="38"/>
       <c r="K89" s="38"/>
       <c r="L89" s="38"/>
@@ -3656,9 +3780,9 @@
       <c r="Z89" s="38"/>
       <c r="AA89" s="38"/>
     </row>
-    <row r="90" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90" s="17">
         <v>4</v>
@@ -3668,10 +3792,10 @@
       </c>
       <c r="D90" s="39"/>
       <c r="E90" s="38"/>
-      <c r="F90" s="95"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="95"/>
-      <c r="I90" s="95"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="38"/>
       <c r="K90" s="38"/>
       <c r="L90" s="38"/>
@@ -3691,15 +3815,15 @@
       <c r="Z90" s="38"/>
       <c r="AA90" s="38"/>
     </row>
-    <row r="91" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A91" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B91" s="17">
         <v>10</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="38"/>
@@ -3707,14 +3831,14 @@
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
-      <c r="J91" s="96"/>
-      <c r="K91" s="96"/>
-      <c r="L91" s="96"/>
-      <c r="M91" s="96"/>
-      <c r="N91" s="96"/>
-      <c r="O91" s="96"/>
-      <c r="P91" s="96"/>
-      <c r="Q91" s="96"/>
+      <c r="J91" s="73"/>
+      <c r="K91" s="73"/>
+      <c r="L91" s="73"/>
+      <c r="M91" s="73"/>
+      <c r="N91" s="73"/>
+      <c r="O91" s="73"/>
+      <c r="P91" s="73"/>
+      <c r="Q91" s="73"/>
       <c r="R91" s="38"/>
       <c r="S91" s="38"/>
       <c r="T91" s="38"/>
@@ -3726,15 +3850,15 @@
       <c r="Z91" s="38"/>
       <c r="AA91" s="38"/>
     </row>
-    <row r="92" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A92" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="17">
         <v>2</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="38"/>
@@ -3742,8 +3866,8 @@
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="I92" s="38"/>
-      <c r="J92" s="96"/>
-      <c r="K92" s="96"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="73"/>
       <c r="L92" s="38"/>
       <c r="M92" s="38"/>
       <c r="N92" s="38"/>
@@ -3759,9 +3883,9 @@
       <c r="Z92" s="38"/>
       <c r="AA92" s="38"/>
     </row>
-    <row r="93" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A93" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B93" s="17">
         <v>2</v>
@@ -3783,8 +3907,8 @@
       <c r="O93" s="38"/>
       <c r="P93" s="38"/>
       <c r="Q93" s="38"/>
-      <c r="R93" s="97"/>
-      <c r="S93" s="97"/>
+      <c r="R93" s="74"/>
+      <c r="S93" s="74"/>
       <c r="V93" s="38"/>
       <c r="W93" s="38"/>
       <c r="X93" s="38"/>
@@ -3792,9 +3916,9 @@
       <c r="Z93" s="38"/>
       <c r="AA93" s="38"/>
     </row>
-    <row r="94" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A94" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="17">
         <v>4</v>
@@ -3807,7 +3931,7 @@
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I94" s="38"/>
       <c r="J94" s="38"/>
@@ -3827,9 +3951,9 @@
       <c r="Z94" s="38"/>
       <c r="AA94" s="38"/>
     </row>
-    <row r="95" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A95" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B95" s="17">
         <v>2</v>
@@ -3841,7 +3965,7 @@
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
       <c r="G95" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H95" s="38"/>
       <c r="I95" s="38"/>
@@ -3862,9 +3986,9 @@
       <c r="X95" s="41"/>
       <c r="Y95" s="41"/>
     </row>
-    <row r="96" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A96" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B96" s="17">
         <v>2</v>
@@ -3876,9 +4000,9 @@
       <c r="X96" s="34"/>
       <c r="Y96" s="34"/>
     </row>
-    <row r="97" spans="1:2498" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A97" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="17">
         <v>10</v>
@@ -3898,9 +4022,9 @@
       <c r="AH97" s="34"/>
       <c r="AI97" s="34"/>
     </row>
-    <row r="98" spans="1:2498" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="17">
         <v>1</v>
@@ -3911,9 +4035,9 @@
       <c r="D98" s="42"/>
       <c r="AI98" s="34"/>
     </row>
-    <row r="99" spans="1:2498" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B99" s="17">
         <v>5</v>
@@ -3928,23 +4052,23 @@
       <c r="AM99" s="34"/>
       <c r="AN99" s="34"/>
     </row>
-    <row r="100" spans="1:2498" s="43" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:2498" s="99" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="113">
+        <v>2</v>
+      </c>
+      <c r="C100" s="113">
+        <v>13</v>
+      </c>
+      <c r="D100" s="114"/>
+      <c r="AO100" s="115"/>
+      <c r="AP100" s="115"/>
+    </row>
+    <row r="101" spans="1:2498" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A101" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="B100" s="17">
-        <v>2</v>
-      </c>
-      <c r="C100" s="17">
-        <v>13</v>
-      </c>
-      <c r="D100" s="42"/>
-      <c r="AO100" s="34"/>
-      <c r="AP100" s="34"/>
-    </row>
-    <row r="101" spans="1:2498" s="44" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A101" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="27"/>
@@ -6444,28 +6568,28 @@
       <c r="CRA101" s="27"/>
       <c r="CRB101" s="27"/>
     </row>
-    <row r="102" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A102" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B102" s="46">
+    <row r="102" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A102" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="45">
         <v>2</v>
       </c>
-      <c r="C102" s="46" t="s">
+      <c r="C102" s="45" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A103" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="46">
+    <row r="103" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A103" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" s="45">
         <v>5</v>
       </c>
-      <c r="C103" s="46">
+      <c r="C103" s="45">
         <v>1</v>
       </c>
       <c r="D103" s="29"/>
@@ -6475,14 +6599,14 @@
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
     </row>
-    <row r="104" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A104" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B104" s="46">
+    <row r="104" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A104" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="45">
         <v>5</v>
       </c>
-      <c r="C104" s="46">
+      <c r="C104" s="45">
         <v>1</v>
       </c>
       <c r="D104" s="29"/>
@@ -6492,14 +6616,14 @@
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B105" s="46">
+    <row r="105" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A105" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="45">
         <v>5</v>
       </c>
-      <c r="C105" s="46">
+      <c r="C105" s="45">
         <v>1</v>
       </c>
       <c r="D105" s="29"/>
@@ -6509,23 +6633,23 @@
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
     </row>
-    <row r="106" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A106" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B106" s="46">
+    <row r="106" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A106" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="45">
         <v>15</v>
       </c>
-      <c r="C106" s="46">
+      <c r="C106" s="45">
         <v>1</v>
       </c>
       <c r="D106" s="30"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="72"/>
-      <c r="L106" s="72"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="71"/>
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
@@ -6534,15 +6658,15 @@
       <c r="R106" s="22"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A107" s="45" t="s">
+    <row r="107" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A107" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" s="45">
+        <v>5</v>
+      </c>
+      <c r="C107" s="45" t="s">
         <v>153</v>
-      </c>
-      <c r="B107" s="46">
-        <v>5</v>
-      </c>
-      <c r="C107" s="46" t="s">
-        <v>154</v>
       </c>
       <c r="D107" s="31"/>
       <c r="T107" s="24"/>
@@ -6551,14 +6675,14 @@
       <c r="W107" s="24"/>
       <c r="X107" s="24"/>
     </row>
-    <row r="108" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A108" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="B108" s="46">
+    <row r="108" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A108" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" s="45">
         <v>5</v>
       </c>
-      <c r="C108" s="46">
+      <c r="C108" s="45">
         <v>6</v>
       </c>
       <c r="D108" s="31"/>
@@ -6568,14 +6692,14 @@
       <c r="AB108" s="24"/>
       <c r="AC108" s="24"/>
     </row>
-    <row r="109" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A109" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="B109" s="46">
+    <row r="109" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A109" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="45">
         <v>6</v>
       </c>
-      <c r="C109" s="46">
+      <c r="C109" s="45">
         <v>6</v>
       </c>
       <c r="D109" s="31"/>
@@ -6586,15 +6710,15 @@
       <c r="AH109" s="24"/>
       <c r="AI109" s="24"/>
     </row>
-    <row r="110" spans="1:2498" ht="20" x14ac:dyDescent="0.25">
-      <c r="A110" s="45" t="s">
+    <row r="110" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="A110" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="45">
+        <v>6</v>
+      </c>
+      <c r="C110" s="45" t="s">
         <v>157</v>
-      </c>
-      <c r="B110" s="46">
-        <v>6</v>
-      </c>
-      <c r="C110" s="46" t="s">
-        <v>158</v>
       </c>
       <c r="D110" s="31"/>
       <c r="AJ110" s="24"/>
@@ -6604,21 +6728,21 @@
       <c r="AN110" s="24"/>
       <c r="AO110" s="24"/>
     </row>
-    <row r="111" spans="1:2498" s="44" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A111" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B111" s="48">
+    <row r="111" spans="1:2498" s="43" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="47">
         <v>4</v>
       </c>
-      <c r="C111" s="48">
+      <c r="C111" s="47">
         <v>9</v>
       </c>
-      <c r="D111" s="49"/>
-      <c r="AP111" s="50"/>
-      <c r="AQ111" s="50"/>
-      <c r="AR111" s="50"/>
-      <c r="AS111" s="50"/>
+      <c r="D111" s="48"/>
+      <c r="AP111" s="49"/>
+      <c r="AQ111" s="49"/>
+      <c r="AR111" s="49"/>
+      <c r="AS111" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6634,76 +6758,76 @@
   <dimension ref="A2:S15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="92" t="s">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92" t="s">
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92" t="s">
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92" t="s">
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92" t="s">
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-    </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-    </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="94"/>
       <c r="C4" s="94"/>
       <c r="D4" s="94"/>
@@ -6723,7 +6847,7 @@
       <c r="R4" s="94"/>
       <c r="S4" s="94"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
@@ -6743,7 +6867,7 @@
       <c r="R5" s="94"/>
       <c r="S5" s="94"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
       <c r="D6" s="94"/>
@@ -6763,7 +6887,7 @@
       <c r="R6" s="94"/>
       <c r="S6" s="94"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="94"/>
       <c r="C7" s="94"/>
       <c r="D7" s="94"/>
@@ -6783,7 +6907,7 @@
       <c r="R7" s="94"/>
       <c r="S7" s="94"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="94"/>
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
@@ -6803,7 +6927,7 @@
       <c r="R8" s="94"/>
       <c r="S8" s="94"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="94"/>
@@ -6823,7 +6947,7 @@
       <c r="R9" s="94"/>
       <c r="S9" s="94"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="94"/>
@@ -6843,7 +6967,7 @@
       <c r="R10" s="94"/>
       <c r="S10" s="94"/>
     </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
       <c r="D11" s="94"/>
@@ -6863,7 +6987,7 @@
       <c r="R11" s="94"/>
       <c r="S11" s="94"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="94"/>
       <c r="C12" s="94"/>
       <c r="D12" s="94"/>
@@ -6883,7 +7007,7 @@
       <c r="R12" s="94"/>
       <c r="S12" s="94"/>
     </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="94"/>
       <c r="C13" s="94"/>
       <c r="D13" s="94"/>
@@ -6903,42 +7027,54 @@
       <c r="R13" s="94"/>
       <c r="S13" s="94"/>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
+    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+    </row>
+    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q4:S13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
@@ -6951,18 +7087,6 @@
     <mergeCell ref="H4:J13"/>
     <mergeCell ref="K4:M13"/>
     <mergeCell ref="N4:P13"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6974,87 +7098,93 @@
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+    <row r="2" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G2" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="H2" s="111" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="53"/>
+      <c r="C3" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
-    </row>
-    <row r="3" spans="2:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="B3" s="54"/>
-      <c r="C3" s="58" t="s">
+      <c r="D3" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="E3" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="H3" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-    </row>
-    <row r="4" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="61">
+      <c r="C4" s="60">
         <v>1</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="61">
         <v>2</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="61">
         <v>2</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="61">
         <v>3</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="61">
         <v>4</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
-    </row>
-    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="64" t="s">
+      <c r="H4" s="61">
+        <v>1</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C5">
@@ -7072,14 +7202,16 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-    </row>
-    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="66" t="s">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="65" t="s">
         <v>9</v>
       </c>
       <c r="C6">
@@ -7097,18 +7229,20 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="H6" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
       <c r="O6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="66" t="s">
-        <v>178</v>
+    <row r="7" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="65" t="s">
+        <v>177</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7125,17 +7259,19 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
+      <c r="H7" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="O7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="66" t="s">
+    <row r="8" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -7153,18 +7289,20 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="H8" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
       <c r="O8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="66" t="s">
-        <v>179</v>
+    <row r="9" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="65" t="s">
+        <v>178</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -7181,17 +7319,19 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="66" t="s">
+    <row r="10" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C10">
@@ -7209,14 +7349,16 @@
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="67" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+    </row>
+    <row r="11" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C11">
@@ -7234,36 +7376,40 @@
       <c r="G11">
         <v>4</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-    </row>
-    <row r="12" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="68" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+    </row>
+    <row r="12" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="68">
         <v>7</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="69">
         <v>14</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="69">
         <v>14</v>
       </c>
-      <c r="F12" s="70">
-        <v>35</v>
-      </c>
-      <c r="G12" s="70">
+      <c r="F12" s="69">
+        <v>21</v>
+      </c>
+      <c r="G12" s="69">
+        <v>20</v>
+      </c>
+      <c r="H12" s="69">
         <v>4</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{B97EFEB6-BC69-234F-B622-F5F1D74BC570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4DD9EC-19B7-44CE-A9A1-CFA09F2FF91A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FEBAE3-2AD1-4360-8558-1A30AAB88F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3087" yWindow="3093" windowWidth="19200" windowHeight="10074" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1042,40 +1042,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1096,61 +1081,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,597 +1412,650 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.64453125" customWidth="1"/>
+    <col min="17" max="17" width="10.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="89" t="s">
+    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="K2" s="89" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="K2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="S2" s="89" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="S2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="AA2" s="89" t="s">
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="AA2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-    </row>
-    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="90" t="s">
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+    </row>
+    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="89"/>
+      <c r="E3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="K3" s="90" t="s">
+      <c r="H3" s="91"/>
+      <c r="K3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91" t="s">
+      <c r="L3" s="89"/>
+      <c r="M3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="91"/>
-      <c r="O3" s="92" t="s">
+      <c r="N3" s="90"/>
+      <c r="O3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="92"/>
-      <c r="S3" s="90" t="s">
+      <c r="P3" s="91"/>
+      <c r="S3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="91" t="s">
+      <c r="T3" s="89"/>
+      <c r="U3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="91"/>
-      <c r="W3" s="92" t="s">
+      <c r="V3" s="90"/>
+      <c r="W3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="92"/>
-      <c r="AA3" s="90" t="s">
+      <c r="X3" s="91"/>
+      <c r="AA3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="91" t="s">
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92" t="s">
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="92"/>
-    </row>
-    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF3" s="91"/>
+    </row>
+    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="84">
         <v>8200</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="102">
+      <c r="D4" s="84"/>
+      <c r="E4" s="85">
         <v>2500</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="88"/>
+      <c r="H4" s="87"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="98">
         <v>5200</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="102">
+      <c r="L4" s="98"/>
+      <c r="M4" s="85">
         <v>1400</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88" t="s">
+      <c r="N4" s="86"/>
+      <c r="O4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="88"/>
+      <c r="P4" s="87"/>
       <c r="R4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="108">
+      <c r="S4" s="84">
         <v>3000</v>
       </c>
-      <c r="T4" s="108"/>
-      <c r="U4" s="102">
+      <c r="T4" s="84"/>
+      <c r="U4" s="85">
         <v>1100</v>
       </c>
-      <c r="V4" s="87"/>
-      <c r="W4" s="88" t="s">
+      <c r="V4" s="86"/>
+      <c r="W4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="88"/>
+      <c r="X4" s="87"/>
       <c r="Z4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-    </row>
-    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+    </row>
+    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="84">
         <v>10200</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="112">
+      <c r="D5" s="84"/>
+      <c r="E5" s="92">
         <v>3100</v>
       </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="84" t="s">
+      <c r="F5" s="93"/>
+      <c r="G5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="84"/>
+      <c r="H5" s="94"/>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="85">
+      <c r="K5" s="96">
         <v>7200</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="103">
+      <c r="L5" s="96"/>
+      <c r="M5" s="92">
         <v>1900</v>
       </c>
-      <c r="N5" s="75"/>
-      <c r="O5" s="84" t="s">
+      <c r="N5" s="93"/>
+      <c r="O5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="84"/>
+      <c r="P5" s="94"/>
       <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="108">
+      <c r="S5" s="84">
         <v>3000</v>
       </c>
-      <c r="T5" s="108"/>
-      <c r="U5" s="103">
+      <c r="T5" s="84"/>
+      <c r="U5" s="92">
         <v>1200</v>
       </c>
-      <c r="V5" s="75"/>
-      <c r="W5" s="84" t="s">
+      <c r="V5" s="93"/>
+      <c r="W5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="84"/>
+      <c r="X5" s="94"/>
       <c r="Z5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-    </row>
-    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+    </row>
+    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="84">
         <v>8300</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="112">
+      <c r="D6" s="84"/>
+      <c r="E6" s="92">
         <v>1600</v>
       </c>
-      <c r="F6" s="106"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="84"/>
+      <c r="H6" s="94"/>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="96">
         <v>5300</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="103">
+      <c r="L6" s="96"/>
+      <c r="M6" s="92">
         <v>600</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="84" t="s">
+      <c r="N6" s="93"/>
+      <c r="O6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="84"/>
+      <c r="P6" s="94"/>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="108">
+      <c r="S6" s="84">
         <v>3000</v>
       </c>
-      <c r="T6" s="108"/>
-      <c r="U6" s="103">
+      <c r="T6" s="84"/>
+      <c r="U6" s="92">
         <v>1000</v>
       </c>
-      <c r="V6" s="75"/>
-      <c r="W6" s="84" t="s">
+      <c r="V6" s="93"/>
+      <c r="W6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="84"/>
+      <c r="X6" s="94"/>
       <c r="Z6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-    </row>
-    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+    </row>
+    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="108">
+      <c r="C7" s="84">
         <v>9000</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="112">
+      <c r="D7" s="84"/>
+      <c r="E7" s="92">
         <v>1300</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="93"/>
+      <c r="G7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="84"/>
+      <c r="H7" s="94"/>
       <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="85">
+      <c r="K7" s="96">
         <v>6000</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="103">
+      <c r="L7" s="96"/>
+      <c r="M7" s="92">
         <v>400</v>
       </c>
-      <c r="N7" s="75"/>
-      <c r="O7" s="84" t="s">
+      <c r="N7" s="93"/>
+      <c r="O7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="84"/>
+      <c r="P7" s="94"/>
       <c r="R7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="108">
+      <c r="S7" s="84">
         <v>3000</v>
       </c>
-      <c r="T7" s="108"/>
-      <c r="U7" s="103">
+      <c r="T7" s="84"/>
+      <c r="U7" s="92">
         <v>900</v>
       </c>
-      <c r="V7" s="75"/>
-      <c r="W7" s="84" t="s">
+      <c r="V7" s="93"/>
+      <c r="W7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="84"/>
+      <c r="X7" s="94"/>
       <c r="Z7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="84"/>
-    </row>
-    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+    </row>
+    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="84">
         <v>9300</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="112">
+      <c r="D8" s="84"/>
+      <c r="E8" s="92">
         <v>1900</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="84" t="s">
+      <c r="F8" s="93"/>
+      <c r="G8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="84"/>
+      <c r="H8" s="94"/>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="96">
         <v>6300</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="103">
+      <c r="L8" s="96"/>
+      <c r="M8" s="92">
         <v>600</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="84" t="s">
+      <c r="N8" s="93"/>
+      <c r="O8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="84"/>
+      <c r="P8" s="94"/>
       <c r="R8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="108">
+      <c r="S8" s="84">
         <v>3000</v>
       </c>
-      <c r="T8" s="108"/>
-      <c r="U8" s="103">
+      <c r="T8" s="84"/>
+      <c r="U8" s="92">
         <v>1300</v>
       </c>
-      <c r="V8" s="75"/>
-      <c r="W8" s="84" t="s">
+      <c r="V8" s="93"/>
+      <c r="W8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="84"/>
+      <c r="X8" s="94"/>
       <c r="Z8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-    </row>
-    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+    </row>
+    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="84">
         <v>8500</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="112">
+      <c r="D9" s="84"/>
+      <c r="E9" s="92">
         <v>4400</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="84" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="84"/>
+      <c r="H9" s="94"/>
       <c r="J9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="96">
         <v>5500</v>
       </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="103">
+      <c r="L9" s="96"/>
+      <c r="M9" s="92">
         <v>2200</v>
       </c>
-      <c r="N9" s="75"/>
-      <c r="O9" s="84" t="s">
+      <c r="N9" s="93"/>
+      <c r="O9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="84"/>
+      <c r="P9" s="94"/>
       <c r="R9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="108">
+      <c r="S9" s="84">
         <v>3000</v>
       </c>
-      <c r="T9" s="108"/>
-      <c r="U9" s="103">
+      <c r="T9" s="84"/>
+      <c r="U9" s="92">
         <v>1200</v>
       </c>
-      <c r="V9" s="75"/>
-      <c r="W9" s="84" t="s">
+      <c r="V9" s="93"/>
+      <c r="W9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="84"/>
+      <c r="X9" s="94"/>
       <c r="Z9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-    </row>
-    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+    </row>
+    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="84">
         <v>8800</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="112">
+      <c r="D10" s="84"/>
+      <c r="E10" s="92">
         <v>3600</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="84" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="84"/>
+      <c r="H10" s="94"/>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="80">
+      <c r="K10" s="106">
         <v>5800</v>
       </c>
-      <c r="L10" s="80"/>
-      <c r="M10" s="104">
+      <c r="L10" s="106"/>
+      <c r="M10" s="107">
         <v>2300</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="78" t="s">
+      <c r="N10" s="100"/>
+      <c r="O10" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="78"/>
+      <c r="P10" s="101"/>
       <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="108">
+      <c r="S10" s="84">
         <v>3000</v>
       </c>
-      <c r="T10" s="108"/>
-      <c r="U10" s="112">
+      <c r="T10" s="84"/>
+      <c r="U10" s="92">
         <v>1300</v>
       </c>
-      <c r="V10" s="106"/>
-      <c r="W10" s="84" t="s">
+      <c r="V10" s="93"/>
+      <c r="W10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="84"/>
+      <c r="X10" s="94"/>
       <c r="Z10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-    </row>
-    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="99"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
+    </row>
+    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="102">
         <v>62300</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="105">
+      <c r="D11" s="102"/>
+      <c r="E11" s="103">
         <v>17400</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82" t="s">
+      <c r="F11" s="104"/>
+      <c r="G11" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="82"/>
+      <c r="H11" s="105"/>
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="106">
         <v>43100</v>
       </c>
-      <c r="L11" s="80"/>
-      <c r="M11" s="105">
+      <c r="L11" s="106"/>
+      <c r="M11" s="103">
         <v>9400</v>
       </c>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82" t="s">
+      <c r="N11" s="104"/>
+      <c r="O11" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="82"/>
+      <c r="P11" s="105"/>
       <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="107">
+      <c r="S11" s="102">
         <v>21000</v>
       </c>
-      <c r="T11" s="107"/>
-      <c r="U11" s="105">
+      <c r="T11" s="102"/>
+      <c r="U11" s="103">
         <v>8000</v>
       </c>
-      <c r="V11" s="81"/>
-      <c r="W11" s="82" t="s">
+      <c r="V11" s="104"/>
+      <c r="W11" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="82"/>
+      <c r="X11" s="105"/>
       <c r="Z11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-    </row>
-    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-    </row>
-    <row r="15" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
+    </row>
+    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+    </row>
+    <row r="15" spans="2:32" ht="14.35" x14ac:dyDescent="0.5">
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" ht="14.35" x14ac:dyDescent="0.5">
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
       <c r="I22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
@@ -2033,78 +2080,25 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2115,21 +2109,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AU101" sqref="AU101"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="39" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="7"/>
-    <col min="7" max="7" width="12.6640625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="7"/>
+    <col min="1" max="1" width="45.41015625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="17.64453125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.64453125" style="8" customWidth="1"/>
+    <col min="5" max="6" width="8.64453125" style="7"/>
+    <col min="7" max="7" width="12.64453125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.64453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" s="9" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
@@ -2152,11 +2146,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:64" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="A2" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="93"/>
+      <c r="B2" s="108"/>
       <c r="D2" s="15"/>
       <c r="E2" s="14">
         <v>1</v>
@@ -2339,7 +2333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -2355,7 +2349,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
@@ -2369,7 +2363,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2385,7 +2379,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -2398,7 +2392,7 @@
       <c r="D6" s="18"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -2412,7 +2406,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
@@ -2426,7 +2420,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -2440,7 +2434,7 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
@@ -2454,7 +2448,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2470,7 +2464,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
@@ -2488,7 +2482,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
@@ -2503,7 +2497,7 @@
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -2517,7 +2511,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -2531,7 +2525,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
@@ -2545,7 +2539,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
@@ -2560,7 +2554,7 @@
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
@@ -2577,7 +2571,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A19" s="16" t="s">
         <v>46</v>
       </c>
@@ -2593,7 +2587,7 @@
       <c r="AC19" s="24"/>
       <c r="AD19" s="24"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
@@ -2608,7 +2602,7 @@
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -2622,14 +2616,14 @@
       <c r="AH21" s="24"/>
       <c r="AI21" s="24"/>
     </row>
-    <row r="22" spans="1:38" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A22" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="26"/>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -2643,7 +2637,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A24" s="16" t="s">
         <v>52</v>
       </c>
@@ -2658,7 +2652,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A25" s="16" t="s">
         <v>53</v>
       </c>
@@ -2674,7 +2668,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -2692,7 +2686,7 @@
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A27" s="16" t="s">
         <v>55</v>
       </c>
@@ -2707,7 +2701,7 @@
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A28" s="16" t="s">
         <v>57</v>
       </c>
@@ -2720,7 +2714,7 @@
       <c r="D28" s="18"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A29" s="16" t="s">
         <v>58</v>
       </c>
@@ -2737,7 +2731,7 @@
       <c r="Z29" s="22"/>
       <c r="AA29" s="22"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
@@ -2752,7 +2746,7 @@
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
@@ -2763,14 +2757,14 @@
         <v>8</v>
       </c>
       <c r="D31" s="21"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+    </row>
+    <row r="32" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A32" s="16" t="s">
         <v>61</v>
       </c>
@@ -2781,10 +2775,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="21"/>
-      <c r="AK32" s="24"/>
-      <c r="AL32" s="24"/>
-    </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="AK32" s="113"/>
+      <c r="AL32" s="113"/>
+    </row>
+    <row r="33" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A33" s="16" t="s">
         <v>62</v>
       </c>
@@ -2795,11 +2789,11 @@
         <v>63</v>
       </c>
       <c r="D33" s="21"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-    </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+    </row>
+    <row r="34" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A34" s="16" t="s">
         <v>64</v>
       </c>
@@ -2810,12 +2804,12 @@
         <v>11</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="24"/>
-      <c r="AH34" s="24"/>
-    </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="113"/>
+      <c r="AG34" s="113"/>
+      <c r="AH34" s="113"/>
+    </row>
+    <row r="35" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A35" s="16" t="s">
         <v>65</v>
       </c>
@@ -2825,16 +2819,16 @@
       <c r="C35" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="AM35" s="24"/>
-      <c r="AN35" s="24"/>
-      <c r="AO35" s="24"/>
-      <c r="AP35" s="24"/>
-      <c r="AQ35" s="24"/>
-      <c r="AR35" s="24"/>
-      <c r="AS35" s="24"/>
-    </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="D35" s="112"/>
+      <c r="AM35" s="113"/>
+      <c r="AN35" s="113"/>
+      <c r="AO35" s="113"/>
+      <c r="AP35" s="113"/>
+      <c r="AQ35" s="113"/>
+      <c r="AR35" s="113"/>
+      <c r="AS35" s="113"/>
+    </row>
+    <row r="36" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A36" s="16" t="s">
         <v>67</v>
       </c>
@@ -2848,7 +2842,7 @@
       <c r="AT36" s="24"/>
       <c r="AU36" s="24"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A37" s="16" t="s">
         <v>68</v>
       </c>
@@ -2867,7 +2861,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A38" s="16" t="s">
         <v>69</v>
       </c>
@@ -2887,7 +2881,7 @@
       <c r="BB38" s="24"/>
       <c r="BC38" s="24"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A39" s="16" t="s">
         <v>70</v>
       </c>
@@ -2905,14 +2899,14 @@
       <c r="BH39" s="24"/>
       <c r="BI39" s="24"/>
     </row>
-    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="26"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A41" s="16" t="s">
         <v>72</v>
       </c>
@@ -2926,7 +2920,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A42" s="16" t="s">
         <v>73</v>
       </c>
@@ -2940,7 +2934,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A43" s="16" t="s">
         <v>74</v>
       </c>
@@ -2953,7 +2947,7 @@
       <c r="D43" s="30"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A44" s="16" t="s">
         <v>75</v>
       </c>
@@ -2969,7 +2963,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A45" s="16" t="s">
         <v>76</v>
       </c>
@@ -2985,7 +2979,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A46" s="16" t="s">
         <v>78</v>
       </c>
@@ -2999,7 +2993,7 @@
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A47" s="16" t="s">
         <v>80</v>
       </c>
@@ -3015,7 +3009,7 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A48" s="16" t="s">
         <v>81</v>
       </c>
@@ -3029,7 +3023,7 @@
       <c r="U48" s="24"/>
       <c r="V48" s="24"/>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A49" s="16" t="s">
         <v>82</v>
       </c>
@@ -3043,7 +3037,7 @@
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A50" s="16" t="s">
         <v>83</v>
       </c>
@@ -3056,7 +3050,7 @@
       <c r="D50" s="31"/>
       <c r="Y50" s="24"/>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A51" s="16" t="s">
         <v>84</v>
       </c>
@@ -3072,7 +3066,7 @@
       <c r="AA51" s="24"/>
       <c r="AB51" s="24"/>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A52" s="16" t="s">
         <v>85</v>
       </c>
@@ -3088,7 +3082,7 @@
       <c r="AE52" s="24"/>
       <c r="AF52" s="24"/>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A53" s="16" t="s">
         <v>87</v>
       </c>
@@ -3102,7 +3096,7 @@
       <c r="AG53" s="24"/>
       <c r="AH53" s="24"/>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A54" s="16" t="s">
         <v>89</v>
       </c>
@@ -3118,7 +3112,7 @@
       <c r="AI54" s="24"/>
       <c r="AJ54" s="24"/>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A55" s="16" t="s">
         <v>90</v>
       </c>
@@ -3132,7 +3126,7 @@
       <c r="AK55" s="24"/>
       <c r="AL55" s="24"/>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A56" s="16" t="s">
         <v>91</v>
       </c>
@@ -3146,7 +3140,7 @@
       <c r="AM56" s="24"/>
       <c r="AN56" s="24"/>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A57" s="16" t="s">
         <v>92</v>
       </c>
@@ -3159,7 +3153,7 @@
       <c r="D57" s="31"/>
       <c r="AO57" s="24"/>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A58" s="16" t="s">
         <v>93</v>
       </c>
@@ -3175,7 +3169,7 @@
       <c r="AR58" s="24"/>
       <c r="AS58" s="24"/>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A59" s="16" t="s">
         <v>95</v>
       </c>
@@ -3189,7 +3183,7 @@
       <c r="AT59" s="24"/>
       <c r="AU59" s="24"/>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A60" s="16" t="s">
         <v>97</v>
       </c>
@@ -3205,14 +3199,14 @@
       <c r="AV60" s="24"/>
       <c r="AW60" s="24"/>
     </row>
-    <row r="61" spans="1:49" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:49" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A61" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="26"/>
       <c r="D61" s="28"/>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A62" s="7" t="s">
         <v>99</v>
       </c>
@@ -3228,7 +3222,7 @@
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A63" s="7" t="s">
         <v>100</v>
       </c>
@@ -3246,7 +3240,7 @@
       <c r="M63" s="33"/>
       <c r="N63" s="33"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A64" s="7" t="s">
         <v>101</v>
       </c>
@@ -3266,7 +3260,7 @@
       <c r="O64" s="33"/>
       <c r="P64" s="33"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A65" s="7" t="s">
         <v>102</v>
       </c>
@@ -3286,7 +3280,7 @@
       <c r="W65" s="34"/>
       <c r="X65" s="34"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A66" s="7" t="s">
         <v>103</v>
       </c>
@@ -3302,7 +3296,7 @@
       <c r="S66" s="34"/>
       <c r="T66" s="34"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A67" s="7" t="s">
         <v>105</v>
       </c>
@@ -3322,7 +3316,7 @@
       <c r="W67" s="34"/>
       <c r="X67" s="34"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A68" s="7" t="s">
         <v>106</v>
       </c>
@@ -3338,7 +3332,7 @@
       <c r="AA68" s="34"/>
       <c r="AB68" s="34"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A69" s="7" t="s">
         <v>108</v>
       </c>
@@ -3354,7 +3348,7 @@
       <c r="AA69" s="34"/>
       <c r="AB69" s="34"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A70" s="7" t="s">
         <v>109</v>
       </c>
@@ -3369,7 +3363,7 @@
       <c r="AD70" s="34"/>
       <c r="AE70" s="34"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A71" s="7" t="s">
         <v>110</v>
       </c>
@@ -3384,7 +3378,7 @@
       <c r="AG71" s="34"/>
       <c r="AH71" s="34"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A72" s="7" t="s">
         <v>112</v>
       </c>
@@ -3400,7 +3394,7 @@
       <c r="AK72" s="34"/>
       <c r="AL72" s="34"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A73" s="7" t="s">
         <v>113</v>
       </c>
@@ -3416,14 +3410,14 @@
       <c r="AO73" s="34"/>
       <c r="AP73" s="34"/>
     </row>
-    <row r="74" spans="1:42" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:42" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A74" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B74" s="35"/>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A75" s="16" t="s">
         <v>115</v>
       </c>
@@ -3442,7 +3436,7 @@
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A76" s="16" t="s">
         <v>116</v>
       </c>
@@ -3461,7 +3455,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A77" s="16" t="s">
         <v>117</v>
       </c>
@@ -3481,7 +3475,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="24"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A78" s="16" t="s">
         <v>118</v>
       </c>
@@ -3497,7 +3491,7 @@
       <c r="U78" s="24"/>
       <c r="V78" s="24"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A79" s="16" t="s">
         <v>120</v>
       </c>
@@ -3515,7 +3509,7 @@
       <c r="AA79" s="24"/>
       <c r="AB79" s="24"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A80" s="16" t="s">
         <v>121</v>
       </c>
@@ -3533,7 +3527,7 @@
       <c r="AA80" s="24"/>
       <c r="AB80" s="24"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A81" s="16" t="s">
         <v>122</v>
       </c>
@@ -3550,7 +3544,7 @@
       <c r="AF81" s="24"/>
       <c r="AG81" s="24"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A82" s="16" t="s">
         <v>124</v>
       </c>
@@ -3568,7 +3562,7 @@
       <c r="AL82" s="24"/>
       <c r="AM82" s="24"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A83" s="16" t="s">
         <v>125</v>
       </c>
@@ -3584,7 +3578,7 @@
       <c r="AN83" s="24"/>
       <c r="AO83" s="24"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A84" s="16" t="s">
         <v>126</v>
       </c>
@@ -3595,51 +3589,45 @@
         <v>24</v>
       </c>
       <c r="D84" s="31"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="98"/>
-      <c r="G84" s="98"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="97"/>
-      <c r="J84" s="97"/>
-      <c r="K84" s="97"/>
-      <c r="L84" s="97"/>
-      <c r="M84" s="97"/>
-      <c r="N84" s="97"/>
-      <c r="O84" s="97"/>
-      <c r="P84" s="97"/>
-      <c r="Q84" s="97"/>
-      <c r="R84" s="97"/>
-      <c r="S84" s="101"/>
-      <c r="T84" s="101"/>
-      <c r="U84" s="101"/>
-      <c r="V84" s="101"/>
-      <c r="W84" s="101"/>
-      <c r="X84" s="101"/>
-      <c r="Y84" s="101"/>
-      <c r="Z84" s="101"/>
-      <c r="AA84" s="101"/>
-      <c r="AB84" s="101"/>
-      <c r="AC84" s="101"/>
-      <c r="AD84" s="101"/>
-      <c r="AE84" s="101"/>
-      <c r="AF84" s="101"/>
-      <c r="AG84" s="101"/>
-      <c r="AH84" s="101"/>
-      <c r="AI84" s="101"/>
-      <c r="AJ84" s="101"/>
-      <c r="AK84" s="101"/>
-      <c r="AL84" s="101"/>
-      <c r="AM84" s="101"/>
-      <c r="AN84" s="101"/>
-      <c r="AO84" s="101"/>
-      <c r="AP84" s="99"/>
-      <c r="AQ84" s="99"/>
-      <c r="AR84" s="99"/>
-      <c r="AS84" s="99"/>
-      <c r="AT84" s="99"/>
-      <c r="AU84" s="99"/>
-    </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="75"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="78"/>
+      <c r="T84" s="78"/>
+      <c r="U84" s="78"/>
+      <c r="V84" s="78"/>
+      <c r="W84" s="78"/>
+      <c r="X84" s="78"/>
+      <c r="Y84" s="78"/>
+      <c r="Z84" s="78"/>
+      <c r="AA84" s="78"/>
+      <c r="AB84" s="78"/>
+      <c r="AC84" s="78"/>
+      <c r="AD84" s="78"/>
+      <c r="AE84" s="78"/>
+      <c r="AF84" s="78"/>
+      <c r="AG84" s="78"/>
+      <c r="AH84" s="78"/>
+      <c r="AI84" s="78"/>
+      <c r="AJ84" s="78"/>
+      <c r="AK84" s="78"/>
+      <c r="AL84" s="78"/>
+      <c r="AM84" s="78"/>
+      <c r="AN84" s="78"/>
+      <c r="AO84" s="78"/>
+    </row>
+    <row r="85" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A85" s="16" t="s">
         <v>127</v>
       </c>
@@ -3650,32 +3638,18 @@
         <v>179</v>
       </c>
       <c r="D85" s="31"/>
-      <c r="H85" s="99"/>
-      <c r="I85" s="99"/>
-      <c r="J85" s="99"/>
-      <c r="K85" s="99"/>
-      <c r="L85" s="99"/>
-      <c r="M85" s="99"/>
-      <c r="N85" s="99"/>
-      <c r="O85" s="99"/>
-      <c r="P85" s="99"/>
-      <c r="Q85" s="99"/>
-      <c r="R85" s="99"/>
-      <c r="AP85" s="100"/>
-      <c r="AQ85" s="100"/>
-      <c r="AR85" s="100"/>
-      <c r="AV85" s="99"/>
-      <c r="AW85" s="99"/>
-      <c r="AX85" s="99"/>
-    </row>
-    <row r="86" spans="1:50" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="AP85" s="77"/>
+      <c r="AQ85" s="77"/>
+      <c r="AR85" s="77"/>
+    </row>
+    <row r="86" spans="1:44" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A86" s="25" t="s">
         <v>128</v>
       </c>
       <c r="B86" s="26"/>
       <c r="D86" s="28"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A87" s="16" t="s">
         <v>129</v>
       </c>
@@ -3710,7 +3684,7 @@
       <c r="Z87" s="38"/>
       <c r="AA87" s="38"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A88" s="16" t="s">
         <v>130</v>
       </c>
@@ -3745,7 +3719,7 @@
       <c r="Z88" s="38"/>
       <c r="AA88" s="38"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A89" s="16" t="s">
         <v>131</v>
       </c>
@@ -3780,7 +3754,7 @@
       <c r="Z89" s="38"/>
       <c r="AA89" s="38"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A90" s="16" t="s">
         <v>132</v>
       </c>
@@ -3815,7 +3789,7 @@
       <c r="Z90" s="38"/>
       <c r="AA90" s="38"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A91" s="16" t="s">
         <v>133</v>
       </c>
@@ -3850,7 +3824,7 @@
       <c r="Z91" s="38"/>
       <c r="AA91" s="38"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A92" s="16" t="s">
         <v>135</v>
       </c>
@@ -3883,7 +3857,7 @@
       <c r="Z92" s="38"/>
       <c r="AA92" s="38"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A93" s="16" t="s">
         <v>137</v>
       </c>
@@ -3916,7 +3890,7 @@
       <c r="Z93" s="38"/>
       <c r="AA93" s="38"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A94" s="16" t="s">
         <v>138</v>
       </c>
@@ -3951,7 +3925,7 @@
       <c r="Z94" s="38"/>
       <c r="AA94" s="38"/>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A95" s="16" t="s">
         <v>140</v>
       </c>
@@ -3986,7 +3960,7 @@
       <c r="X95" s="41"/>
       <c r="Y95" s="41"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A96" s="16" t="s">
         <v>141</v>
       </c>
@@ -4000,7 +3974,7 @@
       <c r="X96" s="34"/>
       <c r="Y96" s="34"/>
     </row>
-    <row r="97" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A97" s="16" t="s">
         <v>142</v>
       </c>
@@ -4022,7 +3996,7 @@
       <c r="AH97" s="34"/>
       <c r="AI97" s="34"/>
     </row>
-    <row r="98" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A98" s="7" t="s">
         <v>143</v>
       </c>
@@ -4035,7 +4009,7 @@
       <c r="D98" s="42"/>
       <c r="AI98" s="34"/>
     </row>
-    <row r="99" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A99" s="7" t="s">
         <v>144</v>
       </c>
@@ -4052,21 +4026,21 @@
       <c r="AM99" s="34"/>
       <c r="AN99" s="34"/>
     </row>
-    <row r="100" spans="1:2498" s="99" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="99" t="s">
+    <row r="100" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="A100" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B100" s="113">
+      <c r="B100" s="17">
         <v>2</v>
       </c>
-      <c r="C100" s="113">
+      <c r="C100" s="17">
         <v>13</v>
       </c>
-      <c r="D100" s="114"/>
-      <c r="AO100" s="115"/>
-      <c r="AP100" s="115"/>
-    </row>
-    <row r="101" spans="1:2498" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="D100" s="82"/>
+      <c r="AO100" s="83"/>
+      <c r="AP100" s="83"/>
+    </row>
+    <row r="101" spans="1:2498" s="43" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A101" s="25" t="s">
         <v>146</v>
       </c>
@@ -6568,7 +6542,7 @@
       <c r="CRA101" s="27"/>
       <c r="CRB101" s="27"/>
     </row>
-    <row r="102" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A102" s="44" t="s">
         <v>147</v>
       </c>
@@ -6582,7 +6556,7 @@
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A103" s="44" t="s">
         <v>148</v>
       </c>
@@ -6599,7 +6573,7 @@
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
     </row>
-    <row r="104" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A104" s="44" t="s">
         <v>149</v>
       </c>
@@ -6616,7 +6590,7 @@
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A105" s="44" t="s">
         <v>150</v>
       </c>
@@ -6633,7 +6607,7 @@
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
     </row>
-    <row r="106" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A106" s="44" t="s">
         <v>151</v>
       </c>
@@ -6658,7 +6632,7 @@
       <c r="R106" s="22"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A107" s="44" t="s">
         <v>152</v>
       </c>
@@ -6675,7 +6649,7 @@
       <c r="W107" s="24"/>
       <c r="X107" s="24"/>
     </row>
-    <row r="108" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A108" s="44" t="s">
         <v>154</v>
       </c>
@@ -6692,7 +6666,7 @@
       <c r="AB108" s="24"/>
       <c r="AC108" s="24"/>
     </row>
-    <row r="109" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A109" s="44" t="s">
         <v>155</v>
       </c>
@@ -6710,7 +6684,7 @@
       <c r="AH109" s="24"/>
       <c r="AI109" s="24"/>
     </row>
-    <row r="110" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A110" s="44" t="s">
         <v>156</v>
       </c>
@@ -6728,7 +6702,7 @@
       <c r="AN110" s="24"/>
       <c r="AO110" s="24"/>
     </row>
-    <row r="111" spans="1:2498" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2498" s="43" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A111" s="46" t="s">
         <v>158</v>
       </c>
@@ -6761,294 +6735,294 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96" t="s">
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96" t="s">
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96" t="s">
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-    </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="95" t="s">
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95" t="s">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95" t="s">
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95" t="s">
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95" t="s">
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-    </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-    </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-    </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-    </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-    </row>
-    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+    </row>
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+    </row>
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+    </row>
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+    </row>
+    <row r="13" spans="1:19" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+    </row>
+    <row r="14" spans="1:19" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A14" s="50"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-    </row>
-    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+    </row>
+    <row r="15" spans="1:19" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B15" s="51" t="s">
         <v>166</v>
       </c>
@@ -7063,6 +7037,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q4:S13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B4:D13"/>
+    <mergeCell ref="E4:G13"/>
+    <mergeCell ref="H4:J13"/>
+    <mergeCell ref="K4:M13"/>
+    <mergeCell ref="N4:P13"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -7075,18 +7061,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q4:S13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B4:D13"/>
-    <mergeCell ref="E4:G13"/>
-    <mergeCell ref="H4:J13"/>
-    <mergeCell ref="K4:M13"/>
-    <mergeCell ref="N4:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7101,12 +7075,12 @@
       <selection activeCell="C11" sqref="C11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B2" s="53"/>
       <c r="C2" s="54" t="s">
         <v>167</v>
@@ -7120,10 +7094,10 @@
       <c r="F2" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="81" t="s">
         <v>181</v>
       </c>
       <c r="I2" s="55"/>
@@ -7131,7 +7105,7 @@
       <c r="K2" s="55"/>
       <c r="L2" s="56"/>
     </row>
-    <row r="3" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="43" x14ac:dyDescent="0.5">
       <c r="B3" s="53"/>
       <c r="C3" s="57" t="s">
         <v>172</v>
@@ -7156,7 +7130,7 @@
       <c r="K3" s="58"/>
       <c r="L3" s="59"/>
     </row>
-    <row r="4" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B4" s="53" t="s">
         <v>176</v>
       </c>
@@ -7183,7 +7157,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="62"/>
     </row>
-    <row r="5" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B5" s="63" t="s">
         <v>7</v>
       </c>
@@ -7210,7 +7184,7 @@
       <c r="K5" s="64"/>
       <c r="L5" s="64"/>
     </row>
-    <row r="6" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B6" s="65" t="s">
         <v>9</v>
       </c>
@@ -7229,7 +7203,7 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="79" t="s">
         <v>180</v>
       </c>
       <c r="I6" s="53"/>
@@ -7240,7 +7214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B7" s="65" t="s">
         <v>177</v>
       </c>
@@ -7259,7 +7233,7 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="79" t="s">
         <v>180</v>
       </c>
       <c r="I7" s="64"/>
@@ -7270,7 +7244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B8" s="65" t="s">
         <v>11</v>
       </c>
@@ -7289,7 +7263,7 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="79" t="s">
         <v>180</v>
       </c>
       <c r="I8" s="64"/>
@@ -7300,7 +7274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B9" s="65" t="s">
         <v>178</v>
       </c>
@@ -7330,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B10" s="65" t="s">
         <v>13</v>
       </c>
@@ -7357,7 +7331,7 @@
       <c r="K10" s="64"/>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B11" s="66" t="s">
         <v>14</v>
       </c>
@@ -7384,7 +7358,7 @@
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
     </row>
-    <row r="12" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B12" s="67" t="s">
         <v>0</v>
       </c>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FEBAE3-2AD1-4360-8558-1A30AAB88F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0036EEA3-4C25-4EB8-8526-916A87FF8598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3087" yWindow="3093" windowWidth="19200" windowHeight="10074" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t>10. Finalize Combat</t>
   </si>
   <si>
-    <t>11. Define Player Stats + Inventory</t>
-  </si>
-  <si>
     <t>3,7</t>
   </si>
   <si>
@@ -574,6 +571,9 @@
   </si>
   <si>
     <t>Mar. 24</t>
+  </si>
+  <si>
+    <t>11. Define Player Stats</t>
   </si>
 </sst>
 </file>
@@ -916,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1057,49 +1057,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1126,25 +1088,70 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,544 +1426,544 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="K2" s="88" t="s">
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="K2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="S2" s="88" t="s">
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="S2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="AA2" s="88" t="s">
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="AA2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
     </row>
     <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="91"/>
-      <c r="K3" s="89" t="s">
+      <c r="H3" s="109"/>
+      <c r="K3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90" t="s">
+      <c r="L3" s="107"/>
+      <c r="M3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91" t="s">
+      <c r="N3" s="108"/>
+      <c r="O3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="91"/>
-      <c r="S3" s="89" t="s">
+      <c r="P3" s="109"/>
+      <c r="S3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="90" t="s">
+      <c r="T3" s="107"/>
+      <c r="U3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="90"/>
-      <c r="W3" s="91" t="s">
+      <c r="V3" s="108"/>
+      <c r="W3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="91"/>
-      <c r="AA3" s="89" t="s">
+      <c r="X3" s="109"/>
+      <c r="AA3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="90" t="s">
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="91" t="s">
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="91"/>
+      <c r="AF3" s="109"/>
     </row>
     <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="95">
         <v>8200</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85">
+      <c r="D4" s="95"/>
+      <c r="E4" s="104">
         <v>2500</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87" t="s">
+      <c r="F4" s="102"/>
+      <c r="G4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="87"/>
+      <c r="H4" s="103"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="105">
         <v>5200</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="85">
+      <c r="L4" s="105"/>
+      <c r="M4" s="104">
         <v>1400</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87" t="s">
+      <c r="N4" s="102"/>
+      <c r="O4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="87"/>
+      <c r="P4" s="103"/>
       <c r="R4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="84">
+      <c r="S4" s="95">
         <v>3000</v>
       </c>
-      <c r="T4" s="84"/>
-      <c r="U4" s="85">
+      <c r="T4" s="95"/>
+      <c r="U4" s="104">
         <v>1100</v>
       </c>
-      <c r="V4" s="86"/>
-      <c r="W4" s="87" t="s">
+      <c r="V4" s="102"/>
+      <c r="W4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="87"/>
+      <c r="X4" s="103"/>
       <c r="Z4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
     </row>
     <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="95">
         <v>10200</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="92">
+      <c r="D5" s="95"/>
+      <c r="E5" s="96">
         <v>3100</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94" t="s">
+      <c r="F5" s="86"/>
+      <c r="G5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="94"/>
+      <c r="H5" s="97"/>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="96">
+      <c r="K5" s="100">
         <v>7200</v>
       </c>
-      <c r="L5" s="96"/>
-      <c r="M5" s="92">
+      <c r="L5" s="100"/>
+      <c r="M5" s="96">
         <v>1900</v>
       </c>
-      <c r="N5" s="93"/>
-      <c r="O5" s="94" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="94"/>
+      <c r="P5" s="97"/>
       <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="84">
+      <c r="S5" s="95">
         <v>3000</v>
       </c>
-      <c r="T5" s="84"/>
-      <c r="U5" s="92">
+      <c r="T5" s="95"/>
+      <c r="U5" s="96">
         <v>1200</v>
       </c>
-      <c r="V5" s="93"/>
-      <c r="W5" s="94" t="s">
+      <c r="V5" s="86"/>
+      <c r="W5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="94"/>
+      <c r="X5" s="97"/>
       <c r="Z5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
     </row>
     <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="95">
         <v>8300</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="92">
+      <c r="D6" s="95"/>
+      <c r="E6" s="96">
         <v>1600</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94" t="s">
+      <c r="F6" s="86"/>
+      <c r="G6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="97"/>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="96">
+      <c r="K6" s="100">
         <v>5300</v>
       </c>
-      <c r="L6" s="96"/>
-      <c r="M6" s="92">
+      <c r="L6" s="100"/>
+      <c r="M6" s="96">
         <v>600</v>
       </c>
-      <c r="N6" s="93"/>
-      <c r="O6" s="94" t="s">
+      <c r="N6" s="86"/>
+      <c r="O6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="94"/>
+      <c r="P6" s="97"/>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="84">
+      <c r="S6" s="95">
         <v>3000</v>
       </c>
-      <c r="T6" s="84"/>
-      <c r="U6" s="92">
+      <c r="T6" s="95"/>
+      <c r="U6" s="96">
         <v>1000</v>
       </c>
-      <c r="V6" s="93"/>
-      <c r="W6" s="94" t="s">
+      <c r="V6" s="86"/>
+      <c r="W6" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="94"/>
+      <c r="X6" s="97"/>
       <c r="Z6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="94"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
     </row>
     <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="95">
         <v>9000</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="92">
+      <c r="D7" s="95"/>
+      <c r="E7" s="96">
         <v>1300</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94" t="s">
+      <c r="F7" s="86"/>
+      <c r="G7" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="94"/>
+      <c r="H7" s="97"/>
       <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="100">
         <v>6000</v>
       </c>
-      <c r="L7" s="96"/>
-      <c r="M7" s="92">
+      <c r="L7" s="100"/>
+      <c r="M7" s="96">
         <v>400</v>
       </c>
-      <c r="N7" s="93"/>
-      <c r="O7" s="94" t="s">
+      <c r="N7" s="86"/>
+      <c r="O7" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="94"/>
+      <c r="P7" s="97"/>
       <c r="R7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="84">
+      <c r="S7" s="95">
         <v>3000</v>
       </c>
-      <c r="T7" s="84"/>
-      <c r="U7" s="92">
+      <c r="T7" s="95"/>
+      <c r="U7" s="96">
         <v>900</v>
       </c>
-      <c r="V7" s="93"/>
-      <c r="W7" s="94" t="s">
+      <c r="V7" s="86"/>
+      <c r="W7" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="94"/>
+      <c r="X7" s="97"/>
       <c r="Z7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="94"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
     </row>
     <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="95">
         <v>9300</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="92">
+      <c r="D8" s="95"/>
+      <c r="E8" s="96">
         <v>1900</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="94" t="s">
+      <c r="F8" s="86"/>
+      <c r="G8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="94"/>
+      <c r="H8" s="97"/>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="96">
+      <c r="K8" s="100">
         <v>6300</v>
       </c>
-      <c r="L8" s="96"/>
-      <c r="M8" s="92">
+      <c r="L8" s="100"/>
+      <c r="M8" s="96">
         <v>600</v>
       </c>
-      <c r="N8" s="93"/>
-      <c r="O8" s="94" t="s">
+      <c r="N8" s="86"/>
+      <c r="O8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="94"/>
+      <c r="P8" s="97"/>
       <c r="R8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="84">
+      <c r="S8" s="95">
         <v>3000</v>
       </c>
-      <c r="T8" s="84"/>
-      <c r="U8" s="92">
+      <c r="T8" s="95"/>
+      <c r="U8" s="96">
         <v>1300</v>
       </c>
-      <c r="V8" s="93"/>
-      <c r="W8" s="94" t="s">
+      <c r="V8" s="86"/>
+      <c r="W8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="94"/>
+      <c r="X8" s="97"/>
       <c r="Z8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="94"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
     </row>
     <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="95">
         <v>8500</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="92">
+      <c r="D9" s="95"/>
+      <c r="E9" s="96">
         <v>4400</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94" t="s">
+      <c r="F9" s="86"/>
+      <c r="G9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="94"/>
+      <c r="H9" s="97"/>
       <c r="J9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="96">
+      <c r="K9" s="100">
         <v>5500</v>
       </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="92">
+      <c r="L9" s="100"/>
+      <c r="M9" s="96">
         <v>2200</v>
       </c>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94" t="s">
+      <c r="N9" s="86"/>
+      <c r="O9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="94"/>
+      <c r="P9" s="97"/>
       <c r="R9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="84">
+      <c r="S9" s="95">
         <v>3000</v>
       </c>
-      <c r="T9" s="84"/>
-      <c r="U9" s="92">
+      <c r="T9" s="95"/>
+      <c r="U9" s="96">
         <v>1200</v>
       </c>
-      <c r="V9" s="93"/>
-      <c r="W9" s="94" t="s">
+      <c r="V9" s="86"/>
+      <c r="W9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="94"/>
+      <c r="X9" s="97"/>
       <c r="Z9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="94"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="99"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
     </row>
     <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="95">
         <v>8800</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="92">
+      <c r="D10" s="95"/>
+      <c r="E10" s="96">
         <v>3600</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94" t="s">
+      <c r="F10" s="86"/>
+      <c r="G10" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="94"/>
+      <c r="H10" s="97"/>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="106">
+      <c r="K10" s="94">
         <v>5800</v>
       </c>
-      <c r="L10" s="106"/>
-      <c r="M10" s="107">
+      <c r="L10" s="94"/>
+      <c r="M10" s="98">
         <v>2300</v>
       </c>
-      <c r="N10" s="100"/>
-      <c r="O10" s="101" t="s">
+      <c r="N10" s="88"/>
+      <c r="O10" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="101"/>
+      <c r="P10" s="89"/>
       <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="84">
+      <c r="S10" s="95">
         <v>3000</v>
       </c>
-      <c r="T10" s="84"/>
-      <c r="U10" s="92">
+      <c r="T10" s="95"/>
+      <c r="U10" s="96">
         <v>1300</v>
       </c>
-      <c r="V10" s="93"/>
-      <c r="W10" s="94" t="s">
+      <c r="V10" s="86"/>
+      <c r="W10" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="94"/>
+      <c r="X10" s="97"/>
       <c r="Z10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="101"/>
-      <c r="AF10" s="101"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
     </row>
     <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="102">
+      <c r="C11" s="90">
         <v>62300</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103">
+      <c r="D11" s="90"/>
+      <c r="E11" s="91">
         <v>17400</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105" t="s">
+      <c r="F11" s="92"/>
+      <c r="G11" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="105"/>
+      <c r="H11" s="93"/>
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="106">
+      <c r="K11" s="94">
         <v>43100</v>
       </c>
-      <c r="L11" s="106"/>
-      <c r="M11" s="103">
+      <c r="L11" s="94"/>
+      <c r="M11" s="91">
         <v>9400</v>
       </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="105" t="s">
+      <c r="N11" s="92"/>
+      <c r="O11" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="105"/>
+      <c r="P11" s="93"/>
       <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="102">
+      <c r="S11" s="90">
         <v>21000</v>
       </c>
-      <c r="T11" s="102"/>
-      <c r="U11" s="103">
+      <c r="T11" s="90"/>
+      <c r="U11" s="91">
         <v>8000</v>
       </c>
-      <c r="V11" s="104"/>
-      <c r="W11" s="105" t="s">
+      <c r="V11" s="92"/>
+      <c r="W11" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="105"/>
+      <c r="X11" s="93"/>
       <c r="Z11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="101"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
     </row>
     <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="93"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="93"/>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
     </row>
     <row r="15" spans="2:32" ht="14.35" x14ac:dyDescent="0.5">
       <c r="I15" s="5"/>
@@ -1984,6 +1991,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AC12:AD12"/>
@@ -2008,97 +2106,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2109,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="39" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -2147,10 +2154,10 @@
       </c>
     </row>
     <row r="2" spans="1:64" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="108"/>
+      <c r="B2" s="110"/>
       <c r="D2" s="15"/>
       <c r="E2" s="14">
         <v>1</v>
@@ -2724,12 +2731,12 @@
       <c r="C29" s="17">
         <v>5</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
+      <c r="D29" s="115"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
     </row>
     <row r="30" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A30" s="16" t="s">
@@ -2741,10 +2748,10 @@
       <c r="C30" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
+      <c r="D30" s="116"/>
+      <c r="AB30" s="114"/>
+      <c r="AC30" s="114"/>
+      <c r="AD30" s="114"/>
     </row>
     <row r="31" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A31" s="16" t="s">
@@ -2756,13 +2763,13 @@
       <c r="C31" s="17">
         <v>8</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="113"/>
-      <c r="AG31" s="113"/>
-      <c r="AH31" s="113"/>
-      <c r="AI31" s="113"/>
-      <c r="AJ31" s="113"/>
+      <c r="D31" s="115"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="114"/>
+      <c r="AG31" s="114"/>
+      <c r="AH31" s="114"/>
+      <c r="AI31" s="114"/>
+      <c r="AJ31" s="114"/>
     </row>
     <row r="32" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A32" s="16" t="s">
@@ -2774,28 +2781,28 @@
       <c r="C32" s="17">
         <v>9</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="AK32" s="113"/>
-      <c r="AL32" s="113"/>
+      <c r="D32" s="115"/>
+      <c r="AK32" s="85"/>
+      <c r="AL32" s="85"/>
     </row>
     <row r="33" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A33" s="16" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="B33" s="17">
         <v>3</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="113"/>
+        <v>62</v>
+      </c>
+      <c r="D33" s="115"/>
+      <c r="AB33" s="114"/>
+      <c r="AC33" s="114"/>
+      <c r="AD33" s="114"/>
     </row>
     <row r="34" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A34" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="17">
         <v>4</v>
@@ -2804,33 +2811,33 @@
         <v>11</v>
       </c>
       <c r="D34" s="21"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="113"/>
-      <c r="AG34" s="113"/>
-      <c r="AH34" s="113"/>
+      <c r="AE34" s="85"/>
+      <c r="AF34" s="85"/>
+      <c r="AG34" s="85"/>
+      <c r="AH34" s="85"/>
     </row>
     <row r="35" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A35" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="17">
         <v>7</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="112"/>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="113"/>
-      <c r="AO35" s="113"/>
-      <c r="AP35" s="113"/>
-      <c r="AQ35" s="113"/>
-      <c r="AR35" s="113"/>
-      <c r="AS35" s="113"/>
+        <v>65</v>
+      </c>
+      <c r="D35" s="84"/>
+      <c r="AM35" s="85"/>
+      <c r="AN35" s="85"/>
+      <c r="AO35" s="85"/>
+      <c r="AP35" s="85"/>
+      <c r="AQ35" s="85"/>
+      <c r="AR35" s="85"/>
+      <c r="AS35" s="85"/>
     </row>
     <row r="36" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A36" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="17">
         <v>2</v>
@@ -2844,7 +2851,7 @@
     </row>
     <row r="37" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A37" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="17">
         <v>7</v>
@@ -2863,7 +2870,7 @@
     </row>
     <row r="38" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A38" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="17">
         <v>8</v>
@@ -2883,7 +2890,7 @@
     </row>
     <row r="39" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A39" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="17">
         <v>6</v>
@@ -2901,14 +2908,14 @@
     </row>
     <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="26"/>
       <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A41" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="17">
         <v>2</v>
@@ -2922,7 +2929,7 @@
     </row>
     <row r="42" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A42" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="17">
         <v>2</v>
@@ -2936,7 +2943,7 @@
     </row>
     <row r="43" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A43" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="17">
         <v>1</v>
@@ -2949,7 +2956,7 @@
     </row>
     <row r="44" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A44" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="17">
         <v>4</v>
@@ -2965,13 +2972,13 @@
     </row>
     <row r="45" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A45" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="17">
         <v>4</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="31"/>
       <c r="M45" s="22"/>
@@ -2981,13 +2988,13 @@
     </row>
     <row r="46" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A46" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" s="17">
         <v>2</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="31"/>
       <c r="Q46" s="24"/>
@@ -2995,7 +3002,7 @@
     </row>
     <row r="47" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A47" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="17">
         <v>4</v>
@@ -3011,7 +3018,7 @@
     </row>
     <row r="48" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A48" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="17">
         <v>2</v>
@@ -3025,7 +3032,7 @@
     </row>
     <row r="49" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A49" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" s="17">
         <v>2</v>
@@ -3039,7 +3046,7 @@
     </row>
     <row r="50" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A50" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="17">
         <v>1</v>
@@ -3052,7 +3059,7 @@
     </row>
     <row r="51" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A51" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="17">
         <v>4</v>
@@ -3068,13 +3075,13 @@
     </row>
     <row r="52" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A52" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" s="17">
         <v>4</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="31"/>
       <c r="AC52" s="24"/>
@@ -3084,13 +3091,13 @@
     </row>
     <row r="53" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A53" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="17">
         <v>2</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" s="31"/>
       <c r="AG53" s="24"/>
@@ -3098,7 +3105,7 @@
     </row>
     <row r="54" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A54" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="17">
         <v>4</v>
@@ -3114,7 +3121,7 @@
     </row>
     <row r="55" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A55" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="17">
         <v>2</v>
@@ -3128,7 +3135,7 @@
     </row>
     <row r="56" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A56" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="17">
         <v>2</v>
@@ -3142,7 +3149,7 @@
     </row>
     <row r="57" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A57" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="17">
         <v>1</v>
@@ -3155,13 +3162,13 @@
     </row>
     <row r="58" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A58" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="17">
         <v>4</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" s="31"/>
       <c r="AP58" s="24"/>
@@ -3171,13 +3178,13 @@
     </row>
     <row r="59" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A59" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" s="17">
         <v>2</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" s="31"/>
       <c r="AT59" s="24"/>
@@ -3185,7 +3192,7 @@
     </row>
     <row r="60" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A60" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" s="17">
         <v>4</v>
@@ -3201,14 +3208,14 @@
     </row>
     <row r="61" spans="1:49" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A61" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B61" s="26"/>
       <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A62" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B62" s="17">
         <v>4</v>
@@ -3224,7 +3231,7 @@
     </row>
     <row r="63" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A63" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="17">
         <v>6</v>
@@ -3242,7 +3249,7 @@
     </row>
     <row r="64" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A64" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="17">
         <v>8</v>
@@ -3262,7 +3269,7 @@
     </row>
     <row r="65" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A65" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="17">
         <v>8</v>
@@ -3282,13 +3289,13 @@
     </row>
     <row r="66" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A66" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="17">
         <v>4</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D66" s="31"/>
       <c r="Q66" s="34"/>
@@ -3298,7 +3305,7 @@
     </row>
     <row r="67" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A67" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" s="17">
         <v>8</v>
@@ -3318,13 +3325,13 @@
     </row>
     <row r="68" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A68" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="17">
         <v>4</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D68" s="31"/>
       <c r="Y68" s="34"/>
@@ -3334,7 +3341,7 @@
     </row>
     <row r="69" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A69" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="17">
         <v>4</v>
@@ -3350,7 +3357,7 @@
     </row>
     <row r="70" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A70" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="17">
         <v>3</v>
@@ -3365,13 +3372,13 @@
     </row>
     <row r="71" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A71" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B71" s="17">
         <v>3</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71" s="31"/>
       <c r="AF71" s="34"/>
@@ -3380,7 +3387,7 @@
     </row>
     <row r="72" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A72" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72" s="17">
         <v>4</v>
@@ -3396,7 +3403,7 @@
     </row>
     <row r="73" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A73" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" s="17">
         <v>4</v>
@@ -3412,14 +3419,14 @@
     </row>
     <row r="74" spans="1:42" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A74" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="35"/>
       <c r="D74" s="28"/>
     </row>
     <row r="75" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A75" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="17">
         <v>7</v>
@@ -3438,7 +3445,7 @@
     </row>
     <row r="76" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A76" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="17">
         <v>7</v>
@@ -3457,7 +3464,7 @@
     </row>
     <row r="77" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A77" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="17">
         <v>8</v>
@@ -3477,13 +3484,13 @@
     </row>
     <row r="78" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A78" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="17">
         <v>4</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="31"/>
       <c r="S78" s="24"/>
@@ -3493,7 +3500,7 @@
     </row>
     <row r="79" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A79" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="17">
         <v>6</v>
@@ -3511,7 +3518,7 @@
     </row>
     <row r="80" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A80" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="17">
         <v>6</v>
@@ -3529,13 +3536,13 @@
     </row>
     <row r="81" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A81" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81" s="17">
         <v>5</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D81" s="31"/>
       <c r="AC81" s="24"/>
@@ -3546,7 +3553,7 @@
     </row>
     <row r="82" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A82" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="17">
         <v>6</v>
@@ -3564,7 +3571,7 @@
     </row>
     <row r="83" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A83" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="17">
         <v>4</v>
@@ -3580,7 +3587,7 @@
     </row>
     <row r="84" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A84" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84" s="17">
         <v>6</v>
@@ -3629,13 +3636,13 @@
     </row>
     <row r="85" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A85" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" s="17">
         <v>4</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D85" s="31"/>
       <c r="AP85" s="77"/>
@@ -3644,14 +3651,14 @@
     </row>
     <row r="86" spans="1:44" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A86" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" s="26"/>
       <c r="D86" s="28"/>
     </row>
     <row r="87" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A87" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87" s="17">
         <v>3</v>
@@ -3686,7 +3693,7 @@
     </row>
     <row r="88" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A88" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88" s="17">
         <v>4</v>
@@ -3721,7 +3728,7 @@
     </row>
     <row r="89" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A89" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89" s="17">
         <v>4</v>
@@ -3756,7 +3763,7 @@
     </row>
     <row r="90" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A90" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B90" s="17">
         <v>4</v>
@@ -3791,13 +3798,13 @@
     </row>
     <row r="91" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A91" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91" s="17">
         <v>10</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="38"/>
@@ -3826,13 +3833,13 @@
     </row>
     <row r="92" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A92" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B92" s="17">
         <v>2</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="38"/>
@@ -3859,7 +3866,7 @@
     </row>
     <row r="93" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A93" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B93" s="17">
         <v>2</v>
@@ -3892,7 +3899,7 @@
     </row>
     <row r="94" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A94" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B94" s="17">
         <v>4</v>
@@ -3905,7 +3912,7 @@
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I94" s="38"/>
       <c r="J94" s="38"/>
@@ -3927,7 +3934,7 @@
     </row>
     <row r="95" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A95" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B95" s="17">
         <v>2</v>
@@ -3939,7 +3946,7 @@
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
       <c r="G95" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H95" s="38"/>
       <c r="I95" s="38"/>
@@ -3962,7 +3969,7 @@
     </row>
     <row r="96" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A96" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B96" s="17">
         <v>2</v>
@@ -3976,7 +3983,7 @@
     </row>
     <row r="97" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A97" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B97" s="17">
         <v>10</v>
@@ -3998,7 +4005,7 @@
     </row>
     <row r="98" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A98" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B98" s="17">
         <v>1</v>
@@ -4011,7 +4018,7 @@
     </row>
     <row r="99" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A99" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B99" s="17">
         <v>5</v>
@@ -4028,7 +4035,7 @@
     </row>
     <row r="100" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A100" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B100" s="17">
         <v>2</v>
@@ -4042,7 +4049,7 @@
     </row>
     <row r="101" spans="1:2498" s="43" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="A101" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="27"/>
@@ -6544,7 +6551,7 @@
     </row>
     <row r="102" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A102" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B102" s="45">
         <v>2</v>
@@ -6558,7 +6565,7 @@
     </row>
     <row r="103" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A103" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B103" s="45">
         <v>5</v>
@@ -6575,7 +6582,7 @@
     </row>
     <row r="104" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A104" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104" s="45">
         <v>5</v>
@@ -6592,7 +6599,7 @@
     </row>
     <row r="105" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A105" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B105" s="45">
         <v>5</v>
@@ -6609,7 +6616,7 @@
     </row>
     <row r="106" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A106" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B106" s="45">
         <v>15</v>
@@ -6634,13 +6641,13 @@
     </row>
     <row r="107" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A107" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B107" s="45">
         <v>5</v>
       </c>
       <c r="C107" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D107" s="31"/>
       <c r="T107" s="24"/>
@@ -6651,7 +6658,7 @@
     </row>
     <row r="108" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A108" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B108" s="45">
         <v>5</v>
@@ -6668,7 +6675,7 @@
     </row>
     <row r="109" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A109" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B109" s="45">
         <v>6</v>
@@ -6686,13 +6693,13 @@
     </row>
     <row r="110" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A110" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B110" s="45">
         <v>6</v>
       </c>
       <c r="C110" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D110" s="31"/>
       <c r="AJ110" s="24"/>
@@ -6704,7 +6711,7 @@
     </row>
     <row r="111" spans="1:2498" s="43" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="A111" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B111" s="47">
         <v>4</v>
@@ -6738,68 +6745,68 @@
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109" t="s">
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109" t="s">
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109" t="s">
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-    </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110" t="s">
-        <v>165</v>
-      </c>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="111"/>
@@ -7003,28 +7010,28 @@
     </row>
     <row r="14" spans="1:19" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A14" s="50"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
     </row>
     <row r="15" spans="1:19" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B15" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -7037,6 +7044,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q4:S13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
@@ -7049,18 +7068,6 @@
     <mergeCell ref="H4:J13"/>
     <mergeCell ref="K4:M13"/>
     <mergeCell ref="N4:P13"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7083,22 +7090,22 @@
     <row r="2" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B2" s="53"/>
       <c r="C2" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="E2" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="F2" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="G2" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="80" t="s">
-        <v>171</v>
-      </c>
       <c r="H2" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I2" s="55"/>
       <c r="J2" s="55"/>
@@ -7108,22 +7115,22 @@
     <row r="3" spans="2:15" ht="43" x14ac:dyDescent="0.5">
       <c r="B3" s="53"/>
       <c r="C3" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="E3" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="58" t="s">
+      <c r="G3" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>175</v>
-      </c>
       <c r="H3" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I3" s="58"/>
       <c r="J3" s="58"/>
@@ -7132,7 +7139,7 @@
     </row>
     <row r="4" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B4" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="60">
         <v>1</v>
@@ -7204,7 +7211,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="64"/>
@@ -7216,7 +7223,7 @@
     </row>
     <row r="7" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B7" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -7234,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
@@ -7264,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I8" s="64"/>
       <c r="J8" s="64"/>
@@ -7276,7 +7283,7 @@
     </row>
     <row r="9" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
       <c r="B9" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9">
         <v>1</v>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayra\OneDrive\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0036EEA3-4C25-4EB8-8526-916A87FF8598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605665DE-2A3A-4E48-84CD-A6878F8461E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3087" yWindow="3093" windowWidth="19200" windowHeight="10074" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1061,7 +1061,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1088,70 +1137,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,597 +1420,650 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="10.64453125" customWidth="1"/>
-    <col min="17" max="17" width="10.3515625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="106" t="s">
+    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="K2" s="106" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="K2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="S2" s="106" t="s">
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="S2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="AA2" s="106" t="s">
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="AA2" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-    </row>
-    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="107" t="s">
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+    </row>
+    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109" t="s">
+      <c r="F3" s="95"/>
+      <c r="G3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="K3" s="107" t="s">
+      <c r="H3" s="96"/>
+      <c r="K3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="107"/>
-      <c r="M3" s="108" t="s">
+      <c r="L3" s="94"/>
+      <c r="M3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="108"/>
-      <c r="O3" s="109" t="s">
+      <c r="N3" s="95"/>
+      <c r="O3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="109"/>
-      <c r="S3" s="107" t="s">
+      <c r="P3" s="96"/>
+      <c r="S3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="107"/>
-      <c r="U3" s="108" t="s">
+      <c r="T3" s="94"/>
+      <c r="U3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="108"/>
-      <c r="W3" s="109" t="s">
+      <c r="V3" s="95"/>
+      <c r="W3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="109"/>
-      <c r="AA3" s="107" t="s">
+      <c r="X3" s="96"/>
+      <c r="AA3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="108" t="s">
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="109" t="s">
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="109"/>
-    </row>
-    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AF3" s="96"/>
+    </row>
+    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="89">
         <v>8200</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="104">
+      <c r="D4" s="89"/>
+      <c r="E4" s="90">
         <v>2500</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="92"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="105">
+      <c r="K4" s="103">
         <v>5200</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="104">
+      <c r="L4" s="103"/>
+      <c r="M4" s="90">
         <v>1400</v>
       </c>
-      <c r="N4" s="102"/>
-      <c r="O4" s="103" t="s">
+      <c r="N4" s="91"/>
+      <c r="O4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103"/>
+      <c r="P4" s="92"/>
       <c r="R4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="95">
+      <c r="S4" s="89">
         <v>3000</v>
       </c>
-      <c r="T4" s="95"/>
-      <c r="U4" s="104">
+      <c r="T4" s="89"/>
+      <c r="U4" s="90">
         <v>1100</v>
       </c>
-      <c r="V4" s="102"/>
-      <c r="W4" s="103" t="s">
+      <c r="V4" s="91"/>
+      <c r="W4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="103"/>
+      <c r="X4" s="92"/>
       <c r="Z4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-    </row>
-    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+    </row>
+    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="89">
         <v>10200</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96">
+      <c r="D5" s="89"/>
+      <c r="E5" s="97">
         <v>3100</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="97" t="s">
+      <c r="F5" s="98"/>
+      <c r="G5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="97"/>
+      <c r="H5" s="99"/>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="100">
+      <c r="K5" s="101">
         <v>7200</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="96">
+      <c r="L5" s="101"/>
+      <c r="M5" s="97">
         <v>1900</v>
       </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="97" t="s">
+      <c r="N5" s="98"/>
+      <c r="O5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="97"/>
+      <c r="P5" s="99"/>
       <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="95">
+      <c r="S5" s="89">
         <v>3000</v>
       </c>
-      <c r="T5" s="95"/>
-      <c r="U5" s="96">
+      <c r="T5" s="89"/>
+      <c r="U5" s="97">
         <v>1200</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="W5" s="97" t="s">
+      <c r="V5" s="98"/>
+      <c r="W5" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="97"/>
+      <c r="X5" s="99"/>
       <c r="Z5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-    </row>
-    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+    </row>
+    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="95">
+      <c r="C6" s="89">
         <v>8300</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96">
+      <c r="D6" s="89"/>
+      <c r="E6" s="97">
         <v>1600</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="97" t="s">
+      <c r="F6" s="98"/>
+      <c r="G6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="97"/>
+      <c r="H6" s="99"/>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="100">
+      <c r="K6" s="101">
         <v>5300</v>
       </c>
-      <c r="L6" s="100"/>
-      <c r="M6" s="96">
+      <c r="L6" s="101"/>
+      <c r="M6" s="97">
         <v>600</v>
       </c>
-      <c r="N6" s="86"/>
-      <c r="O6" s="97" t="s">
+      <c r="N6" s="98"/>
+      <c r="O6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="97"/>
+      <c r="P6" s="99"/>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="95">
+      <c r="S6" s="89">
         <v>3000</v>
       </c>
-      <c r="T6" s="95"/>
-      <c r="U6" s="96">
+      <c r="T6" s="89"/>
+      <c r="U6" s="97">
         <v>1000</v>
       </c>
-      <c r="V6" s="86"/>
-      <c r="W6" s="97" t="s">
+      <c r="V6" s="98"/>
+      <c r="W6" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="97"/>
+      <c r="X6" s="99"/>
       <c r="Z6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-    </row>
-    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+    </row>
+    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="89">
         <v>9000</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96">
+      <c r="D7" s="89"/>
+      <c r="E7" s="97">
         <v>1300</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="97" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="97"/>
+      <c r="H7" s="99"/>
       <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="101">
         <v>6000</v>
       </c>
-      <c r="L7" s="100"/>
-      <c r="M7" s="96">
+      <c r="L7" s="101"/>
+      <c r="M7" s="97">
         <v>400</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="97" t="s">
+      <c r="N7" s="98"/>
+      <c r="O7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="97"/>
+      <c r="P7" s="99"/>
       <c r="R7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="95">
+      <c r="S7" s="89">
         <v>3000</v>
       </c>
-      <c r="T7" s="95"/>
-      <c r="U7" s="96">
+      <c r="T7" s="89"/>
+      <c r="U7" s="97">
         <v>900</v>
       </c>
-      <c r="V7" s="86"/>
-      <c r="W7" s="97" t="s">
+      <c r="V7" s="98"/>
+      <c r="W7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="97"/>
+      <c r="X7" s="99"/>
       <c r="Z7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-    </row>
-    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="99"/>
+    </row>
+    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="95">
+      <c r="C8" s="89">
         <v>9300</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96">
+      <c r="D8" s="89"/>
+      <c r="E8" s="97">
         <v>1900</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="97" t="s">
+      <c r="F8" s="98"/>
+      <c r="G8" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="97"/>
+      <c r="H8" s="99"/>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="100">
+      <c r="K8" s="101">
         <v>6300</v>
       </c>
-      <c r="L8" s="100"/>
-      <c r="M8" s="96">
+      <c r="L8" s="101"/>
+      <c r="M8" s="97">
         <v>600</v>
       </c>
-      <c r="N8" s="86"/>
-      <c r="O8" s="97" t="s">
+      <c r="N8" s="98"/>
+      <c r="O8" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="97"/>
+      <c r="P8" s="99"/>
       <c r="R8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="95">
+      <c r="S8" s="89">
         <v>3000</v>
       </c>
-      <c r="T8" s="95"/>
-      <c r="U8" s="96">
+      <c r="T8" s="89"/>
+      <c r="U8" s="97">
         <v>1300</v>
       </c>
-      <c r="V8" s="86"/>
-      <c r="W8" s="97" t="s">
+      <c r="V8" s="98"/>
+      <c r="W8" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="97"/>
+      <c r="X8" s="99"/>
       <c r="Z8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-    </row>
-    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+    </row>
+    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="89">
         <v>8500</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96">
+      <c r="D9" s="89"/>
+      <c r="E9" s="97">
         <v>4400</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="97" t="s">
+      <c r="F9" s="98"/>
+      <c r="G9" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="97"/>
+      <c r="H9" s="99"/>
       <c r="J9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="100">
+      <c r="K9" s="101">
         <v>5500</v>
       </c>
-      <c r="L9" s="100"/>
-      <c r="M9" s="96">
+      <c r="L9" s="101"/>
+      <c r="M9" s="97">
         <v>2200</v>
       </c>
-      <c r="N9" s="86"/>
-      <c r="O9" s="97" t="s">
+      <c r="N9" s="98"/>
+      <c r="O9" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="97"/>
+      <c r="P9" s="99"/>
       <c r="R9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="95">
+      <c r="S9" s="89">
         <v>3000</v>
       </c>
-      <c r="T9" s="95"/>
-      <c r="U9" s="96">
+      <c r="T9" s="89"/>
+      <c r="U9" s="97">
         <v>1200</v>
       </c>
-      <c r="V9" s="86"/>
-      <c r="W9" s="97" t="s">
+      <c r="V9" s="98"/>
+      <c r="W9" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="97"/>
+      <c r="X9" s="99"/>
       <c r="Z9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-    </row>
-    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+    </row>
+    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="89">
         <v>8800</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96">
+      <c r="D10" s="89"/>
+      <c r="E10" s="97">
         <v>3600</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="97" t="s">
+      <c r="F10" s="98"/>
+      <c r="G10" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="99"/>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="94">
+      <c r="K10" s="111">
         <v>5800</v>
       </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="98">
+      <c r="L10" s="111"/>
+      <c r="M10" s="112">
         <v>2300</v>
       </c>
-      <c r="N10" s="88"/>
-      <c r="O10" s="89" t="s">
+      <c r="N10" s="105"/>
+      <c r="O10" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="89"/>
+      <c r="P10" s="106"/>
       <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="95">
+      <c r="S10" s="89">
         <v>3000</v>
       </c>
-      <c r="T10" s="95"/>
-      <c r="U10" s="96">
+      <c r="T10" s="89"/>
+      <c r="U10" s="97">
         <v>1300</v>
       </c>
-      <c r="V10" s="86"/>
-      <c r="W10" s="97" t="s">
+      <c r="V10" s="98"/>
+      <c r="W10" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="97"/>
+      <c r="X10" s="99"/>
       <c r="Z10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-    </row>
-    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+    </row>
+    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="90">
+      <c r="C11" s="107">
         <v>62300</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91">
+      <c r="D11" s="107"/>
+      <c r="E11" s="108">
         <v>17400</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93" t="s">
+      <c r="F11" s="109"/>
+      <c r="G11" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="93"/>
+      <c r="H11" s="110"/>
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="94">
+      <c r="K11" s="111">
         <v>43100</v>
       </c>
-      <c r="L11" s="94"/>
-      <c r="M11" s="91">
+      <c r="L11" s="111"/>
+      <c r="M11" s="108">
         <v>9400</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="93" t="s">
+      <c r="N11" s="109"/>
+      <c r="O11" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="93"/>
+      <c r="P11" s="110"/>
       <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="90">
+      <c r="S11" s="107">
         <v>21000</v>
       </c>
-      <c r="T11" s="90"/>
-      <c r="U11" s="91">
+      <c r="T11" s="107"/>
+      <c r="U11" s="108">
         <v>8000</v>
       </c>
-      <c r="V11" s="92"/>
-      <c r="W11" s="93" t="s">
+      <c r="V11" s="109"/>
+      <c r="W11" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="93"/>
+      <c r="X11" s="110"/>
       <c r="Z11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-    </row>
-    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-    </row>
-    <row r="15" spans="2:32" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+    </row>
+    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+    </row>
+    <row r="15" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:32" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="17" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="18" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="19" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="20" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="21" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="22" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
@@ -2034,78 +2088,25 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2116,21 +2117,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="39" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.41015625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="17.64453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.64453125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="8.64453125" style="7"/>
-    <col min="7" max="7" width="12.64453125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.64453125" style="7"/>
+    <col min="1" max="1" width="45.44140625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="7"/>
+    <col min="7" max="7" width="12.6640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="9" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
@@ -2153,11 +2154,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:64" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="113"/>
       <c r="D2" s="15"/>
       <c r="E2" s="14">
         <v>1</v>
@@ -2340,7 +2341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -2356,7 +2357,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
@@ -2370,7 +2371,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2386,7 +2387,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -2399,7 +2400,7 @@
       <c r="D6" s="18"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -2413,7 +2414,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
@@ -2427,7 +2428,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -2441,7 +2442,7 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2471,7 +2472,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
@@ -2489,7 +2490,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
@@ -2504,7 +2505,7 @@
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -2518,7 +2519,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -2532,7 +2533,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
@@ -2546,7 +2547,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
@@ -2561,7 +2562,7 @@
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
@@ -2578,7 +2579,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>46</v>
       </c>
@@ -2594,7 +2595,7 @@
       <c r="AC19" s="24"/>
       <c r="AD19" s="24"/>
     </row>
-    <row r="20" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
@@ -2609,7 +2610,7 @@
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
     </row>
-    <row r="21" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -2623,14 +2624,14 @@
       <c r="AH21" s="24"/>
       <c r="AI21" s="24"/>
     </row>
-    <row r="22" spans="1:38" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:38" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="26"/>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -2644,7 +2645,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>52</v>
       </c>
@@ -2659,7 +2660,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>53</v>
       </c>
@@ -2675,7 +2676,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -2693,7 +2694,7 @@
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>55</v>
       </c>
@@ -2708,7 +2709,7 @@
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
     </row>
-    <row r="28" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>57</v>
       </c>
@@ -2721,7 +2722,7 @@
       <c r="D28" s="18"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>58</v>
       </c>
@@ -2731,14 +2732,14 @@
       <c r="C29" s="17">
         <v>5</v>
       </c>
-      <c r="D29" s="115"/>
+      <c r="D29" s="87"/>
       <c r="W29" s="71"/>
       <c r="X29" s="71"/>
       <c r="Y29" s="71"/>
       <c r="Z29" s="71"/>
       <c r="AA29" s="71"/>
     </row>
-    <row r="30" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
@@ -2748,12 +2749,12 @@
       <c r="C30" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="114"/>
-      <c r="AD30" s="114"/>
-    </row>
-    <row r="31" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="D30" s="88"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
@@ -2763,15 +2764,15 @@
       <c r="C31" s="17">
         <v>8</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="114"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="114"/>
-      <c r="AJ31" s="114"/>
-    </row>
-    <row r="32" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="D31" s="87"/>
+      <c r="AE31" s="86"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="86"/>
+      <c r="AJ31" s="86"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>61</v>
       </c>
@@ -2781,11 +2782,11 @@
       <c r="C32" s="17">
         <v>9</v>
       </c>
-      <c r="D32" s="115"/>
+      <c r="D32" s="87"/>
       <c r="AK32" s="85"/>
       <c r="AL32" s="85"/>
     </row>
-    <row r="33" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>181</v>
       </c>
@@ -2795,12 +2796,12 @@
       <c r="C33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="AB33" s="114"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="114"/>
-    </row>
-    <row r="34" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="D33" s="87"/>
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="86"/>
+      <c r="AD33" s="86"/>
+    </row>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
@@ -2816,7 +2817,7 @@
       <c r="AG34" s="85"/>
       <c r="AH34" s="85"/>
     </row>
-    <row r="35" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>64</v>
       </c>
@@ -2835,7 +2836,7 @@
       <c r="AR35" s="85"/>
       <c r="AS35" s="85"/>
     </row>
-    <row r="36" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>66</v>
       </c>
@@ -2849,7 +2850,7 @@
       <c r="AT36" s="24"/>
       <c r="AU36" s="24"/>
     </row>
-    <row r="37" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>67</v>
       </c>
@@ -2868,7 +2869,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
     </row>
-    <row r="38" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>68</v>
       </c>
@@ -2888,7 +2889,7 @@
       <c r="BB38" s="24"/>
       <c r="BC38" s="24"/>
     </row>
-    <row r="39" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>69</v>
       </c>
@@ -2906,14 +2907,14 @@
       <c r="BH39" s="24"/>
       <c r="BI39" s="24"/>
     </row>
-    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B40" s="26"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>71</v>
       </c>
@@ -2927,7 +2928,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>72</v>
       </c>
@@ -2941,7 +2942,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>73</v>
       </c>
@@ -2954,7 +2955,7 @@
       <c r="D43" s="30"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>74</v>
       </c>
@@ -2970,7 +2971,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
@@ -2986,7 +2987,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>77</v>
       </c>
@@ -3000,7 +3001,7 @@
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
     </row>
-    <row r="47" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>79</v>
       </c>
@@ -3016,7 +3017,7 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:61" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>80</v>
       </c>
@@ -3030,7 +3031,7 @@
       <c r="U48" s="24"/>
       <c r="V48" s="24"/>
     </row>
-    <row r="49" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>81</v>
       </c>
@@ -3044,7 +3045,7 @@
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>82</v>
       </c>
@@ -3057,7 +3058,7 @@
       <c r="D50" s="31"/>
       <c r="Y50" s="24"/>
     </row>
-    <row r="51" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>83</v>
       </c>
@@ -3073,7 +3074,7 @@
       <c r="AA51" s="24"/>
       <c r="AB51" s="24"/>
     </row>
-    <row r="52" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>84</v>
       </c>
@@ -3089,7 +3090,7 @@
       <c r="AE52" s="24"/>
       <c r="AF52" s="24"/>
     </row>
-    <row r="53" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>86</v>
       </c>
@@ -3103,7 +3104,7 @@
       <c r="AG53" s="24"/>
       <c r="AH53" s="24"/>
     </row>
-    <row r="54" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>88</v>
       </c>
@@ -3119,7 +3120,7 @@
       <c r="AI54" s="24"/>
       <c r="AJ54" s="24"/>
     </row>
-    <row r="55" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>89</v>
       </c>
@@ -3133,7 +3134,7 @@
       <c r="AK55" s="24"/>
       <c r="AL55" s="24"/>
     </row>
-    <row r="56" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>90</v>
       </c>
@@ -3147,7 +3148,7 @@
       <c r="AM56" s="24"/>
       <c r="AN56" s="24"/>
     </row>
-    <row r="57" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>91</v>
       </c>
@@ -3160,7 +3161,7 @@
       <c r="D57" s="31"/>
       <c r="AO57" s="24"/>
     </row>
-    <row r="58" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>92</v>
       </c>
@@ -3176,7 +3177,7 @@
       <c r="AR58" s="24"/>
       <c r="AS58" s="24"/>
     </row>
-    <row r="59" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>94</v>
       </c>
@@ -3190,7 +3191,7 @@
       <c r="AT59" s="24"/>
       <c r="AU59" s="24"/>
     </row>
-    <row r="60" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>96</v>
       </c>
@@ -3206,14 +3207,14 @@
       <c r="AV60" s="24"/>
       <c r="AW60" s="24"/>
     </row>
-    <row r="61" spans="1:49" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:49" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B61" s="26"/>
       <c r="D61" s="28"/>
     </row>
-    <row r="62" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>98</v>
       </c>
@@ -3229,7 +3230,7 @@
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
     </row>
-    <row r="63" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>99</v>
       </c>
@@ -3247,7 +3248,7 @@
       <c r="M63" s="33"/>
       <c r="N63" s="33"/>
     </row>
-    <row r="64" spans="1:49" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>100</v>
       </c>
@@ -3267,7 +3268,7 @@
       <c r="O64" s="33"/>
       <c r="P64" s="33"/>
     </row>
-    <row r="65" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>101</v>
       </c>
@@ -3287,7 +3288,7 @@
       <c r="W65" s="34"/>
       <c r="X65" s="34"/>
     </row>
-    <row r="66" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>102</v>
       </c>
@@ -3303,7 +3304,7 @@
       <c r="S66" s="34"/>
       <c r="T66" s="34"/>
     </row>
-    <row r="67" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>104</v>
       </c>
@@ -3323,7 +3324,7 @@
       <c r="W67" s="34"/>
       <c r="X67" s="34"/>
     </row>
-    <row r="68" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>105</v>
       </c>
@@ -3339,7 +3340,7 @@
       <c r="AA68" s="34"/>
       <c r="AB68" s="34"/>
     </row>
-    <row r="69" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>107</v>
       </c>
@@ -3355,7 +3356,7 @@
       <c r="AA69" s="34"/>
       <c r="AB69" s="34"/>
     </row>
-    <row r="70" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>108</v>
       </c>
@@ -3370,7 +3371,7 @@
       <c r="AD70" s="34"/>
       <c r="AE70" s="34"/>
     </row>
-    <row r="71" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>109</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="AG71" s="34"/>
       <c r="AH71" s="34"/>
     </row>
-    <row r="72" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>111</v>
       </c>
@@ -3401,7 +3402,7 @@
       <c r="AK72" s="34"/>
       <c r="AL72" s="34"/>
     </row>
-    <row r="73" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>112</v>
       </c>
@@ -3417,14 +3418,14 @@
       <c r="AO73" s="34"/>
       <c r="AP73" s="34"/>
     </row>
-    <row r="74" spans="1:42" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:42" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A74" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B74" s="35"/>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>114</v>
       </c>
@@ -3438,12 +3439,12 @@
       <c r="E75" s="71"/>
       <c r="F75" s="71"/>
       <c r="G75" s="71"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
       <c r="K75" s="22"/>
     </row>
-    <row r="76" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
         <v>115</v>
       </c>
@@ -3453,7 +3454,7 @@
       <c r="C76" s="17">
         <v>1</v>
       </c>
-      <c r="D76" s="31"/>
+      <c r="D76" s="117"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
@@ -3462,7 +3463,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
         <v>116</v>
       </c>
@@ -3472,17 +3473,17 @@
       <c r="C77" s="17">
         <v>1</v>
       </c>
-      <c r="D77" s="31"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
+      <c r="D77" s="117"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
       <c r="O77" s="22"/>
       <c r="P77" s="22"/>
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
-      <c r="S77" s="24"/>
-    </row>
-    <row r="78" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="S77" s="85"/>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
         <v>117</v>
       </c>
@@ -3498,7 +3499,7 @@
       <c r="U78" s="24"/>
       <c r="V78" s="24"/>
     </row>
-    <row r="79" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
         <v>119</v>
       </c>
@@ -3516,7 +3517,7 @@
       <c r="AA79" s="24"/>
       <c r="AB79" s="24"/>
     </row>
-    <row r="80" spans="1:42" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
         <v>120</v>
       </c>
@@ -3534,7 +3535,7 @@
       <c r="AA80" s="24"/>
       <c r="AB80" s="24"/>
     </row>
-    <row r="81" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>121</v>
       </c>
@@ -3551,7 +3552,7 @@
       <c r="AF81" s="24"/>
       <c r="AG81" s="24"/>
     </row>
-    <row r="82" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
         <v>123</v>
       </c>
@@ -3569,7 +3570,7 @@
       <c r="AL82" s="24"/>
       <c r="AM82" s="24"/>
     </row>
-    <row r="83" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>124</v>
       </c>
@@ -3585,7 +3586,7 @@
       <c r="AN83" s="24"/>
       <c r="AO83" s="24"/>
     </row>
-    <row r="84" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
         <v>125</v>
       </c>
@@ -3595,14 +3596,14 @@
       <c r="C84" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="31"/>
+      <c r="D84" s="117"/>
       <c r="E84" s="76"/>
       <c r="F84" s="76"/>
       <c r="G84" s="76"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
+      <c r="K84" s="76"/>
       <c r="L84" s="75"/>
       <c r="M84" s="75"/>
       <c r="N84" s="75"/>
@@ -3634,7 +3635,7 @@
       <c r="AN84" s="78"/>
       <c r="AO84" s="78"/>
     </row>
-    <row r="85" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>126</v>
       </c>
@@ -3649,14 +3650,14 @@
       <c r="AQ85" s="77"/>
       <c r="AR85" s="77"/>
     </row>
-    <row r="86" spans="1:44" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:44" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A86" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B86" s="26"/>
       <c r="D86" s="28"/>
     </row>
-    <row r="87" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
         <v>128</v>
       </c>
@@ -3691,7 +3692,7 @@
       <c r="Z87" s="38"/>
       <c r="AA87" s="38"/>
     </row>
-    <row r="88" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
         <v>129</v>
       </c>
@@ -3726,7 +3727,7 @@
       <c r="Z88" s="38"/>
       <c r="AA88" s="38"/>
     </row>
-    <row r="89" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
         <v>130</v>
       </c>
@@ -3761,7 +3762,7 @@
       <c r="Z89" s="38"/>
       <c r="AA89" s="38"/>
     </row>
-    <row r="90" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
         <v>131</v>
       </c>
@@ -3796,7 +3797,7 @@
       <c r="Z90" s="38"/>
       <c r="AA90" s="38"/>
     </row>
-    <row r="91" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" s="16" t="s">
         <v>132</v>
       </c>
@@ -3831,7 +3832,7 @@
       <c r="Z91" s="38"/>
       <c r="AA91" s="38"/>
     </row>
-    <row r="92" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" s="16" t="s">
         <v>134</v>
       </c>
@@ -3864,7 +3865,7 @@
       <c r="Z92" s="38"/>
       <c r="AA92" s="38"/>
     </row>
-    <row r="93" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" s="16" t="s">
         <v>136</v>
       </c>
@@ -3897,7 +3898,7 @@
       <c r="Z93" s="38"/>
       <c r="AA93" s="38"/>
     </row>
-    <row r="94" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" s="16" t="s">
         <v>137</v>
       </c>
@@ -3932,7 +3933,7 @@
       <c r="Z94" s="38"/>
       <c r="AA94" s="38"/>
     </row>
-    <row r="95" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" s="16" t="s">
         <v>139</v>
       </c>
@@ -3967,7 +3968,7 @@
       <c r="X95" s="41"/>
       <c r="Y95" s="41"/>
     </row>
-    <row r="96" spans="1:44" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A96" s="16" t="s">
         <v>140</v>
       </c>
@@ -3981,7 +3982,7 @@
       <c r="X96" s="34"/>
       <c r="Y96" s="34"/>
     </row>
-    <row r="97" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A97" s="16" t="s">
         <v>141</v>
       </c>
@@ -4003,7 +4004,7 @@
       <c r="AH97" s="34"/>
       <c r="AI97" s="34"/>
     </row>
-    <row r="98" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>142</v>
       </c>
@@ -4016,7 +4017,7 @@
       <c r="D98" s="42"/>
       <c r="AI98" s="34"/>
     </row>
-    <row r="99" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>143</v>
       </c>
@@ -4033,7 +4034,7 @@
       <c r="AM99" s="34"/>
       <c r="AN99" s="34"/>
     </row>
-    <row r="100" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>144</v>
       </c>
@@ -4047,7 +4048,7 @@
       <c r="AO100" s="83"/>
       <c r="AP100" s="83"/>
     </row>
-    <row r="101" spans="1:2498" s="43" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:2498" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A101" s="25" t="s">
         <v>145</v>
       </c>
@@ -6549,7 +6550,7 @@
       <c r="CRA101" s="27"/>
       <c r="CRB101" s="27"/>
     </row>
-    <row r="102" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A102" s="44" t="s">
         <v>146</v>
       </c>
@@ -6563,7 +6564,7 @@
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A103" s="44" t="s">
         <v>147</v>
       </c>
@@ -6580,7 +6581,7 @@
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
     </row>
-    <row r="104" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A104" s="44" t="s">
         <v>148</v>
       </c>
@@ -6597,7 +6598,7 @@
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A105" s="44" t="s">
         <v>149</v>
       </c>
@@ -6614,7 +6615,7 @@
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
     </row>
-    <row r="106" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A106" s="44" t="s">
         <v>150</v>
       </c>
@@ -6639,7 +6640,7 @@
       <c r="R106" s="22"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A107" s="44" t="s">
         <v>151</v>
       </c>
@@ -6656,7 +6657,7 @@
       <c r="W107" s="24"/>
       <c r="X107" s="24"/>
     </row>
-    <row r="108" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A108" s="44" t="s">
         <v>153</v>
       </c>
@@ -6673,7 +6674,7 @@
       <c r="AB108" s="24"/>
       <c r="AC108" s="24"/>
     </row>
-    <row r="109" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A109" s="44" t="s">
         <v>154</v>
       </c>
@@ -6691,7 +6692,7 @@
       <c r="AH109" s="24"/>
       <c r="AI109" s="24"/>
     </row>
-    <row r="110" spans="1:2498" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:2498" x14ac:dyDescent="0.35">
       <c r="A110" s="44" t="s">
         <v>155</v>
       </c>
@@ -6709,7 +6710,7 @@
       <c r="AN110" s="24"/>
       <c r="AO110" s="24"/>
     </row>
-    <row r="111" spans="1:2498" s="43" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:2498" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="46" t="s">
         <v>157</v>
       </c>
@@ -6742,294 +6743,294 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="113" t="s">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113" t="s">
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113" t="s">
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113" t="s">
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-    </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="112" t="s">
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112" t="s">
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112" t="s">
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112" t="s">
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-    </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-    </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-    </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-    </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.35" x14ac:dyDescent="0.5">
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-    </row>
-    <row r="14" spans="1:19" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+    </row>
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+    </row>
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+    </row>
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+    </row>
+    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+    </row>
+    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="112"/>
-    </row>
-    <row r="15" spans="1:19" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+    </row>
+    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="51" t="s">
         <v>165</v>
       </c>
@@ -7044,6 +7045,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q4:S13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B4:D13"/>
+    <mergeCell ref="E4:G13"/>
+    <mergeCell ref="H4:J13"/>
+    <mergeCell ref="K4:M13"/>
+    <mergeCell ref="N4:P13"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -7056,18 +7069,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q4:S13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B4:D13"/>
-    <mergeCell ref="E4:G13"/>
-    <mergeCell ref="H4:J13"/>
-    <mergeCell ref="K4:M13"/>
-    <mergeCell ref="N4:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7082,12 +7083,12 @@
       <selection activeCell="C11" sqref="C11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.76171875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="53"/>
       <c r="C2" s="54" t="s">
         <v>166</v>
@@ -7112,7 +7113,7 @@
       <c r="K2" s="55"/>
       <c r="L2" s="56"/>
     </row>
-    <row r="3" spans="2:15" ht="43" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="53"/>
       <c r="C3" s="57" t="s">
         <v>171</v>
@@ -7137,7 +7138,7 @@
       <c r="K3" s="58"/>
       <c r="L3" s="59"/>
     </row>
-    <row r="4" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7164,7 +7165,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="62"/>
     </row>
-    <row r="5" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="63" t="s">
         <v>7</v>
       </c>
@@ -7191,7 +7192,7 @@
       <c r="K5" s="64"/>
       <c r="L5" s="64"/>
     </row>
-    <row r="6" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="65" t="s">
         <v>9</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="65" t="s">
         <v>176</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
         <v>11</v>
       </c>
@@ -7281,7 +7282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="65" t="s">
         <v>177</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="65" t="s">
         <v>13</v>
       </c>
@@ -7338,7 +7339,7 @@
       <c r="K10" s="64"/>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="66" t="s">
         <v>14</v>
       </c>
@@ -7365,7 +7366,7 @@
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
     </row>
-    <row r="12" spans="2:15" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="67" t="s">
         <v>0</v>
       </c>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayra\OneDrive\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amad6847\Documents\GitHub\CS383BrainstewGame#\383Game\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605665DE-2A3A-4E48-84CD-A6878F8461E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4550088D-2D12-4122-A8A6-68267D38C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1068,49 +1068,8 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1137,22 +1096,64 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,578 +1421,669 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="93" t="s">
+    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="K2" s="93" t="s">
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="K2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="S2" s="93" t="s">
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="S2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="AA2" s="93" t="s">
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="AA2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-    </row>
-    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="94" t="s">
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+    </row>
+    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96" t="s">
+      <c r="F3" s="112"/>
+      <c r="G3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="K3" s="94" t="s">
+      <c r="H3" s="113"/>
+      <c r="K3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95" t="s">
+      <c r="L3" s="111"/>
+      <c r="M3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="96" t="s">
+      <c r="N3" s="112"/>
+      <c r="O3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="96"/>
-      <c r="S3" s="94" t="s">
+      <c r="P3" s="113"/>
+      <c r="S3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="94"/>
-      <c r="U3" s="95" t="s">
+      <c r="T3" s="111"/>
+      <c r="U3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="95"/>
-      <c r="W3" s="96" t="s">
+      <c r="V3" s="112"/>
+      <c r="W3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="96"/>
-      <c r="AA3" s="94" t="s">
+      <c r="X3" s="113"/>
+      <c r="AA3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="95" t="s">
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="96" t="s">
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="96"/>
-    </row>
-    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF3" s="113"/>
+    </row>
+    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="89">
+      <c r="C4" s="99">
         <v>8200</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90">
+      <c r="D4" s="99"/>
+      <c r="E4" s="108">
         <v>2500</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92" t="s">
+      <c r="F4" s="106"/>
+      <c r="G4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="92"/>
+      <c r="H4" s="107"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="103">
+      <c r="K4" s="109">
         <v>5200</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="90">
+      <c r="L4" s="109"/>
+      <c r="M4" s="108">
         <v>1400</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92" t="s">
+      <c r="N4" s="106"/>
+      <c r="O4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="92"/>
+      <c r="P4" s="107"/>
       <c r="R4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="89">
+      <c r="S4" s="99">
         <v>3000</v>
       </c>
-      <c r="T4" s="89"/>
-      <c r="U4" s="90">
+      <c r="T4" s="99"/>
+      <c r="U4" s="108">
         <v>1100</v>
       </c>
-      <c r="V4" s="91"/>
-      <c r="W4" s="92" t="s">
+      <c r="V4" s="106"/>
+      <c r="W4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="92"/>
+      <c r="X4" s="107"/>
       <c r="Z4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-    </row>
-    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+    </row>
+    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5" s="99">
         <v>10200</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="97">
+      <c r="D5" s="99"/>
+      <c r="E5" s="100">
         <v>3100</v>
       </c>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="99"/>
+      <c r="H5" s="101"/>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="101">
+      <c r="K5" s="104">
         <v>7200</v>
       </c>
-      <c r="L5" s="101"/>
-      <c r="M5" s="97">
+      <c r="L5" s="104"/>
+      <c r="M5" s="100">
         <v>1900</v>
       </c>
-      <c r="N5" s="98"/>
-      <c r="O5" s="99" t="s">
+      <c r="N5" s="90"/>
+      <c r="O5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="99"/>
+      <c r="P5" s="101"/>
       <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="89">
+      <c r="S5" s="99">
         <v>3000</v>
       </c>
-      <c r="T5" s="89"/>
-      <c r="U5" s="97">
+      <c r="T5" s="99"/>
+      <c r="U5" s="100">
         <v>1200</v>
       </c>
-      <c r="V5" s="98"/>
-      <c r="W5" s="99" t="s">
+      <c r="V5" s="90"/>
+      <c r="W5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="99"/>
+      <c r="X5" s="101"/>
       <c r="Z5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-    </row>
-    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+    </row>
+    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="89">
+      <c r="C6" s="99">
         <v>8300</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="97">
+      <c r="D6" s="99"/>
+      <c r="E6" s="100">
         <v>1600</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99" t="s">
+      <c r="F6" s="90"/>
+      <c r="G6" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="99"/>
+      <c r="H6" s="101"/>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="101">
+      <c r="K6" s="104">
         <v>5300</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="97">
+      <c r="L6" s="104"/>
+      <c r="M6" s="100">
         <v>600</v>
       </c>
-      <c r="N6" s="98"/>
-      <c r="O6" s="99" t="s">
+      <c r="N6" s="90"/>
+      <c r="O6" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="99"/>
+      <c r="P6" s="101"/>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="89">
+      <c r="S6" s="99">
         <v>3000</v>
       </c>
-      <c r="T6" s="89"/>
-      <c r="U6" s="97">
+      <c r="T6" s="99"/>
+      <c r="U6" s="100">
         <v>1000</v>
       </c>
-      <c r="V6" s="98"/>
-      <c r="W6" s="99" t="s">
+      <c r="V6" s="90"/>
+      <c r="W6" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="99"/>
+      <c r="X6" s="101"/>
       <c r="Z6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-    </row>
-    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+    </row>
+    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="99">
         <v>9000</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="97">
+      <c r="D7" s="99"/>
+      <c r="E7" s="100">
         <v>1300</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="90"/>
+      <c r="G7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="99"/>
+      <c r="H7" s="101"/>
       <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="101">
+      <c r="K7" s="104">
         <v>6000</v>
       </c>
-      <c r="L7" s="101"/>
-      <c r="M7" s="97">
+      <c r="L7" s="104"/>
+      <c r="M7" s="100">
         <v>400</v>
       </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="99" t="s">
+      <c r="N7" s="90"/>
+      <c r="O7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="99"/>
+      <c r="P7" s="101"/>
       <c r="R7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="89">
+      <c r="S7" s="99">
         <v>3000</v>
       </c>
-      <c r="T7" s="89"/>
-      <c r="U7" s="97">
+      <c r="T7" s="99"/>
+      <c r="U7" s="100">
         <v>900</v>
       </c>
-      <c r="V7" s="98"/>
-      <c r="W7" s="99" t="s">
+      <c r="V7" s="90"/>
+      <c r="W7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="99"/>
+      <c r="X7" s="101"/>
       <c r="Z7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-    </row>
-    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+    </row>
+    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="99">
         <v>9300</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="97">
+      <c r="D8" s="99"/>
+      <c r="E8" s="100">
         <v>1900</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="99"/>
+      <c r="H8" s="101"/>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="104">
         <v>6300</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="97">
+      <c r="L8" s="104"/>
+      <c r="M8" s="100">
         <v>600</v>
       </c>
-      <c r="N8" s="98"/>
-      <c r="O8" s="99" t="s">
+      <c r="N8" s="90"/>
+      <c r="O8" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="99"/>
+      <c r="P8" s="101"/>
       <c r="R8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="89">
+      <c r="S8" s="99">
         <v>3000</v>
       </c>
-      <c r="T8" s="89"/>
-      <c r="U8" s="97">
+      <c r="T8" s="99"/>
+      <c r="U8" s="100">
         <v>1300</v>
       </c>
-      <c r="V8" s="98"/>
-      <c r="W8" s="99" t="s">
+      <c r="V8" s="90"/>
+      <c r="W8" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="99"/>
+      <c r="X8" s="101"/>
       <c r="Z8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-    </row>
-    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+    </row>
+    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="99">
         <v>8500</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="97">
+      <c r="D9" s="99"/>
+      <c r="E9" s="100">
         <v>4400</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="99"/>
+      <c r="H9" s="101"/>
       <c r="J9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="104">
         <v>5500</v>
       </c>
-      <c r="L9" s="101"/>
-      <c r="M9" s="97">
+      <c r="L9" s="104"/>
+      <c r="M9" s="100">
         <v>2200</v>
       </c>
-      <c r="N9" s="98"/>
-      <c r="O9" s="99" t="s">
+      <c r="N9" s="90"/>
+      <c r="O9" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="99"/>
+      <c r="P9" s="101"/>
       <c r="R9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="89">
+      <c r="S9" s="99">
         <v>3000</v>
       </c>
-      <c r="T9" s="89"/>
-      <c r="U9" s="97">
+      <c r="T9" s="99"/>
+      <c r="U9" s="100">
         <v>1200</v>
       </c>
-      <c r="V9" s="98"/>
-      <c r="W9" s="99" t="s">
+      <c r="V9" s="90"/>
+      <c r="W9" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="99"/>
+      <c r="X9" s="101"/>
       <c r="Z9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-    </row>
-    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+    </row>
+    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="99">
         <v>8800</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="97">
+      <c r="D10" s="99"/>
+      <c r="E10" s="100">
         <v>3600</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="99"/>
+      <c r="H10" s="101"/>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="98">
         <v>5800</v>
       </c>
-      <c r="L10" s="111"/>
-      <c r="M10" s="112">
+      <c r="L10" s="98"/>
+      <c r="M10" s="102">
         <v>2300</v>
       </c>
-      <c r="N10" s="105"/>
-      <c r="O10" s="106" t="s">
+      <c r="N10" s="92"/>
+      <c r="O10" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="106"/>
+      <c r="P10" s="93"/>
       <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="89">
+      <c r="S10" s="99">
         <v>3000</v>
       </c>
-      <c r="T10" s="89"/>
-      <c r="U10" s="97">
+      <c r="T10" s="99"/>
+      <c r="U10" s="100">
         <v>1300</v>
       </c>
-      <c r="V10" s="98"/>
-      <c r="W10" s="99" t="s">
+      <c r="V10" s="90"/>
+      <c r="W10" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="99"/>
+      <c r="X10" s="101"/>
       <c r="Z10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-    </row>
-    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+    </row>
+    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="94">
         <v>62300</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108">
+      <c r="D11" s="94"/>
+      <c r="E11" s="95">
         <v>17400</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110" t="s">
+      <c r="F11" s="96"/>
+      <c r="G11" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="110"/>
+      <c r="H11" s="97"/>
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="98">
         <v>43100</v>
       </c>
-      <c r="L11" s="111"/>
-      <c r="M11" s="108">
+      <c r="L11" s="98"/>
+      <c r="M11" s="95">
         <v>9400</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="110" t="s">
+      <c r="N11" s="96"/>
+      <c r="O11" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="110"/>
+      <c r="P11" s="97"/>
       <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="107">
+      <c r="S11" s="94">
         <v>21000</v>
       </c>
-      <c r="T11" s="107"/>
-      <c r="U11" s="108">
+      <c r="T11" s="94"/>
+      <c r="U11" s="95">
         <v>8000</v>
       </c>
-      <c r="V11" s="109"/>
-      <c r="W11" s="110" t="s">
+      <c r="V11" s="96"/>
+      <c r="W11" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="110"/>
+      <c r="X11" s="97"/>
       <c r="Z11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-    </row>
-    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-    </row>
-    <row r="15" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+    </row>
+    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+    </row>
+    <row r="15" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AC12:AD12"/>
@@ -2016,97 +2108,6 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2117,21 +2118,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="39" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="7"/>
-    <col min="7" max="7" width="12.6640625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="7"/>
+    <col min="1" max="1" width="45.42578125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="17.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="8" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="7"/>
+    <col min="7" max="7" width="12.7109375" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
@@ -2154,11 +2155,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="113" t="s">
+    <row r="2" spans="1:64" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="114"/>
       <c r="D2" s="15"/>
       <c r="E2" s="14">
         <v>1</v>
@@ -2341,7 +2342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -2357,7 +2358,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
@@ -2371,7 +2372,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
@@ -2387,7 +2388,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -2400,7 +2401,7 @@
       <c r="D6" s="18"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -2414,7 +2415,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
@@ -2428,7 +2429,7 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -2442,7 +2443,7 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
@@ -2456,7 +2457,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
@@ -2472,7 +2473,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
@@ -2490,7 +2491,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
@@ -2505,7 +2506,7 @@
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
@@ -2519,7 +2520,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -2533,7 +2534,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
@@ -2547,7 +2548,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
@@ -2562,7 +2563,7 @@
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
@@ -2579,7 +2580,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>46</v>
       </c>
@@ -2595,7 +2596,7 @@
       <c r="AC19" s="24"/>
       <c r="AD19" s="24"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
@@ -2610,7 +2611,7 @@
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
@@ -2624,14 +2625,14 @@
       <c r="AH21" s="24"/>
       <c r="AI21" s="24"/>
     </row>
-    <row r="22" spans="1:38" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:38" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="26"/>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
@@ -2645,7 +2646,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>52</v>
       </c>
@@ -2660,7 +2661,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>53</v>
       </c>
@@ -2676,7 +2677,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -2694,7 +2695,7 @@
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>55</v>
       </c>
@@ -2709,7 +2710,7 @@
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>57</v>
       </c>
@@ -2722,7 +2723,7 @@
       <c r="D28" s="18"/>
       <c r="W28" s="19"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>58</v>
       </c>
@@ -2739,7 +2740,7 @@
       <c r="Z29" s="71"/>
       <c r="AA29" s="71"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>59</v>
       </c>
@@ -2754,7 +2755,7 @@
       <c r="AC30" s="86"/>
       <c r="AD30" s="86"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
@@ -2772,7 +2773,7 @@
       <c r="AI31" s="86"/>
       <c r="AJ31" s="86"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>61</v>
       </c>
@@ -2786,7 +2787,7 @@
       <c r="AK32" s="85"/>
       <c r="AL32" s="85"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>181</v>
       </c>
@@ -2801,7 +2802,7 @@
       <c r="AC33" s="86"/>
       <c r="AD33" s="86"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
@@ -2817,7 +2818,7 @@
       <c r="AG34" s="85"/>
       <c r="AH34" s="85"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>64</v>
       </c>
@@ -2836,7 +2837,7 @@
       <c r="AR35" s="85"/>
       <c r="AS35" s="85"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>66</v>
       </c>
@@ -2850,7 +2851,7 @@
       <c r="AT36" s="24"/>
       <c r="AU36" s="24"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>67</v>
       </c>
@@ -2869,7 +2870,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>68</v>
       </c>
@@ -2889,7 +2890,7 @@
       <c r="BB38" s="24"/>
       <c r="BC38" s="24"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>69</v>
       </c>
@@ -2907,14 +2908,14 @@
       <c r="BH39" s="24"/>
       <c r="BI39" s="24"/>
     </row>
-    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:61" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B40" s="26"/>
       <c r="D40" s="28"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>71</v>
       </c>
@@ -2928,7 +2929,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>72</v>
       </c>
@@ -2942,7 +2943,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>73</v>
       </c>
@@ -2955,7 +2956,7 @@
       <c r="D43" s="30"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>74</v>
       </c>
@@ -2971,7 +2972,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
@@ -2987,7 +2988,7 @@
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>77</v>
       </c>
@@ -3001,7 +3002,7 @@
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>79</v>
       </c>
@@ -3017,7 +3018,7 @@
       <c r="S47" s="24"/>
       <c r="T47" s="24"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:61" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>80</v>
       </c>
@@ -3031,7 +3032,7 @@
       <c r="U48" s="24"/>
       <c r="V48" s="24"/>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>81</v>
       </c>
@@ -3045,7 +3046,7 @@
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>82</v>
       </c>
@@ -3058,7 +3059,7 @@
       <c r="D50" s="31"/>
       <c r="Y50" s="24"/>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>83</v>
       </c>
@@ -3074,7 +3075,7 @@
       <c r="AA51" s="24"/>
       <c r="AB51" s="24"/>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>84</v>
       </c>
@@ -3090,7 +3091,7 @@
       <c r="AE52" s="24"/>
       <c r="AF52" s="24"/>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>86</v>
       </c>
@@ -3104,7 +3105,7 @@
       <c r="AG53" s="24"/>
       <c r="AH53" s="24"/>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>88</v>
       </c>
@@ -3120,7 +3121,7 @@
       <c r="AI54" s="24"/>
       <c r="AJ54" s="24"/>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>89</v>
       </c>
@@ -3134,7 +3135,7 @@
       <c r="AK55" s="24"/>
       <c r="AL55" s="24"/>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>90</v>
       </c>
@@ -3148,7 +3149,7 @@
       <c r="AM56" s="24"/>
       <c r="AN56" s="24"/>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>91</v>
       </c>
@@ -3161,7 +3162,7 @@
       <c r="D57" s="31"/>
       <c r="AO57" s="24"/>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>92</v>
       </c>
@@ -3177,7 +3178,7 @@
       <c r="AR58" s="24"/>
       <c r="AS58" s="24"/>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>94</v>
       </c>
@@ -3191,7 +3192,7 @@
       <c r="AT59" s="24"/>
       <c r="AU59" s="24"/>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>96</v>
       </c>
@@ -3207,14 +3208,14 @@
       <c r="AV60" s="24"/>
       <c r="AW60" s="24"/>
     </row>
-    <row r="61" spans="1:49" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:49" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B61" s="26"/>
       <c r="D61" s="28"/>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>98</v>
       </c>
@@ -3230,7 +3231,7 @@
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>99</v>
       </c>
@@ -3248,7 +3249,7 @@
       <c r="M63" s="33"/>
       <c r="N63" s="33"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:49" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>100</v>
       </c>
@@ -3268,7 +3269,7 @@
       <c r="O64" s="33"/>
       <c r="P64" s="33"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>101</v>
       </c>
@@ -3288,7 +3289,7 @@
       <c r="W65" s="34"/>
       <c r="X65" s="34"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>102</v>
       </c>
@@ -3304,7 +3305,7 @@
       <c r="S66" s="34"/>
       <c r="T66" s="34"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>104</v>
       </c>
@@ -3324,7 +3325,7 @@
       <c r="W67" s="34"/>
       <c r="X67" s="34"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>105</v>
       </c>
@@ -3340,7 +3341,7 @@
       <c r="AA68" s="34"/>
       <c r="AB68" s="34"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>107</v>
       </c>
@@ -3356,7 +3357,7 @@
       <c r="AA69" s="34"/>
       <c r="AB69" s="34"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>108</v>
       </c>
@@ -3371,7 +3372,7 @@
       <c r="AD70" s="34"/>
       <c r="AE70" s="34"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>109</v>
       </c>
@@ -3386,7 +3387,7 @@
       <c r="AG71" s="34"/>
       <c r="AH71" s="34"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>111</v>
       </c>
@@ -3402,7 +3403,7 @@
       <c r="AK72" s="34"/>
       <c r="AL72" s="34"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>112</v>
       </c>
@@ -3418,14 +3419,14 @@
       <c r="AO73" s="34"/>
       <c r="AP73" s="34"/>
     </row>
-    <row r="74" spans="1:42" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:42" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B74" s="35"/>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>114</v>
       </c>
@@ -3444,7 +3445,7 @@
       <c r="J75" s="71"/>
       <c r="K75" s="22"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>115</v>
       </c>
@@ -3454,7 +3455,7 @@
       <c r="C76" s="17">
         <v>1</v>
       </c>
-      <c r="D76" s="117"/>
+      <c r="D76" s="89"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
@@ -3463,7 +3464,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>116</v>
       </c>
@@ -3473,7 +3474,7 @@
       <c r="C77" s="17">
         <v>1</v>
       </c>
-      <c r="D77" s="117"/>
+      <c r="D77" s="89"/>
       <c r="L77" s="71"/>
       <c r="M77" s="71"/>
       <c r="N77" s="71"/>
@@ -3483,7 +3484,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="85"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>117</v>
       </c>
@@ -3499,7 +3500,7 @@
       <c r="U78" s="24"/>
       <c r="V78" s="24"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>119</v>
       </c>
@@ -3517,7 +3518,7 @@
       <c r="AA79" s="24"/>
       <c r="AB79" s="24"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>120</v>
       </c>
@@ -3535,7 +3536,7 @@
       <c r="AA80" s="24"/>
       <c r="AB80" s="24"/>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>121</v>
       </c>
@@ -3552,7 +3553,7 @@
       <c r="AF81" s="24"/>
       <c r="AG81" s="24"/>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="16" t="s">
         <v>123</v>
       </c>
@@ -3570,7 +3571,7 @@
       <c r="AL82" s="24"/>
       <c r="AM82" s="24"/>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>124</v>
       </c>
@@ -3586,7 +3587,7 @@
       <c r="AN83" s="24"/>
       <c r="AO83" s="24"/>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>125</v>
       </c>
@@ -3596,7 +3597,7 @@
       <c r="C84" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="117"/>
+      <c r="D84" s="89"/>
       <c r="E84" s="76"/>
       <c r="F84" s="76"/>
       <c r="G84" s="76"/>
@@ -3635,7 +3636,7 @@
       <c r="AN84" s="78"/>
       <c r="AO84" s="78"/>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>126</v>
       </c>
@@ -3650,14 +3651,14 @@
       <c r="AQ85" s="77"/>
       <c r="AR85" s="77"/>
     </row>
-    <row r="86" spans="1:44" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:44" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B86" s="26"/>
       <c r="D86" s="28"/>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>128</v>
       </c>
@@ -3692,7 +3693,7 @@
       <c r="Z87" s="38"/>
       <c r="AA87" s="38"/>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>129</v>
       </c>
@@ -3727,7 +3728,7 @@
       <c r="Z88" s="38"/>
       <c r="AA88" s="38"/>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>130</v>
       </c>
@@ -3762,7 +3763,7 @@
       <c r="Z89" s="38"/>
       <c r="AA89" s="38"/>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>131</v>
       </c>
@@ -3797,7 +3798,7 @@
       <c r="Z90" s="38"/>
       <c r="AA90" s="38"/>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>132</v>
       </c>
@@ -3832,7 +3833,7 @@
       <c r="Z91" s="38"/>
       <c r="AA91" s="38"/>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>134</v>
       </c>
@@ -3865,7 +3866,7 @@
       <c r="Z92" s="38"/>
       <c r="AA92" s="38"/>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>136</v>
       </c>
@@ -3898,7 +3899,7 @@
       <c r="Z93" s="38"/>
       <c r="AA93" s="38"/>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>137</v>
       </c>
@@ -3933,7 +3934,7 @@
       <c r="Z94" s="38"/>
       <c r="AA94" s="38"/>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>139</v>
       </c>
@@ -3968,7 +3969,7 @@
       <c r="X95" s="41"/>
       <c r="Y95" s="41"/>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>140</v>
       </c>
@@ -3982,7 +3983,7 @@
       <c r="X96" s="34"/>
       <c r="Y96" s="34"/>
     </row>
-    <row r="97" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="s">
         <v>141</v>
       </c>
@@ -4004,7 +4005,7 @@
       <c r="AH97" s="34"/>
       <c r="AI97" s="34"/>
     </row>
-    <row r="98" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>142</v>
       </c>
@@ -4017,7 +4018,7 @@
       <c r="D98" s="42"/>
       <c r="AI98" s="34"/>
     </row>
-    <row r="99" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>143</v>
       </c>
@@ -4034,7 +4035,7 @@
       <c r="AM99" s="34"/>
       <c r="AN99" s="34"/>
     </row>
-    <row r="100" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>144</v>
       </c>
@@ -4048,7 +4049,7 @@
       <c r="AO100" s="83"/>
       <c r="AP100" s="83"/>
     </row>
-    <row r="101" spans="1:2498" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2498" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>145</v>
       </c>
@@ -6550,7 +6551,7 @@
       <c r="CRA101" s="27"/>
       <c r="CRB101" s="27"/>
     </row>
-    <row r="102" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="44" t="s">
         <v>146</v>
       </c>
@@ -6564,7 +6565,7 @@
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="44" t="s">
         <v>147</v>
       </c>
@@ -6581,7 +6582,7 @@
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
     </row>
-    <row r="104" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="44" t="s">
         <v>148</v>
       </c>
@@ -6598,7 +6599,7 @@
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2498" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A105" s="44" t="s">
         <v>149</v>
       </c>
@@ -6615,7 +6616,7 @@
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
     </row>
-    <row r="106" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="44" t="s">
         <v>150</v>
       </c>
@@ -6625,22 +6626,22 @@
       <c r="C106" s="45">
         <v>1</v>
       </c>
-      <c r="D106" s="30"/>
+      <c r="D106" s="118"/>
       <c r="G106" s="71"/>
       <c r="H106" s="71"/>
       <c r="I106" s="71"/>
       <c r="J106" s="71"/>
       <c r="K106" s="71"/>
       <c r="L106" s="71"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
-    </row>
-    <row r="107" spans="1:2498" x14ac:dyDescent="0.35">
+      <c r="M106" s="71"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="71"/>
+      <c r="Q106" s="71"/>
+      <c r="R106" s="71"/>
+      <c r="S106" s="71"/>
+    </row>
+    <row r="107" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
         <v>151</v>
       </c>
@@ -6657,7 +6658,7 @@
       <c r="W107" s="24"/>
       <c r="X107" s="24"/>
     </row>
-    <row r="108" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2498" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A108" s="44" t="s">
         <v>153</v>
       </c>
@@ -6674,7 +6675,7 @@
       <c r="AB108" s="24"/>
       <c r="AC108" s="24"/>
     </row>
-    <row r="109" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="44" t="s">
         <v>154</v>
       </c>
@@ -6692,7 +6693,7 @@
       <c r="AH109" s="24"/>
       <c r="AI109" s="24"/>
     </row>
-    <row r="110" spans="1:2498" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2498" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="44" t="s">
         <v>155</v>
       </c>
@@ -6710,7 +6711,7 @@
       <c r="AN110" s="24"/>
       <c r="AO110" s="24"/>
     </row>
-    <row r="111" spans="1:2498" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2498" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="46" t="s">
         <v>157</v>
       </c>
@@ -6743,294 +6744,294 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="114" t="s">
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114" t="s">
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114" t="s">
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114" t="s">
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-    </row>
-    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="115" t="s">
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115" t="s">
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115" t="s">
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115" t="s">
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115" t="s">
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-    </row>
-    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-    </row>
-    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-    </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-    </row>
-    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-    </row>
-    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-    </row>
-    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+    </row>
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+    </row>
+    <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+    </row>
+    <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="115"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-    </row>
-    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="51" t="s">
         <v>165</v>
       </c>
@@ -7045,6 +7046,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q4:S13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
@@ -7057,18 +7070,6 @@
     <mergeCell ref="H4:J13"/>
     <mergeCell ref="K4:M13"/>
     <mergeCell ref="N4:P13"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7083,12 +7084,12 @@
       <selection activeCell="C11" sqref="C11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="53"/>
       <c r="C2" s="54" t="s">
         <v>166</v>
@@ -7113,7 +7114,7 @@
       <c r="K2" s="55"/>
       <c r="L2" s="56"/>
     </row>
-    <row r="3" spans="2:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="53"/>
       <c r="C3" s="57" t="s">
         <v>171</v>
@@ -7138,7 +7139,7 @@
       <c r="K3" s="58"/>
       <c r="L3" s="59"/>
     </row>
-    <row r="4" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -7165,7 +7166,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="62"/>
     </row>
-    <row r="5" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="63" t="s">
         <v>7</v>
       </c>
@@ -7192,7 +7193,7 @@
       <c r="K5" s="64"/>
       <c r="L5" s="64"/>
     </row>
-    <row r="6" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
         <v>9</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="65" t="s">
         <v>176</v>
       </c>
@@ -7252,7 +7253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="65" t="s">
         <v>11</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="65" t="s">
         <v>177</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="65" t="s">
         <v>13</v>
       </c>
@@ -7339,7 +7340,7 @@
       <c r="K10" s="64"/>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="66" t="s">
         <v>14</v>
       </c>
@@ -7366,7 +7367,7 @@
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
     </row>
-    <row r="12" spans="2:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="67" t="s">
         <v>0</v>
       </c>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{0D597802-0DC6-484F-B9D4-6A6C5A5ED167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1881C82E-E5E8-4A00-9930-05CFBF368E04}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{0D597802-0DC6-484F-B9D4-6A6C5A5ED167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7948D2B-D3DF-404B-B627-63633AF44F10}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="186">
   <si>
     <t>Total</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>Nihat K</t>
+  </si>
+  <si>
+    <t>Apr. 7</t>
   </si>
 </sst>
 </file>
@@ -925,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1057,7 +1060,58 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1081,73 +1135,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,6 +1239,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1411,7 +1423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AF22"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1422,544 +1434,544 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="K2" s="96" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="K2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="S2" s="96" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="S2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="AA2" s="96" t="s">
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="AA2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
     </row>
     <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="K3" s="97" t="s">
+      <c r="H3" s="92"/>
+      <c r="K3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="97"/>
-      <c r="M3" s="98" t="s">
+      <c r="L3" s="90"/>
+      <c r="M3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="99" t="s">
+      <c r="N3" s="91"/>
+      <c r="O3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="99"/>
-      <c r="S3" s="97" t="s">
+      <c r="P3" s="92"/>
+      <c r="S3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="97"/>
-      <c r="U3" s="98" t="s">
+      <c r="T3" s="90"/>
+      <c r="U3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="98"/>
-      <c r="W3" s="99" t="s">
+      <c r="V3" s="91"/>
+      <c r="W3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="99"/>
-      <c r="AA3" s="97" t="s">
+      <c r="X3" s="92"/>
+      <c r="AA3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="98" t="s">
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="99" t="s">
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="99"/>
+      <c r="AF3" s="92"/>
     </row>
     <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="86">
         <v>8200</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="94">
-        <v>2500</v>
-      </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="93" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="87">
+        <v>4300</v>
+      </c>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="88"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="95">
+      <c r="K4" s="100">
         <v>5200</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="94">
-        <v>1400</v>
-      </c>
-      <c r="N4" s="94"/>
-      <c r="O4" s="93" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="87">
+        <v>3000</v>
+      </c>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="93"/>
+      <c r="P4" s="88"/>
       <c r="R4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="85">
+      <c r="S4" s="86">
         <v>3000</v>
       </c>
-      <c r="T4" s="85"/>
-      <c r="U4" s="94">
-        <v>1100</v>
-      </c>
-      <c r="V4" s="94"/>
-      <c r="W4" s="93" t="s">
+      <c r="T4" s="86"/>
+      <c r="U4" s="87">
+        <v>1300</v>
+      </c>
+      <c r="V4" s="87"/>
+      <c r="W4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="93"/>
+      <c r="X4" s="88"/>
       <c r="Z4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
     </row>
     <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="86">
         <v>10200</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86">
-        <v>3100</v>
-      </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="93">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="87"/>
+      <c r="H5" s="94"/>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="97">
         <v>7200</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="86">
-        <v>1900</v>
-      </c>
-      <c r="N5" s="86"/>
-      <c r="O5" s="87" t="s">
+      <c r="L5" s="97"/>
+      <c r="M5" s="93">
+        <v>3600</v>
+      </c>
+      <c r="N5" s="93"/>
+      <c r="O5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="87"/>
+      <c r="P5" s="94"/>
       <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="85">
+      <c r="S5" s="86">
         <v>3000</v>
       </c>
-      <c r="T5" s="85"/>
-      <c r="U5" s="86">
-        <v>1200</v>
-      </c>
-      <c r="V5" s="86"/>
-      <c r="W5" s="87" t="s">
+      <c r="T5" s="86"/>
+      <c r="U5" s="93">
+        <v>1400</v>
+      </c>
+      <c r="V5" s="93"/>
+      <c r="W5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="87"/>
+      <c r="X5" s="94"/>
       <c r="Z5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
     </row>
     <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="86">
         <v>8300</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86">
+      <c r="D6" s="86"/>
+      <c r="E6" s="93">
         <v>1600</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="87"/>
+      <c r="H6" s="94"/>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="97">
         <v>5300</v>
       </c>
-      <c r="L6" s="90"/>
-      <c r="M6" s="86">
-        <v>600</v>
-      </c>
-      <c r="N6" s="86"/>
-      <c r="O6" s="87" t="s">
+      <c r="L6" s="97"/>
+      <c r="M6" s="93">
+        <v>400</v>
+      </c>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="87"/>
+      <c r="P6" s="94"/>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="85">
+      <c r="S6" s="86">
         <v>3000</v>
       </c>
-      <c r="T6" s="85"/>
-      <c r="U6" s="86">
-        <v>1000</v>
-      </c>
-      <c r="V6" s="86"/>
-      <c r="W6" s="87" t="s">
+      <c r="T6" s="86"/>
+      <c r="U6" s="93">
+        <v>1200</v>
+      </c>
+      <c r="V6" s="93"/>
+      <c r="W6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="87"/>
+      <c r="X6" s="94"/>
       <c r="Z6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
     </row>
     <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="86">
         <v>9000</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86">
+      <c r="D7" s="86"/>
+      <c r="E7" s="93">
         <v>1300</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87" t="s">
+      <c r="F7" s="93"/>
+      <c r="G7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="94"/>
       <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="97">
         <v>6000</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="86">
+      <c r="L7" s="97"/>
+      <c r="M7" s="93">
         <v>400</v>
       </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87" t="s">
+      <c r="N7" s="93"/>
+      <c r="O7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="87"/>
+      <c r="P7" s="94"/>
       <c r="R7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="85">
+      <c r="S7" s="86">
         <v>3000</v>
       </c>
-      <c r="T7" s="85"/>
-      <c r="U7" s="86">
+      <c r="T7" s="86"/>
+      <c r="U7" s="93">
         <v>900</v>
       </c>
-      <c r="V7" s="86"/>
-      <c r="W7" s="87" t="s">
+      <c r="V7" s="93"/>
+      <c r="W7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="87"/>
+      <c r="X7" s="94"/>
       <c r="Z7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
     </row>
     <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="86">
         <v>9300</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86">
-        <v>1900</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="93">
+        <v>5800</v>
+      </c>
+      <c r="F8" s="93"/>
+      <c r="G8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="87"/>
+      <c r="H8" s="94"/>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="97">
         <v>6300</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="86">
-        <v>600</v>
-      </c>
-      <c r="N8" s="86"/>
-      <c r="O8" s="87" t="s">
+      <c r="L8" s="97"/>
+      <c r="M8" s="93">
+        <v>4300</v>
+      </c>
+      <c r="N8" s="93"/>
+      <c r="O8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="87"/>
+      <c r="P8" s="94"/>
       <c r="R8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="85">
+      <c r="S8" s="86">
         <v>3000</v>
       </c>
-      <c r="T8" s="85"/>
-      <c r="U8" s="86">
-        <v>1300</v>
-      </c>
-      <c r="V8" s="86"/>
-      <c r="W8" s="87" t="s">
+      <c r="T8" s="86"/>
+      <c r="U8" s="93">
+        <v>1500</v>
+      </c>
+      <c r="V8" s="93"/>
+      <c r="W8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="87"/>
+      <c r="X8" s="94"/>
       <c r="Z8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
     </row>
     <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="86">
         <v>8500</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86">
-        <v>4400</v>
-      </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87" t="s">
+      <c r="D9" s="86"/>
+      <c r="E9" s="93">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="87"/>
+      <c r="H9" s="94"/>
       <c r="J9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="97">
         <v>5500</v>
       </c>
-      <c r="L9" s="90"/>
-      <c r="M9" s="86">
+      <c r="L9" s="97"/>
+      <c r="M9" s="93">
         <v>2200</v>
       </c>
-      <c r="N9" s="86"/>
-      <c r="O9" s="87" t="s">
+      <c r="N9" s="93"/>
+      <c r="O9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="87"/>
+      <c r="P9" s="94"/>
       <c r="R9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="85">
+      <c r="S9" s="86">
         <v>3000</v>
       </c>
-      <c r="T9" s="85"/>
-      <c r="U9" s="86">
-        <v>1200</v>
-      </c>
-      <c r="V9" s="86"/>
-      <c r="W9" s="87" t="s">
+      <c r="T9" s="86"/>
+      <c r="U9" s="93">
+        <v>1400</v>
+      </c>
+      <c r="V9" s="93"/>
+      <c r="W9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="87"/>
+      <c r="X9" s="94"/>
       <c r="Z9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
     </row>
     <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="86">
         <v>8800</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86">
-        <v>3600</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="93">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="94"/>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="84">
+      <c r="K10" s="107">
         <v>5800</v>
       </c>
-      <c r="L10" s="84"/>
-      <c r="M10" s="88">
-        <v>2300</v>
-      </c>
-      <c r="N10" s="88"/>
-      <c r="O10" s="80" t="s">
+      <c r="L10" s="107"/>
+      <c r="M10" s="108">
+        <v>3000</v>
+      </c>
+      <c r="N10" s="108"/>
+      <c r="O10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="80"/>
+      <c r="P10" s="103"/>
       <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="85">
+      <c r="S10" s="86">
         <v>3000</v>
       </c>
-      <c r="T10" s="85"/>
-      <c r="U10" s="86">
-        <v>1300</v>
-      </c>
-      <c r="V10" s="86"/>
-      <c r="W10" s="87" t="s">
+      <c r="T10" s="86"/>
+      <c r="U10" s="93">
+        <v>1500</v>
+      </c>
+      <c r="V10" s="93"/>
+      <c r="W10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="87"/>
+      <c r="X10" s="94"/>
       <c r="Z10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="80"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
     </row>
     <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="104">
         <v>62300</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82">
-        <v>17400</v>
-      </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83" t="s">
+      <c r="D11" s="104"/>
+      <c r="E11" s="105">
+        <v>26100</v>
+      </c>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="83"/>
+      <c r="H11" s="106"/>
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="107">
         <v>43100</v>
       </c>
-      <c r="L11" s="84"/>
-      <c r="M11" s="82">
-        <v>9400</v>
-      </c>
-      <c r="N11" s="82"/>
-      <c r="O11" s="83" t="s">
+      <c r="L11" s="107"/>
+      <c r="M11" s="105">
+        <v>16900</v>
+      </c>
+      <c r="N11" s="105"/>
+      <c r="O11" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="83"/>
+      <c r="P11" s="106"/>
       <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="81">
+      <c r="S11" s="104">
         <v>21000</v>
       </c>
-      <c r="T11" s="81"/>
-      <c r="U11" s="82">
-        <v>8000</v>
-      </c>
-      <c r="V11" s="82"/>
-      <c r="W11" s="83" t="s">
+      <c r="T11" s="104"/>
+      <c r="U11" s="105">
+        <v>9200</v>
+      </c>
+      <c r="V11" s="105"/>
+      <c r="W11" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="83"/>
+      <c r="X11" s="106"/>
       <c r="Z11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="80"/>
-      <c r="AF11" s="80"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
     </row>
     <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
     </row>
     <row r="15" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I15" s="5"/>
@@ -1987,25 +1999,78 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
@@ -2030,78 +2095,25 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2112,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CRB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AM82" sqref="AM82"/>
+    <sheetView topLeftCell="A63" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106:S106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2150,10 +2162,10 @@
       </c>
     </row>
     <row r="2" spans="1:64" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="100"/>
+      <c r="B2" s="109"/>
       <c r="D2" s="15"/>
       <c r="E2" s="14">
         <v>1</v>
@@ -3442,14 +3454,14 @@
       <c r="C75" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="107"/>
+      <c r="D75" s="80"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="19"/>
-      <c r="K75" s="104"/>
+      <c r="K75" s="77"/>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
@@ -3462,12 +3474,12 @@
         <v>1</v>
       </c>
       <c r="D76" s="36"/>
-      <c r="L76" s="104"/>
-      <c r="M76" s="104"/>
-      <c r="N76" s="104"/>
-      <c r="O76" s="104"/>
-      <c r="P76" s="104"/>
-      <c r="Q76" s="104"/>
+      <c r="L76" s="77"/>
+      <c r="M76" s="77"/>
+      <c r="N76" s="77"/>
+      <c r="O76" s="77"/>
+      <c r="P76" s="77"/>
+      <c r="Q76" s="77"/>
       <c r="R76" s="22"/>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.35">
@@ -3484,10 +3496,10 @@
       <c r="L77" s="19"/>
       <c r="M77" s="19"/>
       <c r="N77" s="19"/>
-      <c r="O77" s="104"/>
-      <c r="P77" s="104"/>
-      <c r="Q77" s="104"/>
-      <c r="R77" s="104"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="77"/>
       <c r="S77" s="22"/>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.35">
@@ -3500,11 +3512,11 @@
       <c r="C78" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="108"/>
-      <c r="S78" s="105"/>
-      <c r="T78" s="105"/>
-      <c r="U78" s="105"/>
-      <c r="V78" s="105"/>
+      <c r="D78" s="81"/>
+      <c r="S78" s="78"/>
+      <c r="T78" s="78"/>
+      <c r="U78" s="78"/>
+      <c r="V78" s="78"/>
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
@@ -3516,13 +3528,13 @@
       <c r="C79" s="17">
         <v>4</v>
       </c>
-      <c r="D79" s="109"/>
-      <c r="W79" s="105"/>
-      <c r="X79" s="105"/>
-      <c r="Y79" s="105"/>
-      <c r="Z79" s="105"/>
-      <c r="AA79" s="105"/>
-      <c r="AB79" s="106"/>
+      <c r="D79" s="82"/>
+      <c r="W79" s="78"/>
+      <c r="X79" s="78"/>
+      <c r="Y79" s="78"/>
+      <c r="Z79" s="78"/>
+      <c r="AA79" s="78"/>
+      <c r="AB79" s="79"/>
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
@@ -3534,15 +3546,15 @@
       <c r="C80" s="17">
         <v>4</v>
       </c>
-      <c r="D80" s="109"/>
-      <c r="W80" s="105"/>
-      <c r="X80" s="105"/>
-      <c r="Y80" s="105"/>
-      <c r="Z80" s="106"/>
-      <c r="AA80" s="106"/>
-      <c r="AB80" s="106"/>
-    </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="D80" s="82"/>
+      <c r="W80" s="78"/>
+      <c r="X80" s="78"/>
+      <c r="Y80" s="78"/>
+      <c r="Z80" s="79"/>
+      <c r="AA80" s="79"/>
+      <c r="AB80" s="79"/>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>125</v>
       </c>
@@ -3559,7 +3571,7 @@
       <c r="AF81" s="24"/>
       <c r="AG81" s="24"/>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
         <v>127</v>
       </c>
@@ -3570,19 +3582,18 @@
         <v>126</v>
       </c>
       <c r="D82" s="30"/>
-      <c r="AC82" s="110"/>
-      <c r="AD82" s="110"/>
-      <c r="AE82" s="110"/>
-      <c r="AF82" s="110"/>
-      <c r="AG82" s="110"/>
+      <c r="AC82" s="83"/>
+      <c r="AD82" s="83"/>
+      <c r="AE82" s="83"/>
+      <c r="AF82" s="83"/>
+      <c r="AG82" s="83"/>
       <c r="AH82" s="24"/>
-      <c r="AI82" s="111"/>
-      <c r="AJ82" s="111"/>
-      <c r="AK82" s="111"/>
-      <c r="AL82" s="111"/>
-      <c r="AM82" s="113"/>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AI82" s="84"/>
+      <c r="AJ82" s="84"/>
+      <c r="AK82" s="84"/>
+      <c r="AL82" s="84"/>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
         <v>128</v>
       </c>
@@ -3593,15 +3604,12 @@
         <v>24</v>
       </c>
       <c r="D83" s="30"/>
-      <c r="AI83" s="110"/>
-      <c r="AJ83" s="110"/>
-      <c r="AK83" s="110"/>
-      <c r="AL83" s="112"/>
-      <c r="AM83" s="113"/>
-      <c r="AN83" s="113"/>
-      <c r="AO83" s="113"/>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AI83" s="83"/>
+      <c r="AJ83" s="83"/>
+      <c r="AK83" s="83"/>
+      <c r="AL83" s="85"/>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
         <v>129</v>
       </c>
@@ -3619,10 +3627,10 @@
       <c r="I84" s="19"/>
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="104"/>
-      <c r="M84" s="104"/>
-      <c r="N84" s="104"/>
-      <c r="O84" s="104"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="77"/>
+      <c r="O84" s="77"/>
       <c r="P84" s="22"/>
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
@@ -3646,11 +3654,8 @@
       <c r="AJ84" s="37"/>
       <c r="AK84" s="37"/>
       <c r="AL84" s="37"/>
-      <c r="AM84" s="113"/>
-      <c r="AN84" s="113"/>
-      <c r="AO84" s="113"/>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
         <v>130</v>
       </c>
@@ -3661,21 +3666,18 @@
         <v>131</v>
       </c>
       <c r="D85" s="30"/>
-      <c r="AM85" s="110"/>
-      <c r="AN85" s="110"/>
-      <c r="AO85" s="110"/>
-      <c r="AP85" s="113"/>
-      <c r="AQ85" s="113"/>
-      <c r="AR85" s="113"/>
-    </row>
-    <row r="86" spans="1:44" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="AM85" s="83"/>
+      <c r="AN85" s="83"/>
+      <c r="AO85" s="83"/>
+    </row>
+    <row r="86" spans="1:41" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A86" s="25" t="s">
         <v>132</v>
       </c>
       <c r="B86" s="26"/>
       <c r="D86" s="28"/>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
         <v>133</v>
       </c>
@@ -3710,7 +3712,7 @@
       <c r="Z87" s="40"/>
       <c r="AA87" s="40"/>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
         <v>134</v>
       </c>
@@ -3745,7 +3747,7 @@
       <c r="Z88" s="40"/>
       <c r="AA88" s="40"/>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
         <v>135</v>
       </c>
@@ -3780,7 +3782,7 @@
       <c r="Z89" s="40"/>
       <c r="AA89" s="40"/>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
         <v>136</v>
       </c>
@@ -3815,7 +3817,7 @@
       <c r="Z90" s="40"/>
       <c r="AA90" s="40"/>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A91" s="16" t="s">
         <v>137</v>
       </c>
@@ -3825,7 +3827,7 @@
       <c r="C91" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D91" s="42"/>
+      <c r="D91" s="113"/>
       <c r="E91" s="40"/>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
@@ -3850,7 +3852,7 @@
       <c r="Z91" s="40"/>
       <c r="AA91" s="40"/>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A92" s="16" t="s">
         <v>139</v>
       </c>
@@ -3860,7 +3862,7 @@
       <c r="C92" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="42"/>
+      <c r="D92" s="113"/>
       <c r="E92" s="40"/>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
@@ -3883,7 +3885,7 @@
       <c r="Z92" s="40"/>
       <c r="AA92" s="40"/>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A93" s="16" t="s">
         <v>141</v>
       </c>
@@ -3893,7 +3895,7 @@
       <c r="C93" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D93" s="42"/>
+      <c r="D93" s="114"/>
       <c r="E93" s="40"/>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
@@ -3916,7 +3918,7 @@
       <c r="Z93" s="40"/>
       <c r="AA93" s="40"/>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A94" s="16" t="s">
         <v>142</v>
       </c>
@@ -3951,7 +3953,7 @@
       <c r="Z94" s="40"/>
       <c r="AA94" s="40"/>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A95" s="16" t="s">
         <v>144</v>
       </c>
@@ -3986,7 +3988,7 @@
       <c r="X95" s="44"/>
       <c r="Y95" s="44"/>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A96" s="16" t="s">
         <v>145</v>
       </c>
@@ -6758,295 +6760,295 @@
   <dimension ref="A2:S15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103" t="s">
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103" t="s">
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103" t="s">
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103" t="s">
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102" t="s">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102" t="s">
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102" t="s">
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="112"/>
     </row>
     <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
     </row>
     <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
     </row>
     <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
@@ -7063,6 +7065,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q4:S13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="B4:D13"/>
+    <mergeCell ref="E4:G13"/>
+    <mergeCell ref="H4:J13"/>
+    <mergeCell ref="K4:M13"/>
+    <mergeCell ref="N4:P13"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -7075,18 +7089,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q4:S13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B4:D13"/>
-    <mergeCell ref="E4:G13"/>
-    <mergeCell ref="H4:J13"/>
-    <mergeCell ref="K4:M13"/>
-    <mergeCell ref="N4:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7098,7 +7100,7 @@
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7126,7 +7128,9 @@
       <c r="H2" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="58"/>
+      <c r="I2" s="58" t="s">
+        <v>185</v>
+      </c>
       <c r="J2" s="58"/>
       <c r="K2" s="58"/>
       <c r="L2" s="61"/>
@@ -7151,7 +7155,9 @@
       <c r="H3" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="63"/>
+      <c r="I3" s="63" t="s">
+        <v>178</v>
+      </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63"/>
       <c r="L3" s="64"/>
@@ -7178,7 +7184,9 @@
       <c r="H4" s="66">
         <v>1</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="66">
+        <v>2</v>
+      </c>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="67"/>
@@ -7205,7 +7213,9 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5">
+        <v>2</v>
+      </c>
       <c r="J5" s="69"/>
       <c r="K5" s="69"/>
       <c r="L5" s="69"/>
@@ -7232,7 +7242,9 @@
       <c r="H6" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="56"/>
+      <c r="I6">
+        <v>2</v>
+      </c>
       <c r="J6" s="69"/>
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
@@ -7262,7 +7274,9 @@
       <c r="H7" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="69"/>
+      <c r="I7">
+        <v>2</v>
+      </c>
       <c r="J7" s="69"/>
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
@@ -7292,7 +7306,9 @@
       <c r="H8" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="69"/>
+      <c r="I8" s="71" t="s">
+        <v>182</v>
+      </c>
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
@@ -7322,7 +7338,9 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="69"/>
+      <c r="I9">
+        <v>2</v>
+      </c>
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
@@ -7352,7 +7370,9 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="69"/>
+      <c r="I10">
+        <v>2</v>
+      </c>
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
@@ -7379,7 +7399,9 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="56"/>
+      <c r="I11">
+        <v>2</v>
+      </c>
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
@@ -7406,7 +7428,9 @@
       <c r="H12" s="75">
         <v>4</v>
       </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="75">
+        <v>12</v>
+      </c>
       <c r="J12" s="75"/>
       <c r="K12" s="75"/>
       <c r="L12" s="76"/>

--- a/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
+++ b/383Game/Doc/Brain Stew Master Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjab\Documents\GitHub\CS383BrainstewGame\383Game\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19db3ad368368567/Documents/GitHub/CS383BrainstewGame/383Game/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A17FB67-298B-4F5E-88AE-6AD1E72276D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{7A17FB67-298B-4F5E-88AE-6AD1E72276D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1551A8E5-B5A4-43DB-AF1D-EC4722DCCC43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="13800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="190">
   <si>
     <t>Total</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>~1hrs</t>
+  </si>
+  <si>
+    <t>Actual Time (hrs)</t>
   </si>
 </sst>
 </file>
@@ -658,7 +661,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,6 +743,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1062,7 +1083,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1086,74 +1163,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,597 +1453,650 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="10.64453125" customWidth="1"/>
-    <col min="17" max="17" width="10.3515625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="99" t="s">
+    <row r="2" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="K2" s="99" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="K2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="S2" s="99" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="S2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="AA2" s="99" t="s">
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="AA2" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-    </row>
-    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="100" t="s">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+    </row>
+    <row r="3" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="K3" s="100" t="s">
+      <c r="H3" s="92"/>
+      <c r="K3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="100"/>
-      <c r="M3" s="101" t="s">
+      <c r="L3" s="90"/>
+      <c r="M3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="102" t="s">
+      <c r="N3" s="91"/>
+      <c r="O3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="S3" s="100" t="s">
+      <c r="P3" s="92"/>
+      <c r="S3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="100"/>
-      <c r="U3" s="101" t="s">
+      <c r="T3" s="90"/>
+      <c r="U3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="101"/>
-      <c r="W3" s="102" t="s">
+      <c r="V3" s="91"/>
+      <c r="W3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="102"/>
-      <c r="AA3" s="100" t="s">
+      <c r="X3" s="92"/>
+      <c r="AA3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="101" t="s">
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="102" t="s">
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="102"/>
-    </row>
-    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AF3" s="92"/>
+    </row>
+    <row r="4" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="86">
         <v>8200</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="97">
+      <c r="D4" s="86"/>
+      <c r="E4" s="87">
         <v>2500</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="96"/>
+      <c r="H4" s="88"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="100">
         <v>5200</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="97">
+      <c r="L4" s="100"/>
+      <c r="M4" s="87">
         <v>1400</v>
       </c>
-      <c r="N4" s="97"/>
-      <c r="O4" s="96" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96"/>
+      <c r="P4" s="88"/>
       <c r="R4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="88">
+      <c r="S4" s="86">
         <v>3000</v>
       </c>
-      <c r="T4" s="88"/>
-      <c r="U4" s="97">
+      <c r="T4" s="86"/>
+      <c r="U4" s="87">
         <v>1100</v>
       </c>
-      <c r="V4" s="97"/>
-      <c r="W4" s="96" t="s">
+      <c r="V4" s="87"/>
+      <c r="W4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="96"/>
+      <c r="X4" s="88"/>
       <c r="Z4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-    </row>
-    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+    </row>
+    <row r="5" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="86">
         <v>10200</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89">
+      <c r="D5" s="86"/>
+      <c r="E5" s="93">
         <v>3100</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90" t="s">
+      <c r="F5" s="93"/>
+      <c r="G5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="90"/>
+      <c r="H5" s="94"/>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="93">
+      <c r="K5" s="97">
         <v>7200</v>
       </c>
-      <c r="L5" s="93"/>
-      <c r="M5" s="89">
+      <c r="L5" s="97"/>
+      <c r="M5" s="93">
         <v>1900</v>
       </c>
-      <c r="N5" s="89"/>
-      <c r="O5" s="90" t="s">
+      <c r="N5" s="93"/>
+      <c r="O5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="90"/>
+      <c r="P5" s="94"/>
       <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="88">
+      <c r="S5" s="86">
         <v>3000</v>
       </c>
-      <c r="T5" s="88"/>
-      <c r="U5" s="89">
+      <c r="T5" s="86"/>
+      <c r="U5" s="93">
         <v>1200</v>
       </c>
-      <c r="V5" s="89"/>
-      <c r="W5" s="90" t="s">
+      <c r="V5" s="93"/>
+      <c r="W5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="90"/>
+      <c r="X5" s="94"/>
       <c r="Z5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-    </row>
-    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+    </row>
+    <row r="6" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="86">
         <v>8300</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89">
+      <c r="D6" s="86"/>
+      <c r="E6" s="93">
         <v>1600</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="90"/>
+      <c r="H6" s="94"/>
       <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="97">
         <v>5300</v>
       </c>
-      <c r="L6" s="93"/>
-      <c r="M6" s="89">
+      <c r="L6" s="97"/>
+      <c r="M6" s="93">
         <v>600</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90" t="s">
+      <c r="N6" s="93"/>
+      <c r="O6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="90"/>
+      <c r="P6" s="94"/>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="88">
+      <c r="S6" s="86">
         <v>3000</v>
       </c>
-      <c r="T6" s="88"/>
-      <c r="U6" s="89">
+      <c r="T6" s="86"/>
+      <c r="U6" s="93">
         <v>1000</v>
       </c>
-      <c r="V6" s="89"/>
-      <c r="W6" s="90" t="s">
+      <c r="V6" s="93"/>
+      <c r="W6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="90"/>
+      <c r="X6" s="94"/>
       <c r="Z6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-    </row>
-    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+    </row>
+    <row r="7" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="86">
         <v>9000</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89">
+      <c r="D7" s="86"/>
+      <c r="E7" s="93">
         <v>1300</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90" t="s">
+      <c r="F7" s="93"/>
+      <c r="G7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="90"/>
+      <c r="H7" s="94"/>
       <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="93">
+      <c r="K7" s="97">
         <v>6000</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="89">
+      <c r="L7" s="97"/>
+      <c r="M7" s="93">
         <v>400</v>
       </c>
-      <c r="N7" s="89"/>
-      <c r="O7" s="90" t="s">
+      <c r="N7" s="93"/>
+      <c r="O7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="90"/>
+      <c r="P7" s="94"/>
       <c r="R7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="88">
+      <c r="S7" s="86">
         <v>3000</v>
       </c>
-      <c r="T7" s="88"/>
-      <c r="U7" s="89">
+      <c r="T7" s="86"/>
+      <c r="U7" s="93">
         <v>900</v>
       </c>
-      <c r="V7" s="89"/>
-      <c r="W7" s="90" t="s">
+      <c r="V7" s="93"/>
+      <c r="W7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="90"/>
+      <c r="X7" s="94"/>
       <c r="Z7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-    </row>
-    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="99"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+    </row>
+    <row r="8" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="86">
         <v>9300</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89">
+      <c r="D8" s="86"/>
+      <c r="E8" s="93">
         <v>1900</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90" t="s">
+      <c r="F8" s="93"/>
+      <c r="G8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="90"/>
+      <c r="H8" s="94"/>
       <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="93">
+      <c r="K8" s="97">
         <v>6300</v>
       </c>
-      <c r="L8" s="93"/>
-      <c r="M8" s="89">
+      <c r="L8" s="97"/>
+      <c r="M8" s="93">
         <v>600</v>
       </c>
-      <c r="N8" s="89"/>
-      <c r="O8" s="90" t="s">
+      <c r="N8" s="93"/>
+      <c r="O8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="90"/>
+      <c r="P8" s="94"/>
       <c r="R8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="88">
+      <c r="S8" s="86">
         <v>3000</v>
       </c>
-      <c r="T8" s="88"/>
-      <c r="U8" s="89">
+      <c r="T8" s="86"/>
+      <c r="U8" s="93">
         <v>1300</v>
       </c>
-      <c r="V8" s="89"/>
-      <c r="W8" s="90" t="s">
+      <c r="V8" s="93"/>
+      <c r="W8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="90"/>
+      <c r="X8" s="94"/>
       <c r="Z8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-    </row>
-    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+    </row>
+    <row r="9" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="86">
         <v>8500</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89">
+      <c r="D9" s="86"/>
+      <c r="E9" s="93">
         <v>4400</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="90"/>
+      <c r="H9" s="94"/>
       <c r="J9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="93">
+      <c r="K9" s="97">
         <v>5500</v>
       </c>
-      <c r="L9" s="93"/>
-      <c r="M9" s="89">
+      <c r="L9" s="97"/>
+      <c r="M9" s="93">
         <v>2200</v>
       </c>
-      <c r="N9" s="89"/>
-      <c r="O9" s="90" t="s">
+      <c r="N9" s="93"/>
+      <c r="O9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="90"/>
+      <c r="P9" s="94"/>
       <c r="R9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="88">
+      <c r="S9" s="86">
         <v>3000</v>
       </c>
-      <c r="T9" s="88"/>
-      <c r="U9" s="89">
+      <c r="T9" s="86"/>
+      <c r="U9" s="93">
         <v>1200</v>
       </c>
-      <c r="V9" s="89"/>
-      <c r="W9" s="90" t="s">
+      <c r="V9" s="93"/>
+      <c r="W9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="90"/>
+      <c r="X9" s="94"/>
       <c r="Z9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-    </row>
-    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+    </row>
+    <row r="10" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="86">
         <v>8800</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89">
+      <c r="D10" s="86"/>
+      <c r="E10" s="93">
         <v>3600</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="90"/>
+      <c r="H10" s="94"/>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="87">
+      <c r="K10" s="107">
         <v>5800</v>
       </c>
-      <c r="L10" s="87"/>
-      <c r="M10" s="91">
+      <c r="L10" s="107"/>
+      <c r="M10" s="108">
         <v>2300</v>
       </c>
-      <c r="N10" s="91"/>
-      <c r="O10" s="83" t="s">
+      <c r="N10" s="108"/>
+      <c r="O10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="83"/>
+      <c r="P10" s="103"/>
       <c r="R10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="88">
+      <c r="S10" s="86">
         <v>3000</v>
       </c>
-      <c r="T10" s="88"/>
-      <c r="U10" s="89">
+      <c r="T10" s="86"/>
+      <c r="U10" s="93">
         <v>1300</v>
       </c>
-      <c r="V10" s="89"/>
-      <c r="W10" s="90" t="s">
+      <c r="V10" s="93"/>
+      <c r="W10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="90"/>
+      <c r="X10" s="94"/>
       <c r="Z10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-    </row>
-    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+    </row>
+    <row r="11" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="104">
         <v>62300</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85">
+      <c r="D11" s="104"/>
+      <c r="E11" s="105">
         <v>17400</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86" t="s">
+      <c r="F11" s="105"/>
+      <c r="G11" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="86"/>
+      <c r="H11" s="106"/>
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11" s="107">
         <v>43100</v>
       </c>
-      <c r="L11" s="87"/>
-      <c r="M11" s="85">
+      <c r="L11" s="107"/>
+      <c r="M11" s="105">
         <v>9400</v>
       </c>
-      <c r="N11" s="85"/>
-      <c r="O11" s="86" t="s">
+      <c r="N11" s="105"/>
+      <c r="O11" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="86"/>
+      <c r="P11" s="106"/>
       <c r="R11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="84">
+      <c r="S11" s="104">
         <v>21000</v>
       </c>
-      <c r="T11" s="84"/>
-      <c r="U11" s="85">
+      <c r="T11" s="104"/>
+      <c r="U11" s="105">
         <v>8000</v>
       </c>
-      <c r="V11" s="85"/>
-      <c r="W11" s="86" t="s">
+      <c r="V11" s="105"/>
+      <c r="W11" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="86"/>
+      <c r="X11" s="106"/>
       <c r="Z11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-    </row>
-    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-    </row>
-    <row r="15" spans="2:32" ht="14.35" x14ac:dyDescent="0.5">
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+    </row>
+    <row r="12" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+    </row>
+    <row r="15" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:32" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="17" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="18" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="19" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="20" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="21" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="9:9" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="22" spans="9:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
@@ -2036,78 +2121,25 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2116,1173 +2148,1240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CRB111"/>
+  <dimension ref="A1:CRC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ85" sqref="AQ85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.46875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="17.64453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.64453125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="8.64453125" style="7"/>
-    <col min="7" max="7" width="12.64453125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.64453125" style="7"/>
+    <col min="1" max="1" width="45.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="7"/>
+    <col min="8" max="8" width="12.6640625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="9" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:65" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14">
+      <c r="B2" s="109"/>
+      <c r="C2" s="80"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="14">
+      <c r="G2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="14">
+      <c r="H2" s="14">
         <v>3</v>
       </c>
-      <c r="H2" s="14">
+      <c r="I2" s="14">
         <v>4</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>5</v>
       </c>
-      <c r="J2" s="14">
+      <c r="K2" s="14">
         <v>6</v>
       </c>
-      <c r="K2" s="14">
+      <c r="L2" s="14">
         <v>7</v>
       </c>
-      <c r="L2" s="14">
+      <c r="M2" s="14">
         <v>8</v>
       </c>
-      <c r="M2" s="14">
+      <c r="N2" s="14">
         <v>9</v>
       </c>
-      <c r="N2" s="14">
+      <c r="O2" s="14">
         <v>10</v>
       </c>
-      <c r="O2" s="14">
+      <c r="P2" s="14">
         <v>11</v>
       </c>
-      <c r="P2" s="14">
+      <c r="Q2" s="14">
         <v>12</v>
       </c>
-      <c r="Q2" s="14">
+      <c r="R2" s="14">
         <v>13</v>
       </c>
-      <c r="R2" s="14">
+      <c r="S2" s="14">
         <v>14</v>
       </c>
-      <c r="S2" s="14">
+      <c r="T2" s="14">
         <v>15</v>
       </c>
-      <c r="T2" s="14">
+      <c r="U2" s="14">
         <v>16</v>
       </c>
-      <c r="U2" s="14">
+      <c r="V2" s="14">
         <v>17</v>
       </c>
-      <c r="V2" s="14">
+      <c r="W2" s="14">
         <v>18</v>
       </c>
-      <c r="W2" s="14">
+      <c r="X2" s="14">
         <v>19</v>
       </c>
-      <c r="X2" s="14">
+      <c r="Y2" s="14">
         <v>20</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Z2" s="14">
         <v>21</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="AA2" s="14">
         <v>22</v>
       </c>
-      <c r="AA2" s="14">
+      <c r="AB2" s="14">
         <v>23</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AC2" s="14">
         <v>24</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AD2" s="14">
         <v>25</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AE2" s="14">
         <v>26</v>
       </c>
-      <c r="AE2" s="14">
+      <c r="AF2" s="14">
         <v>27</v>
       </c>
-      <c r="AF2" s="14">
+      <c r="AG2" s="14">
         <v>28</v>
       </c>
-      <c r="AG2" s="14">
+      <c r="AH2" s="14">
         <v>29</v>
       </c>
-      <c r="AH2" s="14">
+      <c r="AI2" s="14">
         <v>30</v>
       </c>
-      <c r="AI2" s="14">
+      <c r="AJ2" s="14">
         <v>31</v>
       </c>
-      <c r="AJ2" s="14">
+      <c r="AK2" s="14">
         <v>32</v>
       </c>
-      <c r="AK2" s="14">
+      <c r="AL2" s="14">
         <v>33</v>
       </c>
-      <c r="AL2" s="14">
+      <c r="AM2" s="14">
         <v>34</v>
       </c>
-      <c r="AM2" s="14">
+      <c r="AN2" s="14">
         <v>35</v>
       </c>
-      <c r="AN2" s="14">
+      <c r="AO2" s="14">
         <v>36</v>
       </c>
-      <c r="AO2" s="14">
+      <c r="AP2" s="14">
         <v>37</v>
       </c>
-      <c r="AP2" s="14">
+      <c r="AQ2" s="14">
         <v>38</v>
       </c>
-      <c r="AQ2" s="14">
+      <c r="AR2" s="14">
         <v>39</v>
       </c>
-      <c r="AR2" s="14">
+      <c r="AS2" s="14">
         <v>40</v>
       </c>
-      <c r="AS2" s="14">
+      <c r="AT2" s="14">
         <v>41</v>
       </c>
-      <c r="AT2" s="14">
+      <c r="AU2" s="14">
         <v>42</v>
       </c>
-      <c r="AU2" s="14">
+      <c r="AV2" s="14">
         <v>43</v>
       </c>
-      <c r="AV2" s="14">
+      <c r="AW2" s="14">
         <v>44</v>
       </c>
-      <c r="AW2" s="14">
+      <c r="AX2" s="14">
         <v>45</v>
       </c>
-      <c r="AX2" s="14">
+      <c r="AY2" s="14">
         <v>46</v>
       </c>
-      <c r="AY2" s="14">
+      <c r="AZ2" s="14">
         <v>47</v>
       </c>
-      <c r="AZ2" s="14">
+      <c r="BA2" s="14">
         <v>48</v>
       </c>
-      <c r="BA2" s="14">
+      <c r="BB2" s="14">
         <v>49</v>
       </c>
-      <c r="BB2" s="14">
+      <c r="BC2" s="14">
         <v>50</v>
       </c>
-      <c r="BC2" s="14">
+      <c r="BD2" s="14">
         <v>51</v>
       </c>
-      <c r="BD2" s="14">
+      <c r="BE2" s="14">
         <v>52</v>
       </c>
-      <c r="BE2" s="14">
+      <c r="BF2" s="14">
         <v>53</v>
       </c>
-      <c r="BF2" s="14">
+      <c r="BG2" s="14">
         <v>54</v>
       </c>
-      <c r="BG2" s="14">
+      <c r="BH2" s="14">
         <v>55</v>
       </c>
-      <c r="BH2" s="14">
+      <c r="BI2" s="14">
         <v>56</v>
       </c>
-      <c r="BI2" s="14">
+      <c r="BJ2" s="14">
         <v>57</v>
       </c>
-      <c r="BJ2" s="14">
+      <c r="BK2" s="14">
         <v>58</v>
       </c>
-      <c r="BK2" s="14">
+      <c r="BL2" s="14">
         <v>59</v>
       </c>
-      <c r="BL2" s="14">
+      <c r="BM2" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="17">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="E4" s="18"/>
       <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="E5" s="21"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="E6" s="18"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="E7" s="18"/>
       <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="K8" s="19"/>
+      <c r="E8" s="18"/>
       <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="M9" s="19"/>
+      <c r="E9" s="18"/>
       <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17">
         <v>4</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="J10" s="19"/>
+      <c r="E10" s="18"/>
       <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="17">
         <v>4</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17">
         <v>3</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="K11" s="22"/>
+      <c r="E11" s="23"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="17">
         <v>6</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
         <v>9</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="M12" s="24"/>
+      <c r="E12" s="23"/>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
-    </row>
-    <row r="13" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="S12" s="24"/>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="S13" s="22"/>
+      <c r="E13" s="21"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
-    </row>
-    <row r="14" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="V13" s="22"/>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17">
         <v>8</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="E14" s="21"/>
       <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:64" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="E15" s="21"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17">
         <v>12</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="N16" s="24"/>
+      <c r="E16" s="23"/>
       <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="V17" s="24"/>
+      <c r="E17" s="23"/>
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
-    </row>
-    <row r="18" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="Y17" s="24"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="17">
         <v>3</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17">
         <v>12</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="V18" s="24"/>
+      <c r="E18" s="23"/>
       <c r="W18" s="24"/>
       <c r="X18" s="24"/>
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
-    </row>
-    <row r="19" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="AA18" s="24"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="17">
         <v>4</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="AA19" s="24"/>
+      <c r="E19" s="23"/>
       <c r="AB19" s="24"/>
       <c r="AC19" s="24"/>
       <c r="AD19" s="24"/>
-    </row>
-    <row r="20" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="AE19" s="24"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="17">
         <v>3</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17">
         <v>17</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="AE20" s="24"/>
+      <c r="E20" s="23"/>
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
-    </row>
-    <row r="21" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="AH20" s="24"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17">
         <v>18</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="AH21" s="24"/>
+      <c r="E21" s="23"/>
       <c r="AI21" s="24"/>
-    </row>
-    <row r="22" spans="1:38" s="27" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="AJ21" s="24"/>
+    </row>
+    <row r="22" spans="1:39" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="26"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="C22" s="26"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="17">
         <v>2</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="17">
         <v>3</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17">
         <v>1</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="E24" s="18"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="17">
         <v>4</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17">
         <v>2</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="E25" s="18"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="17">
         <v>6</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17">
         <v>3</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="N26" s="19"/>
+      <c r="E26" s="18"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
-    </row>
-    <row r="27" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="T26" s="19"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="17">
         <v>3</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="T27" s="19"/>
+      <c r="E27" s="18"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
-    </row>
-    <row r="28" spans="1:38" ht="18.350000000000001" x14ac:dyDescent="0.65">
+      <c r="W27" s="19"/>
+    <